--- a/conformancelib/testdata/85b_test_definitions_PIV-I_Carillon.xlsx
+++ b/conformancelib/testdata/85b_test_definitions_PIV-I_Carillon.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\conformancelib\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vmware-host\Shared Folders\gsa-devel\piv-conformance-swing\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49A9D8D8-6644-44C9-A376-CDB954068450}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16BA0C67-2DC4-44D2-83F4-E390B8B2C580}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2415" yWindow="1830" windowWidth="26190" windowHeight="13845" tabRatio="500" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP 800-85B Reference" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3776" uniqueCount="1309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3775" uniqueCount="1309">
   <si>
     <t>BER_TLV_Test_Assertions</t>
   </si>
@@ -4823,17 +4823,17 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.9"/>
   <cols>
-    <col min="1" max="1" width="13.75" style="4" customWidth="1"/>
-    <col min="2" max="2" width="57.375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="57.35546875" style="4" customWidth="1"/>
     <col min="3" max="5" width="10.5" style="4" customWidth="1"/>
-    <col min="6" max="256" width="8.875" style="4" customWidth="1"/>
-    <col min="257" max="1025" width="8.875" style="17" customWidth="1"/>
+    <col min="6" max="256" width="8.85546875" style="4" customWidth="1"/>
+    <col min="257" max="1025" width="8.85546875" style="17" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="1" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>53</v>
       </c>
@@ -4841,7 +4841,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="2" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A2" s="2">
         <v>8</v>
       </c>
@@ -4849,7 +4849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="3" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A3" s="3">
         <v>8.1</v>
       </c>
@@ -4857,7 +4857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="4" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>57</v>
       </c>
@@ -4865,7 +4865,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="5" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>60</v>
       </c>
@@ -4873,7 +4873,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="6" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>63</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="7" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>66</v>
       </c>
@@ -4889,7 +4889,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="8" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>69</v>
       </c>
@@ -4897,7 +4897,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="9" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>72</v>
       </c>
@@ -4905,7 +4905,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="10" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>75</v>
       </c>
@@ -4913,7 +4913,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="11" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>78</v>
       </c>
@@ -4921,7 +4921,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="12" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>81</v>
       </c>
@@ -4929,7 +4929,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="13" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>84</v>
       </c>
@@ -4937,7 +4937,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="14" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>87</v>
       </c>
@@ -4945,7 +4945,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="15" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A15" s="3">
         <v>8.1999999999999993</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="16" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>90</v>
       </c>
@@ -4961,7 +4961,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="17" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>92</v>
       </c>
@@ -4969,7 +4969,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="18" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>93</v>
       </c>
@@ -4977,7 +4977,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="19" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A19" s="3" t="s">
         <v>94</v>
       </c>
@@ -4985,7 +4985,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="20" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>95</v>
       </c>
@@ -4993,7 +4993,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="21" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>98</v>
       </c>
@@ -5001,7 +5001,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="22" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>101</v>
       </c>
@@ -5009,7 +5009,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="23" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A23" s="3" t="s">
         <v>104</v>
       </c>
@@ -5017,7 +5017,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="24" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A24" s="3" t="s">
         <v>107</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="25" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A25" s="3" t="s">
         <v>110</v>
       </c>
@@ -5033,7 +5033,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="26" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A26" s="3" t="s">
         <v>113</v>
       </c>
@@ -5041,7 +5041,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="27" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A27" s="3" t="s">
         <v>116</v>
       </c>
@@ -5049,7 +5049,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="28" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A28" s="3" t="s">
         <v>119</v>
       </c>
@@ -5057,7 +5057,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="29" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A29" s="3" t="s">
         <v>122</v>
       </c>
@@ -5065,7 +5065,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="30" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A30" s="3" t="s">
         <v>124</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="31" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A31" s="3" t="s">
         <v>128</v>
       </c>
@@ -5081,7 +5081,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="32" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A32" s="3">
         <v>8.3000000000000007</v>
       </c>
@@ -5089,7 +5089,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="33" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A33" s="3" t="s">
         <v>130</v>
       </c>
@@ -5097,7 +5097,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="34" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A34" s="3" t="s">
         <v>132</v>
       </c>
@@ -5105,7 +5105,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="35" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A35" s="3" t="s">
         <v>133</v>
       </c>
@@ -5113,7 +5113,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="36" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A36" s="3" t="s">
         <v>134</v>
       </c>
@@ -5121,7 +5121,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="37" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A37" s="3" t="s">
         <v>135</v>
       </c>
@@ -5129,7 +5129,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="38" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A38" s="3" t="s">
         <v>138</v>
       </c>
@@ -5137,7 +5137,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="39" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A39" s="3" t="s">
         <v>141</v>
       </c>
@@ -5145,7 +5145,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="40" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A40" s="3" t="s">
         <v>144</v>
       </c>
@@ -5153,7 +5153,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="41" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A41" s="3" t="s">
         <v>147</v>
       </c>
@@ -5161,7 +5161,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="42" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A42" s="3" t="s">
         <v>150</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="43" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A43" s="3">
         <v>8.4</v>
       </c>
@@ -5177,7 +5177,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="44" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A44" s="3" t="s">
         <v>151</v>
       </c>
@@ -5185,7 +5185,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="45" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A45" s="3" t="s">
         <v>153</v>
       </c>
@@ -5193,7 +5193,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="46" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A46" s="3" t="s">
         <v>154</v>
       </c>
@@ -5201,7 +5201,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="47" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A47" s="3" t="s">
         <v>155</v>
       </c>
@@ -5209,7 +5209,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="48" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A48" s="3" t="s">
         <v>156</v>
       </c>
@@ -5220,7 +5220,7 @@
       <c r="D48" s="16"/>
       <c r="E48" s="16"/>
     </row>
-    <row r="49" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="49" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A49" s="3" t="s">
         <v>157</v>
       </c>
@@ -5231,7 +5231,7 @@
       <c r="D49" s="16"/>
       <c r="E49" s="16"/>
     </row>
-    <row r="50" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="50" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A50" s="3" t="s">
         <v>158</v>
       </c>
@@ -5242,7 +5242,7 @@
       <c r="D50" s="16"/>
       <c r="E50" s="16"/>
     </row>
-    <row r="51" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="51" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A51" s="3" t="s">
         <v>159</v>
       </c>
@@ -5253,7 +5253,7 @@
       <c r="D51" s="16"/>
       <c r="E51" s="16"/>
     </row>
-    <row r="52" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="52" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A52" s="3" t="s">
         <v>160</v>
       </c>
@@ -5264,7 +5264,7 @@
       <c r="D52" s="16"/>
       <c r="E52" s="16"/>
     </row>
-    <row r="53" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="53" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A53" s="3">
         <v>8.5</v>
       </c>
@@ -5275,7 +5275,7 @@
       <c r="D53" s="16"/>
       <c r="E53" s="16"/>
     </row>
-    <row r="54" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="54" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A54" s="3" t="s">
         <v>161</v>
       </c>
@@ -5286,7 +5286,7 @@
       <c r="D54" s="16"/>
       <c r="E54" s="16"/>
     </row>
-    <row r="55" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="55" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A55" s="3" t="s">
         <v>163</v>
       </c>
@@ -5297,7 +5297,7 @@
       <c r="D55" s="16"/>
       <c r="E55" s="16"/>
     </row>
-    <row r="56" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="56" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A56" s="3" t="s">
         <v>164</v>
       </c>
@@ -5308,7 +5308,7 @@
       <c r="D56" s="16"/>
       <c r="E56" s="16"/>
     </row>
-    <row r="57" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="57" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A57" s="3" t="s">
         <v>165</v>
       </c>
@@ -5319,7 +5319,7 @@
       <c r="D57" s="16"/>
       <c r="E57" s="16"/>
     </row>
-    <row r="58" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="58" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A58" s="3" t="s">
         <v>166</v>
       </c>
@@ -5330,7 +5330,7 @@
       <c r="D58" s="16"/>
       <c r="E58" s="16"/>
     </row>
-    <row r="59" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="59" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A59" s="3" t="s">
         <v>169</v>
       </c>
@@ -5341,7 +5341,7 @@
       <c r="D59" s="16"/>
       <c r="E59" s="16"/>
     </row>
-    <row r="60" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="60" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A60" s="3" t="s">
         <v>172</v>
       </c>
@@ -5352,7 +5352,7 @@
       <c r="D60" s="16"/>
       <c r="E60" s="16"/>
     </row>
-    <row r="61" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="61" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A61" s="3" t="s">
         <v>175</v>
       </c>
@@ -5363,7 +5363,7 @@
       <c r="D61" s="16"/>
       <c r="E61" s="16"/>
     </row>
-    <row r="62" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="62" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A62" s="3" t="s">
         <v>178</v>
       </c>
@@ -5374,7 +5374,7 @@
       <c r="D62" s="16"/>
       <c r="E62" s="16"/>
     </row>
-    <row r="63" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="63" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A63" s="3" t="s">
         <v>181</v>
       </c>
@@ -5385,7 +5385,7 @@
       <c r="D63" s="16"/>
       <c r="E63" s="16"/>
     </row>
-    <row r="64" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="64" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A64" s="3">
         <v>8.6</v>
       </c>
@@ -5396,7 +5396,7 @@
       <c r="D64" s="16"/>
       <c r="E64" s="16"/>
     </row>
-    <row r="65" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="65" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A65" s="3" t="s">
         <v>182</v>
       </c>
@@ -5407,7 +5407,7 @@
       <c r="D65" s="16"/>
       <c r="E65" s="16"/>
     </row>
-    <row r="66" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="66" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A66" s="3" t="s">
         <v>184</v>
       </c>
@@ -5418,7 +5418,7 @@
       <c r="D66" s="16"/>
       <c r="E66" s="16"/>
     </row>
-    <row r="67" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="67" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A67" s="3" t="s">
         <v>185</v>
       </c>
@@ -5429,7 +5429,7 @@
       <c r="D67" s="16"/>
       <c r="E67" s="16"/>
     </row>
-    <row r="68" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="68" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A68" s="3" t="s">
         <v>186</v>
       </c>
@@ -5440,7 +5440,7 @@
       <c r="D68" s="16"/>
       <c r="E68" s="16"/>
     </row>
-    <row r="69" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="69" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A69" s="3" t="s">
         <v>187</v>
       </c>
@@ -5451,7 +5451,7 @@
       <c r="D69" s="16"/>
       <c r="E69" s="16"/>
     </row>
-    <row r="70" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="70" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A70" s="3" t="s">
         <v>190</v>
       </c>
@@ -5486,7 +5486,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="31.5">
+    <row r="74" spans="1:5" ht="31.75">
       <c r="A74" s="3" t="s">
         <v>197</v>
       </c>
@@ -5574,7 +5574,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="31.5">
+    <row r="85" spans="1:2" ht="31.75">
       <c r="A85" s="3" t="s">
         <v>208</v>
       </c>
@@ -5662,7 +5662,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="31.5">
+    <row r="96" spans="1:2" ht="31.75">
       <c r="A96" s="3" t="s">
         <v>219</v>
       </c>
@@ -5806,7 +5806,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="31.5">
+    <row r="114" spans="1:2" ht="31.75">
       <c r="A114" s="3" t="s">
         <v>244</v>
       </c>
@@ -5822,7 +5822,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="28.5">
+    <row r="116" spans="1:2" ht="28.3">
       <c r="A116" s="3" t="s">
         <v>247</v>
       </c>
@@ -5862,7 +5862,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="47.25">
+    <row r="121" spans="1:2" ht="47.6">
       <c r="A121" s="3" t="s">
         <v>256</v>
       </c>
@@ -5878,7 +5878,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="63">
+    <row r="123" spans="1:2" ht="63.45">
       <c r="A123" s="3" t="s">
         <v>261</v>
       </c>
@@ -6030,7 +6030,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="31.5">
+    <row r="142" spans="1:2" ht="31.75">
       <c r="A142" s="3" t="s">
         <v>284</v>
       </c>
@@ -6046,7 +6046,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="31.5">
+    <row r="144" spans="1:2" ht="31.75">
       <c r="A144" s="3" t="s">
         <v>288</v>
       </c>
@@ -6054,7 +6054,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="47.25">
+    <row r="145" spans="1:2" ht="31.75">
       <c r="A145" s="3" t="s">
         <v>290</v>
       </c>
@@ -6062,7 +6062,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="47.25">
+    <row r="146" spans="1:2" ht="47.6">
       <c r="A146" s="3" t="s">
         <v>292</v>
       </c>
@@ -6086,7 +6086,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="47.25">
+    <row r="149" spans="1:2" ht="47.6">
       <c r="A149" s="3" t="s">
         <v>298</v>
       </c>
@@ -6102,7 +6102,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="63">
+    <row r="151" spans="1:2" ht="47.6">
       <c r="A151" s="3" t="s">
         <v>302</v>
       </c>
@@ -6110,7 +6110,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="31.5">
+    <row r="152" spans="1:2" ht="31.75">
       <c r="A152" s="3" t="s">
         <v>304</v>
       </c>
@@ -6118,7 +6118,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="31.5">
+    <row r="153" spans="1:2" ht="31.75">
       <c r="A153" s="3" t="s">
         <v>306</v>
       </c>
@@ -6182,7 +6182,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="31.5">
+    <row r="161" spans="1:2" ht="31.75">
       <c r="A161" s="3" t="s">
         <v>314</v>
       </c>
@@ -6198,7 +6198,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="31.5">
+    <row r="163" spans="1:2" ht="31.75">
       <c r="A163" s="3" t="s">
         <v>316</v>
       </c>
@@ -6206,7 +6206,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="31.5">
+    <row r="164" spans="1:2" ht="31.75">
       <c r="A164" s="3" t="s">
         <v>317</v>
       </c>
@@ -6214,7 +6214,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="47.25">
+    <row r="165" spans="1:2" ht="47.6">
       <c r="A165" s="3" t="s">
         <v>319</v>
       </c>
@@ -6238,7 +6238,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="31.5">
+    <row r="168" spans="1:2" ht="31.75">
       <c r="A168" s="3" t="s">
         <v>323</v>
       </c>
@@ -6254,7 +6254,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="63">
+    <row r="170" spans="1:2" ht="47.6">
       <c r="A170" s="3" t="s">
         <v>327</v>
       </c>
@@ -6262,7 +6262,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="31.5">
+    <row r="171" spans="1:2" ht="31.75">
       <c r="A171" s="3" t="s">
         <v>328</v>
       </c>
@@ -6270,7 +6270,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="31.5">
+    <row r="172" spans="1:2" ht="31.75">
       <c r="A172" s="3" t="s">
         <v>329</v>
       </c>
@@ -6366,7 +6366,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="47.25">
+    <row r="184" spans="1:2" ht="47.6">
       <c r="A184" s="3" t="s">
         <v>319</v>
       </c>
@@ -6390,7 +6390,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="31.5">
+    <row r="187" spans="1:2" ht="31.75">
       <c r="A187" s="3" t="s">
         <v>346</v>
       </c>
@@ -6406,7 +6406,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="63">
+    <row r="189" spans="1:2" ht="47.6">
       <c r="A189" s="3" t="s">
         <v>349</v>
       </c>
@@ -6414,7 +6414,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="31.5">
+    <row r="190" spans="1:2" ht="31.75">
       <c r="A190" s="3" t="s">
         <v>350</v>
       </c>
@@ -6422,7 +6422,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="31.5">
+    <row r="191" spans="1:2" ht="31.75">
       <c r="A191" s="3" t="s">
         <v>351</v>
       </c>
@@ -6470,7 +6470,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="47.25">
+    <row r="197" spans="1:2" ht="47.6">
       <c r="A197" s="3" t="s">
         <v>361</v>
       </c>
@@ -6478,7 +6478,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="47.25">
+    <row r="198" spans="1:2" ht="47.6">
       <c r="A198" s="3" t="s">
         <v>363</v>
       </c>
@@ -6502,7 +6502,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="31.5">
+    <row r="201" spans="1:2" ht="31.75">
       <c r="A201" s="3" t="s">
         <v>368</v>
       </c>
@@ -6510,7 +6510,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="31.5">
+    <row r="202" spans="1:2" ht="31.75">
       <c r="A202" s="3" t="s">
         <v>370</v>
       </c>
@@ -6614,7 +6614,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="31.5">
+    <row r="215" spans="1:2" ht="31.75">
       <c r="A215" s="3" t="s">
         <v>395</v>
       </c>
@@ -6758,7 +6758,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="47.25">
+    <row r="233" spans="1:2" ht="47.6">
       <c r="A233" s="3" t="s">
         <v>417</v>
       </c>
@@ -6774,7 +6774,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="235" spans="1:2" ht="31.5">
+    <row r="235" spans="1:2" ht="31.75">
       <c r="A235" s="3" t="s">
         <v>423</v>
       </c>
@@ -6782,7 +6782,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="31.5">
+    <row r="236" spans="1:2" ht="31.75">
       <c r="A236" s="3" t="s">
         <v>426</v>
       </c>
@@ -6806,7 +6806,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="239" spans="1:2" ht="47.25">
+    <row r="239" spans="1:2" ht="47.6">
       <c r="A239" s="3" t="s">
         <v>435</v>
       </c>
@@ -6814,7 +6814,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="47.25">
+    <row r="240" spans="1:2" ht="47.6">
       <c r="A240" s="3" t="s">
         <v>438</v>
       </c>
@@ -6822,7 +6822,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="241" spans="1:2" ht="78.75">
+    <row r="241" spans="1:2" ht="79.3">
       <c r="A241" s="3" t="s">
         <v>441</v>
       </c>
@@ -6830,7 +6830,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="242" spans="1:2" ht="47.25">
+    <row r="242" spans="1:2" ht="47.6">
       <c r="A242" s="3" t="s">
         <v>444</v>
       </c>
@@ -6838,7 +6838,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="78.75">
+    <row r="243" spans="1:2" ht="79.3">
       <c r="A243" s="3" t="s">
         <v>447</v>
       </c>
@@ -6846,7 +6846,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="244" spans="1:2" ht="31.5">
+    <row r="244" spans="1:2" ht="31.75">
       <c r="A244" s="3" t="s">
         <v>450</v>
       </c>
@@ -6870,7 +6870,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="247" spans="1:2" ht="47.25">
+    <row r="247" spans="1:2" ht="47.6">
       <c r="A247" s="3" t="s">
         <v>455</v>
       </c>
@@ -6886,7 +6886,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="31.5">
+    <row r="249" spans="1:2" ht="31.75">
       <c r="A249" s="3" t="s">
         <v>459</v>
       </c>
@@ -6894,7 +6894,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="250" spans="1:2" ht="31.5">
+    <row r="250" spans="1:2" ht="31.75">
       <c r="A250" s="3" t="s">
         <v>461</v>
       </c>
@@ -6926,7 +6926,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="254" spans="1:2" ht="31.5">
+    <row r="254" spans="1:2" ht="31.75">
       <c r="A254" s="3" t="s">
         <v>467</v>
       </c>
@@ -6934,7 +6934,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="31.5">
+    <row r="255" spans="1:2" ht="31.75">
       <c r="A255" s="3" t="s">
         <v>469</v>
       </c>
@@ -6942,7 +6942,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="256" spans="1:2" ht="31.5">
+    <row r="256" spans="1:2" ht="31.75">
       <c r="A256" s="3" t="s">
         <v>472</v>
       </c>
@@ -6950,7 +6950,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="257" spans="1:2" ht="47.25">
+    <row r="257" spans="1:2" ht="47.6">
       <c r="A257" s="3" t="s">
         <v>474</v>
       </c>
@@ -6958,7 +6958,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="258" spans="1:2" ht="47.25">
+    <row r="258" spans="1:2" ht="47.6">
       <c r="A258" s="3" t="s">
         <v>477</v>
       </c>
@@ -6966,7 +6966,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="259" spans="1:2" ht="63">
+    <row r="259" spans="1:2" ht="63.45">
       <c r="A259" s="3" t="s">
         <v>479</v>
       </c>
@@ -6974,7 +6974,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="260" spans="1:2" ht="78.75">
+    <row r="260" spans="1:2" ht="79.3">
       <c r="A260" s="3" t="s">
         <v>481</v>
       </c>
@@ -6982,7 +6982,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="78.75">
+    <row r="261" spans="1:2" ht="79.3">
       <c r="A261" s="3" t="s">
         <v>483</v>
       </c>
@@ -6990,7 +6990,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="262" spans="1:2" ht="47.25">
+    <row r="262" spans="1:2" ht="47.6">
       <c r="A262" s="3" t="s">
         <v>486</v>
       </c>
@@ -7014,7 +7014,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="47.25">
+    <row r="265" spans="1:2" ht="47.6">
       <c r="A265" s="3" t="s">
         <v>490</v>
       </c>
@@ -7030,7 +7030,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="31.5">
+    <row r="267" spans="1:2" ht="31.75">
       <c r="A267" s="3" t="s">
         <v>492</v>
       </c>
@@ -7038,7 +7038,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="268" spans="1:2" ht="31.5">
+    <row r="268" spans="1:2" ht="31.75">
       <c r="A268" s="3" t="s">
         <v>493</v>
       </c>
@@ -7070,7 +7070,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="272" spans="1:2" ht="31.5">
+    <row r="272" spans="1:2" ht="31.75">
       <c r="A272" s="3" t="s">
         <v>497</v>
       </c>
@@ -7078,7 +7078,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="273" spans="1:2" ht="31.5">
+    <row r="273" spans="1:2" ht="31.75">
       <c r="A273" s="3" t="s">
         <v>498</v>
       </c>
@@ -7086,7 +7086,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="274" spans="1:2" ht="31.5">
+    <row r="274" spans="1:2" ht="31.75">
       <c r="A274" s="3" t="s">
         <v>499</v>
       </c>
@@ -7094,7 +7094,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="275" spans="1:2" ht="47.25">
+    <row r="275" spans="1:2" ht="47.6">
       <c r="A275" s="3" t="s">
         <v>500</v>
       </c>
@@ -7102,7 +7102,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="276" spans="1:2" ht="47.25">
+    <row r="276" spans="1:2" ht="47.6">
       <c r="A276" s="3" t="s">
         <v>501</v>
       </c>
@@ -7110,7 +7110,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="277" spans="1:2" ht="63">
+    <row r="277" spans="1:2" ht="63.45">
       <c r="A277" s="3" t="s">
         <v>502</v>
       </c>
@@ -7118,7 +7118,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="278" spans="1:2" ht="78.75">
+    <row r="278" spans="1:2" ht="79.3">
       <c r="A278" s="3" t="s">
         <v>503</v>
       </c>
@@ -7126,7 +7126,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="279" spans="1:2" ht="78.75">
+    <row r="279" spans="1:2" ht="79.3">
       <c r="A279" s="3" t="s">
         <v>504</v>
       </c>
@@ -7134,7 +7134,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="280" spans="1:2" ht="47.25">
+    <row r="280" spans="1:2" ht="47.6">
       <c r="A280" s="3" t="s">
         <v>505</v>
       </c>
@@ -7158,7 +7158,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="283" spans="1:2" ht="31.5">
+    <row r="283" spans="1:2" ht="31.75">
       <c r="A283" s="3" t="s">
         <v>507</v>
       </c>
@@ -7174,7 +7174,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="285" spans="1:2" ht="31.5">
+    <row r="285" spans="1:2" ht="31.75">
       <c r="A285" s="3" t="s">
         <v>511</v>
       </c>
@@ -7198,7 +7198,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="288" spans="1:2" ht="47.25">
+    <row r="288" spans="1:2" ht="47.6">
       <c r="A288" s="3" t="s">
         <v>519</v>
       </c>
@@ -7222,7 +7222,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="291" spans="1:2" ht="78.75">
+    <row r="291" spans="1:2" ht="79.3">
       <c r="A291" s="3" t="s">
         <v>527</v>
       </c>
@@ -7246,7 +7246,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="294" spans="1:2" ht="47.25">
+    <row r="294" spans="1:2" ht="47.6">
       <c r="A294" s="3" t="s">
         <v>531</v>
       </c>
@@ -7262,7 +7262,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="296" spans="1:2" ht="31.5">
+    <row r="296" spans="1:2" ht="31.75">
       <c r="A296" s="3" t="s">
         <v>533</v>
       </c>
@@ -7270,7 +7270,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="297" spans="1:2" ht="31.5">
+    <row r="297" spans="1:2" ht="31.75">
       <c r="A297" s="3" t="s">
         <v>534</v>
       </c>
@@ -7302,7 +7302,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="301" spans="1:2" ht="31.5">
+    <row r="301" spans="1:2" ht="31.75">
       <c r="A301" s="3" t="s">
         <v>538</v>
       </c>
@@ -7310,7 +7310,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="302" spans="1:2" ht="31.5">
+    <row r="302" spans="1:2" ht="31.75">
       <c r="A302" s="3" t="s">
         <v>539</v>
       </c>
@@ -7318,7 +7318,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="303" spans="1:2" ht="31.5">
+    <row r="303" spans="1:2" ht="31.75">
       <c r="A303" s="3" t="s">
         <v>540</v>
       </c>
@@ -7326,7 +7326,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="304" spans="1:2" ht="47.25">
+    <row r="304" spans="1:2" ht="47.6">
       <c r="A304" s="3" t="s">
         <v>541</v>
       </c>
@@ -7334,7 +7334,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="305" spans="1:2" ht="47.25">
+    <row r="305" spans="1:2" ht="47.6">
       <c r="A305" s="3" t="s">
         <v>542</v>
       </c>
@@ -7342,7 +7342,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="306" spans="1:2" ht="63">
+    <row r="306" spans="1:2" ht="63.45">
       <c r="A306" s="3" t="s">
         <v>543</v>
       </c>
@@ -7350,7 +7350,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="307" spans="1:2" ht="78.75">
+    <row r="307" spans="1:2" ht="79.3">
       <c r="A307" s="3" t="s">
         <v>544</v>
       </c>
@@ -7358,7 +7358,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="308" spans="1:2" ht="78.75">
+    <row r="308" spans="1:2" ht="79.3">
       <c r="A308" s="3" t="s">
         <v>545</v>
       </c>
@@ -7366,7 +7366,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="309" spans="1:2" ht="47.25">
+    <row r="309" spans="1:2" ht="47.6">
       <c r="A309" s="3" t="s">
         <v>546</v>
       </c>
@@ -7398,7 +7398,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="313" spans="1:2" ht="94.5">
+    <row r="313" spans="1:2" ht="95.15">
       <c r="A313" s="3" t="s">
         <v>548</v>
       </c>
@@ -7406,7 +7406,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="314" spans="1:2" ht="31.5">
+    <row r="314" spans="1:2" ht="31.75">
       <c r="A314" s="3" t="s">
         <v>550</v>
       </c>
@@ -7454,7 +7454,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="320" spans="1:2" ht="31.5">
+    <row r="320" spans="1:2" ht="31.75">
       <c r="A320" s="3" t="s">
         <v>564</v>
       </c>
@@ -7486,7 +7486,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="324" spans="1:2" ht="31.5">
+    <row r="324" spans="1:2" ht="31.75">
       <c r="A324" s="3" t="s">
         <v>575</v>
       </c>
@@ -7502,7 +7502,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="326" spans="1:2" ht="31.5">
+    <row r="326" spans="1:2" ht="31.75">
       <c r="A326" s="3" t="s">
         <v>581</v>
       </c>
@@ -7518,7 +7518,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="328" spans="1:2" ht="63">
+    <row r="328" spans="1:2" ht="63.45">
       <c r="A328" s="3" t="s">
         <v>587</v>
       </c>
@@ -7526,7 +7526,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="329" spans="1:2" ht="47.25">
+    <row r="329" spans="1:2" ht="47.6">
       <c r="A329" s="3" t="s">
         <v>589</v>
       </c>
@@ -7542,7 +7542,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="331" spans="1:2" ht="31.5">
+    <row r="331" spans="1:2" ht="31.75">
       <c r="A331" s="3" t="s">
         <v>593</v>
       </c>
@@ -7550,7 +7550,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="332" spans="1:2" ht="31.5">
+    <row r="332" spans="1:2" ht="31.75">
       <c r="A332" s="3" t="s">
         <v>596</v>
       </c>
@@ -7606,7 +7606,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="339" spans="1:2" ht="31.5">
+    <row r="339" spans="1:2" ht="31.75">
       <c r="A339" s="3" t="s">
         <v>610</v>
       </c>
@@ -7646,7 +7646,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="344" spans="1:2" ht="94.5">
+    <row r="344" spans="1:2" ht="95.15">
       <c r="A344" s="3" t="s">
         <v>618</v>
       </c>
@@ -7654,7 +7654,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="345" spans="1:2" ht="31.5">
+    <row r="345" spans="1:2" ht="31.75">
       <c r="A345" s="3" t="s">
         <v>619</v>
       </c>
@@ -7702,7 +7702,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="351" spans="1:2" ht="31.5">
+    <row r="351" spans="1:2" ht="31.75">
       <c r="A351" s="3" t="s">
         <v>631</v>
       </c>
@@ -7710,7 +7710,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="352" spans="1:2" ht="31.5">
+    <row r="352" spans="1:2" ht="31.75">
       <c r="A352" s="3" t="s">
         <v>633</v>
       </c>
@@ -7718,7 +7718,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="353" spans="1:2" ht="31.5">
+    <row r="353" spans="1:2" ht="31.75">
       <c r="A353" s="3" t="s">
         <v>635</v>
       </c>
@@ -7726,7 +7726,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="354" spans="1:2" ht="31.5">
+    <row r="354" spans="1:2" ht="47.6">
       <c r="A354" s="3" t="s">
         <v>637</v>
       </c>
@@ -7782,7 +7782,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="361" spans="1:2" ht="31.5">
+    <row r="361" spans="1:2" ht="31.75">
       <c r="A361" s="3" t="s">
         <v>646</v>
       </c>
@@ -7822,7 +7822,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="366" spans="1:2" ht="78.75">
+    <row r="366" spans="1:2" ht="79.3">
       <c r="A366" s="3" t="s">
         <v>650</v>
       </c>
@@ -7830,7 +7830,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="367" spans="1:2" ht="31.5">
+    <row r="367" spans="1:2" ht="31.75">
       <c r="A367" s="3" t="s">
         <v>652</v>
       </c>
@@ -7862,7 +7862,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="371" spans="1:2" ht="31.5">
+    <row r="371" spans="1:2" ht="31.75">
       <c r="A371" s="3" t="s">
         <v>658</v>
       </c>
@@ -7870,7 +7870,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="372" spans="1:2" ht="31.5">
+    <row r="372" spans="1:2" ht="31.75">
       <c r="A372" s="3" t="s">
         <v>660</v>
       </c>
@@ -7886,7 +7886,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="374" spans="1:2" ht="31.5">
+    <row r="374" spans="1:2" ht="31.75">
       <c r="A374" s="3" t="s">
         <v>665</v>
       </c>
@@ -7894,7 +7894,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="375" spans="1:2" ht="31.5">
+    <row r="375" spans="1:2" ht="31.75">
       <c r="A375" s="3" t="s">
         <v>667</v>
       </c>
@@ -7902,7 +7902,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="376" spans="1:2" ht="31.5">
+    <row r="376" spans="1:2" ht="47.6">
       <c r="A376" s="3" t="s">
         <v>669</v>
       </c>
@@ -7958,7 +7958,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="383" spans="1:2" ht="31.5">
+    <row r="383" spans="1:2" ht="31.75">
       <c r="A383" s="3" t="s">
         <v>676</v>
       </c>
@@ -7998,7 +7998,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="388" spans="1:2" ht="78.75">
+    <row r="388" spans="1:2" ht="79.3">
       <c r="A388" s="3" t="s">
         <v>680</v>
       </c>
@@ -8006,7 +8006,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="389" spans="1:2" ht="31.5">
+    <row r="389" spans="1:2" ht="31.75">
       <c r="A389" s="3" t="s">
         <v>681</v>
       </c>
@@ -8062,7 +8062,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="396" spans="1:2" ht="31.5">
+    <row r="396" spans="1:2" ht="31.75">
       <c r="A396" s="3" t="s">
         <v>691</v>
       </c>
@@ -8086,7 +8086,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="399" spans="1:2" ht="31.5">
+    <row r="399" spans="1:2" ht="31.75">
       <c r="A399" s="3" t="s">
         <v>698</v>
       </c>
@@ -8126,7 +8126,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="404" spans="1:2" ht="31.5">
+    <row r="404" spans="1:2" ht="31.75">
       <c r="A404" s="3" t="s">
         <v>707</v>
       </c>
@@ -8150,7 +8150,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="407" spans="1:2" ht="31.5">
+    <row r="407" spans="1:2" ht="31.75">
       <c r="A407" s="3" t="s">
         <v>710</v>
       </c>
@@ -8166,7 +8166,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="409" spans="1:2" ht="63">
+    <row r="409" spans="1:2" ht="63.45">
       <c r="A409" s="3" t="s">
         <v>712</v>
       </c>
@@ -8174,7 +8174,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="410" spans="1:2" ht="47.25">
+    <row r="410" spans="1:2" ht="47.6">
       <c r="A410" s="3" t="s">
         <v>713</v>
       </c>
@@ -8190,7 +8190,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="412" spans="1:2" ht="31.5">
+    <row r="412" spans="1:2" ht="31.75">
       <c r="A412" s="3" t="s">
         <v>716</v>
       </c>
@@ -8246,7 +8246,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="419" spans="1:2" ht="31.5">
+    <row r="419" spans="1:2" ht="31.75">
       <c r="A419" s="3" t="s">
         <v>723</v>
       </c>
@@ -8342,7 +8342,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="431" spans="1:2" ht="78.75">
+    <row r="431" spans="1:2" ht="79.3">
       <c r="A431" s="3" t="s">
         <v>732</v>
       </c>
@@ -8350,7 +8350,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="432" spans="1:2" ht="31.5">
+    <row r="432" spans="1:2" ht="31.75">
       <c r="A432" s="3" t="s">
         <v>733</v>
       </c>
@@ -8406,7 +8406,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="439" spans="1:2" ht="31.5">
+    <row r="439" spans="1:2" ht="31.75">
       <c r="A439" s="3" t="s">
         <v>742</v>
       </c>
@@ -8414,7 +8414,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="440" spans="1:2" ht="47.25">
+    <row r="440" spans="1:2" ht="47.6">
       <c r="A440" s="3" t="s">
         <v>744</v>
       </c>
@@ -8478,7 +8478,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="448" spans="1:2" ht="31.5">
+    <row r="448" spans="1:2" ht="31.75">
       <c r="A448" s="3" t="s">
         <v>753</v>
       </c>
@@ -8517,22 +8517,24 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G472"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:XFD49"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.9"/>
   <cols>
-    <col min="1" max="1" width="14.25" style="4" customWidth="1"/>
+    <col min="1" max="1" width="14.2109375" style="4" customWidth="1"/>
     <col min="2" max="2" width="12" style="4" customWidth="1"/>
-    <col min="3" max="3" width="43.75" style="4" customWidth="1"/>
+    <col min="3" max="3" width="43.7109375" style="4" customWidth="1"/>
     <col min="4" max="4" width="13.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="24.125" style="34" customWidth="1"/>
-    <col min="6" max="6" width="84.625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="80.875" style="31" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" style="34" customWidth="1"/>
+    <col min="6" max="6" width="84.640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="80.85546875" style="31" customWidth="1"/>
     <col min="8" max="1026" width="8.5" style="17" customWidth="1"/>
     <col min="1027" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="30" customFormat="1" ht="18.75">
+    <row r="1" spans="1:7" s="30" customFormat="1" ht="18.45">
       <c r="A1" s="35" t="s">
         <v>52</v>
       </c>
@@ -17051,16 +17053,18 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AMK6"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.9"/>
   <cols>
     <col min="1" max="1" width="10.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="45.125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16.625" style="4" customWidth="1"/>
-    <col min="4" max="5" width="81.375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="45.140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.640625" style="4" customWidth="1"/>
+    <col min="4" max="5" width="81.35546875" style="4" customWidth="1"/>
     <col min="6" max="7" width="10.5" style="4" customWidth="1"/>
-    <col min="8" max="1025" width="8.875" style="4" customWidth="1"/>
+    <col min="8" max="1025" width="8.85546875" style="4" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
@@ -17138,15 +17142,13 @@
       <c r="D4" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>756</v>
-      </c>
+      <c r="E4" s="5"/>
       <c r="F4" s="3" t="s">
         <v>764</v>
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="126">
+    <row r="5" spans="1:7" ht="126.9">
       <c r="A5" s="3" t="s">
         <v>68</v>
       </c>
@@ -17198,19 +17200,19 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AMK55"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:G55"/>
+    <sheetView showGridLines="0" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.9"/>
   <cols>
     <col min="1" max="1" width="10.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="68.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="23.875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" style="4" customWidth="1"/>
     <col min="4" max="4" width="100" style="4" customWidth="1"/>
-    <col min="5" max="6" width="22.875" style="4" customWidth="1"/>
+    <col min="5" max="6" width="22.85546875" style="4" customWidth="1"/>
     <col min="7" max="7" width="20" style="4" customWidth="1"/>
-    <col min="8" max="1025" width="8.875" style="4" customWidth="1"/>
+    <col min="8" max="1025" width="8.85546875" style="4" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
@@ -17351,7 +17353,7 @@
       </c>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:7" ht="31.5">
+    <row r="8" spans="1:7">
       <c r="A8" s="6" t="s">
         <v>784</v>
       </c>
@@ -17904,7 +17906,7 @@
       </c>
       <c r="G36" s="6"/>
     </row>
-    <row r="37" spans="1:7" ht="63">
+    <row r="37" spans="1:7" ht="63.45">
       <c r="A37" s="6" t="s">
         <v>246</v>
       </c>
@@ -17925,7 +17927,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="31.5">
+    <row r="38" spans="1:7" ht="31.75">
       <c r="A38" s="6" t="s">
         <v>509</v>
       </c>
@@ -18001,7 +18003,7 @@
       </c>
       <c r="G41" s="6"/>
     </row>
-    <row r="42" spans="1:7" ht="47.25">
+    <row r="42" spans="1:7" ht="47.6">
       <c r="A42" s="6" t="s">
         <v>263</v>
       </c>
@@ -18285,19 +18287,19 @@
       <selection sqref="A1:D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.9"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="27" customWidth="1"/>
-    <col min="2" max="2" width="47.375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="19.875" style="4" customWidth="1"/>
-    <col min="4" max="5" width="80.875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="27" customWidth="1"/>
+    <col min="2" max="2" width="47.35546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" style="4" customWidth="1"/>
+    <col min="4" max="5" width="80.85546875" style="4" customWidth="1"/>
     <col min="6" max="7" width="10.5" style="4" customWidth="1"/>
-    <col min="8" max="256" width="8.875" style="4" customWidth="1"/>
-    <col min="257" max="1025" width="8.875" style="17" customWidth="1"/>
+    <col min="8" max="256" width="8.85546875" style="4" customWidth="1"/>
+    <col min="257" max="1025" width="8.85546875" style="17" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="22" customFormat="1" ht="30.95" customHeight="1">
+    <row r="1" spans="1:256" s="22" customFormat="1" ht="31" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>756</v>
       </c>
@@ -18569,7 +18571,7 @@
       <c r="IU1" s="21"/>
       <c r="IV1" s="21"/>
     </row>
-    <row r="2" spans="1:256" ht="17.100000000000001" customHeight="1">
+    <row r="2" spans="1:256" ht="17.149999999999999" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>834</v>
       </c>
@@ -18588,7 +18590,7 @@
       </c>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:256" ht="17.100000000000001" customHeight="1">
+    <row r="3" spans="1:256" ht="17.149999999999999" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>837</v>
       </c>
@@ -18607,7 +18609,7 @@
       </c>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:256" ht="17.100000000000001" customHeight="1">
+    <row r="4" spans="1:256" ht="17.149999999999999" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>839</v>
       </c>
@@ -18645,7 +18647,7 @@
       </c>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:256" ht="17.100000000000001" customHeight="1">
+    <row r="6" spans="1:256" ht="17.149999999999999" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>843</v>
       </c>
@@ -18664,7 +18666,7 @@
       </c>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:256" ht="17.100000000000001" customHeight="1">
+    <row r="7" spans="1:256" ht="17.149999999999999" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>846</v>
       </c>
@@ -18683,7 +18685,7 @@
       </c>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:256" ht="17.100000000000001" customHeight="1">
+    <row r="8" spans="1:256" ht="17.149999999999999" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>849</v>
       </c>
@@ -18721,7 +18723,7 @@
       </c>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:256" ht="17.100000000000001" customHeight="1">
+    <row r="10" spans="1:256" ht="17.149999999999999" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>855</v>
       </c>
@@ -18740,7 +18742,7 @@
       </c>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:256" ht="17.100000000000001" customHeight="1">
+    <row r="11" spans="1:256" ht="17.149999999999999" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>857</v>
       </c>
@@ -18759,7 +18761,7 @@
       </c>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:256" ht="17.100000000000001" customHeight="1">
+    <row r="12" spans="1:256" ht="17.149999999999999" customHeight="1">
       <c r="A12" s="6" t="s">
         <v>859</v>
       </c>
@@ -18797,7 +18799,7 @@
       </c>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:256" ht="17.100000000000001" customHeight="1">
+    <row r="14" spans="1:256" ht="17.149999999999999" customHeight="1">
       <c r="A14" s="6" t="s">
         <v>864</v>
       </c>
@@ -18816,7 +18818,7 @@
       </c>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:256" ht="17.100000000000001" customHeight="1">
+    <row r="15" spans="1:256" ht="17.149999999999999" customHeight="1">
       <c r="A15" s="6" t="s">
         <v>866</v>
       </c>
@@ -18873,7 +18875,7 @@
       </c>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="18" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A18" s="6" t="s">
         <v>868</v>
       </c>
@@ -18892,7 +18894,7 @@
       </c>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="19" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A19" s="6" t="s">
         <v>870</v>
       </c>
@@ -18911,7 +18913,7 @@
       </c>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="20" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A20" s="6" t="s">
         <v>872</v>
       </c>
@@ -18930,7 +18932,7 @@
       </c>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="21" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A21" s="6" t="s">
         <v>874</v>
       </c>
@@ -18949,7 +18951,7 @@
       </c>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="22" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A22" s="6" t="s">
         <v>877</v>
       </c>
@@ -18968,7 +18970,7 @@
       </c>
       <c r="G22" s="6"/>
     </row>
-    <row r="23" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="23" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A23" s="6" t="s">
         <v>879</v>
       </c>
@@ -18987,7 +18989,7 @@
       </c>
       <c r="G23" s="6"/>
     </row>
-    <row r="24" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="24" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A24" s="6" t="s">
         <v>881</v>
       </c>
@@ -19006,7 +19008,7 @@
       </c>
       <c r="G24" s="6"/>
     </row>
-    <row r="25" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="25" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A25" s="6" t="s">
         <v>883</v>
       </c>
@@ -19025,7 +19027,7 @@
       </c>
       <c r="G25" s="6"/>
     </row>
-    <row r="26" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="26" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A26" s="6" t="s">
         <v>886</v>
       </c>
@@ -19044,7 +19046,7 @@
       </c>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="27" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A27" s="6" t="s">
         <v>888</v>
       </c>
@@ -19063,7 +19065,7 @@
       </c>
       <c r="G27" s="6"/>
     </row>
-    <row r="28" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="28" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A28" s="6" t="s">
         <v>891</v>
       </c>
@@ -19082,7 +19084,7 @@
       </c>
       <c r="G28" s="6"/>
     </row>
-    <row r="29" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="29" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A29" s="6" t="s">
         <v>893</v>
       </c>
@@ -19101,7 +19103,7 @@
       </c>
       <c r="G29" s="6"/>
     </row>
-    <row r="30" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="30" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A30" s="6" t="s">
         <v>895</v>
       </c>
@@ -19120,7 +19122,7 @@
       </c>
       <c r="G30" s="6"/>
     </row>
-    <row r="31" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="31" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A31" s="6" t="s">
         <v>897</v>
       </c>
@@ -19139,7 +19141,7 @@
       </c>
       <c r="G31" s="6"/>
     </row>
-    <row r="32" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="32" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A32" s="6" t="s">
         <v>900</v>
       </c>
@@ -19158,7 +19160,7 @@
       </c>
       <c r="G32" s="6"/>
     </row>
-    <row r="33" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="33" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A33" s="6" t="s">
         <v>903</v>
       </c>
@@ -19177,7 +19179,7 @@
       </c>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="34" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A34" s="6" t="s">
         <v>906</v>
       </c>
@@ -19196,7 +19198,7 @@
       </c>
       <c r="G34" s="6"/>
     </row>
-    <row r="35" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="35" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A35" s="6" t="s">
         <v>909</v>
       </c>
@@ -19215,7 +19217,7 @@
       </c>
       <c r="G35" s="6"/>
     </row>
-    <row r="36" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="36" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A36" s="6" t="s">
         <v>912</v>
       </c>
@@ -19234,7 +19236,7 @@
       </c>
       <c r="G36" s="6"/>
     </row>
-    <row r="37" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="37" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A37" s="6" t="s">
         <v>915</v>
       </c>
@@ -19253,7 +19255,7 @@
       </c>
       <c r="G37" s="6"/>
     </row>
-    <row r="38" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="38" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A38" s="6" t="s">
         <v>918</v>
       </c>
@@ -19272,7 +19274,7 @@
       </c>
       <c r="G38" s="6"/>
     </row>
-    <row r="39" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="39" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A39" s="6" t="s">
         <v>921</v>
       </c>
@@ -19291,7 +19293,7 @@
       </c>
       <c r="G39" s="6"/>
     </row>
-    <row r="40" spans="1:7" ht="30.95" customHeight="1">
+    <row r="40" spans="1:7" ht="31" customHeight="1">
       <c r="A40" s="6" t="s">
         <v>924</v>
       </c>
@@ -19327,7 +19329,7 @@
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
     </row>
-    <row r="42" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="42" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A42" s="6" t="s">
         <v>931</v>
       </c>
@@ -19344,7 +19346,7 @@
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
     </row>
-    <row r="43" spans="1:7" ht="30.95" customHeight="1">
+    <row r="43" spans="1:7" ht="31" customHeight="1">
       <c r="A43" s="6" t="s">
         <v>934</v>
       </c>
@@ -19382,7 +19384,7 @@
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
     </row>
-    <row r="45" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="45" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A45" s="6" t="s">
         <v>942</v>
       </c>
@@ -19435,7 +19437,7 @@
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
     </row>
-    <row r="48" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="48" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A48" s="6" t="s">
         <v>952</v>
       </c>
@@ -19452,7 +19454,7 @@
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
     </row>
-    <row r="49" spans="1:256" s="29" customFormat="1" ht="31.5">
+    <row r="49" spans="1:256" s="29" customFormat="1" ht="31.75">
       <c r="A49" s="53" t="s">
         <v>955</v>
       </c>
@@ -19748,21 +19750,21 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.9"/>
   <cols>
     <col min="1" max="1" width="10.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="33.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="44.375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="41.375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="44.35546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="41.35546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.640625" style="4" customWidth="1"/>
     <col min="7" max="7" width="29" style="4" customWidth="1"/>
-    <col min="8" max="256" width="8.875" style="4" customWidth="1"/>
-    <col min="257" max="1025" width="8.875" style="17" customWidth="1"/>
+    <col min="8" max="256" width="8.85546875" style="4" customWidth="1"/>
+    <col min="257" max="1025" width="8.85546875" style="17" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="1" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A1" s="53" t="s">
         <v>756</v>
       </c>
@@ -20228,7 +20230,7 @@
       <c r="F24" s="66"/>
       <c r="G24" s="66"/>
     </row>
-    <row r="25" spans="1:7" ht="45">
+    <row r="25" spans="1:7" ht="43.75">
       <c r="A25" s="66" t="s">
         <v>1211</v>
       </c>
@@ -20245,7 +20247,7 @@
       <c r="F25" s="66"/>
       <c r="G25" s="66"/>
     </row>
-    <row r="26" spans="1:7" ht="30">
+    <row r="26" spans="1:7" ht="29.15">
       <c r="A26" s="66" t="s">
         <v>1260</v>
       </c>
@@ -20262,7 +20264,7 @@
       <c r="F26" s="66"/>
       <c r="G26" s="66"/>
     </row>
-    <row r="27" spans="1:7" ht="30">
+    <row r="27" spans="1:7" ht="29.15">
       <c r="A27" s="66" t="s">
         <v>1263</v>
       </c>
@@ -20279,7 +20281,7 @@
       <c r="F27" s="66"/>
       <c r="G27" s="66"/>
     </row>
-    <row r="28" spans="1:7" ht="30">
+    <row r="28" spans="1:7" ht="29.15">
       <c r="A28" s="66" t="s">
         <v>1266</v>
       </c>
@@ -20296,7 +20298,7 @@
       <c r="F28" s="66"/>
       <c r="G28" s="66"/>
     </row>
-    <row r="29" spans="1:7" ht="30">
+    <row r="29" spans="1:7" ht="29.15">
       <c r="A29" s="66" t="s">
         <v>1269</v>
       </c>
@@ -20313,7 +20315,7 @@
       <c r="F29" s="66"/>
       <c r="G29" s="66"/>
     </row>
-    <row r="30" spans="1:7" ht="30">
+    <row r="30" spans="1:7" ht="29.15">
       <c r="A30" s="66" t="s">
         <v>1272</v>
       </c>
@@ -20348,15 +20350,15 @@
       <selection activeCell="E2" sqref="E2:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.9"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="54.625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="19.875" style="4" customWidth="1"/>
-    <col min="4" max="5" width="75.625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="54.640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" style="4" customWidth="1"/>
+    <col min="4" max="5" width="75.640625" style="4" customWidth="1"/>
     <col min="6" max="7" width="10.5" style="4" customWidth="1"/>
-    <col min="8" max="256" width="8.875" style="4" customWidth="1"/>
-    <col min="257" max="1025" width="8.875" style="17" customWidth="1"/>
+    <col min="8" max="256" width="8.85546875" style="4" customWidth="1"/>
+    <col min="257" max="1025" width="8.85546875" style="17" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
@@ -20421,7 +20423,7 @@
       </c>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:7" ht="63">
+    <row r="4" spans="1:7" ht="63.45">
       <c r="A4" s="5" t="s">
         <v>1004</v>
       </c>
@@ -20454,23 +20456,23 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:IV27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.9"/>
   <cols>
     <col min="1" max="1" width="10.5" style="23" customWidth="1"/>
-    <col min="2" max="2" width="53.375" style="18" customWidth="1"/>
+    <col min="2" max="2" width="53.35546875" style="18" customWidth="1"/>
     <col min="3" max="3" width="21.5" style="18" customWidth="1"/>
     <col min="4" max="4" width="44.5" style="18" customWidth="1"/>
-    <col min="5" max="5" width="31.875" style="18" customWidth="1"/>
-    <col min="6" max="6" width="11.875" style="18" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" style="18" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="18" customWidth="1"/>
     <col min="7" max="7" width="44.5" style="18" customWidth="1"/>
-    <col min="8" max="256" width="8.875" style="18" customWidth="1"/>
-    <col min="257" max="1025" width="8.875" style="19" customWidth="1"/>
+    <col min="8" max="256" width="8.85546875" style="18" customWidth="1"/>
+    <col min="257" max="1025" width="8.85546875" style="19" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="25" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="1" spans="1:256" s="25" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>756</v>
       </c>
@@ -20761,7 +20763,7 @@
       </c>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:256" ht="17.100000000000001" customHeight="1">
+    <row r="3" spans="1:256" ht="17.149999999999999" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>627</v>
       </c>
@@ -20780,7 +20782,7 @@
       </c>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:256" ht="17.100000000000001" customHeight="1">
+    <row r="4" spans="1:256" ht="17.149999999999999" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>557</v>
       </c>
@@ -20799,7 +20801,7 @@
       </c>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:256" ht="17.100000000000001" customHeight="1">
+    <row r="5" spans="1:256" ht="17.149999999999999" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>560</v>
       </c>
@@ -20818,7 +20820,7 @@
       </c>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:256" ht="17.100000000000001" customHeight="1">
+    <row r="6" spans="1:256" ht="17.149999999999999" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>563</v>
       </c>
@@ -20837,7 +20839,7 @@
       </c>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:256" ht="315">
+    <row r="7" spans="1:256" ht="301.3">
       <c r="A7" s="6" t="s">
         <v>566</v>
       </c>
@@ -20860,7 +20862,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="8" spans="1:256" ht="31.5">
+    <row r="8" spans="1:256" ht="31.75">
       <c r="A8" s="6" t="s">
         <v>571</v>
       </c>
@@ -20917,7 +20919,7 @@
       </c>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:256" ht="17.100000000000001" customHeight="1">
+    <row r="11" spans="1:256" ht="17.149999999999999" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>580</v>
       </c>
@@ -20936,7 +20938,7 @@
       </c>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:256" ht="33.6" customHeight="1">
+    <row r="12" spans="1:256" ht="33.65" customHeight="1">
       <c r="A12" s="6" t="s">
         <v>583</v>
       </c>
@@ -21098,7 +21100,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="20" spans="1:256" ht="17.100000000000001" customHeight="1">
+    <row r="20" spans="1:256" ht="17.149999999999999" customHeight="1">
       <c r="A20" s="6" t="s">
         <v>697</v>
       </c>
@@ -21163,7 +21165,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="23" spans="1:256" s="33" customFormat="1" ht="31.5">
+    <row r="23" spans="1:256" s="33" customFormat="1" ht="31.75">
       <c r="A23" s="6" t="s">
         <v>1071</v>
       </c>
@@ -21963,7 +21965,7 @@
       <c r="IU25" s="32"/>
       <c r="IV25" s="32"/>
     </row>
-    <row r="26" spans="1:256" s="33" customFormat="1" ht="31.5">
+    <row r="26" spans="1:256" s="33" customFormat="1" ht="31.75">
       <c r="A26" s="6" t="s">
         <v>1067</v>
       </c>
@@ -22511,19 +22513,19 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.9"/>
   <cols>
     <col min="1" max="1" width="10.5" style="20" customWidth="1"/>
-    <col min="2" max="2" width="53.375" style="17" customWidth="1"/>
+    <col min="2" max="2" width="53.35546875" style="17" customWidth="1"/>
     <col min="3" max="3" width="21.5" style="17" customWidth="1"/>
     <col min="4" max="5" width="44.5" style="17" customWidth="1"/>
-    <col min="6" max="6" width="11.875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="17" customWidth="1"/>
     <col min="7" max="7" width="44.5" style="17" customWidth="1"/>
-    <col min="8" max="1025" width="8.875" style="17" customWidth="1"/>
+    <col min="8" max="1025" width="8.85546875" style="17" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="22" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="1" spans="1:256" s="22" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A1" s="51" t="s">
         <v>756</v>
       </c>
@@ -22795,7 +22797,7 @@
       <c r="IU1" s="21"/>
       <c r="IV1" s="21"/>
     </row>
-    <row r="2" spans="1:256" ht="31.5">
+    <row r="2" spans="1:256" ht="31.75">
       <c r="A2" s="52" t="s">
         <v>1200</v>
       </c>
@@ -22816,7 +22818,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="3" spans="1:256" ht="31.5">
+    <row r="3" spans="1:256" ht="31.75">
       <c r="A3" s="52" t="s">
         <v>1284</v>
       </c>
@@ -22837,7 +22839,7 @@
       </c>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:256" ht="31.5">
+    <row r="4" spans="1:256" ht="31.75">
       <c r="A4" s="6" t="s">
         <v>1287</v>
       </c>

--- a/conformancelib/testdata/85b_test_definitions_PIV-I_Carillon.xlsx
+++ b/conformancelib/testdata/85b_test_definitions_PIV-I_Carillon.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vmware-host\Shared Folders\gsa-devel\piv-conformance-swing\conformancelib\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16BA0C67-2DC4-44D2-83F4-E390B8B2C580}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9391F86A-6016-4C3F-8BB4-7AEE3AB495D3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3630" yWindow="1815" windowWidth="26190" windowHeight="13845" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP 800-85B Reference" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3775" uniqueCount="1309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3769" uniqueCount="1309">
   <si>
     <t>BER_TLV_Test_Assertions</t>
   </si>
@@ -4823,17 +4823,17 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.9"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="57.35546875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="13.75" style="4" customWidth="1"/>
+    <col min="2" max="2" width="57.375" style="4" customWidth="1"/>
     <col min="3" max="5" width="10.5" style="4" customWidth="1"/>
-    <col min="6" max="256" width="8.85546875" style="4" customWidth="1"/>
-    <col min="257" max="1025" width="8.85546875" style="17" customWidth="1"/>
+    <col min="6" max="256" width="8.875" style="4" customWidth="1"/>
+    <col min="257" max="1025" width="8.875" style="17" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="1" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>53</v>
       </c>
@@ -4841,7 +4841,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="2" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="2">
         <v>8</v>
       </c>
@@ -4849,7 +4849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="3" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A3" s="3">
         <v>8.1</v>
       </c>
@@ -4857,7 +4857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="4" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>57</v>
       </c>
@@ -4865,7 +4865,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="5" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>60</v>
       </c>
@@ -4873,7 +4873,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="6" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>63</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="7" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>66</v>
       </c>
@@ -4889,7 +4889,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="8" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>69</v>
       </c>
@@ -4897,7 +4897,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="9" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>72</v>
       </c>
@@ -4905,7 +4905,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="10" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>75</v>
       </c>
@@ -4913,7 +4913,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="11" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>78</v>
       </c>
@@ -4921,7 +4921,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="12" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>81</v>
       </c>
@@ -4929,7 +4929,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="13" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>84</v>
       </c>
@@ -4937,7 +4937,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="14" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>87</v>
       </c>
@@ -4945,7 +4945,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="15" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A15" s="3">
         <v>8.1999999999999993</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="16" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>90</v>
       </c>
@@ -4961,7 +4961,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="17" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>92</v>
       </c>
@@ -4969,7 +4969,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="18" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>93</v>
       </c>
@@ -4977,7 +4977,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="19" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A19" s="3" t="s">
         <v>94</v>
       </c>
@@ -4985,7 +4985,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="20" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>95</v>
       </c>
@@ -4993,7 +4993,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="21" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>98</v>
       </c>
@@ -5001,7 +5001,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="22" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>101</v>
       </c>
@@ -5009,7 +5009,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="23" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A23" s="3" t="s">
         <v>104</v>
       </c>
@@ -5017,7 +5017,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="24" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A24" s="3" t="s">
         <v>107</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="25" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A25" s="3" t="s">
         <v>110</v>
       </c>
@@ -5033,7 +5033,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="26" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A26" s="3" t="s">
         <v>113</v>
       </c>
@@ -5041,7 +5041,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="27" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A27" s="3" t="s">
         <v>116</v>
       </c>
@@ -5049,7 +5049,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="28" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A28" s="3" t="s">
         <v>119</v>
       </c>
@@ -5057,7 +5057,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="29" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A29" s="3" t="s">
         <v>122</v>
       </c>
@@ -5065,7 +5065,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="30" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A30" s="3" t="s">
         <v>124</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="31" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A31" s="3" t="s">
         <v>128</v>
       </c>
@@ -5081,7 +5081,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="32" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A32" s="3">
         <v>8.3000000000000007</v>
       </c>
@@ -5089,7 +5089,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="33" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A33" s="3" t="s">
         <v>130</v>
       </c>
@@ -5097,7 +5097,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="34" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A34" s="3" t="s">
         <v>132</v>
       </c>
@@ -5105,7 +5105,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="35" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A35" s="3" t="s">
         <v>133</v>
       </c>
@@ -5113,7 +5113,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="36" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A36" s="3" t="s">
         <v>134</v>
       </c>
@@ -5121,7 +5121,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="37" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A37" s="3" t="s">
         <v>135</v>
       </c>
@@ -5129,7 +5129,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="38" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A38" s="3" t="s">
         <v>138</v>
       </c>
@@ -5137,7 +5137,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="39" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A39" s="3" t="s">
         <v>141</v>
       </c>
@@ -5145,7 +5145,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="40" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A40" s="3" t="s">
         <v>144</v>
       </c>
@@ -5153,7 +5153,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="41" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A41" s="3" t="s">
         <v>147</v>
       </c>
@@ -5161,7 +5161,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="42" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A42" s="3" t="s">
         <v>150</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="43" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A43" s="3">
         <v>8.4</v>
       </c>
@@ -5177,7 +5177,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="44" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A44" s="3" t="s">
         <v>151</v>
       </c>
@@ -5185,7 +5185,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="45" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A45" s="3" t="s">
         <v>153</v>
       </c>
@@ -5193,7 +5193,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="46" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A46" s="3" t="s">
         <v>154</v>
       </c>
@@ -5201,7 +5201,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="47" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A47" s="3" t="s">
         <v>155</v>
       </c>
@@ -5209,7 +5209,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="48" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A48" s="3" t="s">
         <v>156</v>
       </c>
@@ -5220,7 +5220,7 @@
       <c r="D48" s="16"/>
       <c r="E48" s="16"/>
     </row>
-    <row r="49" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="49" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A49" s="3" t="s">
         <v>157</v>
       </c>
@@ -5231,7 +5231,7 @@
       <c r="D49" s="16"/>
       <c r="E49" s="16"/>
     </row>
-    <row r="50" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="50" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A50" s="3" t="s">
         <v>158</v>
       </c>
@@ -5242,7 +5242,7 @@
       <c r="D50" s="16"/>
       <c r="E50" s="16"/>
     </row>
-    <row r="51" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="51" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A51" s="3" t="s">
         <v>159</v>
       </c>
@@ -5253,7 +5253,7 @@
       <c r="D51" s="16"/>
       <c r="E51" s="16"/>
     </row>
-    <row r="52" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="52" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A52" s="3" t="s">
         <v>160</v>
       </c>
@@ -5264,7 +5264,7 @@
       <c r="D52" s="16"/>
       <c r="E52" s="16"/>
     </row>
-    <row r="53" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="53" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A53" s="3">
         <v>8.5</v>
       </c>
@@ -5275,7 +5275,7 @@
       <c r="D53" s="16"/>
       <c r="E53" s="16"/>
     </row>
-    <row r="54" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="54" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A54" s="3" t="s">
         <v>161</v>
       </c>
@@ -5286,7 +5286,7 @@
       <c r="D54" s="16"/>
       <c r="E54" s="16"/>
     </row>
-    <row r="55" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="55" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A55" s="3" t="s">
         <v>163</v>
       </c>
@@ -5297,7 +5297,7 @@
       <c r="D55" s="16"/>
       <c r="E55" s="16"/>
     </row>
-    <row r="56" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="56" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A56" s="3" t="s">
         <v>164</v>
       </c>
@@ -5308,7 +5308,7 @@
       <c r="D56" s="16"/>
       <c r="E56" s="16"/>
     </row>
-    <row r="57" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="57" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A57" s="3" t="s">
         <v>165</v>
       </c>
@@ -5319,7 +5319,7 @@
       <c r="D57" s="16"/>
       <c r="E57" s="16"/>
     </row>
-    <row r="58" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="58" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A58" s="3" t="s">
         <v>166</v>
       </c>
@@ -5330,7 +5330,7 @@
       <c r="D58" s="16"/>
       <c r="E58" s="16"/>
     </row>
-    <row r="59" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="59" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A59" s="3" t="s">
         <v>169</v>
       </c>
@@ -5341,7 +5341,7 @@
       <c r="D59" s="16"/>
       <c r="E59" s="16"/>
     </row>
-    <row r="60" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="60" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A60" s="3" t="s">
         <v>172</v>
       </c>
@@ -5352,7 +5352,7 @@
       <c r="D60" s="16"/>
       <c r="E60" s="16"/>
     </row>
-    <row r="61" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="61" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A61" s="3" t="s">
         <v>175</v>
       </c>
@@ -5363,7 +5363,7 @@
       <c r="D61" s="16"/>
       <c r="E61" s="16"/>
     </row>
-    <row r="62" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="62" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A62" s="3" t="s">
         <v>178</v>
       </c>
@@ -5374,7 +5374,7 @@
       <c r="D62" s="16"/>
       <c r="E62" s="16"/>
     </row>
-    <row r="63" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="63" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A63" s="3" t="s">
         <v>181</v>
       </c>
@@ -5385,7 +5385,7 @@
       <c r="D63" s="16"/>
       <c r="E63" s="16"/>
     </row>
-    <row r="64" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="64" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A64" s="3">
         <v>8.6</v>
       </c>
@@ -5396,7 +5396,7 @@
       <c r="D64" s="16"/>
       <c r="E64" s="16"/>
     </row>
-    <row r="65" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="65" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A65" s="3" t="s">
         <v>182</v>
       </c>
@@ -5407,7 +5407,7 @@
       <c r="D65" s="16"/>
       <c r="E65" s="16"/>
     </row>
-    <row r="66" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="66" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A66" s="3" t="s">
         <v>184</v>
       </c>
@@ -5418,7 +5418,7 @@
       <c r="D66" s="16"/>
       <c r="E66" s="16"/>
     </row>
-    <row r="67" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="67" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A67" s="3" t="s">
         <v>185</v>
       </c>
@@ -5429,7 +5429,7 @@
       <c r="D67" s="16"/>
       <c r="E67" s="16"/>
     </row>
-    <row r="68" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="68" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A68" s="3" t="s">
         <v>186</v>
       </c>
@@ -5440,7 +5440,7 @@
       <c r="D68" s="16"/>
       <c r="E68" s="16"/>
     </row>
-    <row r="69" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="69" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A69" s="3" t="s">
         <v>187</v>
       </c>
@@ -5451,7 +5451,7 @@
       <c r="D69" s="16"/>
       <c r="E69" s="16"/>
     </row>
-    <row r="70" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="70" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A70" s="3" t="s">
         <v>190</v>
       </c>
@@ -5486,7 +5486,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="31.75">
+    <row r="74" spans="1:5" ht="31.5">
       <c r="A74" s="3" t="s">
         <v>197</v>
       </c>
@@ -5574,7 +5574,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="31.75">
+    <row r="85" spans="1:2" ht="31.5">
       <c r="A85" s="3" t="s">
         <v>208</v>
       </c>
@@ -5662,7 +5662,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="31.75">
+    <row r="96" spans="1:2" ht="31.5">
       <c r="A96" s="3" t="s">
         <v>219</v>
       </c>
@@ -5806,7 +5806,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="31.75">
+    <row r="114" spans="1:2" ht="31.5">
       <c r="A114" s="3" t="s">
         <v>244</v>
       </c>
@@ -5822,7 +5822,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="28.3">
+    <row r="116" spans="1:2" ht="28.5">
       <c r="A116" s="3" t="s">
         <v>247</v>
       </c>
@@ -5862,7 +5862,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="47.6">
+    <row r="121" spans="1:2" ht="47.25">
       <c r="A121" s="3" t="s">
         <v>256</v>
       </c>
@@ -5878,7 +5878,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="63.45">
+    <row r="123" spans="1:2" ht="63">
       <c r="A123" s="3" t="s">
         <v>261</v>
       </c>
@@ -6030,7 +6030,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="31.75">
+    <row r="142" spans="1:2" ht="31.5">
       <c r="A142" s="3" t="s">
         <v>284</v>
       </c>
@@ -6046,7 +6046,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="31.75">
+    <row r="144" spans="1:2" ht="31.5">
       <c r="A144" s="3" t="s">
         <v>288</v>
       </c>
@@ -6054,7 +6054,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="31.75">
+    <row r="145" spans="1:2" ht="47.25">
       <c r="A145" s="3" t="s">
         <v>290</v>
       </c>
@@ -6062,7 +6062,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="47.6">
+    <row r="146" spans="1:2" ht="47.25">
       <c r="A146" s="3" t="s">
         <v>292</v>
       </c>
@@ -6086,7 +6086,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="47.6">
+    <row r="149" spans="1:2" ht="47.25">
       <c r="A149" s="3" t="s">
         <v>298</v>
       </c>
@@ -6102,7 +6102,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="47.6">
+    <row r="151" spans="1:2" ht="63">
       <c r="A151" s="3" t="s">
         <v>302</v>
       </c>
@@ -6110,7 +6110,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="31.75">
+    <row r="152" spans="1:2" ht="31.5">
       <c r="A152" s="3" t="s">
         <v>304</v>
       </c>
@@ -6118,7 +6118,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="31.75">
+    <row r="153" spans="1:2" ht="31.5">
       <c r="A153" s="3" t="s">
         <v>306</v>
       </c>
@@ -6182,7 +6182,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="31.75">
+    <row r="161" spans="1:2" ht="31.5">
       <c r="A161" s="3" t="s">
         <v>314</v>
       </c>
@@ -6198,7 +6198,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="31.75">
+    <row r="163" spans="1:2" ht="31.5">
       <c r="A163" s="3" t="s">
         <v>316</v>
       </c>
@@ -6206,7 +6206,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="31.75">
+    <row r="164" spans="1:2" ht="31.5">
       <c r="A164" s="3" t="s">
         <v>317</v>
       </c>
@@ -6214,7 +6214,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="47.6">
+    <row r="165" spans="1:2" ht="47.25">
       <c r="A165" s="3" t="s">
         <v>319</v>
       </c>
@@ -6238,7 +6238,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="31.75">
+    <row r="168" spans="1:2" ht="31.5">
       <c r="A168" s="3" t="s">
         <v>323</v>
       </c>
@@ -6254,7 +6254,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="47.6">
+    <row r="170" spans="1:2" ht="63">
       <c r="A170" s="3" t="s">
         <v>327</v>
       </c>
@@ -6262,7 +6262,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="31.75">
+    <row r="171" spans="1:2" ht="31.5">
       <c r="A171" s="3" t="s">
         <v>328</v>
       </c>
@@ -6270,7 +6270,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="31.75">
+    <row r="172" spans="1:2" ht="31.5">
       <c r="A172" s="3" t="s">
         <v>329</v>
       </c>
@@ -6366,7 +6366,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="47.6">
+    <row r="184" spans="1:2" ht="47.25">
       <c r="A184" s="3" t="s">
         <v>319</v>
       </c>
@@ -6390,7 +6390,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="31.75">
+    <row r="187" spans="1:2" ht="31.5">
       <c r="A187" s="3" t="s">
         <v>346</v>
       </c>
@@ -6406,7 +6406,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="47.6">
+    <row r="189" spans="1:2" ht="63">
       <c r="A189" s="3" t="s">
         <v>349</v>
       </c>
@@ -6414,7 +6414,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="31.75">
+    <row r="190" spans="1:2" ht="31.5">
       <c r="A190" s="3" t="s">
         <v>350</v>
       </c>
@@ -6422,7 +6422,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="31.75">
+    <row r="191" spans="1:2" ht="31.5">
       <c r="A191" s="3" t="s">
         <v>351</v>
       </c>
@@ -6470,7 +6470,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="47.6">
+    <row r="197" spans="1:2" ht="47.25">
       <c r="A197" s="3" t="s">
         <v>361</v>
       </c>
@@ -6478,7 +6478,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="47.6">
+    <row r="198" spans="1:2" ht="47.25">
       <c r="A198" s="3" t="s">
         <v>363</v>
       </c>
@@ -6502,7 +6502,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="31.75">
+    <row r="201" spans="1:2" ht="31.5">
       <c r="A201" s="3" t="s">
         <v>368</v>
       </c>
@@ -6510,7 +6510,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="31.75">
+    <row r="202" spans="1:2" ht="31.5">
       <c r="A202" s="3" t="s">
         <v>370</v>
       </c>
@@ -6614,7 +6614,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="31.75">
+    <row r="215" spans="1:2" ht="31.5">
       <c r="A215" s="3" t="s">
         <v>395</v>
       </c>
@@ -6758,7 +6758,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="47.6">
+    <row r="233" spans="1:2" ht="47.25">
       <c r="A233" s="3" t="s">
         <v>417</v>
       </c>
@@ -6774,7 +6774,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="235" spans="1:2" ht="31.75">
+    <row r="235" spans="1:2" ht="31.5">
       <c r="A235" s="3" t="s">
         <v>423</v>
       </c>
@@ -6782,7 +6782,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="31.75">
+    <row r="236" spans="1:2" ht="31.5">
       <c r="A236" s="3" t="s">
         <v>426</v>
       </c>
@@ -6806,7 +6806,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="239" spans="1:2" ht="47.6">
+    <row r="239" spans="1:2" ht="47.25">
       <c r="A239" s="3" t="s">
         <v>435</v>
       </c>
@@ -6814,7 +6814,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="47.6">
+    <row r="240" spans="1:2" ht="47.25">
       <c r="A240" s="3" t="s">
         <v>438</v>
       </c>
@@ -6822,7 +6822,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="241" spans="1:2" ht="79.3">
+    <row r="241" spans="1:2" ht="78.75">
       <c r="A241" s="3" t="s">
         <v>441</v>
       </c>
@@ -6830,7 +6830,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="242" spans="1:2" ht="47.6">
+    <row r="242" spans="1:2" ht="47.25">
       <c r="A242" s="3" t="s">
         <v>444</v>
       </c>
@@ -6838,7 +6838,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="79.3">
+    <row r="243" spans="1:2" ht="78.75">
       <c r="A243" s="3" t="s">
         <v>447</v>
       </c>
@@ -6846,7 +6846,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="244" spans="1:2" ht="31.75">
+    <row r="244" spans="1:2" ht="31.5">
       <c r="A244" s="3" t="s">
         <v>450</v>
       </c>
@@ -6870,7 +6870,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="247" spans="1:2" ht="47.6">
+    <row r="247" spans="1:2" ht="47.25">
       <c r="A247" s="3" t="s">
         <v>455</v>
       </c>
@@ -6886,7 +6886,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="31.75">
+    <row r="249" spans="1:2" ht="31.5">
       <c r="A249" s="3" t="s">
         <v>459</v>
       </c>
@@ -6894,7 +6894,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="250" spans="1:2" ht="31.75">
+    <row r="250" spans="1:2" ht="31.5">
       <c r="A250" s="3" t="s">
         <v>461</v>
       </c>
@@ -6926,7 +6926,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="254" spans="1:2" ht="31.75">
+    <row r="254" spans="1:2" ht="31.5">
       <c r="A254" s="3" t="s">
         <v>467</v>
       </c>
@@ -6934,7 +6934,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="31.75">
+    <row r="255" spans="1:2" ht="31.5">
       <c r="A255" s="3" t="s">
         <v>469</v>
       </c>
@@ -6942,7 +6942,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="256" spans="1:2" ht="31.75">
+    <row r="256" spans="1:2" ht="31.5">
       <c r="A256" s="3" t="s">
         <v>472</v>
       </c>
@@ -6950,7 +6950,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="257" spans="1:2" ht="47.6">
+    <row r="257" spans="1:2" ht="47.25">
       <c r="A257" s="3" t="s">
         <v>474</v>
       </c>
@@ -6958,7 +6958,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="258" spans="1:2" ht="47.6">
+    <row r="258" spans="1:2" ht="47.25">
       <c r="A258" s="3" t="s">
         <v>477</v>
       </c>
@@ -6966,7 +6966,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="259" spans="1:2" ht="63.45">
+    <row r="259" spans="1:2" ht="63">
       <c r="A259" s="3" t="s">
         <v>479</v>
       </c>
@@ -6974,7 +6974,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="260" spans="1:2" ht="79.3">
+    <row r="260" spans="1:2" ht="78.75">
       <c r="A260" s="3" t="s">
         <v>481</v>
       </c>
@@ -6982,7 +6982,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="79.3">
+    <row r="261" spans="1:2" ht="78.75">
       <c r="A261" s="3" t="s">
         <v>483</v>
       </c>
@@ -6990,7 +6990,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="262" spans="1:2" ht="47.6">
+    <row r="262" spans="1:2" ht="47.25">
       <c r="A262" s="3" t="s">
         <v>486</v>
       </c>
@@ -7014,7 +7014,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="47.6">
+    <row r="265" spans="1:2" ht="47.25">
       <c r="A265" s="3" t="s">
         <v>490</v>
       </c>
@@ -7030,7 +7030,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="31.75">
+    <row r="267" spans="1:2" ht="31.5">
       <c r="A267" s="3" t="s">
         <v>492</v>
       </c>
@@ -7038,7 +7038,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="268" spans="1:2" ht="31.75">
+    <row r="268" spans="1:2" ht="31.5">
       <c r="A268" s="3" t="s">
         <v>493</v>
       </c>
@@ -7070,7 +7070,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="272" spans="1:2" ht="31.75">
+    <row r="272" spans="1:2" ht="31.5">
       <c r="A272" s="3" t="s">
         <v>497</v>
       </c>
@@ -7078,7 +7078,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="273" spans="1:2" ht="31.75">
+    <row r="273" spans="1:2" ht="31.5">
       <c r="A273" s="3" t="s">
         <v>498</v>
       </c>
@@ -7086,7 +7086,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="274" spans="1:2" ht="31.75">
+    <row r="274" spans="1:2" ht="31.5">
       <c r="A274" s="3" t="s">
         <v>499</v>
       </c>
@@ -7094,7 +7094,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="275" spans="1:2" ht="47.6">
+    <row r="275" spans="1:2" ht="47.25">
       <c r="A275" s="3" t="s">
         <v>500</v>
       </c>
@@ -7102,7 +7102,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="276" spans="1:2" ht="47.6">
+    <row r="276" spans="1:2" ht="47.25">
       <c r="A276" s="3" t="s">
         <v>501</v>
       </c>
@@ -7110,7 +7110,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="277" spans="1:2" ht="63.45">
+    <row r="277" spans="1:2" ht="63">
       <c r="A277" s="3" t="s">
         <v>502</v>
       </c>
@@ -7118,7 +7118,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="278" spans="1:2" ht="79.3">
+    <row r="278" spans="1:2" ht="78.75">
       <c r="A278" s="3" t="s">
         <v>503</v>
       </c>
@@ -7126,7 +7126,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="279" spans="1:2" ht="79.3">
+    <row r="279" spans="1:2" ht="78.75">
       <c r="A279" s="3" t="s">
         <v>504</v>
       </c>
@@ -7134,7 +7134,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="280" spans="1:2" ht="47.6">
+    <row r="280" spans="1:2" ht="47.25">
       <c r="A280" s="3" t="s">
         <v>505</v>
       </c>
@@ -7158,7 +7158,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="283" spans="1:2" ht="31.75">
+    <row r="283" spans="1:2" ht="31.5">
       <c r="A283" s="3" t="s">
         <v>507</v>
       </c>
@@ -7174,7 +7174,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="285" spans="1:2" ht="31.75">
+    <row r="285" spans="1:2" ht="31.5">
       <c r="A285" s="3" t="s">
         <v>511</v>
       </c>
@@ -7198,7 +7198,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="288" spans="1:2" ht="47.6">
+    <row r="288" spans="1:2" ht="47.25">
       <c r="A288" s="3" t="s">
         <v>519</v>
       </c>
@@ -7222,7 +7222,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="291" spans="1:2" ht="79.3">
+    <row r="291" spans="1:2" ht="78.75">
       <c r="A291" s="3" t="s">
         <v>527</v>
       </c>
@@ -7246,7 +7246,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="294" spans="1:2" ht="47.6">
+    <row r="294" spans="1:2" ht="47.25">
       <c r="A294" s="3" t="s">
         <v>531</v>
       </c>
@@ -7262,7 +7262,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="296" spans="1:2" ht="31.75">
+    <row r="296" spans="1:2" ht="31.5">
       <c r="A296" s="3" t="s">
         <v>533</v>
       </c>
@@ -7270,7 +7270,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="297" spans="1:2" ht="31.75">
+    <row r="297" spans="1:2" ht="31.5">
       <c r="A297" s="3" t="s">
         <v>534</v>
       </c>
@@ -7302,7 +7302,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="301" spans="1:2" ht="31.75">
+    <row r="301" spans="1:2" ht="31.5">
       <c r="A301" s="3" t="s">
         <v>538</v>
       </c>
@@ -7310,7 +7310,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="302" spans="1:2" ht="31.75">
+    <row r="302" spans="1:2" ht="31.5">
       <c r="A302" s="3" t="s">
         <v>539</v>
       </c>
@@ -7318,7 +7318,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="303" spans="1:2" ht="31.75">
+    <row r="303" spans="1:2" ht="31.5">
       <c r="A303" s="3" t="s">
         <v>540</v>
       </c>
@@ -7326,7 +7326,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="304" spans="1:2" ht="47.6">
+    <row r="304" spans="1:2" ht="47.25">
       <c r="A304" s="3" t="s">
         <v>541</v>
       </c>
@@ -7334,7 +7334,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="305" spans="1:2" ht="47.6">
+    <row r="305" spans="1:2" ht="47.25">
       <c r="A305" s="3" t="s">
         <v>542</v>
       </c>
@@ -7342,7 +7342,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="306" spans="1:2" ht="63.45">
+    <row r="306" spans="1:2" ht="63">
       <c r="A306" s="3" t="s">
         <v>543</v>
       </c>
@@ -7350,7 +7350,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="307" spans="1:2" ht="79.3">
+    <row r="307" spans="1:2" ht="78.75">
       <c r="A307" s="3" t="s">
         <v>544</v>
       </c>
@@ -7358,7 +7358,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="308" spans="1:2" ht="79.3">
+    <row r="308" spans="1:2" ht="78.75">
       <c r="A308" s="3" t="s">
         <v>545</v>
       </c>
@@ -7366,7 +7366,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="309" spans="1:2" ht="47.6">
+    <row r="309" spans="1:2" ht="47.25">
       <c r="A309" s="3" t="s">
         <v>546</v>
       </c>
@@ -7398,7 +7398,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="313" spans="1:2" ht="95.15">
+    <row r="313" spans="1:2" ht="94.5">
       <c r="A313" s="3" t="s">
         <v>548</v>
       </c>
@@ -7406,7 +7406,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="314" spans="1:2" ht="31.75">
+    <row r="314" spans="1:2" ht="31.5">
       <c r="A314" s="3" t="s">
         <v>550</v>
       </c>
@@ -7454,7 +7454,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="320" spans="1:2" ht="31.75">
+    <row r="320" spans="1:2" ht="31.5">
       <c r="A320" s="3" t="s">
         <v>564</v>
       </c>
@@ -7486,7 +7486,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="324" spans="1:2" ht="31.75">
+    <row r="324" spans="1:2" ht="31.5">
       <c r="A324" s="3" t="s">
         <v>575</v>
       </c>
@@ -7502,7 +7502,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="326" spans="1:2" ht="31.75">
+    <row r="326" spans="1:2" ht="31.5">
       <c r="A326" s="3" t="s">
         <v>581</v>
       </c>
@@ -7518,7 +7518,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="328" spans="1:2" ht="63.45">
+    <row r="328" spans="1:2" ht="63">
       <c r="A328" s="3" t="s">
         <v>587</v>
       </c>
@@ -7526,7 +7526,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="329" spans="1:2" ht="47.6">
+    <row r="329" spans="1:2" ht="47.25">
       <c r="A329" s="3" t="s">
         <v>589</v>
       </c>
@@ -7542,7 +7542,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="331" spans="1:2" ht="31.75">
+    <row r="331" spans="1:2" ht="31.5">
       <c r="A331" s="3" t="s">
         <v>593</v>
       </c>
@@ -7550,7 +7550,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="332" spans="1:2" ht="31.75">
+    <row r="332" spans="1:2" ht="31.5">
       <c r="A332" s="3" t="s">
         <v>596</v>
       </c>
@@ -7606,7 +7606,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="339" spans="1:2" ht="31.75">
+    <row r="339" spans="1:2" ht="31.5">
       <c r="A339" s="3" t="s">
         <v>610</v>
       </c>
@@ -7646,7 +7646,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="344" spans="1:2" ht="95.15">
+    <row r="344" spans="1:2" ht="94.5">
       <c r="A344" s="3" t="s">
         <v>618</v>
       </c>
@@ -7654,7 +7654,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="345" spans="1:2" ht="31.75">
+    <row r="345" spans="1:2" ht="31.5">
       <c r="A345" s="3" t="s">
         <v>619</v>
       </c>
@@ -7702,7 +7702,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="351" spans="1:2" ht="31.75">
+    <row r="351" spans="1:2" ht="31.5">
       <c r="A351" s="3" t="s">
         <v>631</v>
       </c>
@@ -7710,7 +7710,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="352" spans="1:2" ht="31.75">
+    <row r="352" spans="1:2" ht="31.5">
       <c r="A352" s="3" t="s">
         <v>633</v>
       </c>
@@ -7718,7 +7718,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="353" spans="1:2" ht="31.75">
+    <row r="353" spans="1:2" ht="31.5">
       <c r="A353" s="3" t="s">
         <v>635</v>
       </c>
@@ -7726,7 +7726,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="354" spans="1:2" ht="47.6">
+    <row r="354" spans="1:2" ht="31.5">
       <c r="A354" s="3" t="s">
         <v>637</v>
       </c>
@@ -7782,7 +7782,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="361" spans="1:2" ht="31.75">
+    <row r="361" spans="1:2" ht="31.5">
       <c r="A361" s="3" t="s">
         <v>646</v>
       </c>
@@ -7822,7 +7822,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="366" spans="1:2" ht="79.3">
+    <row r="366" spans="1:2" ht="78.75">
       <c r="A366" s="3" t="s">
         <v>650</v>
       </c>
@@ -7830,7 +7830,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="367" spans="1:2" ht="31.75">
+    <row r="367" spans="1:2" ht="31.5">
       <c r="A367" s="3" t="s">
         <v>652</v>
       </c>
@@ -7862,7 +7862,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="371" spans="1:2" ht="31.75">
+    <row r="371" spans="1:2" ht="31.5">
       <c r="A371" s="3" t="s">
         <v>658</v>
       </c>
@@ -7870,7 +7870,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="372" spans="1:2" ht="31.75">
+    <row r="372" spans="1:2" ht="31.5">
       <c r="A372" s="3" t="s">
         <v>660</v>
       </c>
@@ -7886,7 +7886,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="374" spans="1:2" ht="31.75">
+    <row r="374" spans="1:2" ht="31.5">
       <c r="A374" s="3" t="s">
         <v>665</v>
       </c>
@@ -7894,7 +7894,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="375" spans="1:2" ht="31.75">
+    <row r="375" spans="1:2" ht="31.5">
       <c r="A375" s="3" t="s">
         <v>667</v>
       </c>
@@ -7902,7 +7902,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="376" spans="1:2" ht="47.6">
+    <row r="376" spans="1:2" ht="31.5">
       <c r="A376" s="3" t="s">
         <v>669</v>
       </c>
@@ -7958,7 +7958,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="383" spans="1:2" ht="31.75">
+    <row r="383" spans="1:2" ht="31.5">
       <c r="A383" s="3" t="s">
         <v>676</v>
       </c>
@@ -7998,7 +7998,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="388" spans="1:2" ht="79.3">
+    <row r="388" spans="1:2" ht="78.75">
       <c r="A388" s="3" t="s">
         <v>680</v>
       </c>
@@ -8006,7 +8006,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="389" spans="1:2" ht="31.75">
+    <row r="389" spans="1:2" ht="31.5">
       <c r="A389" s="3" t="s">
         <v>681</v>
       </c>
@@ -8062,7 +8062,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="396" spans="1:2" ht="31.75">
+    <row r="396" spans="1:2" ht="31.5">
       <c r="A396" s="3" t="s">
         <v>691</v>
       </c>
@@ -8086,7 +8086,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="399" spans="1:2" ht="31.75">
+    <row r="399" spans="1:2" ht="31.5">
       <c r="A399" s="3" t="s">
         <v>698</v>
       </c>
@@ -8126,7 +8126,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="404" spans="1:2" ht="31.75">
+    <row r="404" spans="1:2" ht="31.5">
       <c r="A404" s="3" t="s">
         <v>707</v>
       </c>
@@ -8150,7 +8150,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="407" spans="1:2" ht="31.75">
+    <row r="407" spans="1:2" ht="31.5">
       <c r="A407" s="3" t="s">
         <v>710</v>
       </c>
@@ -8166,7 +8166,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="409" spans="1:2" ht="63.45">
+    <row r="409" spans="1:2" ht="63">
       <c r="A409" s="3" t="s">
         <v>712</v>
       </c>
@@ -8174,7 +8174,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="410" spans="1:2" ht="47.6">
+    <row r="410" spans="1:2" ht="47.25">
       <c r="A410" s="3" t="s">
         <v>713</v>
       </c>
@@ -8190,7 +8190,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="412" spans="1:2" ht="31.75">
+    <row r="412" spans="1:2" ht="31.5">
       <c r="A412" s="3" t="s">
         <v>716</v>
       </c>
@@ -8246,7 +8246,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="419" spans="1:2" ht="31.75">
+    <row r="419" spans="1:2" ht="31.5">
       <c r="A419" s="3" t="s">
         <v>723</v>
       </c>
@@ -8342,7 +8342,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="431" spans="1:2" ht="79.3">
+    <row r="431" spans="1:2" ht="78.75">
       <c r="A431" s="3" t="s">
         <v>732</v>
       </c>
@@ -8350,7 +8350,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="432" spans="1:2" ht="31.75">
+    <row r="432" spans="1:2" ht="31.5">
       <c r="A432" s="3" t="s">
         <v>733</v>
       </c>
@@ -8406,7 +8406,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="439" spans="1:2" ht="31.75">
+    <row r="439" spans="1:2" ht="31.5">
       <c r="A439" s="3" t="s">
         <v>742</v>
       </c>
@@ -8414,7 +8414,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="440" spans="1:2" ht="47.6">
+    <row r="440" spans="1:2" ht="47.25">
       <c r="A440" s="3" t="s">
         <v>744</v>
       </c>
@@ -8478,7 +8478,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="448" spans="1:2" ht="31.75">
+    <row r="448" spans="1:2" ht="31.5">
       <c r="A448" s="3" t="s">
         <v>753</v>
       </c>
@@ -8517,24 +8517,24 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G472"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:XFD49"/>
+    <sheetView tabSelected="1" topLeftCell="A451" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F461" sqref="F461"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.9"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="14.2109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="14.25" style="4" customWidth="1"/>
     <col min="2" max="2" width="12" style="4" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="43.75" style="4" customWidth="1"/>
     <col min="4" max="4" width="13.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" style="34" customWidth="1"/>
-    <col min="6" max="6" width="84.640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="80.85546875" style="31" customWidth="1"/>
+    <col min="5" max="5" width="24.125" style="34" customWidth="1"/>
+    <col min="6" max="6" width="84.625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="80.875" style="31" customWidth="1"/>
     <col min="8" max="1026" width="8.5" style="17" customWidth="1"/>
     <col min="1027" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="30" customFormat="1" ht="18.45">
+    <row r="1" spans="1:7" s="30" customFormat="1" ht="18.75">
       <c r="A1" s="35" t="s">
         <v>52</v>
       </c>
@@ -16604,9 +16604,7 @@
       </c>
       <c r="D449" s="40"/>
       <c r="E449" s="40"/>
-      <c r="F449" s="39" t="s">
-        <v>1183</v>
-      </c>
+      <c r="F449" s="40"/>
       <c r="G449" s="38"/>
     </row>
     <row r="450" spans="1:7">
@@ -16621,9 +16619,7 @@
       </c>
       <c r="D450" s="40"/>
       <c r="E450" s="40"/>
-      <c r="F450" s="39" t="s">
-        <v>1183</v>
-      </c>
+      <c r="F450" s="40"/>
       <c r="G450" s="40"/>
     </row>
     <row r="451" spans="1:7" ht="105">
@@ -16641,7 +16637,7 @@
       </c>
       <c r="E451" s="39"/>
       <c r="F451" s="39" t="s">
-        <v>1183</v>
+        <v>1127</v>
       </c>
       <c r="G451" s="43" t="s">
         <v>1108</v>
@@ -16662,7 +16658,7 @@
       </c>
       <c r="E452" s="39"/>
       <c r="F452" s="39" t="s">
-        <v>1183</v>
+        <v>1127</v>
       </c>
       <c r="G452" s="43"/>
     </row>
@@ -16681,7 +16677,7 @@
       </c>
       <c r="E453" s="39"/>
       <c r="F453" s="39" t="s">
-        <v>1183</v>
+        <v>1127</v>
       </c>
       <c r="G453" s="43"/>
     </row>
@@ -16697,9 +16693,7 @@
       </c>
       <c r="D454" s="40"/>
       <c r="E454" s="40"/>
-      <c r="F454" s="39" t="s">
-        <v>1183</v>
-      </c>
+      <c r="F454" s="40"/>
       <c r="G454" s="40"/>
     </row>
     <row r="455" spans="1:7">
@@ -16714,9 +16708,7 @@
       </c>
       <c r="D455" s="40"/>
       <c r="E455" s="40"/>
-      <c r="F455" s="39" t="s">
-        <v>1183</v>
-      </c>
+      <c r="F455" s="40"/>
       <c r="G455" s="40"/>
     </row>
     <row r="456" spans="1:7" ht="30">
@@ -16734,7 +16726,7 @@
       </c>
       <c r="E456" s="39"/>
       <c r="F456" s="39" t="s">
-        <v>1183</v>
+        <v>1127</v>
       </c>
       <c r="G456" s="43" t="s">
         <v>1119</v>
@@ -16755,7 +16747,7 @@
       </c>
       <c r="E457" s="39"/>
       <c r="F457" s="39" t="s">
-        <v>1183</v>
+        <v>1127</v>
       </c>
       <c r="G457" s="43"/>
     </row>
@@ -16774,7 +16766,7 @@
       </c>
       <c r="E458" s="39"/>
       <c r="F458" s="39" t="s">
-        <v>1183</v>
+        <v>1127</v>
       </c>
       <c r="G458" s="39"/>
     </row>
@@ -16793,7 +16785,7 @@
       </c>
       <c r="E459" s="39"/>
       <c r="F459" s="39" t="s">
-        <v>1183</v>
+        <v>1127</v>
       </c>
       <c r="G459" s="39"/>
     </row>
@@ -16810,7 +16802,7 @@
       <c r="D460" s="39"/>
       <c r="E460" s="39"/>
       <c r="F460" s="39" t="s">
-        <v>1183</v>
+        <v>1127</v>
       </c>
       <c r="G460" s="39"/>
     </row>
@@ -16829,7 +16821,7 @@
       </c>
       <c r="E461" s="39"/>
       <c r="F461" s="39" t="s">
-        <v>1183</v>
+        <v>1127</v>
       </c>
       <c r="G461" s="39"/>
     </row>
@@ -16848,7 +16840,7 @@
       </c>
       <c r="E462" s="39"/>
       <c r="F462" s="39" t="s">
-        <v>1183</v>
+        <v>1127</v>
       </c>
       <c r="G462" s="39"/>
     </row>
@@ -16864,9 +16856,7 @@
       </c>
       <c r="D463" s="40"/>
       <c r="E463" s="40"/>
-      <c r="F463" s="39" t="s">
-        <v>1183</v>
-      </c>
+      <c r="F463" s="40"/>
       <c r="G463" s="40"/>
     </row>
     <row r="464" spans="1:7">
@@ -16884,7 +16874,7 @@
       </c>
       <c r="E464" s="39"/>
       <c r="F464" s="39" t="s">
-        <v>1183</v>
+        <v>1127</v>
       </c>
       <c r="G464" s="43" t="s">
         <v>1111</v>
@@ -16905,7 +16895,7 @@
       </c>
       <c r="E465" s="39"/>
       <c r="F465" s="39" t="s">
-        <v>1183</v>
+        <v>1127</v>
       </c>
       <c r="G465" s="39"/>
     </row>
@@ -16921,9 +16911,7 @@
       </c>
       <c r="D466" s="40"/>
       <c r="E466" s="40"/>
-      <c r="F466" s="39" t="s">
-        <v>1183</v>
-      </c>
+      <c r="F466" s="40"/>
       <c r="G466" s="40"/>
     </row>
     <row r="467" spans="1:7">
@@ -16962,7 +16950,7 @@
       </c>
       <c r="E468" s="39"/>
       <c r="F468" s="39" t="s">
-        <v>1183</v>
+        <v>1127</v>
       </c>
       <c r="G468" s="43"/>
     </row>
@@ -16981,7 +16969,7 @@
       </c>
       <c r="E469" s="39"/>
       <c r="F469" s="39" t="s">
-        <v>1183</v>
+        <v>1127</v>
       </c>
       <c r="G469" s="43"/>
     </row>
@@ -17000,7 +16988,7 @@
       </c>
       <c r="E470" s="39"/>
       <c r="F470" s="39" t="s">
-        <v>1183</v>
+        <v>1127</v>
       </c>
       <c r="G470" s="39"/>
     </row>
@@ -17019,7 +17007,7 @@
       </c>
       <c r="E471" s="39"/>
       <c r="F471" s="39" t="s">
-        <v>1183</v>
+        <v>1127</v>
       </c>
       <c r="G471" s="39"/>
     </row>
@@ -17038,7 +17026,7 @@
       </c>
       <c r="E472" s="39"/>
       <c r="F472" s="39" t="s">
-        <v>1183</v>
+        <v>1127</v>
       </c>
       <c r="G472" s="39"/>
     </row>
@@ -17057,14 +17045,14 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.9"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="10.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="45.140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16.640625" style="4" customWidth="1"/>
-    <col min="4" max="5" width="81.35546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="45.125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.625" style="4" customWidth="1"/>
+    <col min="4" max="5" width="81.375" style="4" customWidth="1"/>
     <col min="6" max="7" width="10.5" style="4" customWidth="1"/>
-    <col min="8" max="1025" width="8.85546875" style="4" customWidth="1"/>
+    <col min="8" max="1025" width="8.875" style="4" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
@@ -17148,7 +17136,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="126.9">
+    <row r="5" spans="1:7" ht="126">
       <c r="A5" s="3" t="s">
         <v>68</v>
       </c>
@@ -17204,15 +17192,15 @@
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.9"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="10.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="68.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="23.875" style="4" customWidth="1"/>
     <col min="4" max="4" width="100" style="4" customWidth="1"/>
-    <col min="5" max="6" width="22.85546875" style="4" customWidth="1"/>
+    <col min="5" max="6" width="22.875" style="4" customWidth="1"/>
     <col min="7" max="7" width="20" style="4" customWidth="1"/>
-    <col min="8" max="1025" width="8.85546875" style="4" customWidth="1"/>
+    <col min="8" max="1025" width="8.875" style="4" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
@@ -17353,7 +17341,7 @@
       </c>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" ht="31.5">
       <c r="A8" s="6" t="s">
         <v>784</v>
       </c>
@@ -17906,7 +17894,7 @@
       </c>
       <c r="G36" s="6"/>
     </row>
-    <row r="37" spans="1:7" ht="63.45">
+    <row r="37" spans="1:7" ht="63">
       <c r="A37" s="6" t="s">
         <v>246</v>
       </c>
@@ -17927,7 +17915,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="31.75">
+    <row r="38" spans="1:7" ht="31.5">
       <c r="A38" s="6" t="s">
         <v>509</v>
       </c>
@@ -18003,7 +17991,7 @@
       </c>
       <c r="G41" s="6"/>
     </row>
-    <row r="42" spans="1:7" ht="47.6">
+    <row r="42" spans="1:7" ht="47.25">
       <c r="A42" s="6" t="s">
         <v>263</v>
       </c>
@@ -18287,19 +18275,19 @@
       <selection sqref="A1:D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.9"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="27" customWidth="1"/>
-    <col min="2" max="2" width="47.35546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" style="4" customWidth="1"/>
-    <col min="4" max="5" width="80.85546875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="27" customWidth="1"/>
+    <col min="2" max="2" width="47.375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="19.875" style="4" customWidth="1"/>
+    <col min="4" max="5" width="80.875" style="4" customWidth="1"/>
     <col min="6" max="7" width="10.5" style="4" customWidth="1"/>
-    <col min="8" max="256" width="8.85546875" style="4" customWidth="1"/>
-    <col min="257" max="1025" width="8.85546875" style="17" customWidth="1"/>
+    <col min="8" max="256" width="8.875" style="4" customWidth="1"/>
+    <col min="257" max="1025" width="8.875" style="17" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="22" customFormat="1" ht="31" customHeight="1">
+    <row r="1" spans="1:256" s="22" customFormat="1" ht="30.95" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>756</v>
       </c>
@@ -18571,7 +18559,7 @@
       <c r="IU1" s="21"/>
       <c r="IV1" s="21"/>
     </row>
-    <row r="2" spans="1:256" ht="17.149999999999999" customHeight="1">
+    <row r="2" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>834</v>
       </c>
@@ -18590,7 +18578,7 @@
       </c>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:256" ht="17.149999999999999" customHeight="1">
+    <row r="3" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>837</v>
       </c>
@@ -18609,7 +18597,7 @@
       </c>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:256" ht="17.149999999999999" customHeight="1">
+    <row r="4" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>839</v>
       </c>
@@ -18647,7 +18635,7 @@
       </c>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:256" ht="17.149999999999999" customHeight="1">
+    <row r="6" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>843</v>
       </c>
@@ -18666,7 +18654,7 @@
       </c>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:256" ht="17.149999999999999" customHeight="1">
+    <row r="7" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>846</v>
       </c>
@@ -18685,7 +18673,7 @@
       </c>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:256" ht="17.149999999999999" customHeight="1">
+    <row r="8" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>849</v>
       </c>
@@ -18723,7 +18711,7 @@
       </c>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:256" ht="17.149999999999999" customHeight="1">
+    <row r="10" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>855</v>
       </c>
@@ -18742,7 +18730,7 @@
       </c>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:256" ht="17.149999999999999" customHeight="1">
+    <row r="11" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>857</v>
       </c>
@@ -18761,7 +18749,7 @@
       </c>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:256" ht="17.149999999999999" customHeight="1">
+    <row r="12" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A12" s="6" t="s">
         <v>859</v>
       </c>
@@ -18799,7 +18787,7 @@
       </c>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:256" ht="17.149999999999999" customHeight="1">
+    <row r="14" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A14" s="6" t="s">
         <v>864</v>
       </c>
@@ -18818,7 +18806,7 @@
       </c>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:256" ht="17.149999999999999" customHeight="1">
+    <row r="15" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A15" s="6" t="s">
         <v>866</v>
       </c>
@@ -18875,7 +18863,7 @@
       </c>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="1:7" ht="17.149999999999999" customHeight="1">
+    <row r="18" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A18" s="6" t="s">
         <v>868</v>
       </c>
@@ -18894,7 +18882,7 @@
       </c>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="1:7" ht="17.149999999999999" customHeight="1">
+    <row r="19" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A19" s="6" t="s">
         <v>870</v>
       </c>
@@ -18913,7 +18901,7 @@
       </c>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="1:7" ht="17.149999999999999" customHeight="1">
+    <row r="20" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A20" s="6" t="s">
         <v>872</v>
       </c>
@@ -18932,7 +18920,7 @@
       </c>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="1:7" ht="17.149999999999999" customHeight="1">
+    <row r="21" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A21" s="6" t="s">
         <v>874</v>
       </c>
@@ -18951,7 +18939,7 @@
       </c>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="1:7" ht="17.149999999999999" customHeight="1">
+    <row r="22" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A22" s="6" t="s">
         <v>877</v>
       </c>
@@ -18970,7 +18958,7 @@
       </c>
       <c r="G22" s="6"/>
     </row>
-    <row r="23" spans="1:7" ht="17.149999999999999" customHeight="1">
+    <row r="23" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A23" s="6" t="s">
         <v>879</v>
       </c>
@@ -18989,7 +18977,7 @@
       </c>
       <c r="G23" s="6"/>
     </row>
-    <row r="24" spans="1:7" ht="17.149999999999999" customHeight="1">
+    <row r="24" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A24" s="6" t="s">
         <v>881</v>
       </c>
@@ -19008,7 +18996,7 @@
       </c>
       <c r="G24" s="6"/>
     </row>
-    <row r="25" spans="1:7" ht="17.149999999999999" customHeight="1">
+    <row r="25" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A25" s="6" t="s">
         <v>883</v>
       </c>
@@ -19027,7 +19015,7 @@
       </c>
       <c r="G25" s="6"/>
     </row>
-    <row r="26" spans="1:7" ht="17.149999999999999" customHeight="1">
+    <row r="26" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A26" s="6" t="s">
         <v>886</v>
       </c>
@@ -19046,7 +19034,7 @@
       </c>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="1:7" ht="17.149999999999999" customHeight="1">
+    <row r="27" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A27" s="6" t="s">
         <v>888</v>
       </c>
@@ -19065,7 +19053,7 @@
       </c>
       <c r="G27" s="6"/>
     </row>
-    <row r="28" spans="1:7" ht="17.149999999999999" customHeight="1">
+    <row r="28" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A28" s="6" t="s">
         <v>891</v>
       </c>
@@ -19084,7 +19072,7 @@
       </c>
       <c r="G28" s="6"/>
     </row>
-    <row r="29" spans="1:7" ht="17.149999999999999" customHeight="1">
+    <row r="29" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A29" s="6" t="s">
         <v>893</v>
       </c>
@@ -19103,7 +19091,7 @@
       </c>
       <c r="G29" s="6"/>
     </row>
-    <row r="30" spans="1:7" ht="17.149999999999999" customHeight="1">
+    <row r="30" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A30" s="6" t="s">
         <v>895</v>
       </c>
@@ -19122,7 +19110,7 @@
       </c>
       <c r="G30" s="6"/>
     </row>
-    <row r="31" spans="1:7" ht="17.149999999999999" customHeight="1">
+    <row r="31" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A31" s="6" t="s">
         <v>897</v>
       </c>
@@ -19141,7 +19129,7 @@
       </c>
       <c r="G31" s="6"/>
     </row>
-    <row r="32" spans="1:7" ht="17.149999999999999" customHeight="1">
+    <row r="32" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A32" s="6" t="s">
         <v>900</v>
       </c>
@@ -19160,7 +19148,7 @@
       </c>
       <c r="G32" s="6"/>
     </row>
-    <row r="33" spans="1:7" ht="17.149999999999999" customHeight="1">
+    <row r="33" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A33" s="6" t="s">
         <v>903</v>
       </c>
@@ -19179,7 +19167,7 @@
       </c>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="1:7" ht="17.149999999999999" customHeight="1">
+    <row r="34" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A34" s="6" t="s">
         <v>906</v>
       </c>
@@ -19198,7 +19186,7 @@
       </c>
       <c r="G34" s="6"/>
     </row>
-    <row r="35" spans="1:7" ht="17.149999999999999" customHeight="1">
+    <row r="35" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A35" s="6" t="s">
         <v>909</v>
       </c>
@@ -19217,7 +19205,7 @@
       </c>
       <c r="G35" s="6"/>
     </row>
-    <row r="36" spans="1:7" ht="17.149999999999999" customHeight="1">
+    <row r="36" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A36" s="6" t="s">
         <v>912</v>
       </c>
@@ -19236,7 +19224,7 @@
       </c>
       <c r="G36" s="6"/>
     </row>
-    <row r="37" spans="1:7" ht="17.149999999999999" customHeight="1">
+    <row r="37" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A37" s="6" t="s">
         <v>915</v>
       </c>
@@ -19255,7 +19243,7 @@
       </c>
       <c r="G37" s="6"/>
     </row>
-    <row r="38" spans="1:7" ht="17.149999999999999" customHeight="1">
+    <row r="38" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A38" s="6" t="s">
         <v>918</v>
       </c>
@@ -19274,7 +19262,7 @@
       </c>
       <c r="G38" s="6"/>
     </row>
-    <row r="39" spans="1:7" ht="17.149999999999999" customHeight="1">
+    <row r="39" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A39" s="6" t="s">
         <v>921</v>
       </c>
@@ -19293,7 +19281,7 @@
       </c>
       <c r="G39" s="6"/>
     </row>
-    <row r="40" spans="1:7" ht="31" customHeight="1">
+    <row r="40" spans="1:7" ht="30.95" customHeight="1">
       <c r="A40" s="6" t="s">
         <v>924</v>
       </c>
@@ -19329,7 +19317,7 @@
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
     </row>
-    <row r="42" spans="1:7" ht="17.149999999999999" customHeight="1">
+    <row r="42" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A42" s="6" t="s">
         <v>931</v>
       </c>
@@ -19346,7 +19334,7 @@
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
     </row>
-    <row r="43" spans="1:7" ht="31" customHeight="1">
+    <row r="43" spans="1:7" ht="30.95" customHeight="1">
       <c r="A43" s="6" t="s">
         <v>934</v>
       </c>
@@ -19384,7 +19372,7 @@
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
     </row>
-    <row r="45" spans="1:7" ht="17.149999999999999" customHeight="1">
+    <row r="45" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A45" s="6" t="s">
         <v>942</v>
       </c>
@@ -19437,7 +19425,7 @@
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
     </row>
-    <row r="48" spans="1:7" ht="17.149999999999999" customHeight="1">
+    <row r="48" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A48" s="6" t="s">
         <v>952</v>
       </c>
@@ -19454,7 +19442,7 @@
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
     </row>
-    <row r="49" spans="1:256" s="29" customFormat="1" ht="31.75">
+    <row r="49" spans="1:256" s="29" customFormat="1" ht="31.5">
       <c r="A49" s="53" t="s">
         <v>955</v>
       </c>
@@ -19750,21 +19738,21 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.9"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="10.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="33.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14.640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="44.35546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="41.35546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="44.375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="41.375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.625" style="4" customWidth="1"/>
     <col min="7" max="7" width="29" style="4" customWidth="1"/>
-    <col min="8" max="256" width="8.85546875" style="4" customWidth="1"/>
-    <col min="257" max="1025" width="8.85546875" style="17" customWidth="1"/>
+    <col min="8" max="256" width="8.875" style="4" customWidth="1"/>
+    <col min="257" max="1025" width="8.875" style="17" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.149999999999999" customHeight="1">
+    <row r="1" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A1" s="53" t="s">
         <v>756</v>
       </c>
@@ -20230,7 +20218,7 @@
       <c r="F24" s="66"/>
       <c r="G24" s="66"/>
     </row>
-    <row r="25" spans="1:7" ht="43.75">
+    <row r="25" spans="1:7" ht="45">
       <c r="A25" s="66" t="s">
         <v>1211</v>
       </c>
@@ -20247,7 +20235,7 @@
       <c r="F25" s="66"/>
       <c r="G25" s="66"/>
     </row>
-    <row r="26" spans="1:7" ht="29.15">
+    <row r="26" spans="1:7" ht="30">
       <c r="A26" s="66" t="s">
         <v>1260</v>
       </c>
@@ -20264,7 +20252,7 @@
       <c r="F26" s="66"/>
       <c r="G26" s="66"/>
     </row>
-    <row r="27" spans="1:7" ht="29.15">
+    <row r="27" spans="1:7" ht="30">
       <c r="A27" s="66" t="s">
         <v>1263</v>
       </c>
@@ -20281,7 +20269,7 @@
       <c r="F27" s="66"/>
       <c r="G27" s="66"/>
     </row>
-    <row r="28" spans="1:7" ht="29.15">
+    <row r="28" spans="1:7" ht="30">
       <c r="A28" s="66" t="s">
         <v>1266</v>
       </c>
@@ -20298,7 +20286,7 @@
       <c r="F28" s="66"/>
       <c r="G28" s="66"/>
     </row>
-    <row r="29" spans="1:7" ht="29.15">
+    <row r="29" spans="1:7" ht="30">
       <c r="A29" s="66" t="s">
         <v>1269</v>
       </c>
@@ -20315,7 +20303,7 @@
       <c r="F29" s="66"/>
       <c r="G29" s="66"/>
     </row>
-    <row r="30" spans="1:7" ht="29.15">
+    <row r="30" spans="1:7" ht="30">
       <c r="A30" s="66" t="s">
         <v>1272</v>
       </c>
@@ -20350,15 +20338,15 @@
       <selection activeCell="E2" sqref="E2:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.9"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="54.640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" style="4" customWidth="1"/>
-    <col min="4" max="5" width="75.640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="54.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="19.875" style="4" customWidth="1"/>
+    <col min="4" max="5" width="75.625" style="4" customWidth="1"/>
     <col min="6" max="7" width="10.5" style="4" customWidth="1"/>
-    <col min="8" max="256" width="8.85546875" style="4" customWidth="1"/>
-    <col min="257" max="1025" width="8.85546875" style="17" customWidth="1"/>
+    <col min="8" max="256" width="8.875" style="4" customWidth="1"/>
+    <col min="257" max="1025" width="8.875" style="17" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
@@ -20423,7 +20411,7 @@
       </c>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:7" ht="63.45">
+    <row r="4" spans="1:7" ht="63">
       <c r="A4" s="5" t="s">
         <v>1004</v>
       </c>
@@ -20456,23 +20444,25 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:IV27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.9"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="10.5" style="23" customWidth="1"/>
-    <col min="2" max="2" width="53.35546875" style="18" customWidth="1"/>
+    <col min="2" max="2" width="53.375" style="18" customWidth="1"/>
     <col min="3" max="3" width="21.5" style="18" customWidth="1"/>
     <col min="4" max="4" width="44.5" style="18" customWidth="1"/>
-    <col min="5" max="5" width="31.85546875" style="18" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="18" customWidth="1"/>
+    <col min="5" max="5" width="31.875" style="18" customWidth="1"/>
+    <col min="6" max="6" width="11.875" style="18" customWidth="1"/>
     <col min="7" max="7" width="44.5" style="18" customWidth="1"/>
-    <col min="8" max="256" width="8.85546875" style="18" customWidth="1"/>
-    <col min="257" max="1025" width="8.85546875" style="19" customWidth="1"/>
+    <col min="8" max="256" width="8.875" style="18" customWidth="1"/>
+    <col min="257" max="1025" width="8.875" style="19" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="25" customFormat="1" ht="17.149999999999999" customHeight="1">
+    <row r="1" spans="1:256" s="25" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>756</v>
       </c>
@@ -20763,7 +20753,7 @@
       </c>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:256" ht="17.149999999999999" customHeight="1">
+    <row r="3" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>627</v>
       </c>
@@ -20782,7 +20772,7 @@
       </c>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:256" ht="17.149999999999999" customHeight="1">
+    <row r="4" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>557</v>
       </c>
@@ -20801,7 +20791,7 @@
       </c>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:256" ht="17.149999999999999" customHeight="1">
+    <row r="5" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>560</v>
       </c>
@@ -20820,7 +20810,7 @@
       </c>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:256" ht="17.149999999999999" customHeight="1">
+    <row r="6" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>563</v>
       </c>
@@ -20839,7 +20829,7 @@
       </c>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:256" ht="301.3">
+    <row r="7" spans="1:256" ht="315">
       <c r="A7" s="6" t="s">
         <v>566</v>
       </c>
@@ -20862,7 +20852,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="8" spans="1:256" ht="31.75">
+    <row r="8" spans="1:256" ht="31.5">
       <c r="A8" s="6" t="s">
         <v>571</v>
       </c>
@@ -20919,7 +20909,7 @@
       </c>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:256" ht="17.149999999999999" customHeight="1">
+    <row r="11" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>580</v>
       </c>
@@ -20938,7 +20928,7 @@
       </c>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:256" ht="33.65" customHeight="1">
+    <row r="12" spans="1:256" ht="33.6" customHeight="1">
       <c r="A12" s="6" t="s">
         <v>583</v>
       </c>
@@ -21100,7 +21090,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="20" spans="1:256" ht="17.149999999999999" customHeight="1">
+    <row r="20" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A20" s="6" t="s">
         <v>697</v>
       </c>
@@ -21165,7 +21155,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="23" spans="1:256" s="33" customFormat="1" ht="31.75">
+    <row r="23" spans="1:256" s="33" customFormat="1" ht="31.5">
       <c r="A23" s="6" t="s">
         <v>1071</v>
       </c>
@@ -21965,7 +21955,7 @@
       <c r="IU25" s="32"/>
       <c r="IV25" s="32"/>
     </row>
-    <row r="26" spans="1:256" s="33" customFormat="1" ht="31.75">
+    <row r="26" spans="1:256" s="33" customFormat="1" ht="31.5">
       <c r="A26" s="6" t="s">
         <v>1067</v>
       </c>
@@ -22513,19 +22503,19 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.9"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="10.5" style="20" customWidth="1"/>
-    <col min="2" max="2" width="53.35546875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="53.375" style="17" customWidth="1"/>
     <col min="3" max="3" width="21.5" style="17" customWidth="1"/>
     <col min="4" max="5" width="44.5" style="17" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="11.875" style="17" customWidth="1"/>
     <col min="7" max="7" width="44.5" style="17" customWidth="1"/>
-    <col min="8" max="1025" width="8.85546875" style="17" customWidth="1"/>
+    <col min="8" max="1025" width="8.875" style="17" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="22" customFormat="1" ht="17.149999999999999" customHeight="1">
+    <row r="1" spans="1:256" s="22" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A1" s="51" t="s">
         <v>756</v>
       </c>
@@ -22797,7 +22787,7 @@
       <c r="IU1" s="21"/>
       <c r="IV1" s="21"/>
     </row>
-    <row r="2" spans="1:256" ht="31.75">
+    <row r="2" spans="1:256" ht="31.5">
       <c r="A2" s="52" t="s">
         <v>1200</v>
       </c>
@@ -22818,7 +22808,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="3" spans="1:256" ht="31.75">
+    <row r="3" spans="1:256" ht="31.5">
       <c r="A3" s="52" t="s">
         <v>1284</v>
       </c>
@@ -22839,7 +22829,7 @@
       </c>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:256" ht="31.75">
+    <row r="4" spans="1:256" ht="31.5">
       <c r="A4" s="6" t="s">
         <v>1287</v>
       </c>

--- a/conformancelib/testdata/85b_test_definitions_PIV-I_Carillon.xlsx
+++ b/conformancelib/testdata/85b_test_definitions_PIV-I_Carillon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9391F86A-6016-4C3F-8BB4-7AEE3AB495D3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0060DA00-D169-4D53-986B-96BFAF41BE5E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3630" yWindow="1815" windowWidth="26190" windowHeight="13845" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3630" yWindow="1815" windowWidth="26190" windowHeight="13845" tabRatio="500" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP 800-85B Reference" sheetId="1" r:id="rId1"/>
@@ -3958,13 +3958,13 @@
     <t>These policies would only work for directly-asserted OIDs.  PIV-I are normally mapped.  Use the Override feature to configure PCI OIDs.</t>
   </si>
   <si>
+    <t>1.3.6.1.4.1.45606.3.1.22</t>
+  </si>
+  <si>
     <t>X509_CERTIFICATE_FOR_PIV_AUTHENTICATION_OID;1.3.6.1.4.1.45606.3.1.3:1.3.6.1.4.1.45606.3.1.4:1.3.6.1.4.1.45606.3.1.9:1.3.6.1.4.1.45606.3.1.10,X509_CERTIFICATE_FOR_DIGITAL_SIGNATURE_OID;1.3.6.1.4.1.45606.3.1.3:1.3.6.1.4.1.45606.3.1.4:1.3.6.1.4.1.45606.3.1.9:1.3.6.1.4.1.45606.3.1.10,
 X509_CERTIFICATE_FOR_KEY_MANAGEMENT_OID;1.3.6.1.4.1.45606.3.1.3:1.3.6.1.4.1.45606.3.1.4:1.3.6.1.4.1.45606.3.1.9:1.3.6.1.4.1.45606.3.1.10,
 X509_CERTIFICATE_FOR_CARD_AUTHENTICATION_OID;1.3.6.1.4.1.45606.3.1.3:1.3.6.1.4.1.45606.3.1.4:1.3.6.1.4.1.45606.3.1.9:1.3.6.1.4.1.45606.3.1.10,
-CARD_HOLDER_UNIQUE_IDENTIFIER_OID;1.3.6.1.4.1.45606.3.1.22</t>
-  </si>
-  <si>
-    <t>1.3.6.1.4.1.45606.3.1.22</t>
+CARD_HOLDER_UNIQUE_IDENTIFIER_OID;1.3.6.1.4.1.45606.3.1.21</t>
   </si>
 </sst>
 </file>
@@ -8517,8 +8517,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G472"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A451" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F461" sqref="F461"/>
+    <sheetView topLeftCell="A379" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D377" sqref="D377"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -20444,7 +20444,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:IV27"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -20843,7 +20843,7 @@
         <v>1019</v>
       </c>
       <c r="E7" s="67" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>764</v>
@@ -21146,7 +21146,7 @@
         <v>1053</v>
       </c>
       <c r="E22" s="68" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>783</v>

--- a/conformancelib/testdata/85b_test_definitions_PIV-I_Carillon.xlsx
+++ b/conformancelib/testdata/85b_test_definitions_PIV-I_Carillon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0060DA00-D169-4D53-986B-96BFAF41BE5E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A215E1DA-ADD6-4D07-B807-6B4B3EF59A59}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3630" yWindow="1815" windowWidth="26190" windowHeight="13845" tabRatio="500" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4320" yWindow="2505" windowWidth="16485" windowHeight="13845" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP 800-85B Reference" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3769" uniqueCount="1309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3764" uniqueCount="1309">
   <si>
     <t>BER_TLV_Test_Assertions</t>
   </si>
@@ -3964,7 +3964,7 @@
     <t>X509_CERTIFICATE_FOR_PIV_AUTHENTICATION_OID;1.3.6.1.4.1.45606.3.1.3:1.3.6.1.4.1.45606.3.1.4:1.3.6.1.4.1.45606.3.1.9:1.3.6.1.4.1.45606.3.1.10,X509_CERTIFICATE_FOR_DIGITAL_SIGNATURE_OID;1.3.6.1.4.1.45606.3.1.3:1.3.6.1.4.1.45606.3.1.4:1.3.6.1.4.1.45606.3.1.9:1.3.6.1.4.1.45606.3.1.10,
 X509_CERTIFICATE_FOR_KEY_MANAGEMENT_OID;1.3.6.1.4.1.45606.3.1.3:1.3.6.1.4.1.45606.3.1.4:1.3.6.1.4.1.45606.3.1.9:1.3.6.1.4.1.45606.3.1.10,
 X509_CERTIFICATE_FOR_CARD_AUTHENTICATION_OID;1.3.6.1.4.1.45606.3.1.3:1.3.6.1.4.1.45606.3.1.4:1.3.6.1.4.1.45606.3.1.9:1.3.6.1.4.1.45606.3.1.10,
-CARD_HOLDER_UNIQUE_IDENTIFIER_OID;1.3.6.1.4.1.45606.3.1.21</t>
+CARD_HOLDER_UNIQUE_IDENTIFIER_OID;1.3.6.1.4.1.45606.3.1.22</t>
   </si>
 </sst>
 </file>
@@ -8515,10 +8515,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G472"/>
+  <dimension ref="A1:G471"/>
   <sheetViews>
-    <sheetView topLeftCell="A379" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D377" sqref="D377"/>
+    <sheetView tabSelected="1" topLeftCell="A340" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A349" sqref="A349:XFD349"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -14718,18 +14718,18 @@
       </c>
       <c r="G348" s="43"/>
     </row>
-    <row r="349" spans="1:7">
+    <row r="349" spans="1:7" ht="45">
       <c r="A349" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B349" s="39" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="C349" s="43" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="D349" s="39" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="E349" s="39"/>
       <c r="F349" s="39" t="s">
@@ -14737,49 +14737,51 @@
       </c>
       <c r="G349" s="43"/>
     </row>
-    <row r="350" spans="1:7" ht="45">
+    <row r="350" spans="1:7">
       <c r="A350" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B350" s="39" t="s">
-        <v>581</v>
-      </c>
-      <c r="C350" s="43" t="s">
-        <v>582</v>
-      </c>
-      <c r="D350" s="39" t="s">
-        <v>583</v>
-      </c>
-      <c r="E350" s="39"/>
-      <c r="F350" s="39" t="s">
+        <v>584</v>
+      </c>
+      <c r="C350" s="40" t="s">
+        <v>585</v>
+      </c>
+      <c r="D350" s="40"/>
+      <c r="E350" s="40"/>
+      <c r="F350" s="40"/>
+      <c r="G350" s="40"/>
+    </row>
+    <row r="351" spans="1:7" ht="90">
+      <c r="A351" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B351" s="39" t="s">
+        <v>587</v>
+      </c>
+      <c r="C351" s="43" t="s">
+        <v>588</v>
+      </c>
+      <c r="D351" s="39" t="s">
+        <v>586</v>
+      </c>
+      <c r="E351" s="39"/>
+      <c r="F351" s="39" t="s">
         <v>1159</v>
       </c>
-      <c r="G350" s="43"/>
-    </row>
-    <row r="351" spans="1:7">
-      <c r="A351" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="B351" s="39" t="s">
-        <v>584</v>
-      </c>
-      <c r="C351" s="40" t="s">
-        <v>585</v>
-      </c>
-      <c r="D351" s="40"/>
-      <c r="E351" s="40"/>
-      <c r="F351" s="40"/>
-      <c r="G351" s="40"/>
-    </row>
-    <row r="352" spans="1:7" ht="90">
+      <c r="G351" s="43" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" ht="60">
       <c r="A352" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B352" s="39" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C352" s="43" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="D352" s="39" t="s">
         <v>586</v>
@@ -14788,60 +14790,58 @@
       <c r="F352" s="39" t="s">
         <v>1159</v>
       </c>
-      <c r="G352" s="43" t="s">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="353" spans="1:7" ht="60">
+      <c r="G352" s="43"/>
+    </row>
+    <row r="353" spans="1:7" ht="30">
       <c r="A353" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B353" s="39" t="s">
-        <v>589</v>
-      </c>
-      <c r="C353" s="43" t="s">
-        <v>590</v>
+        <v>591</v>
+      </c>
+      <c r="C353" s="39" t="s">
+        <v>592</v>
       </c>
       <c r="D353" s="39" t="s">
-        <v>586</v>
+        <v>1200</v>
       </c>
       <c r="E353" s="39"/>
       <c r="F353" s="39" t="s">
         <v>1159</v>
       </c>
-      <c r="G353" s="43"/>
-    </row>
-    <row r="354" spans="1:7" ht="30">
+      <c r="G353" s="39"/>
+    </row>
+    <row r="354" spans="1:7" ht="45">
       <c r="A354" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B354" s="39" t="s">
-        <v>591</v>
-      </c>
-      <c r="C354" s="39" t="s">
-        <v>592</v>
+        <v>593</v>
+      </c>
+      <c r="C354" s="43" t="s">
+        <v>594</v>
       </c>
       <c r="D354" s="39" t="s">
-        <v>1200</v>
+        <v>595</v>
       </c>
       <c r="E354" s="39"/>
       <c r="F354" s="39" t="s">
         <v>1159</v>
       </c>
-      <c r="G354" s="39"/>
-    </row>
-    <row r="355" spans="1:7" ht="45">
+      <c r="G354" s="43"/>
+    </row>
+    <row r="355" spans="1:7" ht="30">
       <c r="A355" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B355" s="39" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="C355" s="43" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="D355" s="39" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="E355" s="39"/>
       <c r="F355" s="39" t="s">
@@ -14849,147 +14849,147 @@
       </c>
       <c r="G355" s="43"/>
     </row>
-    <row r="356" spans="1:7" ht="30">
+    <row r="356" spans="1:7">
       <c r="A356" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B356" s="39" t="s">
-        <v>596</v>
-      </c>
-      <c r="C356" s="43" t="s">
-        <v>597</v>
-      </c>
-      <c r="D356" s="39" t="s">
-        <v>598</v>
-      </c>
-      <c r="E356" s="39"/>
-      <c r="F356" s="39" t="s">
-        <v>1159</v>
-      </c>
-      <c r="G356" s="43"/>
+        <v>599</v>
+      </c>
+      <c r="C356" s="40" t="s">
+        <v>600</v>
+      </c>
+      <c r="D356" s="40"/>
+      <c r="E356" s="40"/>
+      <c r="F356" s="40"/>
+      <c r="G356" s="40"/>
     </row>
     <row r="357" spans="1:7">
       <c r="A357" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B357" s="39" t="s">
-        <v>599</v>
-      </c>
-      <c r="C357" s="40" t="s">
-        <v>600</v>
-      </c>
-      <c r="D357" s="40"/>
-      <c r="E357" s="40"/>
-      <c r="F357" s="40"/>
-      <c r="G357" s="40"/>
+        <v>601</v>
+      </c>
+      <c r="C357" s="43" t="s">
+        <v>602</v>
+      </c>
+      <c r="D357" s="39" t="s">
+        <v>577</v>
+      </c>
+      <c r="E357" s="39"/>
+      <c r="F357" s="39" t="s">
+        <v>1159</v>
+      </c>
+      <c r="G357" s="39" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="358" spans="1:7">
       <c r="A358" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B358" s="39" t="s">
-        <v>601</v>
-      </c>
-      <c r="C358" s="43" t="s">
-        <v>602</v>
+        <v>603</v>
+      </c>
+      <c r="C358" s="39" t="s">
+        <v>604</v>
       </c>
       <c r="D358" s="39" t="s">
-        <v>577</v>
+        <v>1066</v>
       </c>
       <c r="E358" s="39"/>
       <c r="F358" s="39" t="s">
         <v>1159</v>
       </c>
-      <c r="G358" s="39" t="s">
-        <v>1111</v>
-      </c>
+      <c r="G358" s="39"/>
     </row>
     <row r="359" spans="1:7">
       <c r="A359" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B359" s="39" t="s">
-        <v>603</v>
-      </c>
-      <c r="C359" s="39" t="s">
-        <v>604</v>
-      </c>
-      <c r="D359" s="39" t="s">
-        <v>1066</v>
-      </c>
-      <c r="E359" s="39"/>
-      <c r="F359" s="39" t="s">
-        <v>1159</v>
-      </c>
-      <c r="G359" s="39"/>
+        <v>605</v>
+      </c>
+      <c r="C359" s="40" t="s">
+        <v>606</v>
+      </c>
+      <c r="D359" s="40"/>
+      <c r="E359" s="40"/>
+      <c r="F359" s="40"/>
+      <c r="G359" s="40"/>
     </row>
     <row r="360" spans="1:7">
       <c r="A360" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B360" s="39" t="s">
-        <v>605</v>
-      </c>
-      <c r="C360" s="40" t="s">
-        <v>606</v>
-      </c>
-      <c r="D360" s="40"/>
-      <c r="E360" s="40"/>
-      <c r="F360" s="40"/>
-      <c r="G360" s="40"/>
-    </row>
-    <row r="361" spans="1:7">
+        <v>607</v>
+      </c>
+      <c r="C360" s="43" t="s">
+        <v>570</v>
+      </c>
+      <c r="D360" s="39" t="s">
+        <v>571</v>
+      </c>
+      <c r="E360" s="39"/>
+      <c r="F360" s="39" t="s">
+        <v>1159</v>
+      </c>
+      <c r="G360" s="43" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" ht="30">
       <c r="A361" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B361" s="39" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C361" s="43" t="s">
-        <v>570</v>
+        <v>609</v>
       </c>
       <c r="D361" s="39" t="s">
-        <v>571</v>
-      </c>
-      <c r="E361" s="39"/>
+        <v>1071</v>
+      </c>
+      <c r="E361" s="46"/>
       <c r="F361" s="39" t="s">
         <v>1159</v>
       </c>
-      <c r="G361" s="43" t="s">
-        <v>1112</v>
-      </c>
+      <c r="G361" s="43"/>
     </row>
     <row r="362" spans="1:7" ht="30">
       <c r="A362" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B362" s="39" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="C362" s="43" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="D362" s="39" t="s">
-        <v>1071</v>
-      </c>
-      <c r="E362" s="46"/>
+        <v>577</v>
+      </c>
+      <c r="E362" s="39"/>
       <c r="F362" s="39" t="s">
         <v>1159</v>
       </c>
       <c r="G362" s="43"/>
     </row>
-    <row r="363" spans="1:7" ht="30">
+    <row r="363" spans="1:7">
       <c r="A363" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B363" s="39" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="C363" s="43" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="D363" s="39" t="s">
-        <v>577</v>
+        <v>1069</v>
       </c>
       <c r="E363" s="39"/>
       <c r="F363" s="39" t="s">
@@ -14997,150 +14997,146 @@
       </c>
       <c r="G363" s="43"/>
     </row>
-    <row r="364" spans="1:7">
+    <row r="364" spans="1:7" ht="30">
       <c r="A364" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B364" s="39" t="s">
-        <v>612</v>
-      </c>
-      <c r="C364" s="43" t="s">
-        <v>613</v>
+        <v>614</v>
+      </c>
+      <c r="C364" s="39" t="s">
+        <v>615</v>
       </c>
       <c r="D364" s="39" t="s">
-        <v>1069</v>
-      </c>
-      <c r="E364" s="39"/>
+        <v>1067</v>
+      </c>
+      <c r="E364" s="39" t="s">
+        <v>616</v>
+      </c>
       <c r="F364" s="39" t="s">
         <v>1159</v>
       </c>
-      <c r="G364" s="43"/>
-    </row>
-    <row r="365" spans="1:7" ht="30">
+      <c r="G364" s="39"/>
+    </row>
+    <row r="365" spans="1:7">
       <c r="A365" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B365" s="39" t="s">
-        <v>614</v>
-      </c>
-      <c r="C365" s="39" t="s">
-        <v>615</v>
-      </c>
-      <c r="D365" s="39" t="s">
-        <v>1067</v>
-      </c>
-      <c r="E365" s="39" t="s">
-        <v>616</v>
-      </c>
-      <c r="F365" s="39" t="s">
-        <v>1159</v>
-      </c>
-      <c r="G365" s="39"/>
+      <c r="B365" s="39">
+        <v>11.2</v>
+      </c>
+      <c r="C365" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D365" s="40"/>
+      <c r="E365" s="40"/>
+      <c r="F365" s="40"/>
+      <c r="G365" s="40"/>
     </row>
     <row r="366" spans="1:7">
       <c r="A366" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B366" s="39">
-        <v>11.2</v>
-      </c>
-      <c r="C366" s="38" t="s">
-        <v>44</v>
+      <c r="B366" s="39" t="s">
+        <v>617</v>
+      </c>
+      <c r="C366" s="40" t="s">
+        <v>42</v>
       </c>
       <c r="D366" s="40"/>
       <c r="E366" s="40"/>
       <c r="F366" s="40"/>
       <c r="G366" s="40"/>
     </row>
-    <row r="367" spans="1:7">
+    <row r="367" spans="1:7" ht="120">
       <c r="A367" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B367" s="39" t="s">
-        <v>617</v>
-      </c>
-      <c r="C367" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="D367" s="40"/>
-      <c r="E367" s="40"/>
-      <c r="F367" s="40"/>
-      <c r="G367" s="40"/>
-    </row>
-    <row r="368" spans="1:7" ht="120">
+        <v>618</v>
+      </c>
+      <c r="C367" s="43" t="s">
+        <v>549</v>
+      </c>
+      <c r="D367" s="39" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E367" s="39" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F367" s="39" t="s">
+        <v>1177</v>
+      </c>
+      <c r="G367" s="43" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" ht="75">
       <c r="A368" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B368" s="39" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C368" s="43" t="s">
-        <v>549</v>
+        <v>620</v>
       </c>
       <c r="D368" s="39" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="E368" s="39" t="s">
-        <v>1207</v>
+        <v>1221</v>
       </c>
       <c r="F368" s="39" t="s">
         <v>1177</v>
       </c>
-      <c r="G368" s="43" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="369" spans="1:7" ht="75">
+      <c r="G368" s="43"/>
+    </row>
+    <row r="369" spans="1:7" ht="30">
       <c r="A369" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B369" s="39" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="C369" s="43" t="s">
-        <v>620</v>
-      </c>
-      <c r="D369" s="39" t="s">
-        <v>999</v>
+        <v>553</v>
+      </c>
+      <c r="D369" s="39">
+        <v>78.099999999999994</v>
       </c>
       <c r="E369" s="39" t="s">
-        <v>1221</v>
+        <v>1207</v>
       </c>
       <c r="F369" s="39" t="s">
         <v>1177</v>
       </c>
       <c r="G369" s="43"/>
     </row>
-    <row r="370" spans="1:7" ht="30">
+    <row r="370" spans="1:7">
       <c r="A370" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B370" s="39" t="s">
-        <v>621</v>
-      </c>
-      <c r="C370" s="43" t="s">
-        <v>553</v>
-      </c>
-      <c r="D370" s="39">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E370" s="39" t="s">
-        <v>1207</v>
-      </c>
-      <c r="F370" s="39" t="s">
-        <v>1177</v>
-      </c>
-      <c r="G370" s="43"/>
+        <v>622</v>
+      </c>
+      <c r="C370" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D370" s="40"/>
+      <c r="E370" s="40"/>
+      <c r="F370" s="40"/>
+      <c r="G370" s="40"/>
     </row>
     <row r="371" spans="1:7">
       <c r="A371" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B371" s="39" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C371" s="40" t="s">
-        <v>43</v>
+        <v>624</v>
       </c>
       <c r="D371" s="40"/>
       <c r="E371" s="40"/>
@@ -15152,49 +15148,53 @@
         <v>56</v>
       </c>
       <c r="B372" s="39" t="s">
-        <v>623</v>
-      </c>
-      <c r="C372" s="40" t="s">
-        <v>624</v>
-      </c>
-      <c r="D372" s="40"/>
-      <c r="E372" s="40"/>
-      <c r="F372" s="40"/>
-      <c r="G372" s="40"/>
-    </row>
-    <row r="373" spans="1:7">
+        <v>625</v>
+      </c>
+      <c r="C372" s="39" t="s">
+        <v>626</v>
+      </c>
+      <c r="D372" s="39" t="s">
+        <v>627</v>
+      </c>
+      <c r="E372" s="39"/>
+      <c r="F372" s="39" t="s">
+        <v>1177</v>
+      </c>
+      <c r="G372" s="43" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" ht="30">
       <c r="A373" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B373" s="39" t="s">
-        <v>625</v>
-      </c>
-      <c r="C373" s="39" t="s">
-        <v>626</v>
+        <v>628</v>
+      </c>
+      <c r="C373" s="43" t="s">
+        <v>629</v>
       </c>
       <c r="D373" s="39" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="E373" s="39"/>
       <c r="F373" s="39" t="s">
         <v>1177</v>
       </c>
-      <c r="G373" s="43" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="374" spans="1:7" ht="30">
+      <c r="G373" s="43"/>
+    </row>
+    <row r="374" spans="1:7" ht="45">
       <c r="A374" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B374" s="39" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="C374" s="43" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="D374" s="39" t="s">
-        <v>630</v>
+        <v>583</v>
       </c>
       <c r="E374" s="39"/>
       <c r="F374" s="39" t="s">
@@ -15207,13 +15207,13 @@
         <v>56</v>
       </c>
       <c r="B375" s="39" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C375" s="43" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="D375" s="39" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="E375" s="39"/>
       <c r="F375" s="39" t="s">
@@ -15221,18 +15221,18 @@
       </c>
       <c r="G375" s="43"/>
     </row>
-    <row r="376" spans="1:7" ht="45">
+    <row r="376" spans="1:7" ht="30">
       <c r="A376" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B376" s="39" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C376" s="43" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="D376" s="39" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="E376" s="39"/>
       <c r="F376" s="39" t="s">
@@ -15240,18 +15240,18 @@
       </c>
       <c r="G376" s="43"/>
     </row>
-    <row r="377" spans="1:7" ht="30">
+    <row r="377" spans="1:7" ht="45">
       <c r="A377" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B377" s="39" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="C377" s="43" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="D377" s="39" t="s">
-        <v>598</v>
+        <v>566</v>
       </c>
       <c r="E377" s="39"/>
       <c r="F377" s="39" t="s">
@@ -15259,354 +15259,354 @@
       </c>
       <c r="G377" s="43"/>
     </row>
-    <row r="378" spans="1:7" ht="45">
+    <row r="378" spans="1:7">
       <c r="A378" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B378" s="39" t="s">
-        <v>637</v>
-      </c>
-      <c r="C378" s="43" t="s">
-        <v>638</v>
-      </c>
-      <c r="D378" s="39" t="s">
-        <v>566</v>
-      </c>
-      <c r="E378" s="39"/>
-      <c r="F378" s="39" t="s">
-        <v>1177</v>
-      </c>
-      <c r="G378" s="43"/>
+        <v>639</v>
+      </c>
+      <c r="C378" s="40" t="s">
+        <v>600</v>
+      </c>
+      <c r="D378" s="40"/>
+      <c r="E378" s="40"/>
+      <c r="F378" s="40"/>
+      <c r="G378" s="40"/>
     </row>
     <row r="379" spans="1:7">
       <c r="A379" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B379" s="39" t="s">
-        <v>639</v>
-      </c>
-      <c r="C379" s="40" t="s">
-        <v>600</v>
-      </c>
-      <c r="D379" s="40"/>
-      <c r="E379" s="40"/>
-      <c r="F379" s="40"/>
-      <c r="G379" s="40"/>
+        <v>640</v>
+      </c>
+      <c r="C379" s="43" t="s">
+        <v>602</v>
+      </c>
+      <c r="D379" s="39" t="s">
+        <v>577</v>
+      </c>
+      <c r="E379" s="39"/>
+      <c r="F379" s="39" t="s">
+        <v>1177</v>
+      </c>
+      <c r="G379" s="43" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="380" spans="1:7">
       <c r="A380" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B380" s="39" t="s">
-        <v>640</v>
-      </c>
-      <c r="C380" s="43" t="s">
-        <v>602</v>
+        <v>641</v>
+      </c>
+      <c r="C380" s="39" t="s">
+        <v>604</v>
       </c>
       <c r="D380" s="39" t="s">
-        <v>577</v>
-      </c>
-      <c r="E380" s="39"/>
+        <v>1066</v>
+      </c>
+      <c r="E380" s="39" t="s">
+        <v>1222</v>
+      </c>
       <c r="F380" s="39" t="s">
         <v>1177</v>
       </c>
-      <c r="G380" s="43" t="s">
-        <v>1111</v>
-      </c>
+      <c r="G380" s="39"/>
     </row>
     <row r="381" spans="1:7">
       <c r="A381" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B381" s="39" t="s">
-        <v>641</v>
-      </c>
-      <c r="C381" s="39" t="s">
-        <v>604</v>
-      </c>
-      <c r="D381" s="39" t="s">
-        <v>1066</v>
-      </c>
-      <c r="E381" s="39" t="s">
-        <v>1222</v>
-      </c>
-      <c r="F381" s="39" t="s">
-        <v>1177</v>
-      </c>
-      <c r="G381" s="39"/>
+        <v>642</v>
+      </c>
+      <c r="C381" s="40" t="s">
+        <v>606</v>
+      </c>
+      <c r="D381" s="40"/>
+      <c r="E381" s="40"/>
+      <c r="F381" s="40"/>
+      <c r="G381" s="40"/>
     </row>
     <row r="382" spans="1:7">
       <c r="A382" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B382" s="39" t="s">
-        <v>642</v>
-      </c>
-      <c r="C382" s="40" t="s">
-        <v>606</v>
-      </c>
-      <c r="D382" s="40"/>
-      <c r="E382" s="40"/>
-      <c r="F382" s="40"/>
-      <c r="G382" s="40"/>
-    </row>
-    <row r="383" spans="1:7">
+        <v>643</v>
+      </c>
+      <c r="C382" s="43" t="s">
+        <v>570</v>
+      </c>
+      <c r="D382" s="39" t="s">
+        <v>571</v>
+      </c>
+      <c r="E382" s="39"/>
+      <c r="F382" s="39" t="s">
+        <v>1177</v>
+      </c>
+      <c r="G382" s="43" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" ht="30">
       <c r="A383" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B383" s="39" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C383" s="43" t="s">
-        <v>570</v>
+        <v>645</v>
       </c>
       <c r="D383" s="39" t="s">
-        <v>571</v>
-      </c>
-      <c r="E383" s="39"/>
+        <v>1071</v>
+      </c>
+      <c r="E383" s="46"/>
       <c r="F383" s="39" t="s">
         <v>1177</v>
       </c>
-      <c r="G383" s="43" t="s">
-        <v>1112</v>
-      </c>
+      <c r="G383" s="43"/>
     </row>
     <row r="384" spans="1:7" ht="30">
       <c r="A384" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B384" s="39" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="C384" s="43" t="s">
-        <v>645</v>
+        <v>611</v>
       </c>
       <c r="D384" s="39" t="s">
-        <v>1071</v>
-      </c>
-      <c r="E384" s="46"/>
+        <v>577</v>
+      </c>
+      <c r="E384" s="39"/>
       <c r="F384" s="39" t="s">
         <v>1177</v>
       </c>
       <c r="G384" s="43"/>
     </row>
-    <row r="385" spans="1:7" ht="30">
+    <row r="385" spans="1:7">
       <c r="A385" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B385" s="39" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C385" s="43" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="D385" s="39" t="s">
-        <v>577</v>
+        <v>1069</v>
       </c>
       <c r="E385" s="39"/>
       <c r="F385" s="39" t="s">
         <v>1177</v>
       </c>
-      <c r="G385" s="43"/>
-    </row>
-    <row r="386" spans="1:7">
+      <c r="G385" s="39"/>
+    </row>
+    <row r="386" spans="1:7" ht="30">
       <c r="A386" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B386" s="39" t="s">
-        <v>647</v>
-      </c>
-      <c r="C386" s="43" t="s">
-        <v>613</v>
+        <v>648</v>
+      </c>
+      <c r="C386" s="39" t="s">
+        <v>615</v>
       </c>
       <c r="D386" s="39" t="s">
-        <v>1069</v>
-      </c>
-      <c r="E386" s="39"/>
+        <v>1067</v>
+      </c>
+      <c r="E386" s="39" t="s">
+        <v>616</v>
+      </c>
       <c r="F386" s="39" t="s">
         <v>1177</v>
       </c>
       <c r="G386" s="39"/>
     </row>
-    <row r="387" spans="1:7" ht="30">
+    <row r="387" spans="1:7">
       <c r="A387" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B387" s="39" t="s">
-        <v>648</v>
-      </c>
-      <c r="C387" s="39" t="s">
-        <v>615</v>
-      </c>
-      <c r="D387" s="39" t="s">
-        <v>1067</v>
-      </c>
-      <c r="E387" s="39" t="s">
-        <v>616</v>
-      </c>
-      <c r="F387" s="39" t="s">
-        <v>1177</v>
-      </c>
-      <c r="G387" s="39"/>
+      <c r="B387" s="39">
+        <v>11.3</v>
+      </c>
+      <c r="C387" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="D387" s="40"/>
+      <c r="E387" s="40"/>
+      <c r="F387" s="40"/>
+      <c r="G387" s="40"/>
     </row>
     <row r="388" spans="1:7">
       <c r="A388" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B388" s="39">
-        <v>11.3</v>
-      </c>
-      <c r="C388" s="38" t="s">
-        <v>45</v>
+      <c r="B388" s="39" t="s">
+        <v>649</v>
+      </c>
+      <c r="C388" s="40" t="s">
+        <v>42</v>
       </c>
       <c r="D388" s="40"/>
       <c r="E388" s="40"/>
       <c r="F388" s="40"/>
       <c r="G388" s="40"/>
     </row>
-    <row r="389" spans="1:7">
+    <row r="389" spans="1:7" ht="105">
       <c r="A389" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B389" s="39" t="s">
-        <v>649</v>
-      </c>
-      <c r="C389" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="D389" s="40"/>
-      <c r="E389" s="40"/>
-      <c r="F389" s="40"/>
-      <c r="G389" s="40"/>
-    </row>
-    <row r="390" spans="1:7" ht="105">
+        <v>650</v>
+      </c>
+      <c r="C389" s="43" t="s">
+        <v>651</v>
+      </c>
+      <c r="D389" s="39">
+        <v>78.3</v>
+      </c>
+      <c r="E389" s="39" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F389" s="39" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G389" s="43" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" ht="60">
       <c r="A390" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B390" s="39" t="s">
-        <v>650</v>
-      </c>
-      <c r="C390" s="43" t="s">
-        <v>651</v>
-      </c>
-      <c r="D390" s="39">
-        <v>78.3</v>
+        <v>652</v>
+      </c>
+      <c r="C390" s="39" t="s">
+        <v>653</v>
+      </c>
+      <c r="D390" s="39" t="s">
+        <v>999</v>
       </c>
       <c r="E390" s="39" t="s">
-        <v>1207</v>
+        <v>1223</v>
       </c>
       <c r="F390" s="39" t="s">
         <v>1180</v>
       </c>
-      <c r="G390" s="43" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="391" spans="1:7" ht="60">
+      <c r="G390" s="39"/>
+    </row>
+    <row r="391" spans="1:7" ht="30">
       <c r="A391" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B391" s="39" t="s">
-        <v>652</v>
-      </c>
-      <c r="C391" s="39" t="s">
-        <v>653</v>
-      </c>
-      <c r="D391" s="39" t="s">
-        <v>999</v>
+        <v>654</v>
+      </c>
+      <c r="C391" s="43" t="s">
+        <v>655</v>
+      </c>
+      <c r="D391" s="39">
+        <v>78.099999999999994</v>
       </c>
       <c r="E391" s="39" t="s">
-        <v>1223</v>
+        <v>1207</v>
       </c>
       <c r="F391" s="39" t="s">
         <v>1180</v>
       </c>
-      <c r="G391" s="39"/>
-    </row>
-    <row r="392" spans="1:7" ht="30">
+      <c r="G391" s="43"/>
+    </row>
+    <row r="392" spans="1:7">
       <c r="A392" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B392" s="39" t="s">
-        <v>654</v>
-      </c>
-      <c r="C392" s="43" t="s">
-        <v>655</v>
-      </c>
-      <c r="D392" s="39">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E392" s="39" t="s">
-        <v>1207</v>
-      </c>
-      <c r="F392" s="39" t="s">
-        <v>1180</v>
-      </c>
-      <c r="G392" s="43"/>
+        <v>656</v>
+      </c>
+      <c r="C392" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D392" s="40"/>
+      <c r="E392" s="40"/>
+      <c r="F392" s="40"/>
+      <c r="G392" s="40"/>
     </row>
     <row r="393" spans="1:7">
       <c r="A393" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B393" s="39" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C393" s="40" t="s">
-        <v>43</v>
+        <v>624</v>
       </c>
       <c r="D393" s="40"/>
       <c r="E393" s="40"/>
       <c r="F393" s="40"/>
       <c r="G393" s="40"/>
     </row>
-    <row r="394" spans="1:7">
+    <row r="394" spans="1:7" ht="45">
       <c r="A394" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B394" s="39" t="s">
-        <v>657</v>
-      </c>
-      <c r="C394" s="40" t="s">
-        <v>624</v>
-      </c>
-      <c r="D394" s="40"/>
-      <c r="E394" s="40"/>
-      <c r="F394" s="40"/>
-      <c r="G394" s="40"/>
+        <v>658</v>
+      </c>
+      <c r="C394" s="43" t="s">
+        <v>659</v>
+      </c>
+      <c r="D394" s="39" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E394" s="39"/>
+      <c r="F394" s="39" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G394" s="43" t="s">
+        <v>1114</v>
+      </c>
     </row>
     <row r="395" spans="1:7" ht="45">
       <c r="A395" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B395" s="39" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="C395" s="43" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="D395" s="39" t="s">
-        <v>1037</v>
+        <v>662</v>
       </c>
       <c r="E395" s="39"/>
       <c r="F395" s="39" t="s">
         <v>1180</v>
       </c>
-      <c r="G395" s="43" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="396" spans="1:7" ht="45">
+      <c r="G395" s="43"/>
+    </row>
+    <row r="396" spans="1:7">
       <c r="A396" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B396" s="39" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="C396" s="43" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="D396" s="39" t="s">
-        <v>662</v>
+        <v>560</v>
       </c>
       <c r="E396" s="39"/>
       <c r="F396" s="39" t="s">
@@ -15614,18 +15614,18 @@
       </c>
       <c r="G396" s="43"/>
     </row>
-    <row r="397" spans="1:7">
+    <row r="397" spans="1:7" ht="45">
       <c r="A397" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B397" s="39" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="C397" s="43" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="D397" s="39" t="s">
-        <v>560</v>
+        <v>583</v>
       </c>
       <c r="E397" s="39"/>
       <c r="F397" s="39" t="s">
@@ -15633,18 +15633,18 @@
       </c>
       <c r="G397" s="43"/>
     </row>
-    <row r="398" spans="1:7" ht="45">
+    <row r="398" spans="1:7" ht="30">
       <c r="A398" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B398" s="39" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C398" s="43" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="D398" s="39" t="s">
-        <v>583</v>
+        <v>598</v>
       </c>
       <c r="E398" s="39"/>
       <c r="F398" s="39" t="s">
@@ -15652,18 +15652,18 @@
       </c>
       <c r="G398" s="43"/>
     </row>
-    <row r="399" spans="1:7" ht="30">
+    <row r="399" spans="1:7" ht="45">
       <c r="A399" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B399" s="39" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C399" s="43" t="s">
-        <v>668</v>
+        <v>638</v>
       </c>
       <c r="D399" s="39" t="s">
-        <v>598</v>
+        <v>566</v>
       </c>
       <c r="E399" s="39"/>
       <c r="F399" s="39" t="s">
@@ -15671,300 +15671,296 @@
       </c>
       <c r="G399" s="43"/>
     </row>
-    <row r="400" spans="1:7" ht="45">
+    <row r="400" spans="1:7">
       <c r="A400" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B400" s="39" t="s">
-        <v>669</v>
-      </c>
-      <c r="C400" s="43" t="s">
-        <v>638</v>
-      </c>
-      <c r="D400" s="39" t="s">
-        <v>566</v>
-      </c>
-      <c r="E400" s="39"/>
-      <c r="F400" s="39" t="s">
-        <v>1180</v>
-      </c>
-      <c r="G400" s="43"/>
+        <v>670</v>
+      </c>
+      <c r="C400" s="40" t="s">
+        <v>600</v>
+      </c>
+      <c r="D400" s="40"/>
+      <c r="E400" s="40"/>
+      <c r="F400" s="40"/>
+      <c r="G400" s="40"/>
     </row>
     <row r="401" spans="1:7">
       <c r="A401" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B401" s="39" t="s">
-        <v>670</v>
-      </c>
-      <c r="C401" s="40" t="s">
-        <v>600</v>
-      </c>
-      <c r="D401" s="40"/>
-      <c r="E401" s="40"/>
-      <c r="F401" s="40"/>
-      <c r="G401" s="40"/>
+        <v>671</v>
+      </c>
+      <c r="C401" s="43" t="s">
+        <v>602</v>
+      </c>
+      <c r="D401" s="39" t="s">
+        <v>577</v>
+      </c>
+      <c r="E401" s="39"/>
+      <c r="F401" s="39" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G401" s="43" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="402" spans="1:7">
       <c r="A402" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B402" s="39" t="s">
-        <v>671</v>
-      </c>
-      <c r="C402" s="43" t="s">
-        <v>602</v>
+        <v>672</v>
+      </c>
+      <c r="C402" s="39" t="s">
+        <v>604</v>
       </c>
       <c r="D402" s="39" t="s">
-        <v>577</v>
-      </c>
-      <c r="E402" s="39"/>
+        <v>1066</v>
+      </c>
+      <c r="E402" s="39" t="s">
+        <v>1222</v>
+      </c>
       <c r="F402" s="39" t="s">
         <v>1180</v>
       </c>
-      <c r="G402" s="43" t="s">
-        <v>1111</v>
-      </c>
+      <c r="G402" s="39"/>
     </row>
     <row r="403" spans="1:7">
       <c r="A403" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B403" s="39" t="s">
-        <v>672</v>
-      </c>
-      <c r="C403" s="39" t="s">
-        <v>604</v>
-      </c>
-      <c r="D403" s="39" t="s">
-        <v>1066</v>
-      </c>
-      <c r="E403" s="39" t="s">
-        <v>1222</v>
-      </c>
-      <c r="F403" s="39" t="s">
-        <v>1180</v>
-      </c>
-      <c r="G403" s="39"/>
+        <v>673</v>
+      </c>
+      <c r="C403" s="40" t="s">
+        <v>606</v>
+      </c>
+      <c r="D403" s="40"/>
+      <c r="E403" s="40"/>
+      <c r="F403" s="40"/>
+      <c r="G403" s="40"/>
     </row>
     <row r="404" spans="1:7">
       <c r="A404" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B404" s="39" t="s">
-        <v>673</v>
-      </c>
-      <c r="C404" s="40" t="s">
-        <v>606</v>
-      </c>
-      <c r="D404" s="40"/>
-      <c r="E404" s="40"/>
-      <c r="F404" s="40"/>
-      <c r="G404" s="40"/>
-    </row>
-    <row r="405" spans="1:7">
+        <v>674</v>
+      </c>
+      <c r="C404" s="43" t="s">
+        <v>570</v>
+      </c>
+      <c r="D404" s="39" t="s">
+        <v>571</v>
+      </c>
+      <c r="E404" s="39"/>
+      <c r="F404" s="39" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G404" s="43" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7" ht="30">
       <c r="A405" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B405" s="39" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C405" s="43" t="s">
-        <v>570</v>
+        <v>645</v>
       </c>
       <c r="D405" s="39" t="s">
-        <v>571</v>
-      </c>
-      <c r="E405" s="39"/>
+        <v>1071</v>
+      </c>
+      <c r="E405" s="46"/>
       <c r="F405" s="39" t="s">
         <v>1180</v>
       </c>
-      <c r="G405" s="43" t="s">
-        <v>1112</v>
-      </c>
+      <c r="G405" s="43"/>
     </row>
     <row r="406" spans="1:7" ht="30">
       <c r="A406" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B406" s="39" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C406" s="43" t="s">
-        <v>645</v>
+        <v>611</v>
       </c>
       <c r="D406" s="39" t="s">
-        <v>1071</v>
-      </c>
-      <c r="E406" s="46"/>
+        <v>577</v>
+      </c>
+      <c r="E406" s="39"/>
       <c r="F406" s="39" t="s">
         <v>1180</v>
       </c>
       <c r="G406" s="43"/>
     </row>
-    <row r="407" spans="1:7" ht="30">
+    <row r="407" spans="1:7">
       <c r="A407" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B407" s="39" t="s">
-        <v>676</v>
-      </c>
-      <c r="C407" s="43" t="s">
-        <v>611</v>
+        <v>677</v>
+      </c>
+      <c r="C407" s="39" t="s">
+        <v>613</v>
       </c>
       <c r="D407" s="39" t="s">
-        <v>577</v>
+        <v>1069</v>
       </c>
       <c r="E407" s="39"/>
       <c r="F407" s="39" t="s">
         <v>1180</v>
       </c>
-      <c r="G407" s="43"/>
-    </row>
-    <row r="408" spans="1:7">
+      <c r="G407" s="39"/>
+    </row>
+    <row r="408" spans="1:7" ht="30">
       <c r="A408" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B408" s="39" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C408" s="39" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="D408" s="39" t="s">
-        <v>1069</v>
-      </c>
-      <c r="E408" s="39"/>
+        <v>1067</v>
+      </c>
+      <c r="E408" s="39" t="s">
+        <v>616</v>
+      </c>
       <c r="F408" s="39" t="s">
         <v>1180</v>
       </c>
       <c r="G408" s="39"/>
     </row>
-    <row r="409" spans="1:7" ht="30">
+    <row r="409" spans="1:7">
       <c r="A409" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B409" s="39" t="s">
-        <v>678</v>
-      </c>
-      <c r="C409" s="39" t="s">
-        <v>615</v>
-      </c>
-      <c r="D409" s="39" t="s">
-        <v>1067</v>
-      </c>
-      <c r="E409" s="39" t="s">
-        <v>616</v>
-      </c>
-      <c r="F409" s="39" t="s">
-        <v>1180</v>
-      </c>
-      <c r="G409" s="39"/>
+      <c r="B409" s="39">
+        <v>11.4</v>
+      </c>
+      <c r="C409" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="D409" s="40"/>
+      <c r="E409" s="40"/>
+      <c r="F409" s="40"/>
+      <c r="G409" s="40"/>
     </row>
     <row r="410" spans="1:7">
       <c r="A410" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B410" s="39">
-        <v>11.4</v>
-      </c>
-      <c r="C410" s="38" t="s">
-        <v>46</v>
+      <c r="B410" s="39" t="s">
+        <v>679</v>
+      </c>
+      <c r="C410" s="40" t="s">
+        <v>42</v>
       </c>
       <c r="D410" s="40"/>
       <c r="E410" s="40"/>
       <c r="F410" s="40"/>
       <c r="G410" s="40"/>
     </row>
-    <row r="411" spans="1:7">
+    <row r="411" spans="1:7" ht="105">
       <c r="A411" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B411" s="39" t="s">
-        <v>679</v>
-      </c>
-      <c r="C411" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="D411" s="40"/>
-      <c r="E411" s="40"/>
-      <c r="F411" s="40"/>
-      <c r="G411" s="40"/>
-    </row>
-    <row r="412" spans="1:7" ht="105">
+        <v>680</v>
+      </c>
+      <c r="C411" s="43" t="s">
+        <v>651</v>
+      </c>
+      <c r="D411" s="39">
+        <v>78.3</v>
+      </c>
+      <c r="E411" s="6" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F411" s="39" t="s">
+        <v>1183</v>
+      </c>
+      <c r="G411" s="43" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7" ht="90">
       <c r="A412" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B412" s="39" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C412" s="43" t="s">
-        <v>651</v>
+        <v>682</v>
       </c>
       <c r="D412" s="39">
-        <v>78.3</v>
-      </c>
-      <c r="E412" s="6" t="s">
-        <v>1224</v>
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E412" s="39" t="s">
+        <v>1225</v>
       </c>
       <c r="F412" s="39" t="s">
         <v>1183</v>
       </c>
-      <c r="G412" s="43" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="413" spans="1:7" ht="90">
+      <c r="G412" s="43"/>
+    </row>
+    <row r="413" spans="1:7" ht="30">
       <c r="A413" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B413" s="39" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="C413" s="43" t="s">
-        <v>682</v>
+        <v>655</v>
       </c>
       <c r="D413" s="39">
         <v>78.099999999999994</v>
       </c>
       <c r="E413" s="39" t="s">
-        <v>1225</v>
+        <v>1207</v>
       </c>
       <c r="F413" s="39" t="s">
         <v>1183</v>
       </c>
       <c r="G413" s="43"/>
     </row>
-    <row r="414" spans="1:7" ht="30">
+    <row r="414" spans="1:7">
       <c r="A414" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B414" s="39" t="s">
-        <v>683</v>
-      </c>
-      <c r="C414" s="43" t="s">
-        <v>655</v>
-      </c>
-      <c r="D414" s="39">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E414" s="39" t="s">
-        <v>1207</v>
-      </c>
-      <c r="F414" s="39" t="s">
-        <v>1183</v>
-      </c>
-      <c r="G414" s="43"/>
+        <v>684</v>
+      </c>
+      <c r="C414" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D414" s="40"/>
+      <c r="E414" s="40"/>
+      <c r="F414" s="40"/>
+      <c r="G414" s="40"/>
     </row>
     <row r="415" spans="1:7">
       <c r="A415" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B415" s="39" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C415" s="40" t="s">
-        <v>43</v>
+        <v>624</v>
       </c>
       <c r="D415" s="40"/>
       <c r="E415" s="40"/>
@@ -15976,49 +15972,53 @@
         <v>56</v>
       </c>
       <c r="B416" s="39" t="s">
-        <v>685</v>
-      </c>
-      <c r="C416" s="40" t="s">
-        <v>624</v>
-      </c>
-      <c r="D416" s="40"/>
-      <c r="E416" s="40"/>
-      <c r="F416" s="40"/>
-      <c r="G416" s="40"/>
+        <v>686</v>
+      </c>
+      <c r="C416" s="39" t="s">
+        <v>626</v>
+      </c>
+      <c r="D416" s="39" t="s">
+        <v>627</v>
+      </c>
+      <c r="E416" s="39"/>
+      <c r="F416" s="39" t="s">
+        <v>1183</v>
+      </c>
+      <c r="G416" s="39" t="s">
+        <v>1115</v>
+      </c>
     </row>
     <row r="417" spans="1:7">
       <c r="A417" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B417" s="39" t="s">
-        <v>686</v>
-      </c>
-      <c r="C417" s="39" t="s">
-        <v>626</v>
+        <v>687</v>
+      </c>
+      <c r="C417" s="43" t="s">
+        <v>688</v>
       </c>
       <c r="D417" s="39" t="s">
-        <v>627</v>
+        <v>557</v>
       </c>
       <c r="E417" s="39"/>
       <c r="F417" s="39" t="s">
         <v>1183</v>
       </c>
-      <c r="G417" s="39" t="s">
-        <v>1115</v>
-      </c>
+      <c r="G417" s="43"/>
     </row>
     <row r="418" spans="1:7">
       <c r="A418" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B418" s="39" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="C418" s="43" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="D418" s="39" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="E418" s="39"/>
       <c r="F418" s="39" t="s">
@@ -16026,89 +16026,89 @@
       </c>
       <c r="G418" s="43"/>
     </row>
-    <row r="419" spans="1:7">
+    <row r="419" spans="1:7" ht="30">
       <c r="A419" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B419" s="39" t="s">
-        <v>689</v>
-      </c>
-      <c r="C419" s="43" t="s">
-        <v>690</v>
+        <v>691</v>
+      </c>
+      <c r="C419" s="39" t="s">
+        <v>692</v>
       </c>
       <c r="D419" s="39" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="E419" s="39"/>
       <c r="F419" s="39" t="s">
         <v>1183</v>
       </c>
-      <c r="G419" s="43"/>
-    </row>
-    <row r="420" spans="1:7" ht="30">
+      <c r="G419" s="39"/>
+    </row>
+    <row r="420" spans="1:7">
       <c r="A420" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B420" s="39" t="s">
-        <v>691</v>
-      </c>
-      <c r="C420" s="39" t="s">
-        <v>692</v>
-      </c>
-      <c r="D420" s="39" t="s">
-        <v>566</v>
-      </c>
-      <c r="E420" s="39"/>
-      <c r="F420" s="39" t="s">
+        <v>693</v>
+      </c>
+      <c r="C420" s="40" t="s">
+        <v>694</v>
+      </c>
+      <c r="D420" s="40"/>
+      <c r="E420" s="40"/>
+      <c r="F420" s="40"/>
+      <c r="G420" s="40"/>
+    </row>
+    <row r="421" spans="1:7" ht="30">
+      <c r="A421" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B421" s="39" t="s">
+        <v>695</v>
+      </c>
+      <c r="C421" s="39" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D421" s="39" t="s">
+        <v>697</v>
+      </c>
+      <c r="E421" s="39"/>
+      <c r="F421" s="39" t="s">
         <v>1183</v>
       </c>
-      <c r="G420" s="39"/>
-    </row>
-    <row r="421" spans="1:7">
-      <c r="A421" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="B421" s="39" t="s">
-        <v>693</v>
-      </c>
-      <c r="C421" s="40" t="s">
-        <v>694</v>
-      </c>
-      <c r="D421" s="40"/>
-      <c r="E421" s="40"/>
-      <c r="F421" s="40"/>
-      <c r="G421" s="40"/>
+      <c r="G421" s="39" t="s">
+        <v>1116</v>
+      </c>
     </row>
     <row r="422" spans="1:7" ht="30">
       <c r="A422" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B422" s="39" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="C422" s="39" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="D422" s="39" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="E422" s="39"/>
       <c r="F422" s="39" t="s">
         <v>1183</v>
       </c>
-      <c r="G422" s="39" t="s">
-        <v>1116</v>
-      </c>
+      <c r="G422" s="39"/>
     </row>
     <row r="423" spans="1:7" ht="30">
       <c r="A423" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B423" s="39" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="C423" s="39" t="s">
-        <v>1291</v>
+        <v>702</v>
       </c>
       <c r="D423" s="39" t="s">
         <v>700</v>
@@ -16119,73 +16119,73 @@
       </c>
       <c r="G423" s="39"/>
     </row>
-    <row r="424" spans="1:7" ht="30">
+    <row r="424" spans="1:7">
       <c r="A424" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B424" s="39" t="s">
-        <v>701</v>
-      </c>
-      <c r="C424" s="39" t="s">
-        <v>702</v>
-      </c>
-      <c r="D424" s="39" t="s">
-        <v>700</v>
-      </c>
-      <c r="E424" s="39"/>
-      <c r="F424" s="39" t="s">
-        <v>1183</v>
-      </c>
-      <c r="G424" s="39"/>
+        <v>703</v>
+      </c>
+      <c r="C424" s="40" t="s">
+        <v>606</v>
+      </c>
+      <c r="D424" s="40"/>
+      <c r="E424" s="40"/>
+      <c r="F424" s="40"/>
+      <c r="G424" s="40"/>
     </row>
     <row r="425" spans="1:7">
       <c r="A425" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B425" s="39" t="s">
-        <v>703</v>
-      </c>
-      <c r="C425" s="40" t="s">
-        <v>606</v>
-      </c>
-      <c r="D425" s="40"/>
-      <c r="E425" s="40"/>
-      <c r="F425" s="40"/>
-      <c r="G425" s="40"/>
+        <v>704</v>
+      </c>
+      <c r="C425" s="43" t="s">
+        <v>570</v>
+      </c>
+      <c r="D425" s="39" t="s">
+        <v>571</v>
+      </c>
+      <c r="E425" s="39"/>
+      <c r="F425" s="39" t="s">
+        <v>1183</v>
+      </c>
+      <c r="G425" s="43" t="s">
+        <v>1117</v>
+      </c>
     </row>
     <row r="426" spans="1:7">
       <c r="A426" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B426" s="39" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C426" s="43" t="s">
-        <v>570</v>
+        <v>706</v>
       </c>
       <c r="D426" s="39" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="E426" s="39"/>
       <c r="F426" s="39" t="s">
         <v>1183</v>
       </c>
-      <c r="G426" s="43" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="427" spans="1:7">
+      <c r="G426" s="43"/>
+    </row>
+    <row r="427" spans="1:7" ht="30">
       <c r="A427" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B427" s="39" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="C427" s="43" t="s">
-        <v>706</v>
+        <v>611</v>
       </c>
       <c r="D427" s="39" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="E427" s="39"/>
       <c r="F427" s="39" t="s">
@@ -16193,15 +16193,15 @@
       </c>
       <c r="G427" s="43"/>
     </row>
-    <row r="428" spans="1:7" ht="30">
+    <row r="428" spans="1:7">
       <c r="A428" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B428" s="39" t="s">
-        <v>707</v>
-      </c>
-      <c r="C428" s="43" t="s">
-        <v>611</v>
+        <v>708</v>
+      </c>
+      <c r="C428" s="39" t="s">
+        <v>613</v>
       </c>
       <c r="D428" s="39" t="s">
         <v>577</v>
@@ -16210,39 +16210,39 @@
       <c r="F428" s="39" t="s">
         <v>1183</v>
       </c>
-      <c r="G428" s="43"/>
+      <c r="G428" s="39"/>
     </row>
     <row r="429" spans="1:7">
       <c r="A429" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B429" s="39" t="s">
-        <v>708</v>
-      </c>
-      <c r="C429" s="39" t="s">
-        <v>613</v>
+        <v>709</v>
+      </c>
+      <c r="C429" s="43" t="s">
+        <v>579</v>
       </c>
       <c r="D429" s="39" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="E429" s="39"/>
       <c r="F429" s="39" t="s">
         <v>1183</v>
       </c>
-      <c r="G429" s="39"/>
-    </row>
-    <row r="430" spans="1:7">
+      <c r="G429" s="43"/>
+    </row>
+    <row r="430" spans="1:7" ht="45">
       <c r="A430" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B430" s="39" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C430" s="43" t="s">
-        <v>579</v>
+        <v>666</v>
       </c>
       <c r="D430" s="39" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="E430" s="39"/>
       <c r="F430" s="39" t="s">
@@ -16250,51 +16250,53 @@
       </c>
       <c r="G430" s="43"/>
     </row>
-    <row r="431" spans="1:7" ht="45">
+    <row r="431" spans="1:7">
       <c r="A431" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B431" s="39" t="s">
-        <v>710</v>
-      </c>
-      <c r="C431" s="43" t="s">
-        <v>666</v>
-      </c>
-      <c r="D431" s="39" t="s">
-        <v>583</v>
-      </c>
-      <c r="E431" s="39"/>
+        <v>711</v>
+      </c>
+      <c r="C431" s="40" t="s">
+        <v>585</v>
+      </c>
+      <c r="D431" s="40"/>
+      <c r="E431" s="40"/>
       <c r="F431" s="39" t="s">
         <v>1183</v>
       </c>
-      <c r="G431" s="43"/>
-    </row>
-    <row r="432" spans="1:7">
+      <c r="G431" s="40"/>
+    </row>
+    <row r="432" spans="1:7" ht="90">
       <c r="A432" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B432" s="39" t="s">
-        <v>711</v>
-      </c>
-      <c r="C432" s="40" t="s">
-        <v>585</v>
-      </c>
-      <c r="D432" s="40"/>
-      <c r="E432" s="40"/>
+        <v>712</v>
+      </c>
+      <c r="C432" s="43" t="s">
+        <v>588</v>
+      </c>
+      <c r="D432" s="39" t="s">
+        <v>586</v>
+      </c>
+      <c r="E432" s="39"/>
       <c r="F432" s="39" t="s">
         <v>1183</v>
       </c>
-      <c r="G432" s="40"/>
-    </row>
-    <row r="433" spans="1:7" ht="90">
+      <c r="G432" s="43" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7" ht="60">
       <c r="A433" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B433" s="39" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C433" s="43" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="D433" s="39" t="s">
         <v>586</v>
@@ -16303,19 +16305,17 @@
       <c r="F433" s="39" t="s">
         <v>1183</v>
       </c>
-      <c r="G433" s="43" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="434" spans="1:7" ht="60">
+      <c r="G433" s="43"/>
+    </row>
+    <row r="434" spans="1:7" ht="30">
       <c r="A434" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B434" s="39" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C434" s="43" t="s">
-        <v>590</v>
+        <v>715</v>
       </c>
       <c r="D434" s="39" t="s">
         <v>586</v>
@@ -16324,171 +16324,171 @@
       <c r="F434" s="39" t="s">
         <v>1183</v>
       </c>
-      <c r="G434" s="43"/>
+      <c r="G434" s="43" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="435" spans="1:7" ht="30">
       <c r="A435" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B435" s="39" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C435" s="43" t="s">
-        <v>715</v>
+        <v>668</v>
       </c>
       <c r="D435" s="39" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="E435" s="39"/>
       <c r="F435" s="39" t="s">
         <v>1183</v>
       </c>
-      <c r="G435" s="43" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="436" spans="1:7" ht="30">
+      <c r="G435" s="43"/>
+    </row>
+    <row r="436" spans="1:7">
       <c r="A436" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B436" s="39" t="s">
-        <v>716</v>
-      </c>
-      <c r="C436" s="43" t="s">
-        <v>668</v>
-      </c>
-      <c r="D436" s="39" t="s">
-        <v>598</v>
-      </c>
-      <c r="E436" s="39"/>
+        <v>717</v>
+      </c>
+      <c r="C436" s="40" t="s">
+        <v>600</v>
+      </c>
+      <c r="D436" s="40"/>
+      <c r="E436" s="40"/>
       <c r="F436" s="39" t="s">
         <v>1183</v>
       </c>
-      <c r="G436" s="43"/>
+      <c r="G436" s="40"/>
     </row>
     <row r="437" spans="1:7">
       <c r="A437" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B437" s="39" t="s">
-        <v>717</v>
-      </c>
-      <c r="C437" s="40" t="s">
-        <v>600</v>
-      </c>
-      <c r="D437" s="40"/>
-      <c r="E437" s="40"/>
+        <v>718</v>
+      </c>
+      <c r="C437" s="43" t="s">
+        <v>602</v>
+      </c>
+      <c r="D437" s="39" t="s">
+        <v>577</v>
+      </c>
+      <c r="E437" s="39"/>
       <c r="F437" s="39" t="s">
         <v>1183</v>
       </c>
-      <c r="G437" s="40"/>
+      <c r="G437" s="43" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="438" spans="1:7">
       <c r="A438" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B438" s="39" t="s">
-        <v>718</v>
-      </c>
-      <c r="C438" s="43" t="s">
-        <v>602</v>
+        <v>719</v>
+      </c>
+      <c r="C438" s="39" t="s">
+        <v>604</v>
       </c>
       <c r="D438" s="39" t="s">
-        <v>577</v>
-      </c>
-      <c r="E438" s="39"/>
+        <v>1066</v>
+      </c>
+      <c r="E438" s="39" t="s">
+        <v>1222</v>
+      </c>
       <c r="F438" s="39" t="s">
         <v>1183</v>
       </c>
-      <c r="G438" s="43" t="s">
-        <v>1111</v>
-      </c>
+      <c r="G438" s="39"/>
     </row>
     <row r="439" spans="1:7">
       <c r="A439" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B439" s="39" t="s">
-        <v>719</v>
-      </c>
-      <c r="C439" s="39" t="s">
-        <v>604</v>
-      </c>
-      <c r="D439" s="39" t="s">
-        <v>1066</v>
-      </c>
-      <c r="E439" s="39" t="s">
-        <v>1222</v>
-      </c>
+        <v>720</v>
+      </c>
+      <c r="C439" s="40" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D439" s="40"/>
+      <c r="E439" s="40"/>
       <c r="F439" s="39" t="s">
         <v>1183</v>
       </c>
-      <c r="G439" s="39"/>
-    </row>
-    <row r="440" spans="1:7">
+      <c r="G439" s="40"/>
+    </row>
+    <row r="440" spans="1:7" ht="30">
       <c r="A440" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B440" s="39" t="s">
-        <v>720</v>
-      </c>
-      <c r="C440" s="40" t="s">
-        <v>1076</v>
-      </c>
-      <c r="D440" s="40"/>
-      <c r="E440" s="40"/>
+        <v>725</v>
+      </c>
+      <c r="C440" s="39" t="s">
+        <v>615</v>
+      </c>
+      <c r="D440" s="39" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E440" s="39" t="s">
+        <v>616</v>
+      </c>
       <c r="F440" s="39" t="s">
         <v>1183</v>
       </c>
-      <c r="G440" s="40"/>
-    </row>
-    <row r="441" spans="1:7" ht="30">
+      <c r="G440" s="39"/>
+    </row>
+    <row r="441" spans="1:7">
       <c r="A441" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B441" s="39" t="s">
-        <v>725</v>
-      </c>
-      <c r="C441" s="39" t="s">
-        <v>615</v>
-      </c>
-      <c r="D441" s="39" t="s">
-        <v>1067</v>
-      </c>
-      <c r="E441" s="39" t="s">
-        <v>616</v>
-      </c>
+      <c r="B441" s="39">
+        <v>11.5</v>
+      </c>
+      <c r="C441" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="D441" s="40"/>
+      <c r="E441" s="40"/>
       <c r="F441" s="39" t="s">
         <v>1183</v>
       </c>
-      <c r="G441" s="39"/>
+      <c r="G441" s="38"/>
     </row>
     <row r="442" spans="1:7">
       <c r="A442" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B442" s="39">
-        <v>11.5</v>
-      </c>
-      <c r="C442" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="D442" s="40"/>
-      <c r="E442" s="40"/>
+      <c r="B442" s="39" t="s">
+        <v>726</v>
+      </c>
+      <c r="C442" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D442" s="39"/>
+      <c r="E442" s="43" t="s">
+        <v>268</v>
+      </c>
       <c r="F442" s="39" t="s">
         <v>1183</v>
       </c>
-      <c r="G442" s="38"/>
+      <c r="G442" s="43"/>
     </row>
     <row r="443" spans="1:7">
       <c r="A443" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B443" s="39" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C443" s="43" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D443" s="39"/>
       <c r="E443" s="43" t="s">
@@ -16504,10 +16504,10 @@
         <v>56</v>
       </c>
       <c r="B444" s="39" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C444" s="43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D444" s="39"/>
       <c r="E444" s="43" t="s">
@@ -16522,47 +16522,47 @@
       <c r="A445" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B445" s="39" t="s">
-        <v>728</v>
-      </c>
-      <c r="C445" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="D445" s="39"/>
-      <c r="E445" s="43" t="s">
-        <v>268</v>
-      </c>
+      <c r="B445" s="39">
+        <v>11.6</v>
+      </c>
+      <c r="C445" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D445" s="40"/>
+      <c r="E445" s="38"/>
       <c r="F445" s="39" t="s">
         <v>1183</v>
       </c>
-      <c r="G445" s="43"/>
+      <c r="G445" s="38"/>
     </row>
     <row r="446" spans="1:7">
       <c r="A446" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B446" s="39">
-        <v>11.6</v>
-      </c>
-      <c r="C446" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="D446" s="40"/>
-      <c r="E446" s="38"/>
+      <c r="B446" s="39" t="s">
+        <v>729</v>
+      </c>
+      <c r="C446" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="D446" s="39"/>
+      <c r="E446" s="43" t="s">
+        <v>268</v>
+      </c>
       <c r="F446" s="39" t="s">
         <v>1183</v>
       </c>
-      <c r="G446" s="38"/>
+      <c r="G446" s="43"/>
     </row>
     <row r="447" spans="1:7">
       <c r="A447" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B447" s="39" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C447" s="43" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D447" s="39"/>
       <c r="E447" s="43" t="s">
@@ -16577,81 +16577,81 @@
       <c r="A448" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B448" s="39" t="s">
-        <v>730</v>
-      </c>
-      <c r="C448" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="D448" s="39"/>
-      <c r="E448" s="43" t="s">
-        <v>268</v>
-      </c>
-      <c r="F448" s="39" t="s">
-        <v>1183</v>
-      </c>
-      <c r="G448" s="43"/>
+      <c r="B448" s="39">
+        <v>11.7</v>
+      </c>
+      <c r="C448" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D448" s="40"/>
+      <c r="E448" s="40"/>
+      <c r="F448" s="40"/>
+      <c r="G448" s="38"/>
     </row>
     <row r="449" spans="1:7">
       <c r="A449" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B449" s="39">
-        <v>11.7</v>
-      </c>
-      <c r="C449" s="38" t="s">
-        <v>51</v>
+      <c r="B449" s="39" t="s">
+        <v>731</v>
+      </c>
+      <c r="C449" s="40" t="s">
+        <v>42</v>
       </c>
       <c r="D449" s="40"/>
       <c r="E449" s="40"/>
       <c r="F449" s="40"/>
-      <c r="G449" s="38"/>
-    </row>
-    <row r="450" spans="1:7">
+      <c r="G449" s="40"/>
+    </row>
+    <row r="450" spans="1:7" ht="105">
       <c r="A450" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B450" s="39" t="s">
-        <v>731</v>
-      </c>
-      <c r="C450" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="D450" s="40"/>
-      <c r="E450" s="40"/>
-      <c r="F450" s="40"/>
-      <c r="G450" s="40"/>
-    </row>
-    <row r="451" spans="1:7" ht="105">
+        <v>732</v>
+      </c>
+      <c r="C450" s="43" t="s">
+        <v>651</v>
+      </c>
+      <c r="D450" s="39">
+        <v>78.3</v>
+      </c>
+      <c r="E450" s="39"/>
+      <c r="F450" s="39" t="s">
+        <v>1127</v>
+      </c>
+      <c r="G450" s="43" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="451" spans="1:7" ht="30">
       <c r="A451" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B451" s="39" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C451" s="43" t="s">
-        <v>651</v>
+        <v>682</v>
       </c>
       <c r="D451" s="39">
-        <v>78.3</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="E451" s="39"/>
       <c r="F451" s="39" t="s">
         <v>1127</v>
       </c>
-      <c r="G451" s="43" t="s">
-        <v>1108</v>
-      </c>
+      <c r="G451" s="43"/>
     </row>
     <row r="452" spans="1:7" ht="30">
       <c r="A452" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B452" s="39" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C452" s="43" t="s">
-        <v>682</v>
+        <v>655</v>
       </c>
       <c r="D452" s="39">
         <v>78.099999999999994</v>
@@ -16662,107 +16662,107 @@
       </c>
       <c r="G452" s="43"/>
     </row>
-    <row r="453" spans="1:7" ht="30">
+    <row r="453" spans="1:7">
       <c r="A453" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B453" s="39" t="s">
-        <v>734</v>
-      </c>
-      <c r="C453" s="43" t="s">
-        <v>655</v>
-      </c>
-      <c r="D453" s="39">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E453" s="39"/>
-      <c r="F453" s="39" t="s">
-        <v>1127</v>
-      </c>
-      <c r="G453" s="43"/>
+        <v>735</v>
+      </c>
+      <c r="C453" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D453" s="40"/>
+      <c r="E453" s="40"/>
+      <c r="F453" s="40"/>
+      <c r="G453" s="40"/>
     </row>
     <row r="454" spans="1:7">
       <c r="A454" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B454" s="39" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C454" s="40" t="s">
-        <v>43</v>
+        <v>624</v>
       </c>
       <c r="D454" s="40"/>
       <c r="E454" s="40"/>
       <c r="F454" s="40"/>
       <c r="G454" s="40"/>
     </row>
-    <row r="455" spans="1:7">
+    <row r="455" spans="1:7" ht="30">
       <c r="A455" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B455" s="39" t="s">
-        <v>736</v>
-      </c>
-      <c r="C455" s="40" t="s">
-        <v>624</v>
-      </c>
-      <c r="D455" s="40"/>
-      <c r="E455" s="40"/>
-      <c r="F455" s="40"/>
-      <c r="G455" s="40"/>
-    </row>
-    <row r="456" spans="1:7" ht="30">
+        <v>737</v>
+      </c>
+      <c r="C455" s="43" t="s">
+        <v>738</v>
+      </c>
+      <c r="D455" s="39" t="s">
+        <v>557</v>
+      </c>
+      <c r="E455" s="39"/>
+      <c r="F455" s="39" t="s">
+        <v>1127</v>
+      </c>
+      <c r="G455" s="43" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="456" spans="1:7">
       <c r="A456" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B456" s="39" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="C456" s="43" t="s">
-        <v>738</v>
+        <v>690</v>
       </c>
       <c r="D456" s="39" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="E456" s="39"/>
       <c r="F456" s="39" t="s">
         <v>1127</v>
       </c>
-      <c r="G456" s="43" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="457" spans="1:7">
+      <c r="G456" s="43"/>
+    </row>
+    <row r="457" spans="1:7" ht="30">
       <c r="A457" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B457" s="39" t="s">
-        <v>739</v>
-      </c>
-      <c r="C457" s="43" t="s">
-        <v>690</v>
+        <v>740</v>
+      </c>
+      <c r="C457" s="39" t="s">
+        <v>741</v>
       </c>
       <c r="D457" s="39" t="s">
-        <v>560</v>
+        <v>1068</v>
       </c>
       <c r="E457" s="39"/>
       <c r="F457" s="39" t="s">
         <v>1127</v>
       </c>
-      <c r="G457" s="43"/>
-    </row>
-    <row r="458" spans="1:7" ht="30">
+      <c r="G457" s="39"/>
+    </row>
+    <row r="458" spans="1:7" ht="45">
       <c r="A458" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B458" s="39" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="C458" s="39" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="D458" s="39" t="s">
-        <v>1068</v>
+        <v>598</v>
       </c>
       <c r="E458" s="39"/>
       <c r="F458" s="39" t="s">
@@ -16770,54 +16770,54 @@
       </c>
       <c r="G458" s="39"/>
     </row>
-    <row r="459" spans="1:7" ht="45">
+    <row r="459" spans="1:7">
       <c r="A459" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B459" s="39" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="C459" s="39" t="s">
-        <v>743</v>
-      </c>
-      <c r="D459" s="39" t="s">
-        <v>598</v>
-      </c>
+        <v>1083</v>
+      </c>
+      <c r="D459" s="39"/>
       <c r="E459" s="39"/>
       <c r="F459" s="39" t="s">
         <v>1127</v>
       </c>
       <c r="G459" s="39"/>
     </row>
-    <row r="460" spans="1:7">
+    <row r="460" spans="1:7" ht="60">
       <c r="A460" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B460" s="39" t="s">
-        <v>744</v>
+        <v>1084</v>
       </c>
       <c r="C460" s="39" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D460" s="39"/>
+        <v>745</v>
+      </c>
+      <c r="D460" s="39" t="s">
+        <v>566</v>
+      </c>
       <c r="E460" s="39"/>
       <c r="F460" s="39" t="s">
         <v>1127</v>
       </c>
       <c r="G460" s="39"/>
     </row>
-    <row r="461" spans="1:7" ht="60">
+    <row r="461" spans="1:7" ht="30">
       <c r="A461" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B461" s="39" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="C461" s="39" t="s">
-        <v>745</v>
+        <v>1082</v>
       </c>
       <c r="D461" s="39" t="s">
-        <v>566</v>
+        <v>700</v>
       </c>
       <c r="E461" s="39"/>
       <c r="F461" s="39" t="s">
@@ -16825,128 +16825,128 @@
       </c>
       <c r="G461" s="39"/>
     </row>
-    <row r="462" spans="1:7" ht="30">
+    <row r="462" spans="1:7">
       <c r="A462" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B462" s="39" t="s">
-        <v>1085</v>
-      </c>
-      <c r="C462" s="39" t="s">
-        <v>1082</v>
-      </c>
-      <c r="D462" s="39" t="s">
-        <v>700</v>
-      </c>
-      <c r="E462" s="39"/>
-      <c r="F462" s="39" t="s">
-        <v>1127</v>
-      </c>
-      <c r="G462" s="39"/>
+        <v>747</v>
+      </c>
+      <c r="C462" s="40" t="s">
+        <v>600</v>
+      </c>
+      <c r="D462" s="40"/>
+      <c r="E462" s="40"/>
+      <c r="F462" s="40"/>
+      <c r="G462" s="40"/>
     </row>
     <row r="463" spans="1:7">
       <c r="A463" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B463" s="39" t="s">
-        <v>747</v>
-      </c>
-      <c r="C463" s="40" t="s">
-        <v>600</v>
-      </c>
-      <c r="D463" s="40"/>
-      <c r="E463" s="40"/>
-      <c r="F463" s="40"/>
-      <c r="G463" s="40"/>
+        <v>748</v>
+      </c>
+      <c r="C463" s="43" t="s">
+        <v>602</v>
+      </c>
+      <c r="D463" s="39" t="s">
+        <v>577</v>
+      </c>
+      <c r="E463" s="39"/>
+      <c r="F463" s="39" t="s">
+        <v>1127</v>
+      </c>
+      <c r="G463" s="43" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="464" spans="1:7">
       <c r="A464" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B464" s="39" t="s">
-        <v>748</v>
-      </c>
-      <c r="C464" s="43" t="s">
-        <v>602</v>
+        <v>749</v>
+      </c>
+      <c r="C464" s="39" t="s">
+        <v>604</v>
       </c>
       <c r="D464" s="39" t="s">
-        <v>577</v>
+        <v>1066</v>
       </c>
       <c r="E464" s="39"/>
       <c r="F464" s="39" t="s">
         <v>1127</v>
       </c>
-      <c r="G464" s="43" t="s">
-        <v>1111</v>
-      </c>
+      <c r="G464" s="39"/>
     </row>
     <row r="465" spans="1:7">
       <c r="A465" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B465" s="39" t="s">
-        <v>749</v>
-      </c>
-      <c r="C465" s="39" t="s">
-        <v>604</v>
-      </c>
-      <c r="D465" s="39" t="s">
-        <v>1066</v>
-      </c>
-      <c r="E465" s="39"/>
-      <c r="F465" s="39" t="s">
-        <v>1127</v>
-      </c>
-      <c r="G465" s="39"/>
+        <v>750</v>
+      </c>
+      <c r="C465" s="40" t="s">
+        <v>606</v>
+      </c>
+      <c r="D465" s="40"/>
+      <c r="E465" s="40"/>
+      <c r="F465" s="40"/>
+      <c r="G465" s="40"/>
     </row>
     <row r="466" spans="1:7">
       <c r="A466" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B466" s="39" t="s">
-        <v>750</v>
-      </c>
-      <c r="C466" s="40" t="s">
-        <v>606</v>
-      </c>
-      <c r="D466" s="40"/>
-      <c r="E466" s="40"/>
-      <c r="F466" s="40"/>
-      <c r="G466" s="40"/>
-    </row>
-    <row r="467" spans="1:7">
+        <v>751</v>
+      </c>
+      <c r="C466" s="43" t="s">
+        <v>570</v>
+      </c>
+      <c r="D466" s="39" t="s">
+        <v>571</v>
+      </c>
+      <c r="E466" s="39"/>
+      <c r="F466" s="39" t="s">
+        <v>1183</v>
+      </c>
+      <c r="G466" s="43" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="467" spans="1:7" ht="30">
       <c r="A467" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B467" s="39" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C467" s="43" t="s">
-        <v>570</v>
+        <v>645</v>
       </c>
       <c r="D467" s="39" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="E467" s="39"/>
       <c r="F467" s="39" t="s">
-        <v>1183</v>
-      </c>
-      <c r="G467" s="43" t="s">
-        <v>1120</v>
-      </c>
+        <v>1127</v>
+      </c>
+      <c r="G467" s="43"/>
     </row>
     <row r="468" spans="1:7" ht="30">
       <c r="A468" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B468" s="39" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C468" s="43" t="s">
-        <v>645</v>
+        <v>611</v>
       </c>
       <c r="D468" s="39" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="E468" s="39"/>
       <c r="F468" s="39" t="s">
@@ -16954,37 +16954,37 @@
       </c>
       <c r="G468" s="43"/>
     </row>
-    <row r="469" spans="1:7" ht="30">
+    <row r="469" spans="1:7">
       <c r="A469" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B469" s="39" t="s">
-        <v>753</v>
-      </c>
-      <c r="C469" s="43" t="s">
-        <v>611</v>
+        <v>754</v>
+      </c>
+      <c r="C469" s="39" t="s">
+        <v>613</v>
       </c>
       <c r="D469" s="39" t="s">
-        <v>577</v>
+        <v>1069</v>
       </c>
       <c r="E469" s="39"/>
       <c r="F469" s="39" t="s">
         <v>1127</v>
       </c>
-      <c r="G469" s="43"/>
-    </row>
-    <row r="470" spans="1:7">
+      <c r="G469" s="39"/>
+    </row>
+    <row r="470" spans="1:7" ht="30">
       <c r="A470" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B470" s="39" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C470" s="39" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="D470" s="39" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="E470" s="39"/>
       <c r="F470" s="39" t="s">
@@ -17010,25 +17010,6 @@
         <v>1127</v>
       </c>
       <c r="G471" s="39"/>
-    </row>
-    <row r="472" spans="1:7" ht="30">
-      <c r="A472" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="B472" s="39" t="s">
-        <v>755</v>
-      </c>
-      <c r="C472" s="39" t="s">
-        <v>615</v>
-      </c>
-      <c r="D472" s="39" t="s">
-        <v>1067</v>
-      </c>
-      <c r="E472" s="39"/>
-      <c r="F472" s="39" t="s">
-        <v>1127</v>
-      </c>
-      <c r="G472" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -19736,7 +19717,9 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:IV30"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
@@ -20335,7 +20318,7 @@
   <dimension ref="A1:IV4"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -20444,7 +20427,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:IV27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>

--- a/conformancelib/testdata/85b_test_definitions_PIV-I_Carillon.xlsx
+++ b/conformancelib/testdata/85b_test_definitions_PIV-I_Carillon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A215E1DA-ADD6-4D07-B807-6B4B3EF59A59}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C1C709-BD25-42DA-9BDC-B653FAE3D80E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="2505" windowWidth="16485" windowHeight="13845" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="4320" yWindow="2505" windowWidth="16485" windowHeight="13845" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP 800-85B Reference" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3764" uniqueCount="1309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3759" uniqueCount="1309">
   <si>
     <t>BER_TLV_Test_Assertions</t>
   </si>
@@ -4821,7 +4821,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:IV450"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A439" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B449" sqref="B449"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
@@ -8515,11 +8517,9 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G471"/>
+  <dimension ref="A1:G470"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A340" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A349" sqref="A349:XFD349"/>
-    </sheetView>
+    <sheetView topLeftCell="A7" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
@@ -16991,25 +16991,6 @@
         <v>1127</v>
       </c>
       <c r="G470" s="39"/>
-    </row>
-    <row r="471" spans="1:7" ht="30">
-      <c r="A471" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="B471" s="39" t="s">
-        <v>755</v>
-      </c>
-      <c r="C471" s="39" t="s">
-        <v>615</v>
-      </c>
-      <c r="D471" s="39" t="s">
-        <v>1067</v>
-      </c>
-      <c r="E471" s="39"/>
-      <c r="F471" s="39" t="s">
-        <v>1127</v>
-      </c>
-      <c r="G471" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -17169,7 +17150,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AMK55"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="C11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -20427,8 +20408,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:IV27"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>

--- a/conformancelib/testdata/85b_test_definitions_PIV-I_Carillon.xlsx
+++ b/conformancelib/testdata/85b_test_definitions_PIV-I_Carillon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C1C709-BD25-42DA-9BDC-B653FAE3D80E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89FFEC9-75F4-4464-B98B-5A58D17AE8EB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="4320" yWindow="2505" windowWidth="16485" windowHeight="13845" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4320" yWindow="2505" windowWidth="26190" windowHeight="13845" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP 800-85B Reference" sheetId="1" r:id="rId1"/>
@@ -4821,8 +4821,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:IV450"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A439" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B449" sqref="B449"/>
+    <sheetView showGridLines="0" topLeftCell="A439" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E441" sqref="E441"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -8519,7 +8519,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G470"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
@@ -9426,7 +9426,7 @@
       </c>
       <c r="G48" s="39"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" ht="30">
       <c r="A49" s="39" t="s">
         <v>56</v>
       </c>
@@ -9437,7 +9437,7 @@
         <v>136</v>
       </c>
       <c r="D49" s="39" t="s">
-        <v>137</v>
+        <v>1200</v>
       </c>
       <c r="E49" s="39"/>
       <c r="F49" s="39" t="s">
@@ -10295,7 +10295,7 @@
       </c>
       <c r="G95" s="39"/>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" ht="30">
       <c r="A96" s="39" t="s">
         <v>56</v>
       </c>
@@ -10306,7 +10306,7 @@
         <v>136</v>
       </c>
       <c r="D96" s="39" t="s">
-        <v>137</v>
+        <v>1200</v>
       </c>
       <c r="E96" s="39"/>
       <c r="F96" s="39" t="s">
@@ -10517,7 +10517,7 @@
       </c>
       <c r="G107" s="39"/>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" ht="30">
       <c r="A108" s="39" t="s">
         <v>56</v>
       </c>
@@ -10528,7 +10528,7 @@
         <v>136</v>
       </c>
       <c r="D108" s="39" t="s">
-        <v>137</v>
+        <v>1200</v>
       </c>
       <c r="E108" s="39"/>
       <c r="F108" s="39" t="s">
@@ -10739,7 +10739,7 @@
       </c>
       <c r="G119" s="39"/>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" ht="30">
       <c r="A120" s="39" t="s">
         <v>56</v>
       </c>
@@ -10750,7 +10750,7 @@
         <v>136</v>
       </c>
       <c r="D120" s="39" t="s">
-        <v>137</v>
+        <v>1200</v>
       </c>
       <c r="E120" s="39"/>
       <c r="F120" s="39" t="s">
@@ -16910,7 +16910,7 @@
       </c>
       <c r="E466" s="39"/>
       <c r="F466" s="39" t="s">
-        <v>1183</v>
+        <v>1127</v>
       </c>
       <c r="G466" s="43" t="s">
         <v>1120</v>
@@ -17150,8 +17150,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AMK55"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView showGridLines="0" topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -17487,7 +17487,7 @@
       <c r="D17" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="53" t="s">
         <v>797</v>
       </c>
       <c r="F17" s="6" t="s">

--- a/conformancelib/testdata/85b_test_definitions_PIV-I_Carillon.xlsx
+++ b/conformancelib/testdata/85b_test_definitions_PIV-I_Carillon.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\conformancelib\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GSA\GSA_GIT\piv-conformance-pkix-11\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89FFEC9-75F4-4464-B98B-5A58D17AE8EB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045753A0-4998-497C-9B95-B4F919CE7E62}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="2505" windowWidth="26190" windowHeight="13845" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP 800-85B Reference" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3759" uniqueCount="1309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3757" uniqueCount="1309">
   <si>
     <t>BER_TLV_Test_Assertions</t>
   </si>
@@ -3180,9 +3180,6 @@
   </si>
   <si>
     <t>Confirm id-PIV-cardAuth exists in extendedKeyUsage extension and does not assert any other OIDs</t>
-  </si>
-  <si>
-    <t>2.16.840.1.101.3.6.8</t>
   </si>
   <si>
     <t>Card Auth id-PIV-cardAuth EKU keyPurposeID OID</t>
@@ -3965,6 +3962,9 @@
 X509_CERTIFICATE_FOR_KEY_MANAGEMENT_OID;1.3.6.1.4.1.45606.3.1.3:1.3.6.1.4.1.45606.3.1.4:1.3.6.1.4.1.45606.3.1.9:1.3.6.1.4.1.45606.3.1.10,
 X509_CERTIFICATE_FOR_CARD_AUTHENTICATION_OID;1.3.6.1.4.1.45606.3.1.3:1.3.6.1.4.1.45606.3.1.4:1.3.6.1.4.1.45606.3.1.9:1.3.6.1.4.1.45606.3.1.10,
 CARD_HOLDER_UNIQUE_IDENTIFIER_OID;1.3.6.1.4.1.45606.3.1.22</t>
+  </si>
+  <si>
+    <t>2.16.840.1.101.3.8.7</t>
   </si>
 </sst>
 </file>
@@ -8517,9 +8517,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G470"/>
+  <dimension ref="A1:G469"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A418" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A429" sqref="A429:XFD429"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
@@ -8548,13 +8550,13 @@
         <v>55</v>
       </c>
       <c r="E1" s="35" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F1" s="35" t="s">
         <v>1121</v>
       </c>
-      <c r="F1" s="35" t="s">
-        <v>1122</v>
-      </c>
       <c r="G1" s="35" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -8562,7 +8564,7 @@
         <v>56</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C2" s="37" t="s">
         <v>0</v>
@@ -8592,10 +8594,10 @@
         <v>56</v>
       </c>
       <c r="B4" s="39" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C4" s="38" t="s">
         <v>1123</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>1124</v>
       </c>
       <c r="D4" s="38"/>
       <c r="E4" s="38"/>
@@ -8617,10 +8619,10 @@
       </c>
       <c r="E5" s="39"/>
       <c r="F5" s="39" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G5" s="39" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30">
@@ -8638,7 +8640,7 @@
       </c>
       <c r="E6" s="39"/>
       <c r="F6" s="39" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G6" s="39"/>
     </row>
@@ -8657,7 +8659,7 @@
       </c>
       <c r="E7" s="39"/>
       <c r="F7" s="39" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G7" s="39"/>
     </row>
@@ -8676,7 +8678,7 @@
       </c>
       <c r="E8" s="39"/>
       <c r="F8" s="39" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G8" s="39"/>
     </row>
@@ -8695,7 +8697,7 @@
       </c>
       <c r="E9" s="39"/>
       <c r="F9" s="39" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G9" s="39"/>
     </row>
@@ -8714,7 +8716,7 @@
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="39" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G10" s="39"/>
     </row>
@@ -8733,7 +8735,7 @@
       </c>
       <c r="E11" s="39"/>
       <c r="F11" s="39" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G11" s="39"/>
     </row>
@@ -8752,7 +8754,7 @@
       </c>
       <c r="E12" s="39"/>
       <c r="F12" s="39" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G12" s="39"/>
     </row>
@@ -8771,7 +8773,7 @@
       </c>
       <c r="E13" s="39"/>
       <c r="F13" s="39" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G13" s="39"/>
     </row>
@@ -8790,7 +8792,7 @@
       </c>
       <c r="E14" s="39"/>
       <c r="F14" s="39" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G14" s="39"/>
     </row>
@@ -8809,7 +8811,7 @@
       </c>
       <c r="E15" s="39"/>
       <c r="F15" s="39" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G15" s="39"/>
     </row>
@@ -8833,10 +8835,10 @@
         <v>56</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="D17" s="38"/>
       <c r="E17" s="38"/>
@@ -8858,10 +8860,10 @@
       </c>
       <c r="E18" s="39"/>
       <c r="F18" s="39" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G18" s="39" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30">
@@ -8879,7 +8881,7 @@
       </c>
       <c r="E19" s="39"/>
       <c r="F19" s="39" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G19" s="39"/>
     </row>
@@ -8898,7 +8900,7 @@
       </c>
       <c r="E20" s="39"/>
       <c r="F20" s="39" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G20" s="39"/>
     </row>
@@ -8917,7 +8919,7 @@
       </c>
       <c r="E21" s="39"/>
       <c r="F21" s="39" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G21" s="39"/>
     </row>
@@ -8936,7 +8938,7 @@
       </c>
       <c r="E22" s="39"/>
       <c r="F22" s="39" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G22" s="39"/>
     </row>
@@ -8948,14 +8950,14 @@
         <v>98</v>
       </c>
       <c r="C23" s="39" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="D23" s="39" t="s">
         <v>100</v>
       </c>
       <c r="E23" s="39"/>
       <c r="F23" s="39" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G23" s="39"/>
     </row>
@@ -8967,14 +8969,14 @@
         <v>101</v>
       </c>
       <c r="C24" s="63" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D24" s="63" t="s">
         <v>1129</v>
-      </c>
-      <c r="D24" s="63" t="s">
-        <v>1130</v>
       </c>
       <c r="E24" s="63"/>
       <c r="F24" s="63" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G24" s="63"/>
     </row>
@@ -8993,7 +8995,7 @@
       </c>
       <c r="E25" s="39"/>
       <c r="F25" s="39" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G25" s="39"/>
     </row>
@@ -9005,14 +9007,14 @@
         <v>107</v>
       </c>
       <c r="C26" s="39" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="D26" s="39" t="s">
         <v>106</v>
       </c>
       <c r="E26" s="39"/>
       <c r="F26" s="39" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G26" s="39"/>
     </row>
@@ -9024,14 +9026,14 @@
         <v>110</v>
       </c>
       <c r="C27" s="63" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D27" s="63" t="s">
         <v>1131</v>
-      </c>
-      <c r="D27" s="63" t="s">
-        <v>1132</v>
       </c>
       <c r="E27" s="63"/>
       <c r="F27" s="63" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G27" s="63"/>
     </row>
@@ -9043,14 +9045,14 @@
         <v>113</v>
       </c>
       <c r="C28" s="63" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D28" s="63" t="s">
         <v>1133</v>
-      </c>
-      <c r="D28" s="63" t="s">
-        <v>1134</v>
       </c>
       <c r="E28" s="63"/>
       <c r="F28" s="63" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G28" s="63"/>
     </row>
@@ -9059,34 +9061,34 @@
         <v>56</v>
       </c>
       <c r="B29" s="63" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C29" s="63" t="s">
         <v>1135</v>
       </c>
-      <c r="C29" s="63" t="s">
+      <c r="D29" s="63" t="s">
         <v>1136</v>
-      </c>
-      <c r="D29" s="63" t="s">
-        <v>1137</v>
       </c>
       <c r="E29" s="63"/>
       <c r="F29" s="63" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G29" s="63"/>
     </row>
     <row r="30" spans="1:7" s="33" customFormat="1">
       <c r="A30" s="63"/>
       <c r="B30" s="63" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C30" s="63" t="s">
         <v>1138</v>
       </c>
-      <c r="C30" s="63" t="s">
+      <c r="D30" s="63" t="s">
         <v>1139</v>
-      </c>
-      <c r="D30" s="63" t="s">
-        <v>1140</v>
       </c>
       <c r="E30" s="63"/>
       <c r="F30" s="63" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G30" s="63"/>
     </row>
@@ -9095,17 +9097,17 @@
         <v>56</v>
       </c>
       <c r="B31" s="39" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C31" s="39" t="s">
         <v>1141</v>
-      </c>
-      <c r="C31" s="39" t="s">
-        <v>1142</v>
       </c>
       <c r="D31" s="39" t="s">
         <v>109</v>
       </c>
       <c r="E31" s="39"/>
       <c r="F31" s="39" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G31" s="39"/>
     </row>
@@ -9114,7 +9116,7 @@
         <v>56</v>
       </c>
       <c r="B32" s="39" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C32" s="39" t="s">
         <v>111</v>
@@ -9124,7 +9126,7 @@
       </c>
       <c r="E32" s="39"/>
       <c r="F32" s="39" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G32" s="39"/>
     </row>
@@ -9133,17 +9135,17 @@
         <v>56</v>
       </c>
       <c r="B33" s="63" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C33" s="63" t="s">
         <v>1144</v>
       </c>
-      <c r="C33" s="63" t="s">
+      <c r="D33" s="63" t="s">
         <v>1145</v>
-      </c>
-      <c r="D33" s="63" t="s">
-        <v>1146</v>
       </c>
       <c r="E33" s="63"/>
       <c r="F33" s="63" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G33" s="63"/>
     </row>
@@ -9152,17 +9154,17 @@
         <v>56</v>
       </c>
       <c r="B34" s="63" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C34" s="63" t="s">
         <v>1147</v>
       </c>
-      <c r="C34" s="63" t="s">
+      <c r="D34" s="63" t="s">
         <v>1148</v>
-      </c>
-      <c r="D34" s="63" t="s">
-        <v>1149</v>
       </c>
       <c r="E34" s="63"/>
       <c r="F34" s="63" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G34" s="63"/>
     </row>
@@ -9171,17 +9173,17 @@
         <v>56</v>
       </c>
       <c r="B35" s="63" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C35" s="63" t="s">
         <v>1150</v>
       </c>
-      <c r="C35" s="63" t="s">
+      <c r="D35" s="63" t="s">
         <v>1151</v>
-      </c>
-      <c r="D35" s="63" t="s">
-        <v>1152</v>
       </c>
       <c r="E35" s="63"/>
       <c r="F35" s="63" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G35" s="63"/>
     </row>
@@ -9190,17 +9192,17 @@
         <v>56</v>
       </c>
       <c r="B36" s="63" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C36" s="63" t="s">
         <v>1153</v>
       </c>
-      <c r="C36" s="63" t="s">
+      <c r="D36" s="63" t="s">
         <v>1154</v>
-      </c>
-      <c r="D36" s="63" t="s">
-        <v>1155</v>
       </c>
       <c r="E36" s="63"/>
       <c r="F36" s="63" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G36" s="63"/>
     </row>
@@ -9209,7 +9211,7 @@
         <v>56</v>
       </c>
       <c r="B37" s="39" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C37" s="39" t="s">
         <v>114</v>
@@ -9219,7 +9221,7 @@
       </c>
       <c r="E37" s="39"/>
       <c r="F37" s="39" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G37" s="39"/>
     </row>
@@ -9238,7 +9240,7 @@
       </c>
       <c r="E38" s="39"/>
       <c r="F38" s="39" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G38" s="39"/>
     </row>
@@ -9257,7 +9259,7 @@
       </c>
       <c r="E39" s="39"/>
       <c r="F39" s="39" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G39" s="39"/>
     </row>
@@ -9276,7 +9278,7 @@
       </c>
       <c r="E40" s="39"/>
       <c r="F40" s="39" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G40" s="39"/>
     </row>
@@ -9295,7 +9297,7 @@
       </c>
       <c r="E41" s="39"/>
       <c r="F41" s="39" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G41" s="39"/>
     </row>
@@ -9304,7 +9306,7 @@
         <v>127</v>
       </c>
       <c r="B42" s="39" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="C42" s="39" t="s">
         <v>129</v>
@@ -9314,7 +9316,7 @@
       </c>
       <c r="E42" s="39"/>
       <c r="F42" s="39" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G42" s="39"/>
     </row>
@@ -9338,10 +9340,10 @@
         <v>56</v>
       </c>
       <c r="B44" s="39" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C44" s="38" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="D44" s="38"/>
       <c r="E44" s="38"/>
@@ -9363,10 +9365,10 @@
       </c>
       <c r="E45" s="39"/>
       <c r="F45" s="39" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G45" s="39" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="30">
@@ -9384,7 +9386,7 @@
       </c>
       <c r="E46" s="39"/>
       <c r="F46" s="39" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G46" s="39"/>
     </row>
@@ -9403,7 +9405,7 @@
       </c>
       <c r="E47" s="39"/>
       <c r="F47" s="39" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G47" s="39"/>
     </row>
@@ -9422,7 +9424,7 @@
       </c>
       <c r="E48" s="39"/>
       <c r="F48" s="39" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G48" s="39"/>
     </row>
@@ -9437,11 +9439,11 @@
         <v>136</v>
       </c>
       <c r="D49" s="39" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E49" s="39"/>
       <c r="F49" s="39" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G49" s="39"/>
     </row>
@@ -9460,7 +9462,7 @@
       </c>
       <c r="E50" s="39"/>
       <c r="F50" s="39" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G50" s="39"/>
     </row>
@@ -9479,7 +9481,7 @@
       </c>
       <c r="E51" s="39"/>
       <c r="F51" s="39" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G51" s="39"/>
     </row>
@@ -9498,7 +9500,7 @@
       </c>
       <c r="E52" s="39"/>
       <c r="F52" s="39" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G52" s="39"/>
     </row>
@@ -9517,7 +9519,7 @@
       </c>
       <c r="E53" s="39"/>
       <c r="F53" s="39" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G53" s="39"/>
     </row>
@@ -9526,7 +9528,7 @@
         <v>127</v>
       </c>
       <c r="B54" s="39" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C54" s="39" t="s">
         <v>129</v>
@@ -9536,7 +9538,7 @@
       </c>
       <c r="E54" s="39"/>
       <c r="F54" s="39" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G54" s="39"/>
     </row>
@@ -9560,10 +9562,10 @@
         <v>56</v>
       </c>
       <c r="B56" s="39" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="C56" s="38" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="D56" s="38"/>
       <c r="E56" s="38"/>
@@ -9585,10 +9587,10 @@
       </c>
       <c r="E57" s="39"/>
       <c r="F57" s="39" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="G57" s="39" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="30">
@@ -9606,7 +9608,7 @@
       </c>
       <c r="E58" s="39"/>
       <c r="F58" s="39" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="G58" s="39"/>
     </row>
@@ -9625,7 +9627,7 @@
       </c>
       <c r="E59" s="39"/>
       <c r="F59" s="39" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="G59" s="39"/>
     </row>
@@ -9644,7 +9646,7 @@
       </c>
       <c r="E60" s="39"/>
       <c r="F60" s="39" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="G60" s="39"/>
     </row>
@@ -9663,7 +9665,7 @@
       </c>
       <c r="E61" s="39"/>
       <c r="F61" s="39" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="G61" s="39"/>
     </row>
@@ -9682,7 +9684,7 @@
       </c>
       <c r="E62" s="39"/>
       <c r="F62" s="39" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="G62" s="39"/>
     </row>
@@ -9701,7 +9703,7 @@
       </c>
       <c r="E63" s="39"/>
       <c r="F63" s="39" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="G63" s="39"/>
     </row>
@@ -9720,7 +9722,7 @@
       </c>
       <c r="E64" s="39"/>
       <c r="F64" s="39" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="G64" s="39"/>
     </row>
@@ -9739,7 +9741,7 @@
       </c>
       <c r="E65" s="39"/>
       <c r="F65" s="39" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="G65" s="39"/>
     </row>
@@ -9763,10 +9765,10 @@
         <v>56</v>
       </c>
       <c r="B67" s="39" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="C67" s="38" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="D67" s="38"/>
       <c r="E67" s="38"/>
@@ -9788,10 +9790,10 @@
       </c>
       <c r="E68" s="39"/>
       <c r="F68" s="39" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G68" s="39" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="30">
@@ -9809,7 +9811,7 @@
       </c>
       <c r="E69" s="39"/>
       <c r="F69" s="39" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G69" s="39"/>
     </row>
@@ -9828,7 +9830,7 @@
       </c>
       <c r="E70" s="39"/>
       <c r="F70" s="39" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G70" s="39"/>
     </row>
@@ -9847,7 +9849,7 @@
       </c>
       <c r="E71" s="39"/>
       <c r="F71" s="39" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G71" s="39"/>
     </row>
@@ -9866,7 +9868,7 @@
       </c>
       <c r="E72" s="39"/>
       <c r="F72" s="39" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G72" s="39"/>
     </row>
@@ -9885,7 +9887,7 @@
       </c>
       <c r="E73" s="39"/>
       <c r="F73" s="39" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G73" s="39"/>
     </row>
@@ -9897,14 +9899,14 @@
         <v>172</v>
       </c>
       <c r="C74" s="63" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D74" s="63" t="s">
         <v>1165</v>
-      </c>
-      <c r="D74" s="63" t="s">
-        <v>1166</v>
       </c>
       <c r="E74" s="63"/>
       <c r="F74" s="63" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G74" s="63"/>
     </row>
@@ -9916,14 +9918,14 @@
         <v>175</v>
       </c>
       <c r="C75" s="63" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D75" s="63" t="s">
         <v>1167</v>
-      </c>
-      <c r="D75" s="63" t="s">
-        <v>1168</v>
       </c>
       <c r="E75" s="63"/>
       <c r="F75" s="63" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G75" s="63"/>
     </row>
@@ -9942,7 +9944,7 @@
       </c>
       <c r="E76" s="39"/>
       <c r="F76" s="39" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G76" s="39"/>
     </row>
@@ -9951,7 +9953,7 @@
         <v>56</v>
       </c>
       <c r="B77" s="39" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C77" s="39" t="s">
         <v>176</v>
@@ -9961,7 +9963,7 @@
       </c>
       <c r="E77" s="39"/>
       <c r="F77" s="39" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G77" s="39"/>
     </row>
@@ -9970,7 +9972,7 @@
         <v>56</v>
       </c>
       <c r="B78" s="39" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C78" s="39" t="s">
         <v>179</v>
@@ -9980,7 +9982,7 @@
       </c>
       <c r="E78" s="39"/>
       <c r="F78" s="39" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G78" s="39"/>
     </row>
@@ -9989,7 +9991,7 @@
         <v>127</v>
       </c>
       <c r="B79" s="39" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C79" s="39" t="s">
         <v>129</v>
@@ -9999,7 +10001,7 @@
       </c>
       <c r="E79" s="39"/>
       <c r="F79" s="39" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G79" s="39"/>
     </row>
@@ -10008,7 +10010,7 @@
         <v>56</v>
       </c>
       <c r="B80" s="39" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C80" s="38" t="s">
         <v>6</v>
@@ -10023,10 +10025,10 @@
         <v>56</v>
       </c>
       <c r="B81" s="39" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C81" s="38" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="D81" s="38"/>
       <c r="E81" s="38"/>
@@ -10048,10 +10050,10 @@
       </c>
       <c r="E82" s="39"/>
       <c r="F82" s="39" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="G82" s="39" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="30">
@@ -10069,7 +10071,7 @@
       </c>
       <c r="E83" s="39"/>
       <c r="F83" s="39" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="G83" s="39"/>
     </row>
@@ -10088,7 +10090,7 @@
       </c>
       <c r="E84" s="39"/>
       <c r="F84" s="39" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="G84" s="39"/>
     </row>
@@ -10107,7 +10109,7 @@
       </c>
       <c r="E85" s="39"/>
       <c r="F85" s="39" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="G85" s="39"/>
     </row>
@@ -10126,7 +10128,7 @@
       </c>
       <c r="E86" s="39"/>
       <c r="F86" s="39" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="G86" s="39"/>
     </row>
@@ -10145,7 +10147,7 @@
       </c>
       <c r="E87" s="39"/>
       <c r="F87" s="39" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="G87" s="39"/>
     </row>
@@ -10164,7 +10166,7 @@
       </c>
       <c r="E88" s="39"/>
       <c r="F88" s="39" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="G88" s="39"/>
     </row>
@@ -10173,7 +10175,7 @@
         <v>127</v>
       </c>
       <c r="B89" s="39" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C89" s="39" t="s">
         <v>129</v>
@@ -10183,7 +10185,7 @@
       </c>
       <c r="E89" s="39"/>
       <c r="F89" s="39" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="G89" s="39"/>
     </row>
@@ -10207,10 +10209,10 @@
         <v>56</v>
       </c>
       <c r="B91" s="39" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="C91" s="38" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="D91" s="38"/>
       <c r="E91" s="38"/>
@@ -10232,10 +10234,10 @@
       </c>
       <c r="E92" s="39"/>
       <c r="F92" s="39" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G92" s="39" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="30">
@@ -10253,7 +10255,7 @@
       </c>
       <c r="E93" s="39"/>
       <c r="F93" s="39" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G93" s="39"/>
     </row>
@@ -10272,7 +10274,7 @@
       </c>
       <c r="E94" s="39"/>
       <c r="F94" s="39" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G94" s="39"/>
     </row>
@@ -10291,7 +10293,7 @@
       </c>
       <c r="E95" s="39"/>
       <c r="F95" s="39" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G95" s="39"/>
     </row>
@@ -10306,11 +10308,11 @@
         <v>136</v>
       </c>
       <c r="D96" s="39" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E96" s="39"/>
       <c r="F96" s="39" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G96" s="39"/>
     </row>
@@ -10329,7 +10331,7 @@
       </c>
       <c r="E97" s="39"/>
       <c r="F97" s="39" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G97" s="39"/>
     </row>
@@ -10348,7 +10350,7 @@
       </c>
       <c r="E98" s="39"/>
       <c r="F98" s="39" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G98" s="39"/>
     </row>
@@ -10367,7 +10369,7 @@
       </c>
       <c r="E99" s="39"/>
       <c r="F99" s="39" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G99" s="39"/>
     </row>
@@ -10386,7 +10388,7 @@
       </c>
       <c r="E100" s="39"/>
       <c r="F100" s="39" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G100" s="39"/>
     </row>
@@ -10395,7 +10397,7 @@
         <v>127</v>
       </c>
       <c r="B101" s="39" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C101" s="39" t="s">
         <v>129</v>
@@ -10405,7 +10407,7 @@
       </c>
       <c r="E101" s="39"/>
       <c r="F101" s="39" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G101" s="39"/>
     </row>
@@ -10429,10 +10431,10 @@
         <v>56</v>
       </c>
       <c r="B103" s="39" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C103" s="38" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="D103" s="38"/>
       <c r="E103" s="38"/>
@@ -10454,10 +10456,10 @@
       </c>
       <c r="E104" s="39"/>
       <c r="F104" s="39" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G104" s="39" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="30">
@@ -10475,7 +10477,7 @@
       </c>
       <c r="E105" s="39"/>
       <c r="F105" s="39" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G105" s="39"/>
     </row>
@@ -10494,7 +10496,7 @@
       </c>
       <c r="E106" s="39"/>
       <c r="F106" s="39" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G106" s="39"/>
     </row>
@@ -10513,7 +10515,7 @@
       </c>
       <c r="E107" s="39"/>
       <c r="F107" s="39" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G107" s="39"/>
     </row>
@@ -10528,11 +10530,11 @@
         <v>136</v>
       </c>
       <c r="D108" s="39" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E108" s="39"/>
       <c r="F108" s="39" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G108" s="39"/>
     </row>
@@ -10551,7 +10553,7 @@
       </c>
       <c r="E109" s="39"/>
       <c r="F109" s="39" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G109" s="39"/>
     </row>
@@ -10570,7 +10572,7 @@
       </c>
       <c r="E110" s="39"/>
       <c r="F110" s="39" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G110" s="39"/>
     </row>
@@ -10589,7 +10591,7 @@
       </c>
       <c r="E111" s="39"/>
       <c r="F111" s="39" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G111" s="39"/>
     </row>
@@ -10608,7 +10610,7 @@
       </c>
       <c r="E112" s="39"/>
       <c r="F112" s="39" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G112" s="39"/>
     </row>
@@ -10617,7 +10619,7 @@
         <v>127</v>
       </c>
       <c r="B113" s="39" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C113" s="39" t="s">
         <v>129</v>
@@ -10627,7 +10629,7 @@
       </c>
       <c r="E113" s="39"/>
       <c r="F113" s="39" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G113" s="39"/>
     </row>
@@ -10651,10 +10653,10 @@
         <v>56</v>
       </c>
       <c r="B115" s="39" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C115" s="38" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="D115" s="38"/>
       <c r="E115" s="38"/>
@@ -10676,10 +10678,10 @@
       </c>
       <c r="E116" s="39"/>
       <c r="F116" s="39" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G116" s="39" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="30">
@@ -10697,7 +10699,7 @@
       </c>
       <c r="E117" s="39"/>
       <c r="F117" s="39" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G117" s="39"/>
     </row>
@@ -10716,7 +10718,7 @@
       </c>
       <c r="E118" s="39"/>
       <c r="F118" s="39" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G118" s="39"/>
     </row>
@@ -10735,7 +10737,7 @@
       </c>
       <c r="E119" s="39"/>
       <c r="F119" s="39" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G119" s="39"/>
     </row>
@@ -10750,11 +10752,11 @@
         <v>136</v>
       </c>
       <c r="D120" s="39" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E120" s="39"/>
       <c r="F120" s="39" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G120" s="39"/>
     </row>
@@ -10773,7 +10775,7 @@
       </c>
       <c r="E121" s="39"/>
       <c r="F121" s="39" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G121" s="39"/>
     </row>
@@ -10792,7 +10794,7 @@
       </c>
       <c r="E122" s="39"/>
       <c r="F122" s="39" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G122" s="39"/>
     </row>
@@ -10811,7 +10813,7 @@
       </c>
       <c r="E123" s="39"/>
       <c r="F123" s="39" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G123" s="39"/>
     </row>
@@ -10830,7 +10832,7 @@
       </c>
       <c r="E124" s="39"/>
       <c r="F124" s="39" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G124" s="39"/>
     </row>
@@ -10839,7 +10841,7 @@
         <v>127</v>
       </c>
       <c r="B125" s="39" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C125" s="39" t="s">
         <v>129</v>
@@ -10849,7 +10851,7 @@
       </c>
       <c r="E125" s="39"/>
       <c r="F125" s="39" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G125" s="39"/>
     </row>
@@ -10858,7 +10860,7 @@
         <v>56</v>
       </c>
       <c r="B126" s="39" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C126" s="38" t="s">
         <v>10</v>
@@ -10873,10 +10875,10 @@
         <v>56</v>
       </c>
       <c r="B127" s="39" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C127" s="38" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="D127" s="38"/>
       <c r="E127" s="38"/>
@@ -10898,10 +10900,10 @@
       </c>
       <c r="E128" s="39"/>
       <c r="F128" s="39" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="G128" s="39" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="30">
@@ -10919,7 +10921,7 @@
       </c>
       <c r="E129" s="39"/>
       <c r="F129" s="39" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="G129" s="39"/>
     </row>
@@ -10938,7 +10940,7 @@
       </c>
       <c r="E130" s="39"/>
       <c r="F130" s="39" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="G130" s="39"/>
     </row>
@@ -10957,7 +10959,7 @@
       </c>
       <c r="E131" s="39"/>
       <c r="F131" s="39" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="G131" s="39"/>
     </row>
@@ -10976,7 +10978,7 @@
       </c>
       <c r="E132" s="39"/>
       <c r="F132" s="39" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="G132" s="39"/>
     </row>
@@ -10988,14 +10990,14 @@
         <v>238</v>
       </c>
       <c r="C133" s="39" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="D133" s="39" t="s">
         <v>240</v>
       </c>
       <c r="E133" s="39"/>
       <c r="F133" s="39" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="G133" s="39"/>
     </row>
@@ -11007,14 +11009,14 @@
         <v>241</v>
       </c>
       <c r="C134" s="63" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D134" s="63" t="s">
         <v>1189</v>
-      </c>
-      <c r="D134" s="63" t="s">
-        <v>1190</v>
       </c>
       <c r="E134" s="63"/>
       <c r="F134" s="63" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="G134" s="63"/>
     </row>
@@ -11033,7 +11035,7 @@
       </c>
       <c r="E135" s="39"/>
       <c r="F135" s="39" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="G135" s="39"/>
     </row>
@@ -11042,7 +11044,7 @@
         <v>56</v>
       </c>
       <c r="B136" s="39" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C136" s="39" t="s">
         <v>245</v>
@@ -11052,7 +11054,7 @@
       </c>
       <c r="E136" s="39"/>
       <c r="F136" s="39" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="G136" s="39"/>
     </row>
@@ -11076,10 +11078,10 @@
         <v>56</v>
       </c>
       <c r="B138" s="39" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C138" s="38" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="D138" s="38"/>
       <c r="E138" s="38"/>
@@ -11103,10 +11105,10 @@
         <v>249</v>
       </c>
       <c r="F139" s="39" t="s">
+        <v>1192</v>
+      </c>
+      <c r="G139" s="39" t="s">
         <v>1193</v>
-      </c>
-      <c r="G139" s="39" t="s">
-        <v>1194</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="30">
@@ -11126,7 +11128,7 @@
         <v>249</v>
       </c>
       <c r="F140" s="39" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="G140" s="39"/>
     </row>
@@ -11147,7 +11149,7 @@
         <v>249</v>
       </c>
       <c r="F141" s="39" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="G141" s="39"/>
     </row>
@@ -11168,7 +11170,7 @@
         <v>249</v>
       </c>
       <c r="F142" s="39" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="G142" s="39"/>
     </row>
@@ -11180,7 +11182,7 @@
         <v>256</v>
       </c>
       <c r="C143" s="39" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="D143" s="39" t="s">
         <v>258</v>
@@ -11189,7 +11191,7 @@
         <v>249</v>
       </c>
       <c r="F143" s="39" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="G143" s="39"/>
     </row>
@@ -11201,7 +11203,7 @@
         <v>259</v>
       </c>
       <c r="C144" s="39" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="D144" s="39" t="s">
         <v>255</v>
@@ -11210,7 +11212,7 @@
         <v>249</v>
       </c>
       <c r="F144" s="39" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="G144" s="39"/>
     </row>
@@ -11222,14 +11224,14 @@
         <v>261</v>
       </c>
       <c r="C145" s="63" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D145" s="63" t="s">
         <v>1197</v>
-      </c>
-      <c r="D145" s="63" t="s">
-        <v>1198</v>
       </c>
       <c r="E145" s="63"/>
       <c r="F145" s="63" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="G145" s="63"/>
     </row>
@@ -11238,19 +11240,19 @@
         <v>56</v>
       </c>
       <c r="B146" s="39" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="C146" s="39" t="s">
         <v>260</v>
       </c>
       <c r="D146" s="39" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E146" s="39" t="s">
         <v>249</v>
       </c>
       <c r="F146" s="39" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="G146" s="39"/>
     </row>
@@ -11259,7 +11261,7 @@
         <v>56</v>
       </c>
       <c r="B147" s="39" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C147" s="39" t="s">
         <v>262</v>
@@ -11271,7 +11273,7 @@
         <v>249</v>
       </c>
       <c r="F147" s="39" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="G147" s="39"/>
     </row>
@@ -11280,19 +11282,19 @@
         <v>127</v>
       </c>
       <c r="B148" s="39" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="C148" s="39" t="s">
         <v>129</v>
       </c>
       <c r="D148" s="39" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E148" s="39" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F148" s="39" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="G148" s="39"/>
     </row>
@@ -11301,7 +11303,7 @@
         <v>127</v>
       </c>
       <c r="B149" s="39" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C149" s="39" t="s">
         <v>266</v>
@@ -11311,7 +11313,7 @@
       </c>
       <c r="E149" s="39"/>
       <c r="F149" s="39" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="G149" s="39"/>
     </row>
@@ -11360,14 +11362,14 @@
         <v>14</v>
       </c>
       <c r="D152" s="39" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E152" s="39" t="s">
         <v>270</v>
       </c>
       <c r="F152" s="39"/>
       <c r="G152" s="39" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="30">
@@ -11381,14 +11383,14 @@
         <v>15</v>
       </c>
       <c r="D153" s="39" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E153" s="39" t="s">
         <v>270</v>
       </c>
       <c r="F153" s="39"/>
       <c r="G153" s="39" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="30">
@@ -11402,14 +11404,14 @@
         <v>272</v>
       </c>
       <c r="D154" s="39" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E154" s="39" t="s">
         <v>273</v>
       </c>
       <c r="F154" s="39"/>
       <c r="G154" s="39" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="30">
@@ -11518,7 +11520,7 @@
         <v>277</v>
       </c>
       <c r="C161" s="59" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="D161" s="59">
         <v>76.2</v>
@@ -11526,7 +11528,7 @@
       <c r="E161" s="39"/>
       <c r="F161" s="39"/>
       <c r="G161" s="39" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -11554,10 +11556,10 @@
         <v>281</v>
       </c>
       <c r="C163" s="59" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="D163" s="59" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="E163" s="39"/>
       <c r="F163" s="39"/>
@@ -11568,7 +11570,7 @@
         <v>56</v>
       </c>
       <c r="B164" s="39" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="C164" s="39" t="s">
         <v>285</v>
@@ -11579,7 +11581,7 @@
       <c r="E164" s="39"/>
       <c r="F164" s="39"/>
       <c r="G164" s="39" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -11605,7 +11607,7 @@
         <v>284</v>
       </c>
       <c r="C166" s="59" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="D166" s="59" t="s">
         <v>843</v>
@@ -11656,7 +11658,7 @@
         <v>290</v>
       </c>
       <c r="C169" s="39" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D169" s="39" t="s">
         <v>924</v>
@@ -11847,7 +11849,7 @@
       <c r="E180" s="39"/>
       <c r="F180" s="39"/>
       <c r="G180" s="39" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -11932,7 +11934,7 @@
       <c r="E185" s="39"/>
       <c r="F185" s="39"/>
       <c r="G185" s="39" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="186" spans="1:7" ht="30">
@@ -11977,7 +11979,7 @@
         <v>317</v>
       </c>
       <c r="C188" s="39" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D188" s="39" t="s">
         <v>924</v>
@@ -12168,7 +12170,7 @@
       <c r="E199" s="39"/>
       <c r="F199" s="39"/>
       <c r="G199" s="39" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -12253,7 +12255,7 @@
       <c r="E204" s="39"/>
       <c r="F204" s="39"/>
       <c r="G204" s="39" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="205" spans="1:7" ht="30">
@@ -12312,7 +12314,7 @@
         <v>56</v>
       </c>
       <c r="B208" s="39" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="C208" s="39" t="s">
         <v>293</v>
@@ -12489,7 +12491,7 @@
       <c r="E218" s="39"/>
       <c r="F218" s="39"/>
       <c r="G218" s="39" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="219" spans="1:7" ht="30">
@@ -12602,13 +12604,13 @@
         <v>368</v>
       </c>
       <c r="C225" s="39" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D225" s="39" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E225" s="39" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="F225" s="39"/>
       <c r="G225" s="39"/>
@@ -12624,10 +12626,10 @@
         <v>371</v>
       </c>
       <c r="D226" s="39" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E226" s="39" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="F226" s="39"/>
       <c r="G226" s="39"/>
@@ -12640,7 +12642,7 @@
         <v>372</v>
       </c>
       <c r="C227" s="39" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="D227" s="39">
         <v>76.16</v>
@@ -12714,7 +12716,7 @@
       <c r="E231" s="39"/>
       <c r="F231" s="39"/>
       <c r="G231" s="39" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -12782,7 +12784,7 @@
         <v>955</v>
       </c>
       <c r="E235" s="39" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="F235" s="39"/>
       <c r="G235" s="39"/>
@@ -12920,7 +12922,7 @@
       <c r="E243" s="39"/>
       <c r="F243" s="39"/>
       <c r="G243" s="39" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -13075,7 +13077,7 @@
         <v>56</v>
       </c>
       <c r="B253" s="36" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C253" s="37" t="s">
         <v>35</v>
@@ -13131,7 +13133,7 @@
       <c r="E256" s="39"/>
       <c r="F256" s="39"/>
       <c r="G256" s="43" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="257" spans="1:7" ht="30">
@@ -13165,7 +13167,7 @@
         <v>425</v>
       </c>
       <c r="E258" s="45" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="F258" s="39"/>
       <c r="G258" s="43"/>
@@ -13246,13 +13248,13 @@
         <v>438</v>
       </c>
       <c r="C263" s="43" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="D263" s="39" t="s">
         <v>440</v>
       </c>
       <c r="E263" s="45" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="F263" s="39"/>
       <c r="G263" s="43"/>
@@ -13262,13 +13264,13 @@
         <v>56</v>
       </c>
       <c r="B264" s="39" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C264" s="43" t="s">
         <v>1209</v>
       </c>
-      <c r="C264" s="43" t="s">
+      <c r="D264" s="39" t="s">
         <v>1210</v>
-      </c>
-      <c r="D264" s="39" t="s">
-        <v>1211</v>
       </c>
       <c r="E264" s="39"/>
       <c r="F264" s="39"/>
@@ -13322,7 +13324,7 @@
         <v>449</v>
       </c>
       <c r="E267" s="45" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="F267" s="39"/>
       <c r="G267" s="43"/>
@@ -13332,7 +13334,7 @@
         <v>56</v>
       </c>
       <c r="B268" s="39" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="C268" s="43" t="s">
         <v>451</v>
@@ -13390,7 +13392,7 @@
       <c r="E271" s="39"/>
       <c r="F271" s="39"/>
       <c r="G271" s="43" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="272" spans="1:7">
@@ -13540,7 +13542,7 @@
         <v>473</v>
       </c>
       <c r="D280" s="39" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="E280" s="39"/>
       <c r="F280" s="39"/>
@@ -13628,7 +13630,9 @@
         <v>485</v>
       </c>
       <c r="E285" s="39"/>
-      <c r="F285" s="39"/>
+      <c r="F285" s="39" t="s">
+        <v>1126</v>
+      </c>
       <c r="G285" s="43"/>
     </row>
     <row r="286" spans="1:7" ht="75">
@@ -13645,7 +13649,7 @@
       <c r="E286" s="39"/>
       <c r="F286" s="39"/>
       <c r="G286" s="43" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -13694,7 +13698,7 @@
       <c r="E289" s="39"/>
       <c r="F289" s="39"/>
       <c r="G289" s="43" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="290" spans="1:7">
@@ -13844,7 +13848,7 @@
         <v>473</v>
       </c>
       <c r="D298" s="39" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="E298" s="39"/>
       <c r="F298" s="39"/>
@@ -13932,7 +13936,9 @@
         <v>485</v>
       </c>
       <c r="E303" s="39"/>
-      <c r="F303" s="39"/>
+      <c r="F303" s="39" t="s">
+        <v>1126</v>
+      </c>
       <c r="G303" s="43"/>
     </row>
     <row r="304" spans="1:7" ht="75">
@@ -13950,7 +13956,7 @@
       </c>
       <c r="E304" s="39"/>
       <c r="F304" s="59" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="G304" s="43"/>
     </row>
@@ -14032,7 +14038,7 @@
       <c r="E309" s="46"/>
       <c r="F309" s="46"/>
       <c r="G309" s="39" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="310" spans="1:7" ht="30">
@@ -14183,7 +14189,7 @@
       <c r="E318" s="39"/>
       <c r="F318" s="39"/>
       <c r="G318" s="39" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="319" spans="1:7">
@@ -14276,7 +14282,7 @@
         <v>56</v>
       </c>
       <c r="B324" s="39" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C324" s="39" t="s">
         <v>466</v>
@@ -14293,7 +14299,7 @@
         <v>56</v>
       </c>
       <c r="B325" s="39" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="C325" s="39" t="s">
         <v>468</v>
@@ -14333,7 +14339,7 @@
         <v>473</v>
       </c>
       <c r="D327" s="39" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="E327" s="39"/>
       <c r="F327" s="39"/>
@@ -14412,7 +14418,7 @@
         <v>56</v>
       </c>
       <c r="B332" s="39" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="C332" s="39" t="s">
         <v>484</v>
@@ -14421,7 +14427,9 @@
         <v>485</v>
       </c>
       <c r="E332" s="39"/>
-      <c r="F332" s="39"/>
+      <c r="F332" s="39" t="s">
+        <v>1126</v>
+      </c>
       <c r="G332" s="39"/>
     </row>
     <row r="333" spans="1:7" ht="75">
@@ -14429,7 +14437,7 @@
         <v>56</v>
       </c>
       <c r="B333" s="39" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C333" s="39" t="s">
         <v>487</v>
@@ -14439,7 +14447,7 @@
       </c>
       <c r="E333" s="39"/>
       <c r="F333" s="59" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="G333" s="39"/>
     </row>
@@ -14448,7 +14456,7 @@
         <v>56</v>
       </c>
       <c r="B334" s="36" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C334" s="49" t="s">
         <v>40</v>
@@ -14502,13 +14510,13 @@
         <v>78.3</v>
       </c>
       <c r="E337" s="39" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="F337" s="39" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G337" s="43" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="338" spans="1:7" ht="60">
@@ -14525,10 +14533,10 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E338" s="39" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="F338" s="39" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G338" s="43"/>
     </row>
@@ -14540,14 +14548,14 @@
         <v>552</v>
       </c>
       <c r="C339" s="43" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="D339" s="39">
         <v>78.099999999999994</v>
       </c>
       <c r="E339" s="39"/>
       <c r="F339" s="39" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G339" s="43"/>
     </row>
@@ -14581,10 +14589,10 @@
       </c>
       <c r="E341" s="39"/>
       <c r="F341" s="39" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G341" s="43" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="342" spans="1:7">
@@ -14602,7 +14610,7 @@
       </c>
       <c r="E342" s="39"/>
       <c r="F342" s="39" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G342" s="43"/>
     </row>
@@ -14621,7 +14629,7 @@
       </c>
       <c r="E343" s="39"/>
       <c r="F343" s="39" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G343" s="39"/>
     </row>
@@ -14640,7 +14648,7 @@
       </c>
       <c r="E344" s="39"/>
       <c r="F344" s="39" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G344" s="43"/>
     </row>
@@ -14674,10 +14682,10 @@
       </c>
       <c r="E346" s="39"/>
       <c r="F346" s="39" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G346" s="43" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="347" spans="1:7" ht="30">
@@ -14695,7 +14703,7 @@
       </c>
       <c r="E347" s="39"/>
       <c r="F347" s="39" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G347" s="43"/>
     </row>
@@ -14707,14 +14715,14 @@
         <v>575</v>
       </c>
       <c r="C348" s="43" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="D348" s="39" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="E348" s="39"/>
       <c r="F348" s="39" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G348" s="43"/>
     </row>
@@ -14733,7 +14741,7 @@
       </c>
       <c r="E349" s="39"/>
       <c r="F349" s="39" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G349" s="43"/>
     </row>
@@ -14767,10 +14775,10 @@
       </c>
       <c r="E351" s="39"/>
       <c r="F351" s="39" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G351" s="43" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="352" spans="1:7" ht="60">
@@ -14788,7 +14796,7 @@
       </c>
       <c r="E352" s="39"/>
       <c r="F352" s="39" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G352" s="43"/>
     </row>
@@ -14803,11 +14811,11 @@
         <v>592</v>
       </c>
       <c r="D353" s="39" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E353" s="39"/>
       <c r="F353" s="39" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G353" s="39"/>
     </row>
@@ -14826,7 +14834,7 @@
       </c>
       <c r="E354" s="39"/>
       <c r="F354" s="39" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G354" s="43"/>
     </row>
@@ -14845,7 +14853,7 @@
       </c>
       <c r="E355" s="39"/>
       <c r="F355" s="39" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G355" s="43"/>
     </row>
@@ -14879,10 +14887,10 @@
       </c>
       <c r="E357" s="39"/>
       <c r="F357" s="39" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G357" s="39" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="358" spans="1:7">
@@ -14896,11 +14904,11 @@
         <v>604</v>
       </c>
       <c r="D358" s="39" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E358" s="39"/>
       <c r="F358" s="39" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G358" s="39"/>
     </row>
@@ -14934,10 +14942,10 @@
       </c>
       <c r="E360" s="39"/>
       <c r="F360" s="39" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G360" s="43" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="361" spans="1:7" ht="30">
@@ -14951,11 +14959,11 @@
         <v>609</v>
       </c>
       <c r="D361" s="39" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="E361" s="46"/>
       <c r="F361" s="39" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G361" s="43"/>
     </row>
@@ -14974,7 +14982,7 @@
       </c>
       <c r="E362" s="39"/>
       <c r="F362" s="39" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G362" s="43"/>
     </row>
@@ -14989,11 +14997,11 @@
         <v>613</v>
       </c>
       <c r="D363" s="39" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="E363" s="39"/>
       <c r="F363" s="39" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G363" s="43"/>
     </row>
@@ -15008,13 +15016,13 @@
         <v>615</v>
       </c>
       <c r="D364" s="39" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E364" s="39" t="s">
         <v>616</v>
       </c>
       <c r="F364" s="39" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G364" s="39"/>
     </row>
@@ -15062,13 +15070,13 @@
         <v>1004</v>
       </c>
       <c r="E367" s="39" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="F367" s="39" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G367" s="43" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="368" spans="1:7" ht="75">
@@ -15085,10 +15093,10 @@
         <v>999</v>
       </c>
       <c r="E368" s="39" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="F368" s="39" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G368" s="43"/>
     </row>
@@ -15106,10 +15114,10 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E369" s="39" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="F369" s="39" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G369" s="43"/>
     </row>
@@ -15158,10 +15166,10 @@
       </c>
       <c r="E372" s="39"/>
       <c r="F372" s="39" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G372" s="43" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="373" spans="1:7" ht="30">
@@ -15179,7 +15187,7 @@
       </c>
       <c r="E373" s="39"/>
       <c r="F373" s="39" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G373" s="43"/>
     </row>
@@ -15198,7 +15206,7 @@
       </c>
       <c r="E374" s="39"/>
       <c r="F374" s="39" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G374" s="43"/>
     </row>
@@ -15217,7 +15225,7 @@
       </c>
       <c r="E375" s="39"/>
       <c r="F375" s="39" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G375" s="43"/>
     </row>
@@ -15236,7 +15244,7 @@
       </c>
       <c r="E376" s="39"/>
       <c r="F376" s="39" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G376" s="43"/>
     </row>
@@ -15255,7 +15263,7 @@
       </c>
       <c r="E377" s="39"/>
       <c r="F377" s="39" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G377" s="43"/>
     </row>
@@ -15289,10 +15297,10 @@
       </c>
       <c r="E379" s="39"/>
       <c r="F379" s="39" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G379" s="43" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="380" spans="1:7">
@@ -15306,13 +15314,13 @@
         <v>604</v>
       </c>
       <c r="D380" s="39" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E380" s="39" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="F380" s="39" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G380" s="39"/>
     </row>
@@ -15346,10 +15354,10 @@
       </c>
       <c r="E382" s="39"/>
       <c r="F382" s="39" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G382" s="43" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="383" spans="1:7" ht="30">
@@ -15363,11 +15371,11 @@
         <v>645</v>
       </c>
       <c r="D383" s="39" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="E383" s="46"/>
       <c r="F383" s="39" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G383" s="43"/>
     </row>
@@ -15386,7 +15394,7 @@
       </c>
       <c r="E384" s="39"/>
       <c r="F384" s="39" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G384" s="43"/>
     </row>
@@ -15401,11 +15409,11 @@
         <v>613</v>
       </c>
       <c r="D385" s="39" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="E385" s="39"/>
       <c r="F385" s="39" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G385" s="39"/>
     </row>
@@ -15420,13 +15428,13 @@
         <v>615</v>
       </c>
       <c r="D386" s="39" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E386" s="39" t="s">
         <v>616</v>
       </c>
       <c r="F386" s="39" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G386" s="39"/>
     </row>
@@ -15474,13 +15482,13 @@
         <v>78.3</v>
       </c>
       <c r="E389" s="39" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="F389" s="39" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G389" s="43" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="390" spans="1:7" ht="60">
@@ -15497,10 +15505,10 @@
         <v>999</v>
       </c>
       <c r="E390" s="39" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="F390" s="39" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G390" s="39"/>
     </row>
@@ -15518,10 +15526,10 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E391" s="39" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="F391" s="39" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G391" s="43"/>
     </row>
@@ -15570,10 +15578,10 @@
       </c>
       <c r="E394" s="39"/>
       <c r="F394" s="39" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G394" s="43" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="395" spans="1:7" ht="45">
@@ -15591,7 +15599,7 @@
       </c>
       <c r="E395" s="39"/>
       <c r="F395" s="39" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G395" s="43"/>
     </row>
@@ -15610,7 +15618,7 @@
       </c>
       <c r="E396" s="39"/>
       <c r="F396" s="39" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G396" s="43"/>
     </row>
@@ -15629,7 +15637,7 @@
       </c>
       <c r="E397" s="39"/>
       <c r="F397" s="39" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G397" s="43"/>
     </row>
@@ -15648,7 +15656,7 @@
       </c>
       <c r="E398" s="39"/>
       <c r="F398" s="39" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G398" s="43"/>
     </row>
@@ -15667,7 +15675,7 @@
       </c>
       <c r="E399" s="39"/>
       <c r="F399" s="39" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G399" s="43"/>
     </row>
@@ -15701,10 +15709,10 @@
       </c>
       <c r="E401" s="39"/>
       <c r="F401" s="39" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G401" s="43" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="402" spans="1:7">
@@ -15718,13 +15726,13 @@
         <v>604</v>
       </c>
       <c r="D402" s="39" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E402" s="39" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="F402" s="39" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G402" s="39"/>
     </row>
@@ -15758,10 +15766,10 @@
       </c>
       <c r="E404" s="39"/>
       <c r="F404" s="39" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G404" s="43" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="405" spans="1:7" ht="30">
@@ -15775,11 +15783,11 @@
         <v>645</v>
       </c>
       <c r="D405" s="39" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="E405" s="46"/>
       <c r="F405" s="39" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G405" s="43"/>
     </row>
@@ -15798,7 +15806,7 @@
       </c>
       <c r="E406" s="39"/>
       <c r="F406" s="39" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G406" s="43"/>
     </row>
@@ -15813,11 +15821,11 @@
         <v>613</v>
       </c>
       <c r="D407" s="39" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="E407" s="39"/>
       <c r="F407" s="39" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G407" s="39"/>
     </row>
@@ -15832,13 +15840,13 @@
         <v>615</v>
       </c>
       <c r="D408" s="39" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E408" s="39" t="s">
         <v>616</v>
       </c>
       <c r="F408" s="39" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G408" s="39"/>
     </row>
@@ -15886,13 +15894,13 @@
         <v>78.3</v>
       </c>
       <c r="E411" s="6" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="F411" s="39" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G411" s="43" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="412" spans="1:7" ht="90">
@@ -15909,10 +15917,10 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E412" s="39" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="F412" s="39" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G412" s="43"/>
     </row>
@@ -15930,10 +15938,10 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E413" s="39" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="F413" s="39" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G413" s="43"/>
     </row>
@@ -15982,10 +15990,10 @@
       </c>
       <c r="E416" s="39"/>
       <c r="F416" s="39" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G416" s="39" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="417" spans="1:7">
@@ -16003,7 +16011,7 @@
       </c>
       <c r="E417" s="39"/>
       <c r="F417" s="39" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G417" s="43"/>
     </row>
@@ -16022,7 +16030,7 @@
       </c>
       <c r="E418" s="39"/>
       <c r="F418" s="39" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G418" s="43"/>
     </row>
@@ -16041,7 +16049,7 @@
       </c>
       <c r="E419" s="39"/>
       <c r="F419" s="39" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G419" s="39"/>
     </row>
@@ -16068,17 +16076,17 @@
         <v>695</v>
       </c>
       <c r="C421" s="39" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="D421" s="39" t="s">
         <v>697</v>
       </c>
       <c r="E421" s="39"/>
       <c r="F421" s="39" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G421" s="39" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="422" spans="1:7" ht="30">
@@ -16089,14 +16097,14 @@
         <v>698</v>
       </c>
       <c r="C422" s="39" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="D422" s="39" t="s">
         <v>700</v>
       </c>
       <c r="E422" s="39"/>
       <c r="F422" s="39" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G422" s="39"/>
     </row>
@@ -16115,7 +16123,7 @@
       </c>
       <c r="E423" s="39"/>
       <c r="F423" s="39" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G423" s="39"/>
     </row>
@@ -16149,10 +16157,10 @@
       </c>
       <c r="E425" s="39"/>
       <c r="F425" s="39" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G425" s="43" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="426" spans="1:7">
@@ -16170,7 +16178,7 @@
       </c>
       <c r="E426" s="39"/>
       <c r="F426" s="39" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G426" s="43"/>
     </row>
@@ -16189,7 +16197,7 @@
       </c>
       <c r="E427" s="39"/>
       <c r="F427" s="39" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G427" s="43"/>
     </row>
@@ -16208,275 +16216,275 @@
       </c>
       <c r="E428" s="39"/>
       <c r="F428" s="39" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G428" s="39"/>
     </row>
-    <row r="429" spans="1:7">
+    <row r="429" spans="1:7" ht="45">
       <c r="A429" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B429" s="39" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C429" s="43" t="s">
-        <v>579</v>
+        <v>666</v>
       </c>
       <c r="D429" s="39" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="E429" s="39"/>
       <c r="F429" s="39" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G429" s="43"/>
     </row>
-    <row r="430" spans="1:7" ht="45">
+    <row r="430" spans="1:7">
       <c r="A430" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B430" s="39" t="s">
-        <v>710</v>
-      </c>
-      <c r="C430" s="43" t="s">
-        <v>666</v>
-      </c>
-      <c r="D430" s="39" t="s">
-        <v>583</v>
-      </c>
-      <c r="E430" s="39"/>
+        <v>711</v>
+      </c>
+      <c r="C430" s="40" t="s">
+        <v>585</v>
+      </c>
+      <c r="D430" s="40"/>
+      <c r="E430" s="40"/>
       <c r="F430" s="39" t="s">
-        <v>1183</v>
-      </c>
-      <c r="G430" s="43"/>
-    </row>
-    <row r="431" spans="1:7">
+        <v>1182</v>
+      </c>
+      <c r="G430" s="40"/>
+    </row>
+    <row r="431" spans="1:7" ht="90">
       <c r="A431" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B431" s="39" t="s">
-        <v>711</v>
-      </c>
-      <c r="C431" s="40" t="s">
-        <v>585</v>
-      </c>
-      <c r="D431" s="40"/>
-      <c r="E431" s="40"/>
+        <v>712</v>
+      </c>
+      <c r="C431" s="43" t="s">
+        <v>588</v>
+      </c>
+      <c r="D431" s="39" t="s">
+        <v>586</v>
+      </c>
+      <c r="E431" s="39"/>
       <c r="F431" s="39" t="s">
-        <v>1183</v>
-      </c>
-      <c r="G431" s="40"/>
-    </row>
-    <row r="432" spans="1:7" ht="90">
+        <v>1182</v>
+      </c>
+      <c r="G431" s="43" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7" ht="60">
       <c r="A432" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B432" s="39" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C432" s="43" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="D432" s="39" t="s">
         <v>586</v>
       </c>
       <c r="E432" s="39"/>
       <c r="F432" s="39" t="s">
-        <v>1183</v>
-      </c>
-      <c r="G432" s="43" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="433" spans="1:7" ht="60">
+        <v>1182</v>
+      </c>
+      <c r="G432" s="43"/>
+    </row>
+    <row r="433" spans="1:7" ht="30">
       <c r="A433" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B433" s="39" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C433" s="43" t="s">
-        <v>590</v>
+        <v>715</v>
       </c>
       <c r="D433" s="39" t="s">
         <v>586</v>
       </c>
       <c r="E433" s="39"/>
       <c r="F433" s="39" t="s">
-        <v>1183</v>
-      </c>
-      <c r="G433" s="43"/>
+        <v>1182</v>
+      </c>
+      <c r="G433" s="43" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="434" spans="1:7" ht="30">
       <c r="A434" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B434" s="39" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C434" s="43" t="s">
-        <v>715</v>
+        <v>668</v>
       </c>
       <c r="D434" s="39" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="E434" s="39"/>
       <c r="F434" s="39" t="s">
-        <v>1183</v>
-      </c>
-      <c r="G434" s="43" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="435" spans="1:7" ht="30">
+        <v>1182</v>
+      </c>
+      <c r="G434" s="43"/>
+    </row>
+    <row r="435" spans="1:7">
       <c r="A435" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B435" s="39" t="s">
-        <v>716</v>
-      </c>
-      <c r="C435" s="43" t="s">
-        <v>668</v>
-      </c>
-      <c r="D435" s="39" t="s">
-        <v>598</v>
-      </c>
-      <c r="E435" s="39"/>
+        <v>717</v>
+      </c>
+      <c r="C435" s="40" t="s">
+        <v>600</v>
+      </c>
+      <c r="D435" s="40"/>
+      <c r="E435" s="40"/>
       <c r="F435" s="39" t="s">
-        <v>1183</v>
-      </c>
-      <c r="G435" s="43"/>
+        <v>1182</v>
+      </c>
+      <c r="G435" s="40"/>
     </row>
     <row r="436" spans="1:7">
       <c r="A436" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B436" s="39" t="s">
-        <v>717</v>
-      </c>
-      <c r="C436" s="40" t="s">
-        <v>600</v>
-      </c>
-      <c r="D436" s="40"/>
-      <c r="E436" s="40"/>
+        <v>718</v>
+      </c>
+      <c r="C436" s="43" t="s">
+        <v>602</v>
+      </c>
+      <c r="D436" s="39" t="s">
+        <v>577</v>
+      </c>
+      <c r="E436" s="39"/>
       <c r="F436" s="39" t="s">
-        <v>1183</v>
-      </c>
-      <c r="G436" s="40"/>
+        <v>1182</v>
+      </c>
+      <c r="G436" s="43" t="s">
+        <v>1110</v>
+      </c>
     </row>
     <row r="437" spans="1:7">
       <c r="A437" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B437" s="39" t="s">
-        <v>718</v>
-      </c>
-      <c r="C437" s="43" t="s">
-        <v>602</v>
+        <v>719</v>
+      </c>
+      <c r="C437" s="39" t="s">
+        <v>604</v>
       </c>
       <c r="D437" s="39" t="s">
-        <v>577</v>
-      </c>
-      <c r="E437" s="39"/>
+        <v>1065</v>
+      </c>
+      <c r="E437" s="39" t="s">
+        <v>1221</v>
+      </c>
       <c r="F437" s="39" t="s">
-        <v>1183</v>
-      </c>
-      <c r="G437" s="43" t="s">
-        <v>1111</v>
-      </c>
+        <v>1182</v>
+      </c>
+      <c r="G437" s="39"/>
     </row>
     <row r="438" spans="1:7">
       <c r="A438" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B438" s="39" t="s">
-        <v>719</v>
-      </c>
-      <c r="C438" s="39" t="s">
-        <v>604</v>
-      </c>
-      <c r="D438" s="39" t="s">
+        <v>720</v>
+      </c>
+      <c r="C438" s="40" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D438" s="40"/>
+      <c r="E438" s="40"/>
+      <c r="F438" s="39" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G438" s="40"/>
+    </row>
+    <row r="439" spans="1:7" ht="30">
+      <c r="A439" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B439" s="39" t="s">
+        <v>725</v>
+      </c>
+      <c r="C439" s="39" t="s">
+        <v>615</v>
+      </c>
+      <c r="D439" s="39" t="s">
         <v>1066</v>
       </c>
-      <c r="E438" s="39" t="s">
-        <v>1222</v>
-      </c>
-      <c r="F438" s="39" t="s">
-        <v>1183</v>
-      </c>
-      <c r="G438" s="39"/>
-    </row>
-    <row r="439" spans="1:7">
-      <c r="A439" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="B439" s="39" t="s">
-        <v>720</v>
-      </c>
-      <c r="C439" s="40" t="s">
-        <v>1076</v>
-      </c>
-      <c r="D439" s="40"/>
-      <c r="E439" s="40"/>
+      <c r="E439" s="39" t="s">
+        <v>616</v>
+      </c>
       <c r="F439" s="39" t="s">
-        <v>1183</v>
-      </c>
-      <c r="G439" s="40"/>
-    </row>
-    <row r="440" spans="1:7" ht="30">
+        <v>1182</v>
+      </c>
+      <c r="G439" s="39"/>
+    </row>
+    <row r="440" spans="1:7">
       <c r="A440" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B440" s="39" t="s">
-        <v>725</v>
-      </c>
-      <c r="C440" s="39" t="s">
-        <v>615</v>
-      </c>
-      <c r="D440" s="39" t="s">
-        <v>1067</v>
-      </c>
-      <c r="E440" s="39" t="s">
-        <v>616</v>
-      </c>
+      <c r="B440" s="39">
+        <v>11.5</v>
+      </c>
+      <c r="C440" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="D440" s="40"/>
+      <c r="E440" s="40"/>
       <c r="F440" s="39" t="s">
-        <v>1183</v>
-      </c>
-      <c r="G440" s="39"/>
+        <v>1182</v>
+      </c>
+      <c r="G440" s="38"/>
     </row>
     <row r="441" spans="1:7">
       <c r="A441" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B441" s="39">
-        <v>11.5</v>
-      </c>
-      <c r="C441" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="D441" s="40"/>
-      <c r="E441" s="40"/>
+      <c r="B441" s="39" t="s">
+        <v>726</v>
+      </c>
+      <c r="C441" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D441" s="39"/>
+      <c r="E441" s="43" t="s">
+        <v>268</v>
+      </c>
       <c r="F441" s="39" t="s">
-        <v>1183</v>
-      </c>
-      <c r="G441" s="38"/>
+        <v>1182</v>
+      </c>
+      <c r="G441" s="43"/>
     </row>
     <row r="442" spans="1:7">
       <c r="A442" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B442" s="39" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C442" s="43" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D442" s="39"/>
       <c r="E442" s="43" t="s">
         <v>268</v>
       </c>
       <c r="F442" s="39" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G442" s="43"/>
     </row>
@@ -16485,17 +16493,17 @@
         <v>56</v>
       </c>
       <c r="B443" s="39" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C443" s="43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D443" s="39"/>
       <c r="E443" s="43" t="s">
         <v>268</v>
       </c>
       <c r="F443" s="39" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G443" s="43"/>
     </row>
@@ -16503,54 +16511,54 @@
       <c r="A444" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B444" s="39" t="s">
-        <v>728</v>
-      </c>
-      <c r="C444" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="D444" s="39"/>
-      <c r="E444" s="43" t="s">
-        <v>268</v>
-      </c>
+      <c r="B444" s="39">
+        <v>11.6</v>
+      </c>
+      <c r="C444" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D444" s="40"/>
+      <c r="E444" s="38"/>
       <c r="F444" s="39" t="s">
-        <v>1183</v>
-      </c>
-      <c r="G444" s="43"/>
+        <v>1182</v>
+      </c>
+      <c r="G444" s="38"/>
     </row>
     <row r="445" spans="1:7">
       <c r="A445" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B445" s="39">
-        <v>11.6</v>
-      </c>
-      <c r="C445" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="D445" s="40"/>
-      <c r="E445" s="38"/>
+      <c r="B445" s="39" t="s">
+        <v>729</v>
+      </c>
+      <c r="C445" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="D445" s="39"/>
+      <c r="E445" s="43" t="s">
+        <v>268</v>
+      </c>
       <c r="F445" s="39" t="s">
-        <v>1183</v>
-      </c>
-      <c r="G445" s="38"/>
+        <v>1182</v>
+      </c>
+      <c r="G445" s="43"/>
     </row>
     <row r="446" spans="1:7">
       <c r="A446" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B446" s="39" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C446" s="43" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D446" s="39"/>
       <c r="E446" s="43" t="s">
         <v>268</v>
       </c>
       <c r="F446" s="39" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G446" s="43"/>
     </row>
@@ -16558,236 +16566,236 @@
       <c r="A447" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B447" s="39" t="s">
-        <v>730</v>
-      </c>
-      <c r="C447" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="D447" s="39"/>
-      <c r="E447" s="43" t="s">
-        <v>268</v>
-      </c>
-      <c r="F447" s="39" t="s">
-        <v>1183</v>
-      </c>
-      <c r="G447" s="43"/>
+      <c r="B447" s="39">
+        <v>11.7</v>
+      </c>
+      <c r="C447" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D447" s="40"/>
+      <c r="E447" s="40"/>
+      <c r="F447" s="40"/>
+      <c r="G447" s="38"/>
     </row>
     <row r="448" spans="1:7">
       <c r="A448" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B448" s="39">
-        <v>11.7</v>
-      </c>
-      <c r="C448" s="38" t="s">
-        <v>51</v>
+      <c r="B448" s="39" t="s">
+        <v>731</v>
+      </c>
+      <c r="C448" s="40" t="s">
+        <v>42</v>
       </c>
       <c r="D448" s="40"/>
       <c r="E448" s="40"/>
       <c r="F448" s="40"/>
-      <c r="G448" s="38"/>
-    </row>
-    <row r="449" spans="1:7">
+      <c r="G448" s="40"/>
+    </row>
+    <row r="449" spans="1:7" ht="105">
       <c r="A449" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B449" s="39" t="s">
-        <v>731</v>
-      </c>
-      <c r="C449" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="D449" s="40"/>
-      <c r="E449" s="40"/>
-      <c r="F449" s="40"/>
-      <c r="G449" s="40"/>
-    </row>
-    <row r="450" spans="1:7" ht="105">
+        <v>732</v>
+      </c>
+      <c r="C449" s="43" t="s">
+        <v>651</v>
+      </c>
+      <c r="D449" s="39">
+        <v>78.3</v>
+      </c>
+      <c r="E449" s="39"/>
+      <c r="F449" s="39" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G449" s="43" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="450" spans="1:7" ht="30">
       <c r="A450" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B450" s="39" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C450" s="43" t="s">
-        <v>651</v>
+        <v>682</v>
       </c>
       <c r="D450" s="39">
-        <v>78.3</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="E450" s="39"/>
       <c r="F450" s="39" t="s">
-        <v>1127</v>
-      </c>
-      <c r="G450" s="43" t="s">
-        <v>1108</v>
-      </c>
+        <v>1126</v>
+      </c>
+      <c r="G450" s="43"/>
     </row>
     <row r="451" spans="1:7" ht="30">
       <c r="A451" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B451" s="39" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C451" s="43" t="s">
-        <v>682</v>
+        <v>655</v>
       </c>
       <c r="D451" s="39">
         <v>78.099999999999994</v>
       </c>
       <c r="E451" s="39"/>
       <c r="F451" s="39" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G451" s="43"/>
     </row>
-    <row r="452" spans="1:7" ht="30">
+    <row r="452" spans="1:7">
       <c r="A452" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B452" s="39" t="s">
-        <v>734</v>
-      </c>
-      <c r="C452" s="43" t="s">
-        <v>655</v>
-      </c>
-      <c r="D452" s="39">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E452" s="39"/>
-      <c r="F452" s="39" t="s">
-        <v>1127</v>
-      </c>
-      <c r="G452" s="43"/>
+        <v>735</v>
+      </c>
+      <c r="C452" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D452" s="40"/>
+      <c r="E452" s="40"/>
+      <c r="F452" s="40"/>
+      <c r="G452" s="40"/>
     </row>
     <row r="453" spans="1:7">
       <c r="A453" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B453" s="39" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C453" s="40" t="s">
-        <v>43</v>
+        <v>624</v>
       </c>
       <c r="D453" s="40"/>
       <c r="E453" s="40"/>
       <c r="F453" s="40"/>
       <c r="G453" s="40"/>
     </row>
-    <row r="454" spans="1:7">
+    <row r="454" spans="1:7" ht="30">
       <c r="A454" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B454" s="39" t="s">
-        <v>736</v>
-      </c>
-      <c r="C454" s="40" t="s">
-        <v>624</v>
-      </c>
-      <c r="D454" s="40"/>
-      <c r="E454" s="40"/>
-      <c r="F454" s="40"/>
-      <c r="G454" s="40"/>
-    </row>
-    <row r="455" spans="1:7" ht="30">
+        <v>737</v>
+      </c>
+      <c r="C454" s="43" t="s">
+        <v>738</v>
+      </c>
+      <c r="D454" s="39" t="s">
+        <v>557</v>
+      </c>
+      <c r="E454" s="39"/>
+      <c r="F454" s="39" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G454" s="43" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="455" spans="1:7">
       <c r="A455" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B455" s="39" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="C455" s="43" t="s">
-        <v>738</v>
+        <v>690</v>
       </c>
       <c r="D455" s="39" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="E455" s="39"/>
       <c r="F455" s="39" t="s">
-        <v>1127</v>
-      </c>
-      <c r="G455" s="43" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="456" spans="1:7">
+        <v>1126</v>
+      </c>
+      <c r="G455" s="43"/>
+    </row>
+    <row r="456" spans="1:7" ht="30">
       <c r="A456" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B456" s="39" t="s">
-        <v>739</v>
-      </c>
-      <c r="C456" s="43" t="s">
-        <v>690</v>
+        <v>740</v>
+      </c>
+      <c r="C456" s="39" t="s">
+        <v>741</v>
       </c>
       <c r="D456" s="39" t="s">
-        <v>560</v>
+        <v>1067</v>
       </c>
       <c r="E456" s="39"/>
       <c r="F456" s="39" t="s">
-        <v>1127</v>
-      </c>
-      <c r="G456" s="43"/>
-    </row>
-    <row r="457" spans="1:7" ht="30">
+        <v>1126</v>
+      </c>
+      <c r="G456" s="39"/>
+    </row>
+    <row r="457" spans="1:7" ht="45">
       <c r="A457" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B457" s="39" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="C457" s="39" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="D457" s="39" t="s">
-        <v>1068</v>
+        <v>598</v>
       </c>
       <c r="E457" s="39"/>
       <c r="F457" s="39" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G457" s="39"/>
     </row>
-    <row r="458" spans="1:7" ht="45">
+    <row r="458" spans="1:7">
       <c r="A458" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B458" s="39" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="C458" s="39" t="s">
-        <v>743</v>
-      </c>
-      <c r="D458" s="39" t="s">
-        <v>598</v>
-      </c>
+        <v>1082</v>
+      </c>
+      <c r="D458" s="39"/>
       <c r="E458" s="39"/>
       <c r="F458" s="39" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G458" s="39"/>
     </row>
-    <row r="459" spans="1:7">
+    <row r="459" spans="1:7" ht="60">
       <c r="A459" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B459" s="39" t="s">
-        <v>744</v>
+        <v>1083</v>
       </c>
       <c r="C459" s="39" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D459" s="39"/>
+        <v>745</v>
+      </c>
+      <c r="D459" s="39" t="s">
+        <v>566</v>
+      </c>
       <c r="E459" s="39"/>
       <c r="F459" s="39" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G459" s="39"/>
     </row>
-    <row r="460" spans="1:7" ht="60">
+    <row r="460" spans="1:7" ht="30">
       <c r="A460" s="39" t="s">
         <v>56</v>
       </c>
@@ -16795,202 +16803,183 @@
         <v>1084</v>
       </c>
       <c r="C460" s="39" t="s">
-        <v>745</v>
+        <v>1081</v>
       </c>
       <c r="D460" s="39" t="s">
-        <v>566</v>
+        <v>700</v>
       </c>
       <c r="E460" s="39"/>
       <c r="F460" s="39" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G460" s="39"/>
     </row>
-    <row r="461" spans="1:7" ht="30">
+    <row r="461" spans="1:7">
       <c r="A461" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B461" s="39" t="s">
-        <v>1085</v>
-      </c>
-      <c r="C461" s="39" t="s">
-        <v>1082</v>
-      </c>
-      <c r="D461" s="39" t="s">
-        <v>700</v>
-      </c>
-      <c r="E461" s="39"/>
-      <c r="F461" s="39" t="s">
-        <v>1127</v>
-      </c>
-      <c r="G461" s="39"/>
+        <v>747</v>
+      </c>
+      <c r="C461" s="40" t="s">
+        <v>600</v>
+      </c>
+      <c r="D461" s="40"/>
+      <c r="E461" s="40"/>
+      <c r="F461" s="40"/>
+      <c r="G461" s="40"/>
     </row>
     <row r="462" spans="1:7">
       <c r="A462" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B462" s="39" t="s">
-        <v>747</v>
-      </c>
-      <c r="C462" s="40" t="s">
-        <v>600</v>
-      </c>
-      <c r="D462" s="40"/>
-      <c r="E462" s="40"/>
-      <c r="F462" s="40"/>
-      <c r="G462" s="40"/>
+        <v>748</v>
+      </c>
+      <c r="C462" s="43" t="s">
+        <v>602</v>
+      </c>
+      <c r="D462" s="39" t="s">
+        <v>577</v>
+      </c>
+      <c r="E462" s="39"/>
+      <c r="F462" s="39" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G462" s="43" t="s">
+        <v>1110</v>
+      </c>
     </row>
     <row r="463" spans="1:7">
       <c r="A463" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B463" s="39" t="s">
-        <v>748</v>
-      </c>
-      <c r="C463" s="43" t="s">
-        <v>602</v>
+        <v>749</v>
+      </c>
+      <c r="C463" s="39" t="s">
+        <v>604</v>
       </c>
       <c r="D463" s="39" t="s">
-        <v>577</v>
+        <v>1065</v>
       </c>
       <c r="E463" s="39"/>
       <c r="F463" s="39" t="s">
-        <v>1127</v>
-      </c>
-      <c r="G463" s="43" t="s">
-        <v>1111</v>
-      </c>
+        <v>1126</v>
+      </c>
+      <c r="G463" s="39"/>
     </row>
     <row r="464" spans="1:7">
       <c r="A464" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B464" s="39" t="s">
-        <v>749</v>
-      </c>
-      <c r="C464" s="39" t="s">
-        <v>604</v>
-      </c>
-      <c r="D464" s="39" t="s">
-        <v>1066</v>
-      </c>
-      <c r="E464" s="39"/>
-      <c r="F464" s="39" t="s">
-        <v>1127</v>
-      </c>
-      <c r="G464" s="39"/>
+        <v>750</v>
+      </c>
+      <c r="C464" s="40" t="s">
+        <v>606</v>
+      </c>
+      <c r="D464" s="40"/>
+      <c r="E464" s="40"/>
+      <c r="F464" s="40"/>
+      <c r="G464" s="40"/>
     </row>
     <row r="465" spans="1:7">
       <c r="A465" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B465" s="39" t="s">
-        <v>750</v>
-      </c>
-      <c r="C465" s="40" t="s">
-        <v>606</v>
-      </c>
-      <c r="D465" s="40"/>
-      <c r="E465" s="40"/>
-      <c r="F465" s="40"/>
-      <c r="G465" s="40"/>
-    </row>
-    <row r="466" spans="1:7">
+        <v>751</v>
+      </c>
+      <c r="C465" s="43" t="s">
+        <v>570</v>
+      </c>
+      <c r="D465" s="39" t="s">
+        <v>571</v>
+      </c>
+      <c r="E465" s="39"/>
+      <c r="F465" s="39" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G465" s="43" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="466" spans="1:7" ht="30">
       <c r="A466" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B466" s="39" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C466" s="43" t="s">
-        <v>570</v>
+        <v>645</v>
       </c>
       <c r="D466" s="39" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="E466" s="39"/>
       <c r="F466" s="39" t="s">
-        <v>1127</v>
-      </c>
-      <c r="G466" s="43" t="s">
-        <v>1120</v>
-      </c>
+        <v>1126</v>
+      </c>
+      <c r="G466" s="43"/>
     </row>
     <row r="467" spans="1:7" ht="30">
       <c r="A467" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B467" s="39" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C467" s="43" t="s">
-        <v>645</v>
+        <v>611</v>
       </c>
       <c r="D467" s="39" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="E467" s="39"/>
       <c r="F467" s="39" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G467" s="43"/>
     </row>
-    <row r="468" spans="1:7" ht="30">
+    <row r="468" spans="1:7">
       <c r="A468" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B468" s="39" t="s">
-        <v>753</v>
-      </c>
-      <c r="C468" s="43" t="s">
-        <v>611</v>
+        <v>754</v>
+      </c>
+      <c r="C468" s="39" t="s">
+        <v>613</v>
       </c>
       <c r="D468" s="39" t="s">
-        <v>577</v>
+        <v>1068</v>
       </c>
       <c r="E468" s="39"/>
       <c r="F468" s="39" t="s">
-        <v>1127</v>
-      </c>
-      <c r="G468" s="43"/>
-    </row>
-    <row r="469" spans="1:7">
+        <v>1126</v>
+      </c>
+      <c r="G468" s="39"/>
+    </row>
+    <row r="469" spans="1:7" ht="30">
       <c r="A469" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B469" s="39" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C469" s="39" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="D469" s="39" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="E469" s="39"/>
       <c r="F469" s="39" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G469" s="39"/>
-    </row>
-    <row r="470" spans="1:7" ht="30">
-      <c r="A470" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="B470" s="39" t="s">
-        <v>755</v>
-      </c>
-      <c r="C470" s="39" t="s">
-        <v>615</v>
-      </c>
-      <c r="D470" s="39" t="s">
-        <v>1067</v>
-      </c>
-      <c r="E470" s="39"/>
-      <c r="F470" s="39" t="s">
-        <v>1127</v>
-      </c>
-      <c r="G470" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -17046,7 +17035,7 @@
         <v>59</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>763</v>
@@ -17065,7 +17054,7 @@
         <v>62</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>765</v>
@@ -17084,7 +17073,7 @@
         <v>65</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>766</v>
@@ -17103,7 +17092,7 @@
         <v>68</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>767</v>
@@ -17122,7 +17111,7 @@
         <v>770</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>771</v>
@@ -17901,7 +17890,7 @@
         <v>267</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>829</v>
@@ -17920,13 +17909,13 @@
         <v>258</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C40" s="53" t="s">
         <v>830</v>
       </c>
       <c r="D40" s="53" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="6" t="s">
@@ -17939,13 +17928,13 @@
         <v>255</v>
       </c>
       <c r="B41" s="53" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>831</v>
       </c>
       <c r="D41" s="52" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="6" t="s">
@@ -17958,7 +17947,7 @@
         <v>263</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>832</v>
@@ -17974,16 +17963,16 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="54" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="B43" s="54" t="s">
         <v>787</v>
       </c>
       <c r="C43" s="54" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D43" s="54" t="s">
         <v>1228</v>
-      </c>
-      <c r="D43" s="54" t="s">
-        <v>1229</v>
       </c>
       <c r="E43" s="54"/>
       <c r="F43" s="54" t="s">
@@ -17993,16 +17982,16 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="54" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B44" s="54" t="s">
         <v>787</v>
       </c>
       <c r="C44" s="54" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D44" s="54" t="s">
         <v>1230</v>
-      </c>
-      <c r="D44" s="54" t="s">
-        <v>1231</v>
       </c>
       <c r="E44" s="54"/>
       <c r="F44" s="54" t="s">
@@ -18012,16 +18001,16 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="54" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B45" s="54" t="s">
         <v>787</v>
       </c>
       <c r="C45" s="54" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D45" s="54" t="s">
         <v>1232</v>
-      </c>
-      <c r="D45" s="54" t="s">
-        <v>1233</v>
       </c>
       <c r="E45" s="54"/>
       <c r="F45" s="54" t="s">
@@ -18031,16 +18020,16 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="54" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B46" s="54" t="s">
         <v>787</v>
       </c>
       <c r="C46" s="54" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D46" s="54" t="s">
         <v>1234</v>
-      </c>
-      <c r="D46" s="54" t="s">
-        <v>1235</v>
       </c>
       <c r="E46" s="54"/>
       <c r="F46" s="54" t="s">
@@ -18050,16 +18039,16 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="54" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B47" s="54" t="s">
         <v>787</v>
       </c>
       <c r="C47" s="54" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D47" s="54" t="s">
         <v>1236</v>
-      </c>
-      <c r="D47" s="54" t="s">
-        <v>1237</v>
       </c>
       <c r="E47" s="54"/>
       <c r="F47" s="54" t="s">
@@ -18069,16 +18058,16 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="54" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B48" s="54" t="s">
         <v>787</v>
       </c>
       <c r="C48" s="54" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D48" s="54" t="s">
         <v>1238</v>
-      </c>
-      <c r="D48" s="54" t="s">
-        <v>1239</v>
       </c>
       <c r="E48" s="54"/>
       <c r="F48" s="54" t="s">
@@ -18088,16 +18077,16 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="54" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B49" s="54" t="s">
         <v>787</v>
       </c>
       <c r="C49" s="54" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D49" s="54" t="s">
         <v>1240</v>
-      </c>
-      <c r="D49" s="54" t="s">
-        <v>1241</v>
       </c>
       <c r="E49" s="54"/>
       <c r="F49" s="54" t="s">
@@ -18107,16 +18096,16 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="54" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B50" s="54" t="s">
         <v>787</v>
       </c>
       <c r="C50" s="54" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D50" s="54" t="s">
         <v>1242</v>
-      </c>
-      <c r="D50" s="54" t="s">
-        <v>1243</v>
       </c>
       <c r="E50" s="54"/>
       <c r="F50" s="54" t="s">
@@ -18126,16 +18115,16 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="54" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B51" s="54" t="s">
         <v>787</v>
       </c>
       <c r="C51" s="54" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D51" s="54" t="s">
         <v>1244</v>
-      </c>
-      <c r="D51" s="54" t="s">
-        <v>1245</v>
       </c>
       <c r="E51" s="54"/>
       <c r="F51" s="54" t="s">
@@ -18145,16 +18134,16 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="54" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B52" s="54" t="s">
         <v>814</v>
       </c>
       <c r="C52" s="54" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D52" s="54" t="s">
         <v>1246</v>
-      </c>
-      <c r="D52" s="54" t="s">
-        <v>1247</v>
       </c>
       <c r="E52" s="54"/>
       <c r="F52" s="54" t="s">
@@ -18164,16 +18153,16 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="54" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B53" s="54" t="s">
         <v>814</v>
       </c>
       <c r="C53" s="54" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D53" s="54" t="s">
         <v>1248</v>
-      </c>
-      <c r="D53" s="54" t="s">
-        <v>1249</v>
       </c>
       <c r="E53" s="54"/>
       <c r="F53" s="54" t="s">
@@ -18183,16 +18172,16 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="54" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B54" s="54" t="s">
         <v>822</v>
       </c>
       <c r="C54" s="54" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D54" s="54" t="s">
         <v>1250</v>
-      </c>
-      <c r="D54" s="54" t="s">
-        <v>1251</v>
       </c>
       <c r="E54" s="54"/>
       <c r="F54" s="54" t="s">
@@ -18202,16 +18191,16 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="54" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B55" s="54" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C55" s="54" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D55" s="54" t="s">
         <v>1252</v>
-      </c>
-      <c r="D55" s="54" t="s">
-        <v>1253</v>
       </c>
       <c r="E55" s="54"/>
       <c r="F55" s="54" t="s">
@@ -18551,7 +18540,7 @@
         <v>838</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6" t="s">
@@ -18789,16 +18778,16 @@
     </row>
     <row r="16" spans="1:256" ht="31.5" customHeight="1">
       <c r="A16" s="53" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>835</v>
       </c>
       <c r="C16" s="53" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="D16" s="53" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6" t="s">
@@ -18808,16 +18797,16 @@
     </row>
     <row r="17" spans="1:7" ht="31.5" customHeight="1">
       <c r="A17" s="53" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>835</v>
       </c>
       <c r="C17" s="53" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D17" s="53" t="s">
         <v>1060</v>
-      </c>
-      <c r="D17" s="53" t="s">
-        <v>1061</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6" t="s">
@@ -18836,7 +18825,7 @@
         <v>869</v>
       </c>
       <c r="D18" s="53" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6" t="s">
@@ -19415,7 +19404,7 @@
         <v>956</v>
       </c>
       <c r="D49" s="62" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
@@ -19672,16 +19661,16 @@
     </row>
     <row r="50" spans="1:256">
       <c r="A50" s="53" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>835</v>
       </c>
       <c r="C50" s="6" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D50" s="6" t="s">
         <v>1294</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>1295</v>
       </c>
     </row>
   </sheetData>
@@ -19699,7 +19688,7 @@
   <dimension ref="A1:IV30"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -19744,7 +19733,7 @@
         <v>419</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C2" s="53" t="s">
         <v>957</v>
@@ -19763,7 +19752,7 @@
         <v>422</v>
       </c>
       <c r="B3" s="53" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C3" s="53" t="s">
         <v>959</v>
@@ -19782,7 +19771,7 @@
         <v>425</v>
       </c>
       <c r="B4" s="53" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C4" s="53" t="s">
         <v>961</v>
@@ -19801,7 +19790,7 @@
         <v>440</v>
       </c>
       <c r="B5" s="53" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C5" s="53" t="s">
         <v>963</v>
@@ -19820,7 +19809,7 @@
         <v>428</v>
       </c>
       <c r="B6" s="53" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C6" s="53" t="s">
         <v>965</v>
@@ -19839,7 +19828,7 @@
         <v>431</v>
       </c>
       <c r="B7" s="53" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C7" s="53" t="s">
         <v>967</v>
@@ -19858,7 +19847,7 @@
         <v>434</v>
       </c>
       <c r="B8" s="53" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C8" s="53" t="s">
         <v>969</v>
@@ -19877,7 +19866,7 @@
         <v>437</v>
       </c>
       <c r="B9" s="53" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C9" s="53" t="s">
         <v>971</v>
@@ -19896,7 +19885,7 @@
         <v>443</v>
       </c>
       <c r="B10" s="53" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C10" s="53" t="s">
         <v>973</v>
@@ -19915,7 +19904,7 @@
         <v>975</v>
       </c>
       <c r="B11" s="53" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C11" s="53" t="s">
         <v>976</v>
@@ -19934,7 +19923,7 @@
         <v>446</v>
       </c>
       <c r="B12" s="53" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C12" s="53" t="s">
         <v>978</v>
@@ -19953,7 +19942,7 @@
         <v>449</v>
       </c>
       <c r="B13" s="53" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C13" s="53" t="s">
         <v>980</v>
@@ -19966,7 +19955,7 @@
         <v>764</v>
       </c>
       <c r="G13" s="53" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="31.5" customHeight="1">
@@ -19974,7 +19963,7 @@
         <v>452</v>
       </c>
       <c r="B14" s="53" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C14" s="53" t="s">
         <v>982</v>
@@ -19993,7 +19982,7 @@
         <v>485</v>
       </c>
       <c r="B15" s="53" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C15" s="53" t="s">
         <v>984</v>
@@ -20002,13 +19991,13 @@
         <v>985</v>
       </c>
       <c r="E15" s="53" t="s">
-        <v>1049</v>
+        <v>1308</v>
       </c>
       <c r="F15" s="53" t="s">
         <v>764</v>
       </c>
       <c r="G15" s="53" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="47.25" customHeight="1">
@@ -20016,7 +20005,7 @@
         <v>476</v>
       </c>
       <c r="B16" s="53" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C16" s="53" t="s">
         <v>986</v>
@@ -20035,7 +20024,7 @@
         <v>488</v>
       </c>
       <c r="B17" s="53" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C17" s="53" t="s">
         <v>988</v>
@@ -20044,13 +20033,13 @@
         <v>989</v>
       </c>
       <c r="E17" s="53" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="F17" s="53" t="s">
         <v>764</v>
       </c>
       <c r="G17" s="53" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="31.5" customHeight="1">
@@ -20058,7 +20047,7 @@
         <v>515</v>
       </c>
       <c r="B18" s="53" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C18" s="53" t="s">
         <v>990</v>
@@ -20077,7 +20066,7 @@
         <v>518</v>
       </c>
       <c r="B19" s="53" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C19" s="53" t="s">
         <v>991</v>
@@ -20096,7 +20085,7 @@
         <v>521</v>
       </c>
       <c r="B20" s="53" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C20" s="53" t="s">
         <v>992</v>
@@ -20115,7 +20104,7 @@
         <v>524</v>
       </c>
       <c r="B21" s="53" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C21" s="53" t="s">
         <v>994</v>
@@ -20134,7 +20123,7 @@
         <v>529</v>
       </c>
       <c r="B22" s="53" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C22" s="53" t="s">
         <v>996</v>
@@ -20153,7 +20142,7 @@
         <v>471</v>
       </c>
       <c r="B23" s="53" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C23" s="53" t="s">
         <v>998</v>
@@ -20167,16 +20156,16 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="66" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B24" s="66" t="s">
         <v>1254</v>
       </c>
-      <c r="B24" s="66" t="s">
+      <c r="C24" s="66" t="s">
         <v>1255</v>
       </c>
-      <c r="C24" s="66" t="s">
+      <c r="D24" s="66" t="s">
         <v>1256</v>
-      </c>
-      <c r="D24" s="66" t="s">
-        <v>1257</v>
       </c>
       <c r="E24" s="66"/>
       <c r="F24" s="66"/>
@@ -20184,16 +20173,16 @@
     </row>
     <row r="25" spans="1:7" ht="45">
       <c r="A25" s="66" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B25" s="66" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="C25" s="66" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D25" s="66" t="s">
         <v>1258</v>
-      </c>
-      <c r="D25" s="66" t="s">
-        <v>1259</v>
       </c>
       <c r="E25" s="66"/>
       <c r="F25" s="66"/>
@@ -20201,16 +20190,16 @@
     </row>
     <row r="26" spans="1:7" ht="30">
       <c r="A26" s="66" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B26" s="66" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C26" s="66" t="s">
         <v>1260</v>
       </c>
-      <c r="B26" s="66" t="s">
-        <v>1255</v>
-      </c>
-      <c r="C26" s="66" t="s">
+      <c r="D26" s="66" t="s">
         <v>1261</v>
-      </c>
-      <c r="D26" s="66" t="s">
-        <v>1262</v>
       </c>
       <c r="E26" s="66"/>
       <c r="F26" s="66"/>
@@ -20218,16 +20207,16 @@
     </row>
     <row r="27" spans="1:7" ht="30">
       <c r="A27" s="66" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B27" s="66" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C27" s="66" t="s">
         <v>1263</v>
       </c>
-      <c r="B27" s="66" t="s">
-        <v>1255</v>
-      </c>
-      <c r="C27" s="66" t="s">
+      <c r="D27" s="66" t="s">
         <v>1264</v>
-      </c>
-      <c r="D27" s="66" t="s">
-        <v>1265</v>
       </c>
       <c r="E27" s="66"/>
       <c r="F27" s="66"/>
@@ -20235,16 +20224,16 @@
     </row>
     <row r="28" spans="1:7" ht="30">
       <c r="A28" s="66" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B28" s="66" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C28" s="66" t="s">
         <v>1266</v>
       </c>
-      <c r="B28" s="66" t="s">
-        <v>1255</v>
-      </c>
-      <c r="C28" s="66" t="s">
+      <c r="D28" s="66" t="s">
         <v>1267</v>
-      </c>
-      <c r="D28" s="66" t="s">
-        <v>1268</v>
       </c>
       <c r="E28" s="66"/>
       <c r="F28" s="66"/>
@@ -20252,16 +20241,16 @@
     </row>
     <row r="29" spans="1:7" ht="30">
       <c r="A29" s="66" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B29" s="66" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C29" s="66" t="s">
         <v>1269</v>
       </c>
-      <c r="B29" s="66" t="s">
-        <v>1255</v>
-      </c>
-      <c r="C29" s="66" t="s">
+      <c r="D29" s="66" t="s">
         <v>1270</v>
-      </c>
-      <c r="D29" s="66" t="s">
-        <v>1271</v>
       </c>
       <c r="E29" s="66"/>
       <c r="F29" s="66"/>
@@ -20269,16 +20258,16 @@
     </row>
     <row r="30" spans="1:7" ht="30">
       <c r="A30" s="66" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B30" s="66" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C30" s="66" t="s">
         <v>1272</v>
       </c>
-      <c r="B30" s="66" t="s">
-        <v>1255</v>
-      </c>
-      <c r="C30" s="66" t="s">
+      <c r="D30" s="66" t="s">
         <v>1273</v>
-      </c>
-      <c r="D30" s="66" t="s">
-        <v>1274</v>
       </c>
       <c r="E30" s="66"/>
       <c r="F30" s="66"/>
@@ -20348,7 +20337,7 @@
         <v>1001</v>
       </c>
       <c r="D2" s="50" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="E2" s="60"/>
       <c r="F2" s="53" t="s">
@@ -20367,7 +20356,7 @@
         <v>1003</v>
       </c>
       <c r="D3" s="51" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="E3" s="61"/>
       <c r="F3" s="6" t="s">
@@ -20386,7 +20375,7 @@
         <v>1005</v>
       </c>
       <c r="D4" s="50" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E4" s="60"/>
       <c r="F4" s="6" t="s">
@@ -20807,13 +20796,13 @@
         <v>1019</v>
       </c>
       <c r="E7" s="67" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>764</v>
       </c>
       <c r="G7" s="53" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="8" spans="1:256" ht="31.5">
@@ -20925,13 +20914,13 @@
         <v>1030</v>
       </c>
       <c r="E13" s="56" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>764</v>
       </c>
       <c r="G13" s="53" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="14" spans="1:256" ht="31.5" customHeight="1">
@@ -20952,7 +20941,7 @@
         <v>764</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="15" spans="1:256" ht="31.5" customHeight="1">
@@ -21045,13 +21034,13 @@
         <v>1044</v>
       </c>
       <c r="E19" s="58" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>764</v>
       </c>
       <c r="G19" s="53" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="20" spans="1:256" ht="17.100000000000001" customHeight="1">
@@ -21087,47 +21076,47 @@
         <v>1048</v>
       </c>
       <c r="E21" s="53" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>764</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="22" spans="1:256" ht="31.5" customHeight="1">
       <c r="A22" s="6" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>1007</v>
       </c>
       <c r="C22" s="6" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>1052</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>1053</v>
-      </c>
       <c r="E22" s="68" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>783</v>
       </c>
       <c r="G22" s="53" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="23" spans="1:256" s="33" customFormat="1" ht="31.5">
       <c r="A23" s="6" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>1007</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>609</v>
@@ -21387,13 +21376,13 @@
     </row>
     <row r="24" spans="1:256" s="33" customFormat="1">
       <c r="A24" s="6" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>1007</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>613</v>
@@ -21653,19 +21642,19 @@
     </row>
     <row r="25" spans="1:256" s="33" customFormat="1">
       <c r="A25" s="6" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>1007</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>604</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
@@ -21921,13 +21910,13 @@
     </row>
     <row r="26" spans="1:256" s="33" customFormat="1" ht="31.5">
       <c r="A26" s="6" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>1007</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>615</v>
@@ -22187,13 +22176,13 @@
     </row>
     <row r="27" spans="1:256" s="33" customFormat="1">
       <c r="A27" s="57" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>1007</v>
       </c>
       <c r="C27" s="53" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>741</v>
@@ -22753,40 +22742,40 @@
     </row>
     <row r="2" spans="1:256" ht="31.5">
       <c r="A2" s="52" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B2" s="52" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C2" s="52" t="s">
         <v>1282</v>
       </c>
-      <c r="C2" s="52" t="s">
-        <v>1283</v>
-      </c>
       <c r="D2" s="52" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6" t="s">
         <v>764</v>
       </c>
       <c r="G2" s="52" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="3" spans="1:256" ht="31.5">
       <c r="A3" s="52" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>1284</v>
       </c>
-      <c r="B3" s="52" t="s">
-        <v>1282</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>1285</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>1054</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>1286</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>783</v>
@@ -22795,19 +22784,19 @@
     </row>
     <row r="4" spans="1:256" ht="31.5">
       <c r="A4" s="6" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>1287</v>
       </c>
-      <c r="B4" s="52" t="s">
-        <v>1282</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>1288</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>1054</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>1289</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>783</v>

--- a/conformancelib/testdata/85b_test_definitions_PIV-I_Carillon.xlsx
+++ b/conformancelib/testdata/85b_test_definitions_PIV-I_Carillon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GSA\GSA_GIT\piv-conformance-pkix-11\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045753A0-4998-497C-9B95-B4F919CE7E62}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFDA868F-4BFD-4661-93C6-B7778C2CBBD2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP 800-85B Reference" sheetId="1" r:id="rId1"/>
@@ -3958,13 +3958,13 @@
     <t>1.3.6.1.4.1.45606.3.1.22</t>
   </si>
   <si>
+    <t>2.16.840.1.101.3.8.7</t>
+  </si>
+  <si>
     <t>X509_CERTIFICATE_FOR_PIV_AUTHENTICATION_OID;1.3.6.1.4.1.45606.3.1.3:1.3.6.1.4.1.45606.3.1.4:1.3.6.1.4.1.45606.3.1.9:1.3.6.1.4.1.45606.3.1.10,X509_CERTIFICATE_FOR_DIGITAL_SIGNATURE_OID;1.3.6.1.4.1.45606.3.1.3:1.3.6.1.4.1.45606.3.1.4:1.3.6.1.4.1.45606.3.1.9:1.3.6.1.4.1.45606.3.1.10,
 X509_CERTIFICATE_FOR_KEY_MANAGEMENT_OID;1.3.6.1.4.1.45606.3.1.3:1.3.6.1.4.1.45606.3.1.4:1.3.6.1.4.1.45606.3.1.9:1.3.6.1.4.1.45606.3.1.10,
-X509_CERTIFICATE_FOR_CARD_AUTHENTICATION_OID;1.3.6.1.4.1.45606.3.1.3:1.3.6.1.4.1.45606.3.1.4:1.3.6.1.4.1.45606.3.1.9:1.3.6.1.4.1.45606.3.1.10,
+X509_CERTIFICATE_FOR_CARD_AUTHENTICATION_OID;1.3.6.1.4.1.45606.3.1.21,
 CARD_HOLDER_UNIQUE_IDENTIFIER_OID;1.3.6.1.4.1.45606.3.1.22</t>
-  </si>
-  <si>
-    <t>2.16.840.1.101.3.8.7</t>
   </si>
 </sst>
 </file>
@@ -8519,7 +8519,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G469"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A418" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="A418" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="A429" sqref="A429:XFD429"/>
     </sheetView>
   </sheetViews>
@@ -19991,7 +19991,7 @@
         <v>985</v>
       </c>
       <c r="E15" s="53" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="F15" s="53" t="s">
         <v>764</v>
@@ -20397,8 +20397,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:IV27"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -20782,7 +20782,7 @@
       </c>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:256" ht="315">
+    <row r="7" spans="1:256" ht="283.5">
       <c r="A7" s="6" t="s">
         <v>566</v>
       </c>
@@ -20796,7 +20796,7 @@
         <v>1019</v>
       </c>
       <c r="E7" s="67" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>764</v>

--- a/conformancelib/testdata/85b_test_definitions_PIV-I_Carillon.xlsx
+++ b/conformancelib/testdata/85b_test_definitions_PIV-I_Carillon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GSA\GSA_GIT\piv-conformance-pkix-11\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFDA868F-4BFD-4661-93C6-B7778C2CBBD2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD26E5E-3DA0-4CAD-8857-A6FB6105ECDC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP 800-85B Reference" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3757" uniqueCount="1309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3748" uniqueCount="1309">
   <si>
     <t>BER_TLV_Test_Assertions</t>
   </si>
@@ -8517,10 +8517,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G469"/>
+  <dimension ref="A1:G466"/>
   <sheetViews>
-    <sheetView topLeftCell="A418" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A429" sqref="A429:XFD429"/>
+    <sheetView tabSelected="1" topLeftCell="A193" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A212" sqref="A212:XFD212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -11769,101 +11769,101 @@
       <c r="F175" s="39"/>
       <c r="G175" s="39"/>
     </row>
-    <row r="176" spans="1:7" ht="45">
+    <row r="176" spans="1:7" ht="30">
       <c r="A176" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B176" s="39" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C176" s="39" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D176" s="39">
-        <v>76.45</v>
+        <v>76.459999999999994</v>
       </c>
       <c r="E176" s="39"/>
       <c r="F176" s="39"/>
       <c r="G176" s="39"/>
     </row>
-    <row r="177" spans="1:7" ht="30">
+    <row r="177" spans="1:7">
       <c r="A177" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B177" s="39" t="s">
-        <v>306</v>
-      </c>
-      <c r="C177" s="39" t="s">
-        <v>307</v>
-      </c>
-      <c r="D177" s="39">
-        <v>76.459999999999994</v>
-      </c>
-      <c r="E177" s="39"/>
-      <c r="F177" s="39"/>
-      <c r="G177" s="39"/>
+      <c r="B177" s="39">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C177" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="D177" s="40"/>
+      <c r="E177" s="40"/>
+      <c r="F177" s="40"/>
+      <c r="G177" s="41"/>
     </row>
     <row r="178" spans="1:7">
       <c r="A178" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B178" s="39">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="C178" s="41" t="s">
-        <v>23</v>
+      <c r="B178" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="C178" s="40" t="s">
+        <v>24</v>
       </c>
       <c r="D178" s="40"/>
       <c r="E178" s="40"/>
       <c r="F178" s="40"/>
-      <c r="G178" s="41"/>
-    </row>
-    <row r="179" spans="1:7">
+      <c r="G178" s="40"/>
+    </row>
+    <row r="179" spans="1:7" ht="30">
       <c r="A179" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B179" s="39" t="s">
-        <v>308</v>
-      </c>
-      <c r="C179" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="D179" s="40"/>
-      <c r="E179" s="40"/>
-      <c r="F179" s="40"/>
-      <c r="G179" s="40"/>
-    </row>
-    <row r="180" spans="1:7" ht="30">
+        <v>309</v>
+      </c>
+      <c r="C179" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="D179" s="39">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="E179" s="39"/>
+      <c r="F179" s="39"/>
+      <c r="G179" s="39" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
       <c r="A180" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B180" s="39" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C180" s="39" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D180" s="39">
-        <v>76.099999999999994</v>
+        <v>76.2</v>
       </c>
       <c r="E180" s="39"/>
       <c r="F180" s="39"/>
-      <c r="G180" s="39" t="s">
-        <v>1099</v>
-      </c>
+      <c r="G180" s="39"/>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B181" s="39" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C181" s="39" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D181" s="39">
-        <v>76.2</v>
+        <v>76.3</v>
       </c>
       <c r="E181" s="39"/>
       <c r="F181" s="39"/>
@@ -11874,13 +11874,13 @@
         <v>56</v>
       </c>
       <c r="B182" s="39" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C182" s="39" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D182" s="39">
-        <v>76.3</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="E182" s="39"/>
       <c r="F182" s="39"/>
@@ -11891,115 +11891,115 @@
         <v>56</v>
       </c>
       <c r="B183" s="39" t="s">
-        <v>312</v>
-      </c>
-      <c r="C183" s="39" t="s">
-        <v>282</v>
-      </c>
-      <c r="D183" s="39">
-        <v>76.400000000000006</v>
-      </c>
-      <c r="E183" s="39"/>
-      <c r="F183" s="39"/>
-      <c r="G183" s="39"/>
-    </row>
-    <row r="184" spans="1:7">
+        <v>313</v>
+      </c>
+      <c r="C183" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="D183" s="40"/>
+      <c r="E183" s="40"/>
+      <c r="F183" s="40"/>
+      <c r="G183" s="40"/>
+    </row>
+    <row r="184" spans="1:7" ht="45">
       <c r="A184" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B184" s="39" t="s">
-        <v>313</v>
-      </c>
-      <c r="C184" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="D184" s="40"/>
-      <c r="E184" s="40"/>
-      <c r="F184" s="40"/>
-      <c r="G184" s="40"/>
-    </row>
-    <row r="185" spans="1:7" ht="45">
+        <v>314</v>
+      </c>
+      <c r="C184" s="39" t="s">
+        <v>285</v>
+      </c>
+      <c r="D184" s="39">
+        <v>76.5</v>
+      </c>
+      <c r="E184" s="39"/>
+      <c r="F184" s="39"/>
+      <c r="G184" s="39" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="30">
       <c r="A185" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B185" s="39" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C185" s="39" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D185" s="39">
-        <v>76.5</v>
+        <v>76.599999999999994</v>
       </c>
       <c r="E185" s="39"/>
       <c r="F185" s="39"/>
-      <c r="G185" s="39" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" ht="30">
+      <c r="G185" s="39"/>
+    </row>
+    <row r="186" spans="1:7" ht="45">
       <c r="A186" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B186" s="39" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C186" s="39" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D186" s="39">
-        <v>76.599999999999994</v>
+        <v>76.7</v>
       </c>
       <c r="E186" s="39"/>
       <c r="F186" s="39"/>
       <c r="G186" s="39"/>
     </row>
-    <row r="187" spans="1:7" ht="45">
+    <row r="187" spans="1:7" ht="30">
       <c r="A187" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B187" s="39" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C187" s="39" t="s">
-        <v>289</v>
-      </c>
-      <c r="D187" s="39">
-        <v>76.7</v>
+        <v>1077</v>
+      </c>
+      <c r="D187" s="39" t="s">
+        <v>924</v>
       </c>
       <c r="E187" s="39"/>
       <c r="F187" s="39"/>
       <c r="G187" s="39"/>
     </row>
-    <row r="188" spans="1:7" ht="30">
+    <row r="188" spans="1:7" ht="45">
       <c r="A188" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B188" s="39" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C188" s="39" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D188" s="39" t="s">
-        <v>924</v>
+        <v>293</v>
+      </c>
+      <c r="D188" s="39">
+        <v>76.39</v>
       </c>
       <c r="E188" s="39"/>
       <c r="F188" s="39"/>
       <c r="G188" s="39"/>
     </row>
-    <row r="189" spans="1:7" ht="45">
+    <row r="189" spans="1:7" ht="30">
       <c r="A189" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B189" s="39" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C189" s="39" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D189" s="39">
-        <v>76.39</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="E189" s="39"/>
       <c r="F189" s="39"/>
@@ -12010,181 +12010,181 @@
         <v>56</v>
       </c>
       <c r="B190" s="39" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C190" s="39" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="D190" s="39">
-        <v>76.400000000000006</v>
+        <v>76.41</v>
       </c>
       <c r="E190" s="39"/>
       <c r="F190" s="39"/>
       <c r="G190" s="39"/>
     </row>
-    <row r="191" spans="1:7" ht="30">
+    <row r="191" spans="1:7" ht="45">
       <c r="A191" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B191" s="39" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C191" s="39" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D191" s="39">
-        <v>76.41</v>
+        <v>76.42</v>
       </c>
       <c r="E191" s="39"/>
       <c r="F191" s="39"/>
       <c r="G191" s="39"/>
     </row>
-    <row r="192" spans="1:7" ht="45">
+    <row r="192" spans="1:7">
       <c r="A192" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B192" s="39" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C192" s="39" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D192" s="39">
-        <v>76.42</v>
+        <v>76.430000000000007</v>
       </c>
       <c r="E192" s="39"/>
       <c r="F192" s="39"/>
       <c r="G192" s="39"/>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" ht="75">
       <c r="A193" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B193" s="39" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C193" s="39" t="s">
-        <v>326</v>
+        <v>303</v>
       </c>
       <c r="D193" s="39">
-        <v>76.430000000000007</v>
+        <v>76.44</v>
       </c>
       <c r="E193" s="39"/>
       <c r="F193" s="39"/>
       <c r="G193" s="39"/>
     </row>
-    <row r="194" spans="1:7" ht="75">
+    <row r="194" spans="1:7" ht="30">
       <c r="A194" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B194" s="39" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C194" s="39" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="D194" s="39">
-        <v>76.44</v>
+        <v>76.459999999999994</v>
       </c>
       <c r="E194" s="39"/>
       <c r="F194" s="39"/>
       <c r="G194" s="39"/>
     </row>
-    <row r="195" spans="1:7" ht="45">
+    <row r="195" spans="1:7">
       <c r="A195" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B195" s="39" t="s">
-        <v>328</v>
-      </c>
-      <c r="C195" s="39" t="s">
-        <v>305</v>
-      </c>
-      <c r="D195" s="39">
-        <v>76.45</v>
-      </c>
-      <c r="E195" s="39"/>
-      <c r="F195" s="39"/>
-      <c r="G195" s="39"/>
-    </row>
-    <row r="196" spans="1:7" ht="30">
+      <c r="B195" s="39">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C195" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="D195" s="40"/>
+      <c r="E195" s="40"/>
+      <c r="F195" s="40"/>
+      <c r="G195" s="40"/>
+    </row>
+    <row r="196" spans="1:7">
       <c r="A196" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B196" s="39" t="s">
-        <v>329</v>
-      </c>
-      <c r="C196" s="39" t="s">
-        <v>307</v>
-      </c>
-      <c r="D196" s="39">
-        <v>76.459999999999994</v>
-      </c>
-      <c r="E196" s="39"/>
-      <c r="F196" s="39"/>
-      <c r="G196" s="39"/>
-    </row>
-    <row r="197" spans="1:7">
+        <v>330</v>
+      </c>
+      <c r="C196" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="D196" s="40"/>
+      <c r="E196" s="40"/>
+      <c r="F196" s="40"/>
+      <c r="G196" s="40"/>
+    </row>
+    <row r="197" spans="1:7" ht="30">
       <c r="A197" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B197" s="39">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="C197" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="D197" s="40"/>
-      <c r="E197" s="40"/>
-      <c r="F197" s="40"/>
-      <c r="G197" s="40"/>
+      <c r="B197" s="39" t="s">
+        <v>331</v>
+      </c>
+      <c r="C197" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="D197" s="39">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="E197" s="39"/>
+      <c r="F197" s="39"/>
+      <c r="G197" s="39" t="s">
+        <v>1099</v>
+      </c>
     </row>
     <row r="198" spans="1:7">
       <c r="A198" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B198" s="39" t="s">
-        <v>330</v>
-      </c>
-      <c r="C198" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="D198" s="40"/>
-      <c r="E198" s="40"/>
-      <c r="F198" s="40"/>
-      <c r="G198" s="40"/>
-    </row>
-    <row r="199" spans="1:7" ht="30">
+        <v>332</v>
+      </c>
+      <c r="C198" s="39" t="s">
+        <v>278</v>
+      </c>
+      <c r="D198" s="39">
+        <v>76.2</v>
+      </c>
+      <c r="E198" s="39"/>
+      <c r="F198" s="39"/>
+      <c r="G198" s="39"/>
+    </row>
+    <row r="199" spans="1:7">
       <c r="A199" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B199" s="39" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C199" s="39" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D199" s="39">
-        <v>76.099999999999994</v>
+        <v>76.3</v>
       </c>
       <c r="E199" s="39"/>
       <c r="F199" s="39"/>
-      <c r="G199" s="39" t="s">
-        <v>1099</v>
-      </c>
+      <c r="G199" s="39"/>
     </row>
     <row r="200" spans="1:7">
       <c r="A200" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B200" s="39" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C200" s="39" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D200" s="39">
-        <v>76.2</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="E200" s="39"/>
       <c r="F200" s="39"/>
@@ -12195,98 +12195,98 @@
         <v>56</v>
       </c>
       <c r="B201" s="39" t="s">
-        <v>333</v>
-      </c>
-      <c r="C201" s="39" t="s">
-        <v>280</v>
-      </c>
-      <c r="D201" s="39">
-        <v>76.3</v>
-      </c>
-      <c r="E201" s="39"/>
-      <c r="F201" s="39"/>
-      <c r="G201" s="39"/>
-    </row>
-    <row r="202" spans="1:7">
+        <v>335</v>
+      </c>
+      <c r="C201" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D201" s="40"/>
+      <c r="E201" s="40"/>
+      <c r="F201" s="40"/>
+      <c r="G201" s="40"/>
+    </row>
+    <row r="202" spans="1:7" ht="30">
       <c r="A202" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B202" s="39" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C202" s="39" t="s">
-        <v>282</v>
-      </c>
-      <c r="D202" s="39">
-        <v>76.400000000000006</v>
+        <v>337</v>
+      </c>
+      <c r="D202" s="39" t="s">
+        <v>843</v>
       </c>
       <c r="E202" s="39"/>
       <c r="F202" s="39"/>
-      <c r="G202" s="39"/>
-    </row>
-    <row r="203" spans="1:7">
+      <c r="G202" s="39" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" ht="30">
       <c r="A203" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B203" s="39" t="s">
-        <v>335</v>
-      </c>
-      <c r="C203" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="D203" s="40"/>
-      <c r="E203" s="40"/>
-      <c r="F203" s="40"/>
-      <c r="G203" s="40"/>
+        <v>338</v>
+      </c>
+      <c r="C203" s="39" t="s">
+        <v>287</v>
+      </c>
+      <c r="D203" s="39">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="E203" s="39"/>
+      <c r="F203" s="39"/>
+      <c r="G203" s="39"/>
     </row>
     <row r="204" spans="1:7" ht="30">
       <c r="A204" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B204" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C204" s="39" t="s">
-        <v>337</v>
-      </c>
-      <c r="D204" s="39" t="s">
-        <v>843</v>
+        <v>340</v>
+      </c>
+      <c r="D204" s="39">
+        <v>76.7</v>
       </c>
       <c r="E204" s="39"/>
       <c r="F204" s="39"/>
-      <c r="G204" s="39" t="s">
-        <v>1101</v>
-      </c>
+      <c r="G204" s="39"/>
     </row>
     <row r="205" spans="1:7" ht="30">
       <c r="A205" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B205" s="39" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C205" s="39" t="s">
-        <v>287</v>
-      </c>
-      <c r="D205" s="39">
-        <v>76.599999999999994</v>
+        <v>342</v>
+      </c>
+      <c r="D205" s="39" t="s">
+        <v>924</v>
       </c>
       <c r="E205" s="39"/>
       <c r="F205" s="39"/>
       <c r="G205" s="39"/>
     </row>
-    <row r="206" spans="1:7" ht="30">
+    <row r="206" spans="1:7" ht="45">
       <c r="A206" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B206" s="39" t="s">
-        <v>339</v>
+        <v>1297</v>
       </c>
       <c r="C206" s="39" t="s">
-        <v>340</v>
+        <v>293</v>
       </c>
       <c r="D206" s="39">
-        <v>76.7</v>
+        <v>76.39</v>
       </c>
       <c r="E206" s="39"/>
       <c r="F206" s="39"/>
@@ -12297,215 +12297,215 @@
         <v>56</v>
       </c>
       <c r="B207" s="39" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C207" s="39" t="s">
-        <v>342</v>
-      </c>
-      <c r="D207" s="39" t="s">
-        <v>924</v>
+        <v>295</v>
+      </c>
+      <c r="D207" s="39">
+        <v>76.400000000000006</v>
       </c>
       <c r="E207" s="39"/>
       <c r="F207" s="39"/>
       <c r="G207" s="39"/>
     </row>
-    <row r="208" spans="1:7" ht="45">
+    <row r="208" spans="1:7" ht="30">
       <c r="A208" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B208" s="39" t="s">
-        <v>1297</v>
+        <v>344</v>
       </c>
       <c r="C208" s="39" t="s">
-        <v>293</v>
+        <v>345</v>
       </c>
       <c r="D208" s="39">
-        <v>76.39</v>
+        <v>76.41</v>
       </c>
       <c r="E208" s="39"/>
       <c r="F208" s="39"/>
       <c r="G208" s="39"/>
     </row>
-    <row r="209" spans="1:7" ht="30">
+    <row r="209" spans="1:7" ht="45">
       <c r="A209" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B209" s="39" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C209" s="39" t="s">
-        <v>295</v>
+        <v>347</v>
       </c>
       <c r="D209" s="39">
-        <v>76.400000000000006</v>
+        <v>76.42</v>
       </c>
       <c r="E209" s="39"/>
       <c r="F209" s="39"/>
       <c r="G209" s="39"/>
     </row>
-    <row r="210" spans="1:7" ht="30">
+    <row r="210" spans="1:7">
       <c r="A210" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B210" s="39" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C210" s="39" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="D210" s="39">
-        <v>76.41</v>
+        <v>76.430000000000007</v>
       </c>
       <c r="E210" s="39"/>
       <c r="F210" s="39"/>
       <c r="G210" s="39"/>
     </row>
-    <row r="211" spans="1:7" ht="45">
+    <row r="211" spans="1:7" ht="75">
       <c r="A211" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B211" s="39" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C211" s="39" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="D211" s="39">
-        <v>76.42</v>
+        <v>76.44</v>
       </c>
       <c r="E211" s="39"/>
       <c r="F211" s="39"/>
       <c r="G211" s="39"/>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:7" ht="30">
       <c r="A212" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B212" s="39" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C212" s="39" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="D212" s="39">
-        <v>76.430000000000007</v>
+        <v>76.459999999999994</v>
       </c>
       <c r="E212" s="39"/>
       <c r="F212" s="39"/>
       <c r="G212" s="39"/>
     </row>
-    <row r="213" spans="1:7" ht="75">
+    <row r="213" spans="1:7">
       <c r="A213" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B213" s="39" t="s">
-        <v>349</v>
-      </c>
-      <c r="C213" s="39" t="s">
-        <v>303</v>
-      </c>
-      <c r="D213" s="39">
-        <v>76.44</v>
-      </c>
-      <c r="E213" s="39"/>
-      <c r="F213" s="39"/>
-      <c r="G213" s="39"/>
-    </row>
-    <row r="214" spans="1:7" ht="45">
+      <c r="B213" s="39">
+        <v>9.4</v>
+      </c>
+      <c r="C213" s="41" t="s">
+        <v>352</v>
+      </c>
+      <c r="D213" s="40"/>
+      <c r="E213" s="40"/>
+      <c r="F213" s="40"/>
+      <c r="G213" s="42"/>
+    </row>
+    <row r="214" spans="1:7">
       <c r="A214" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B214" s="39" t="s">
-        <v>350</v>
-      </c>
-      <c r="C214" s="39" t="s">
-        <v>305</v>
-      </c>
-      <c r="D214" s="39">
-        <v>76.45</v>
-      </c>
-      <c r="E214" s="39"/>
-      <c r="F214" s="39"/>
-      <c r="G214" s="39"/>
+        <v>353</v>
+      </c>
+      <c r="C214" s="40" t="s">
+        <v>354</v>
+      </c>
+      <c r="D214" s="40"/>
+      <c r="E214" s="40"/>
+      <c r="F214" s="40"/>
+      <c r="G214" s="40"/>
     </row>
     <row r="215" spans="1:7" ht="30">
       <c r="A215" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B215" s="39" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C215" s="39" t="s">
-        <v>307</v>
+        <v>356</v>
       </c>
       <c r="D215" s="39">
-        <v>76.459999999999994</v>
+        <v>76.900000000000006</v>
       </c>
       <c r="E215" s="39"/>
       <c r="F215" s="39"/>
-      <c r="G215" s="39"/>
-    </row>
-    <row r="216" spans="1:7">
+      <c r="G215" s="39" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" ht="30">
       <c r="A216" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B216" s="39">
-        <v>9.4</v>
-      </c>
-      <c r="C216" s="41" t="s">
-        <v>352</v>
-      </c>
-      <c r="D216" s="40"/>
-      <c r="E216" s="40"/>
-      <c r="F216" s="40"/>
-      <c r="G216" s="42"/>
-    </row>
-    <row r="217" spans="1:7">
+      <c r="B216" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="C216" s="39" t="s">
+        <v>358</v>
+      </c>
+      <c r="D216" s="39">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="E216" s="39"/>
+      <c r="F216" s="39"/>
+      <c r="G216" s="39"/>
+    </row>
+    <row r="217" spans="1:7" ht="30">
       <c r="A217" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B217" s="39" t="s">
-        <v>353</v>
-      </c>
-      <c r="C217" s="40" t="s">
-        <v>354</v>
-      </c>
-      <c r="D217" s="40"/>
-      <c r="E217" s="40"/>
-      <c r="F217" s="40"/>
-      <c r="G217" s="40"/>
-    </row>
-    <row r="218" spans="1:7" ht="30">
+        <v>359</v>
+      </c>
+      <c r="C217" s="39" t="s">
+        <v>360</v>
+      </c>
+      <c r="D217" s="39">
+        <v>76.11</v>
+      </c>
+      <c r="E217" s="39"/>
+      <c r="F217" s="39"/>
+      <c r="G217" s="39"/>
+    </row>
+    <row r="218" spans="1:7" ht="60">
       <c r="A218" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B218" s="39" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C218" s="39" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="D218" s="39">
-        <v>76.900000000000006</v>
+        <v>76.12</v>
       </c>
       <c r="E218" s="39"/>
       <c r="F218" s="39"/>
-      <c r="G218" s="39" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" ht="30">
+      <c r="G218" s="39"/>
+    </row>
+    <row r="219" spans="1:7" ht="60">
       <c r="A219" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B219" s="39" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="C219" s="39" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="D219" s="39">
-        <v>76.099999999999994</v>
+        <v>76.12</v>
       </c>
       <c r="E219" s="39"/>
       <c r="F219" s="39"/>
@@ -12516,66 +12516,70 @@
         <v>56</v>
       </c>
       <c r="B220" s="39" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="C220" s="39" t="s">
-        <v>360</v>
-      </c>
-      <c r="D220" s="39">
-        <v>76.11</v>
+        <v>365</v>
+      </c>
+      <c r="D220" s="39" t="s">
+        <v>864</v>
       </c>
       <c r="E220" s="39"/>
       <c r="F220" s="39"/>
       <c r="G220" s="39"/>
     </row>
-    <row r="221" spans="1:7" ht="60">
+    <row r="221" spans="1:7">
       <c r="A221" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B221" s="39" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="C221" s="39" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="D221" s="39">
-        <v>76.12</v>
+        <v>76.14</v>
       </c>
       <c r="E221" s="39"/>
       <c r="F221" s="39"/>
       <c r="G221" s="39"/>
     </row>
-    <row r="222" spans="1:7" ht="60">
+    <row r="222" spans="1:7" ht="45">
       <c r="A222" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B222" s="39" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="C222" s="39" t="s">
-        <v>362</v>
-      </c>
-      <c r="D222" s="39">
-        <v>76.12</v>
-      </c>
-      <c r="E222" s="39"/>
+        <v>1057</v>
+      </c>
+      <c r="D222" s="39" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E222" s="39" t="s">
+        <v>1063</v>
+      </c>
       <c r="F222" s="39"/>
       <c r="G222" s="39"/>
     </row>
-    <row r="223" spans="1:7" ht="30">
+    <row r="223" spans="1:7" ht="45">
       <c r="A223" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B223" s="39" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C223" s="39" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="D223" s="39" t="s">
-        <v>864</v>
-      </c>
-      <c r="E223" s="39"/>
+        <v>1199</v>
+      </c>
+      <c r="E223" s="39" t="s">
+        <v>1063</v>
+      </c>
       <c r="F223" s="39"/>
       <c r="G223" s="39"/>
     </row>
@@ -12584,53 +12588,49 @@
         <v>56</v>
       </c>
       <c r="B224" s="39" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="C224" s="39" t="s">
-        <v>367</v>
+        <v>1064</v>
       </c>
       <c r="D224" s="39">
-        <v>76.14</v>
+        <v>76.16</v>
       </c>
       <c r="E224" s="39"/>
       <c r="F224" s="39"/>
       <c r="G224" s="39"/>
     </row>
-    <row r="225" spans="1:7" ht="45">
+    <row r="225" spans="1:7">
       <c r="A225" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B225" s="39" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="C225" s="39" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D225" s="39" t="s">
-        <v>1199</v>
-      </c>
-      <c r="E225" s="39" t="s">
-        <v>1063</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="D225" s="39">
+        <v>76.17</v>
+      </c>
+      <c r="E225" s="39"/>
       <c r="F225" s="39"/>
       <c r="G225" s="39"/>
     </row>
-    <row r="226" spans="1:7" ht="45">
+    <row r="226" spans="1:7">
       <c r="A226" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B226" s="39" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="C226" s="39" t="s">
-        <v>371</v>
-      </c>
-      <c r="D226" s="39" t="s">
-        <v>1199</v>
-      </c>
-      <c r="E226" s="39" t="s">
-        <v>1063</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="D226" s="39">
+        <v>76.180000000000007</v>
+      </c>
+      <c r="E226" s="39"/>
       <c r="F226" s="39"/>
       <c r="G226" s="39"/>
     </row>
@@ -12639,115 +12639,117 @@
         <v>56</v>
       </c>
       <c r="B227" s="39" t="s">
-        <v>372</v>
-      </c>
-      <c r="C227" s="39" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D227" s="39">
-        <v>76.16</v>
-      </c>
-      <c r="E227" s="39"/>
-      <c r="F227" s="39"/>
-      <c r="G227" s="39"/>
+        <v>379</v>
+      </c>
+      <c r="C227" s="40" t="s">
+        <v>380</v>
+      </c>
+      <c r="D227" s="40"/>
+      <c r="E227" s="40"/>
+      <c r="F227" s="40"/>
+      <c r="G227" s="40"/>
     </row>
     <row r="228" spans="1:7">
       <c r="A228" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B228" s="39" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="C228" s="39" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="D228" s="39">
-        <v>76.17</v>
+        <v>76.19</v>
       </c>
       <c r="E228" s="39"/>
       <c r="F228" s="39"/>
-      <c r="G228" s="39"/>
+      <c r="G228" s="39" t="s">
+        <v>1102</v>
+      </c>
     </row>
     <row r="229" spans="1:7">
       <c r="A229" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B229" s="39" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="C229" s="39" t="s">
-        <v>378</v>
-      </c>
-      <c r="D229" s="39">
-        <v>76.180000000000007</v>
+        <v>384</v>
+      </c>
+      <c r="D229" s="39" t="s">
+        <v>877</v>
       </c>
       <c r="E229" s="39"/>
       <c r="F229" s="39"/>
       <c r="G229" s="39"/>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:7" ht="30">
       <c r="A230" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B230" s="39" t="s">
-        <v>379</v>
-      </c>
-      <c r="C230" s="40" t="s">
-        <v>380</v>
-      </c>
-      <c r="D230" s="40"/>
-      <c r="E230" s="40"/>
-      <c r="F230" s="40"/>
-      <c r="G230" s="40"/>
+        <v>385</v>
+      </c>
+      <c r="C230" s="39" t="s">
+        <v>386</v>
+      </c>
+      <c r="D230" s="39">
+        <v>76.209999999999994</v>
+      </c>
+      <c r="E230" s="39"/>
+      <c r="F230" s="39"/>
+      <c r="G230" s="39"/>
     </row>
     <row r="231" spans="1:7">
       <c r="A231" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B231" s="39" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="C231" s="39" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="D231" s="39">
-        <v>76.19</v>
+        <v>76.22</v>
       </c>
       <c r="E231" s="39"/>
       <c r="F231" s="39"/>
-      <c r="G231" s="39" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7">
+      <c r="G231" s="39"/>
+    </row>
+    <row r="232" spans="1:7" ht="30">
       <c r="A232" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B232" s="39" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="C232" s="39" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D232" s="39" t="s">
-        <v>877</v>
-      </c>
-      <c r="E232" s="39"/>
+        <v>955</v>
+      </c>
+      <c r="E232" s="39" t="s">
+        <v>1088</v>
+      </c>
       <c r="F232" s="39"/>
       <c r="G232" s="39"/>
     </row>
-    <row r="233" spans="1:7" ht="30">
+    <row r="233" spans="1:7">
       <c r="A233" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B233" s="39" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="C233" s="39" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="D233" s="39">
-        <v>76.209999999999994</v>
+        <v>76.23</v>
       </c>
       <c r="E233" s="39"/>
       <c r="F233" s="39"/>
@@ -12758,13 +12760,13 @@
         <v>56</v>
       </c>
       <c r="B234" s="39" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="C234" s="39" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="D234" s="39">
-        <v>76.22</v>
+        <v>76.239999999999995</v>
       </c>
       <c r="E234" s="39"/>
       <c r="F234" s="39"/>
@@ -12775,17 +12777,15 @@
         <v>56</v>
       </c>
       <c r="B235" s="39" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="C235" s="39" t="s">
-        <v>390</v>
-      </c>
-      <c r="D235" s="39" t="s">
-        <v>955</v>
-      </c>
-      <c r="E235" s="39" t="s">
-        <v>1088</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="D235" s="39">
+        <v>76.25</v>
+      </c>
+      <c r="E235" s="39"/>
       <c r="F235" s="39"/>
       <c r="G235" s="39"/>
     </row>
@@ -12794,13 +12794,13 @@
         <v>56</v>
       </c>
       <c r="B236" s="39" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="C236" s="39" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="D236" s="39">
-        <v>76.23</v>
+        <v>76.260000000000005</v>
       </c>
       <c r="E236" s="39"/>
       <c r="F236" s="39"/>
@@ -12811,30 +12811,30 @@
         <v>56</v>
       </c>
       <c r="B237" s="39" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C237" s="39" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="D237" s="39">
-        <v>76.239999999999995</v>
+        <v>76.27</v>
       </c>
       <c r="E237" s="39"/>
       <c r="F237" s="39"/>
       <c r="G237" s="39"/>
     </row>
-    <row r="238" spans="1:7" ht="30">
+    <row r="238" spans="1:7">
       <c r="A238" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B238" s="39" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="C238" s="39" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="D238" s="39">
-        <v>76.25</v>
+        <v>76.28</v>
       </c>
       <c r="E238" s="39"/>
       <c r="F238" s="39"/>
@@ -12845,44 +12845,44 @@
         <v>56</v>
       </c>
       <c r="B239" s="39" t="s">
-        <v>397</v>
-      </c>
-      <c r="C239" s="39" t="s">
-        <v>398</v>
-      </c>
-      <c r="D239" s="39">
-        <v>76.260000000000005</v>
-      </c>
-      <c r="E239" s="39"/>
-      <c r="F239" s="39"/>
-      <c r="G239" s="39"/>
+        <v>403</v>
+      </c>
+      <c r="C239" s="40" t="s">
+        <v>404</v>
+      </c>
+      <c r="D239" s="40"/>
+      <c r="E239" s="40"/>
+      <c r="F239" s="40"/>
+      <c r="G239" s="40"/>
     </row>
     <row r="240" spans="1:7">
       <c r="A240" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B240" s="39" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="C240" s="39" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="D240" s="39">
-        <v>76.27</v>
+        <v>76.239999999999995</v>
       </c>
       <c r="E240" s="39"/>
       <c r="F240" s="39"/>
-      <c r="G240" s="39"/>
+      <c r="G240" s="39" t="s">
+        <v>1103</v>
+      </c>
     </row>
     <row r="241" spans="1:7">
       <c r="A241" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B241" s="39" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="C241" s="39" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="D241" s="39">
         <v>76.28</v>
@@ -12895,77 +12895,75 @@
       <c r="A242" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B242" s="39" t="s">
-        <v>403</v>
-      </c>
-      <c r="C242" s="40" t="s">
-        <v>404</v>
+      <c r="B242" s="39">
+        <v>9.5</v>
+      </c>
+      <c r="C242" s="38" t="s">
+        <v>409</v>
       </c>
       <c r="D242" s="40"/>
       <c r="E242" s="40"/>
       <c r="F242" s="40"/>
       <c r="G242" s="40"/>
     </row>
-    <row r="243" spans="1:7">
+    <row r="243" spans="1:7" ht="30">
       <c r="A243" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B243" s="39" t="s">
-        <v>405</v>
-      </c>
-      <c r="C243" s="39" t="s">
-        <v>406</v>
-      </c>
-      <c r="D243" s="39">
-        <v>76.239999999999995</v>
-      </c>
-      <c r="E243" s="39"/>
+        <v>410</v>
+      </c>
+      <c r="C243" s="43" t="s">
+        <v>411</v>
+      </c>
+      <c r="D243" s="39"/>
+      <c r="E243" s="39" t="s">
+        <v>268</v>
+      </c>
       <c r="F243" s="39"/>
-      <c r="G243" s="39" t="s">
-        <v>1103</v>
-      </c>
+      <c r="G243" s="39"/>
     </row>
     <row r="244" spans="1:7">
       <c r="A244" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B244" s="39" t="s">
-        <v>407</v>
-      </c>
-      <c r="C244" s="39" t="s">
-        <v>408</v>
-      </c>
-      <c r="D244" s="39">
-        <v>76.28</v>
-      </c>
+      <c r="B244" s="39">
+        <v>9.6</v>
+      </c>
+      <c r="C244" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="D244" s="39"/>
       <c r="E244" s="39"/>
       <c r="F244" s="39"/>
-      <c r="G244" s="39"/>
+      <c r="G244" s="42"/>
     </row>
     <row r="245" spans="1:7">
       <c r="A245" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B245" s="39">
-        <v>9.5</v>
-      </c>
-      <c r="C245" s="38" t="s">
-        <v>409</v>
-      </c>
-      <c r="D245" s="40"/>
-      <c r="E245" s="40"/>
-      <c r="F245" s="40"/>
-      <c r="G245" s="40"/>
-    </row>
-    <row r="246" spans="1:7" ht="30">
+      <c r="B245" s="39" t="s">
+        <v>412</v>
+      </c>
+      <c r="C245" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="D245" s="39"/>
+      <c r="E245" s="39" t="s">
+        <v>268</v>
+      </c>
+      <c r="F245" s="39"/>
+      <c r="G245" s="39"/>
+    </row>
+    <row r="246" spans="1:7">
       <c r="A246" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B246" s="39" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C246" s="43" t="s">
-        <v>411</v>
+        <v>31</v>
       </c>
       <c r="D246" s="39"/>
       <c r="E246" s="39" t="s">
@@ -12979,25 +12977,25 @@
         <v>56</v>
       </c>
       <c r="B247" s="39">
-        <v>9.6</v>
-      </c>
-      <c r="C247" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="D247" s="39"/>
-      <c r="E247" s="39"/>
-      <c r="F247" s="39"/>
-      <c r="G247" s="42"/>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="C247" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="D247" s="40"/>
+      <c r="E247" s="40"/>
+      <c r="F247" s="40"/>
+      <c r="G247" s="40"/>
     </row>
     <row r="248" spans="1:7">
       <c r="A248" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B248" s="39" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C248" s="43" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D248" s="39"/>
       <c r="E248" s="39" t="s">
@@ -13011,10 +13009,10 @@
         <v>56</v>
       </c>
       <c r="B249" s="39" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C249" s="43" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D249" s="39"/>
       <c r="E249" s="39" t="s">
@@ -13027,386 +13025,388 @@
       <c r="A250" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B250" s="39">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="C250" s="38" t="s">
-        <v>32</v>
+      <c r="B250" s="36" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C250" s="37" t="s">
+        <v>35</v>
       </c>
       <c r="D250" s="40"/>
       <c r="E250" s="40"/>
       <c r="F250" s="40"/>
-      <c r="G250" s="40"/>
+      <c r="G250" s="44"/>
     </row>
     <row r="251" spans="1:7">
       <c r="A251" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B251" s="39" t="s">
-        <v>414</v>
-      </c>
-      <c r="C251" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="D251" s="39"/>
-      <c r="E251" s="39" t="s">
-        <v>268</v>
-      </c>
-      <c r="F251" s="39"/>
-      <c r="G251" s="39"/>
+      <c r="B251" s="39">
+        <v>10.1</v>
+      </c>
+      <c r="C251" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D251" s="40"/>
+      <c r="E251" s="40"/>
+      <c r="F251" s="40"/>
+      <c r="G251" s="40"/>
     </row>
     <row r="252" spans="1:7">
       <c r="A252" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B252" s="39" t="s">
-        <v>415</v>
-      </c>
-      <c r="C252" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="D252" s="39"/>
-      <c r="E252" s="39" t="s">
-        <v>268</v>
-      </c>
-      <c r="F252" s="39"/>
-      <c r="G252" s="39"/>
-    </row>
-    <row r="253" spans="1:7">
+        <v>416</v>
+      </c>
+      <c r="C252" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="D252" s="40"/>
+      <c r="E252" s="40"/>
+      <c r="F252" s="40"/>
+      <c r="G252" s="40"/>
+    </row>
+    <row r="253" spans="1:7" ht="60">
       <c r="A253" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B253" s="36" t="s">
-        <v>1205</v>
-      </c>
-      <c r="C253" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="D253" s="40"/>
-      <c r="E253" s="40"/>
-      <c r="F253" s="40"/>
-      <c r="G253" s="44"/>
-    </row>
-    <row r="254" spans="1:7">
+      <c r="B253" s="39" t="s">
+        <v>417</v>
+      </c>
+      <c r="C253" s="43" t="s">
+        <v>418</v>
+      </c>
+      <c r="D253" s="39" t="s">
+        <v>419</v>
+      </c>
+      <c r="E253" s="39"/>
+      <c r="F253" s="39"/>
+      <c r="G253" s="43" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" ht="30">
       <c r="A254" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B254" s="39">
-        <v>10.1</v>
-      </c>
-      <c r="C254" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="D254" s="40"/>
-      <c r="E254" s="40"/>
-      <c r="F254" s="40"/>
-      <c r="G254" s="40"/>
-    </row>
-    <row r="255" spans="1:7">
+      <c r="B254" s="39" t="s">
+        <v>420</v>
+      </c>
+      <c r="C254" s="43" t="s">
+        <v>421</v>
+      </c>
+      <c r="D254" s="39" t="s">
+        <v>422</v>
+      </c>
+      <c r="E254" s="39"/>
+      <c r="F254" s="39"/>
+      <c r="G254" s="43"/>
+    </row>
+    <row r="255" spans="1:7" ht="45">
       <c r="A255" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B255" s="39" t="s">
-        <v>416</v>
-      </c>
-      <c r="C255" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D255" s="40"/>
-      <c r="E255" s="40"/>
-      <c r="F255" s="40"/>
-      <c r="G255" s="40"/>
-    </row>
-    <row r="256" spans="1:7" ht="60">
+        <v>423</v>
+      </c>
+      <c r="C255" s="43" t="s">
+        <v>424</v>
+      </c>
+      <c r="D255" s="39" t="s">
+        <v>425</v>
+      </c>
+      <c r="E255" s="45" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F255" s="39"/>
+      <c r="G255" s="43"/>
+    </row>
+    <row r="256" spans="1:7" ht="45">
       <c r="A256" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B256" s="39" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="C256" s="43" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="D256" s="39" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="E256" s="39"/>
       <c r="F256" s="39"/>
-      <c r="G256" s="43" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7" ht="30">
+      <c r="G256" s="43"/>
+    </row>
+    <row r="257" spans="1:7">
       <c r="A257" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B257" s="39" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="C257" s="43" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="D257" s="39" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="E257" s="39"/>
       <c r="F257" s="39"/>
       <c r="G257" s="43"/>
     </row>
-    <row r="258" spans="1:7" ht="45">
+    <row r="258" spans="1:7" ht="30">
       <c r="A258" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B258" s="39" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="C258" s="43" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="D258" s="39" t="s">
-        <v>425</v>
-      </c>
-      <c r="E258" s="45" t="s">
-        <v>1206</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="E258" s="39"/>
       <c r="F258" s="39"/>
       <c r="G258" s="43"/>
     </row>
-    <row r="259" spans="1:7" ht="45">
+    <row r="259" spans="1:7" ht="75">
       <c r="A259" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B259" s="39" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="C259" s="43" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="D259" s="39" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="E259" s="39"/>
       <c r="F259" s="39"/>
       <c r="G259" s="43"/>
     </row>
-    <row r="260" spans="1:7">
+    <row r="260" spans="1:7" ht="30">
       <c r="A260" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B260" s="39" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="C260" s="43" t="s">
-        <v>430</v>
+        <v>1207</v>
       </c>
       <c r="D260" s="39" t="s">
-        <v>431</v>
-      </c>
-      <c r="E260" s="39"/>
+        <v>440</v>
+      </c>
+      <c r="E260" s="45" t="s">
+        <v>1206</v>
+      </c>
       <c r="F260" s="39"/>
       <c r="G260" s="43"/>
     </row>
-    <row r="261" spans="1:7" ht="30">
+    <row r="261" spans="1:7" ht="45">
       <c r="A261" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B261" s="39" t="s">
-        <v>432</v>
+        <v>1208</v>
       </c>
       <c r="C261" s="43" t="s">
-        <v>433</v>
+        <v>1209</v>
       </c>
       <c r="D261" s="39" t="s">
-        <v>434</v>
+        <v>1210</v>
       </c>
       <c r="E261" s="39"/>
       <c r="F261" s="39"/>
       <c r="G261" s="43"/>
     </row>
-    <row r="262" spans="1:7" ht="75">
+    <row r="262" spans="1:7" ht="105">
       <c r="A262" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B262" s="39" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="C262" s="43" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="D262" s="39" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="E262" s="39"/>
       <c r="F262" s="39"/>
       <c r="G262" s="43"/>
     </row>
-    <row r="263" spans="1:7" ht="30">
+    <row r="263" spans="1:7" ht="75">
       <c r="A263" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B263" s="39" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="C263" s="43" t="s">
-        <v>1207</v>
+        <v>445</v>
       </c>
       <c r="D263" s="39" t="s">
-        <v>440</v>
-      </c>
-      <c r="E263" s="45" t="s">
-        <v>1206</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="E263" s="39"/>
       <c r="F263" s="39"/>
       <c r="G263" s="43"/>
     </row>
-    <row r="264" spans="1:7" ht="45">
+    <row r="264" spans="1:7" ht="105">
       <c r="A264" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B264" s="39" t="s">
-        <v>1208</v>
+        <v>450</v>
       </c>
       <c r="C264" s="43" t="s">
-        <v>1209</v>
+        <v>448</v>
       </c>
       <c r="D264" s="39" t="s">
-        <v>1210</v>
-      </c>
-      <c r="E264" s="39"/>
+        <v>449</v>
+      </c>
+      <c r="E264" s="45" t="s">
+        <v>1206</v>
+      </c>
       <c r="F264" s="39"/>
       <c r="G264" s="43"/>
     </row>
-    <row r="265" spans="1:7" ht="105">
+    <row r="265" spans="1:7" ht="30">
       <c r="A265" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B265" s="39" t="s">
-        <v>441</v>
+        <v>1211</v>
       </c>
       <c r="C265" s="43" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="D265" s="39" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="E265" s="39"/>
       <c r="F265" s="39"/>
       <c r="G265" s="43"/>
     </row>
-    <row r="266" spans="1:7" ht="75">
+    <row r="266" spans="1:7">
       <c r="A266" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B266" s="39" t="s">
-        <v>444</v>
-      </c>
-      <c r="C266" s="43" t="s">
-        <v>445</v>
-      </c>
-      <c r="D266" s="39" t="s">
-        <v>446</v>
-      </c>
-      <c r="E266" s="39"/>
-      <c r="F266" s="39"/>
-      <c r="G266" s="43"/>
-    </row>
-    <row r="267" spans="1:7" ht="105">
+      <c r="B266" s="39">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="C266" s="38" t="s">
+        <v>453</v>
+      </c>
+      <c r="D266" s="40"/>
+      <c r="E266" s="40"/>
+      <c r="F266" s="40"/>
+      <c r="G266" s="40"/>
+    </row>
+    <row r="267" spans="1:7">
       <c r="A267" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B267" s="39" t="s">
-        <v>450</v>
-      </c>
-      <c r="C267" s="43" t="s">
-        <v>448</v>
-      </c>
-      <c r="D267" s="39" t="s">
-        <v>449</v>
-      </c>
-      <c r="E267" s="45" t="s">
-        <v>1206</v>
-      </c>
-      <c r="F267" s="39"/>
-      <c r="G267" s="43"/>
-    </row>
-    <row r="268" spans="1:7" ht="30">
+        <v>454</v>
+      </c>
+      <c r="C267" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="D267" s="40"/>
+      <c r="E267" s="40"/>
+      <c r="F267" s="40"/>
+      <c r="G267" s="40"/>
+    </row>
+    <row r="268" spans="1:7" ht="75">
       <c r="A268" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B268" s="39" t="s">
-        <v>1211</v>
+        <v>455</v>
       </c>
       <c r="C268" s="43" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="D268" s="39" t="s">
-        <v>452</v>
+        <v>419</v>
       </c>
       <c r="E268" s="39"/>
       <c r="F268" s="39"/>
-      <c r="G268" s="43"/>
+      <c r="G268" s="43" t="s">
+        <v>1105</v>
+      </c>
     </row>
     <row r="269" spans="1:7">
       <c r="A269" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B269" s="39">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="C269" s="38" t="s">
-        <v>453</v>
-      </c>
-      <c r="D269" s="40"/>
-      <c r="E269" s="40"/>
-      <c r="F269" s="40"/>
-      <c r="G269" s="40"/>
-    </row>
-    <row r="270" spans="1:7">
+      <c r="B269" s="39" t="s">
+        <v>457</v>
+      </c>
+      <c r="C269" s="43" t="s">
+        <v>458</v>
+      </c>
+      <c r="D269" s="39" t="s">
+        <v>422</v>
+      </c>
+      <c r="E269" s="39"/>
+      <c r="F269" s="39"/>
+      <c r="G269" s="43"/>
+    </row>
+    <row r="270" spans="1:7" ht="30">
       <c r="A270" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B270" s="39" t="s">
-        <v>454</v>
-      </c>
-      <c r="C270" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D270" s="40"/>
-      <c r="E270" s="40"/>
-      <c r="F270" s="40"/>
-      <c r="G270" s="40"/>
-    </row>
-    <row r="271" spans="1:7" ht="75">
+        <v>459</v>
+      </c>
+      <c r="C270" s="43" t="s">
+        <v>460</v>
+      </c>
+      <c r="D270" s="39" t="s">
+        <v>425</v>
+      </c>
+      <c r="E270" s="39"/>
+      <c r="F270" s="39"/>
+      <c r="G270" s="43"/>
+    </row>
+    <row r="271" spans="1:7" ht="45">
       <c r="A271" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B271" s="39" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="C271" s="43" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="D271" s="39" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="E271" s="39"/>
       <c r="F271" s="39"/>
-      <c r="G271" s="43" t="s">
-        <v>1105</v>
-      </c>
+      <c r="G271" s="43"/>
     </row>
     <row r="272" spans="1:7">
       <c r="A272" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B272" s="39" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="C272" s="43" t="s">
-        <v>458</v>
+        <v>430</v>
       </c>
       <c r="D272" s="39" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="E272" s="39"/>
       <c r="F272" s="39"/>
@@ -13417,47 +13417,47 @@
         <v>56</v>
       </c>
       <c r="B273" s="39" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="C273" s="43" t="s">
-        <v>460</v>
+        <v>433</v>
       </c>
       <c r="D273" s="39" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="E273" s="39"/>
       <c r="F273" s="39"/>
       <c r="G273" s="43"/>
     </row>
-    <row r="274" spans="1:7" ht="45">
+    <row r="274" spans="1:7" ht="30">
       <c r="A274" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B274" s="39" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="C274" s="43" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="D274" s="39" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="E274" s="39"/>
       <c r="F274" s="39"/>
       <c r="G274" s="43"/>
     </row>
-    <row r="275" spans="1:7">
+    <row r="275" spans="1:7" ht="45">
       <c r="A275" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B275" s="39" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="C275" s="43" t="s">
-        <v>430</v>
+        <v>468</v>
       </c>
       <c r="D275" s="39" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="E275" s="39"/>
       <c r="F275" s="39"/>
@@ -13468,251 +13468,251 @@
         <v>56</v>
       </c>
       <c r="B276" s="39" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="C276" s="43" t="s">
-        <v>433</v>
+        <v>470</v>
       </c>
       <c r="D276" s="39" t="s">
-        <v>434</v>
+        <v>471</v>
       </c>
       <c r="E276" s="39"/>
       <c r="F276" s="39"/>
       <c r="G276" s="43"/>
     </row>
-    <row r="277" spans="1:7" ht="30">
+    <row r="277" spans="1:7" ht="45">
       <c r="A277" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B277" s="39" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="C277" s="43" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="D277" s="39" t="s">
-        <v>437</v>
+        <v>1210</v>
       </c>
       <c r="E277" s="39"/>
       <c r="F277" s="39"/>
       <c r="G277" s="43"/>
     </row>
-    <row r="278" spans="1:7" ht="45">
+    <row r="278" spans="1:7" ht="60">
       <c r="A278" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B278" s="39" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="C278" s="43" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="D278" s="39" t="s">
-        <v>443</v>
+        <v>476</v>
       </c>
       <c r="E278" s="39"/>
       <c r="F278" s="39"/>
       <c r="G278" s="43"/>
     </row>
-    <row r="279" spans="1:7" ht="30">
+    <row r="279" spans="1:7" ht="75">
       <c r="A279" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B279" s="39" t="s">
-        <v>469</v>
-      </c>
-      <c r="C279" s="43" t="s">
-        <v>470</v>
+        <v>477</v>
+      </c>
+      <c r="C279" s="39" t="s">
+        <v>478</v>
       </c>
       <c r="D279" s="39" t="s">
-        <v>471</v>
+        <v>446</v>
       </c>
       <c r="E279" s="39"/>
       <c r="F279" s="39"/>
-      <c r="G279" s="43"/>
-    </row>
-    <row r="280" spans="1:7" ht="45">
+      <c r="G279" s="39"/>
+    </row>
+    <row r="280" spans="1:7" ht="90">
       <c r="A280" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B280" s="39" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="C280" s="43" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="D280" s="39" t="s">
-        <v>1210</v>
+        <v>449</v>
       </c>
       <c r="E280" s="39"/>
       <c r="F280" s="39"/>
       <c r="G280" s="43"/>
     </row>
-    <row r="281" spans="1:7" ht="60">
+    <row r="281" spans="1:7" ht="105">
       <c r="A281" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B281" s="39" t="s">
-        <v>474</v>
-      </c>
-      <c r="C281" s="43" t="s">
-        <v>475</v>
+        <v>481</v>
+      </c>
+      <c r="C281" s="39" t="s">
+        <v>482</v>
       </c>
       <c r="D281" s="39" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
       <c r="E281" s="39"/>
       <c r="F281" s="39"/>
-      <c r="G281" s="43"/>
-    </row>
-    <row r="282" spans="1:7" ht="75">
+      <c r="G281" s="39"/>
+    </row>
+    <row r="282" spans="1:7" ht="105">
       <c r="A282" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B282" s="39" t="s">
-        <v>477</v>
-      </c>
-      <c r="C282" s="39" t="s">
-        <v>478</v>
+        <v>483</v>
+      </c>
+      <c r="C282" s="43" t="s">
+        <v>484</v>
       </c>
       <c r="D282" s="39" t="s">
-        <v>446</v>
+        <v>485</v>
       </c>
       <c r="E282" s="39"/>
-      <c r="F282" s="39"/>
-      <c r="G282" s="39"/>
-    </row>
-    <row r="283" spans="1:7" ht="90">
+      <c r="F282" s="39" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G282" s="43"/>
+    </row>
+    <row r="283" spans="1:7" ht="75">
       <c r="A283" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B283" s="39" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="C283" s="43" t="s">
-        <v>480</v>
-      </c>
-      <c r="D283" s="39" t="s">
-        <v>449</v>
-      </c>
+        <v>487</v>
+      </c>
+      <c r="D283" s="39"/>
       <c r="E283" s="39"/>
       <c r="F283" s="39"/>
-      <c r="G283" s="43"/>
-    </row>
-    <row r="284" spans="1:7" ht="105">
+      <c r="G283" s="43" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7">
       <c r="A284" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B284" s="39" t="s">
-        <v>481</v>
-      </c>
-      <c r="C284" s="39" t="s">
-        <v>482</v>
-      </c>
-      <c r="D284" s="39" t="s">
-        <v>452</v>
-      </c>
-      <c r="E284" s="39"/>
-      <c r="F284" s="39"/>
-      <c r="G284" s="39"/>
-    </row>
-    <row r="285" spans="1:7" ht="105">
+      <c r="B284" s="39">
+        <v>10.3</v>
+      </c>
+      <c r="C284" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D284" s="40"/>
+      <c r="E284" s="40"/>
+      <c r="F284" s="40"/>
+      <c r="G284" s="40"/>
+    </row>
+    <row r="285" spans="1:7">
       <c r="A285" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B285" s="39" t="s">
-        <v>483</v>
-      </c>
-      <c r="C285" s="43" t="s">
-        <v>484</v>
-      </c>
-      <c r="D285" s="39" t="s">
-        <v>485</v>
-      </c>
-      <c r="E285" s="39"/>
-      <c r="F285" s="39" t="s">
-        <v>1126</v>
-      </c>
-      <c r="G285" s="43"/>
+        <v>489</v>
+      </c>
+      <c r="C285" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="D285" s="40"/>
+      <c r="E285" s="40"/>
+      <c r="F285" s="40"/>
+      <c r="G285" s="40"/>
     </row>
     <row r="286" spans="1:7" ht="75">
       <c r="A286" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B286" s="39" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="C286" s="43" t="s">
-        <v>487</v>
-      </c>
-      <c r="D286" s="39"/>
+        <v>456</v>
+      </c>
+      <c r="D286" s="39" t="s">
+        <v>419</v>
+      </c>
       <c r="E286" s="39"/>
       <c r="F286" s="39"/>
       <c r="G286" s="43" t="s">
-        <v>1298</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="287" spans="1:7">
       <c r="A287" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B287" s="39">
-        <v>10.3</v>
-      </c>
-      <c r="C287" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="D287" s="40"/>
-      <c r="E287" s="40"/>
-      <c r="F287" s="40"/>
-      <c r="G287" s="40"/>
-    </row>
-    <row r="288" spans="1:7">
+      <c r="B287" s="39" t="s">
+        <v>491</v>
+      </c>
+      <c r="C287" s="43" t="s">
+        <v>458</v>
+      </c>
+      <c r="D287" s="39" t="s">
+        <v>422</v>
+      </c>
+      <c r="E287" s="39"/>
+      <c r="F287" s="39"/>
+      <c r="G287" s="43"/>
+    </row>
+    <row r="288" spans="1:7" ht="30">
       <c r="A288" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B288" s="39" t="s">
-        <v>489</v>
-      </c>
-      <c r="C288" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D288" s="40"/>
-      <c r="E288" s="40"/>
-      <c r="F288" s="40"/>
-      <c r="G288" s="40"/>
-    </row>
-    <row r="289" spans="1:7" ht="75">
+        <v>492</v>
+      </c>
+      <c r="C288" s="43" t="s">
+        <v>460</v>
+      </c>
+      <c r="D288" s="39" t="s">
+        <v>425</v>
+      </c>
+      <c r="E288" s="39"/>
+      <c r="F288" s="39"/>
+      <c r="G288" s="43"/>
+    </row>
+    <row r="289" spans="1:7" ht="45">
       <c r="A289" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B289" s="39" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="C289" s="43" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="D289" s="39" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="E289" s="39"/>
       <c r="F289" s="39"/>
-      <c r="G289" s="43" t="s">
-        <v>1105</v>
-      </c>
+      <c r="G289" s="43"/>
     </row>
     <row r="290" spans="1:7">
       <c r="A290" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B290" s="39" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="C290" s="43" t="s">
-        <v>458</v>
+        <v>430</v>
       </c>
       <c r="D290" s="39" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="E290" s="39"/>
       <c r="F290" s="39"/>
@@ -13723,47 +13723,47 @@
         <v>56</v>
       </c>
       <c r="B291" s="39" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="C291" s="43" t="s">
-        <v>460</v>
+        <v>433</v>
       </c>
       <c r="D291" s="39" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="E291" s="39"/>
       <c r="F291" s="39"/>
       <c r="G291" s="43"/>
     </row>
-    <row r="292" spans="1:7" ht="45">
+    <row r="292" spans="1:7" ht="30">
       <c r="A292" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B292" s="39" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="C292" s="43" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="D292" s="39" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="E292" s="39"/>
       <c r="F292" s="39"/>
       <c r="G292" s="43"/>
     </row>
-    <row r="293" spans="1:7">
+    <row r="293" spans="1:7" ht="45">
       <c r="A293" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B293" s="39" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="C293" s="43" t="s">
-        <v>430</v>
+        <v>468</v>
       </c>
       <c r="D293" s="39" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="E293" s="39"/>
       <c r="F293" s="39"/>
@@ -13774,234 +13774,234 @@
         <v>56</v>
       </c>
       <c r="B294" s="39" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="C294" s="43" t="s">
-        <v>433</v>
+        <v>470</v>
       </c>
       <c r="D294" s="39" t="s">
-        <v>434</v>
+        <v>471</v>
       </c>
       <c r="E294" s="39"/>
       <c r="F294" s="39"/>
       <c r="G294" s="43"/>
     </row>
-    <row r="295" spans="1:7" ht="30">
+    <row r="295" spans="1:7" ht="45">
       <c r="A295" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B295" s="39" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C295" s="43" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="D295" s="39" t="s">
-        <v>437</v>
+        <v>1210</v>
       </c>
       <c r="E295" s="39"/>
       <c r="F295" s="39"/>
       <c r="G295" s="43"/>
     </row>
-    <row r="296" spans="1:7" ht="45">
+    <row r="296" spans="1:7" ht="60">
       <c r="A296" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B296" s="39" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="C296" s="43" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="D296" s="39" t="s">
-        <v>443</v>
+        <v>476</v>
       </c>
       <c r="E296" s="39"/>
       <c r="F296" s="39"/>
       <c r="G296" s="43"/>
     </row>
-    <row r="297" spans="1:7" ht="30">
+    <row r="297" spans="1:7" ht="75">
       <c r="A297" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B297" s="39" t="s">
-        <v>498</v>
-      </c>
-      <c r="C297" s="43" t="s">
-        <v>470</v>
+        <v>501</v>
+      </c>
+      <c r="C297" s="39" t="s">
+        <v>478</v>
       </c>
       <c r="D297" s="39" t="s">
-        <v>471</v>
+        <v>446</v>
       </c>
       <c r="E297" s="39"/>
       <c r="F297" s="39"/>
-      <c r="G297" s="43"/>
-    </row>
-    <row r="298" spans="1:7" ht="45">
+      <c r="G297" s="39"/>
+    </row>
+    <row r="298" spans="1:7" ht="90">
       <c r="A298" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B298" s="39" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="C298" s="43" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="D298" s="39" t="s">
-        <v>1210</v>
+        <v>449</v>
       </c>
       <c r="E298" s="39"/>
       <c r="F298" s="39"/>
       <c r="G298" s="43"/>
     </row>
-    <row r="299" spans="1:7" ht="60">
+    <row r="299" spans="1:7" ht="105">
       <c r="A299" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B299" s="39" t="s">
-        <v>500</v>
-      </c>
-      <c r="C299" s="43" t="s">
-        <v>475</v>
+        <v>503</v>
+      </c>
+      <c r="C299" s="39" t="s">
+        <v>482</v>
       </c>
       <c r="D299" s="39" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
       <c r="E299" s="39"/>
       <c r="F299" s="39"/>
-      <c r="G299" s="43"/>
-    </row>
-    <row r="300" spans="1:7" ht="75">
+      <c r="G299" s="39"/>
+    </row>
+    <row r="300" spans="1:7" ht="105">
       <c r="A300" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B300" s="39" t="s">
-        <v>501</v>
-      </c>
-      <c r="C300" s="39" t="s">
-        <v>478</v>
+        <v>504</v>
+      </c>
+      <c r="C300" s="43" t="s">
+        <v>484</v>
       </c>
       <c r="D300" s="39" t="s">
-        <v>446</v>
+        <v>485</v>
       </c>
       <c r="E300" s="39"/>
-      <c r="F300" s="39"/>
-      <c r="G300" s="39"/>
-    </row>
-    <row r="301" spans="1:7" ht="90">
+      <c r="F300" s="39" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G300" s="43"/>
+    </row>
+    <row r="301" spans="1:7" ht="75">
       <c r="A301" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B301" s="39" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C301" s="43" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="D301" s="39" t="s">
-        <v>449</v>
+        <v>488</v>
       </c>
       <c r="E301" s="39"/>
-      <c r="F301" s="39"/>
+      <c r="F301" s="59" t="s">
+        <v>1173</v>
+      </c>
       <c r="G301" s="43"/>
     </row>
-    <row r="302" spans="1:7" ht="105">
+    <row r="302" spans="1:7">
       <c r="A302" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B302" s="39" t="s">
-        <v>503</v>
-      </c>
-      <c r="C302" s="39" t="s">
-        <v>482</v>
-      </c>
-      <c r="D302" s="39" t="s">
-        <v>452</v>
-      </c>
-      <c r="E302" s="39"/>
-      <c r="F302" s="39"/>
-      <c r="G302" s="39"/>
-    </row>
-    <row r="303" spans="1:7" ht="105">
+      <c r="B302" s="39">
+        <v>10.4</v>
+      </c>
+      <c r="C302" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D302" s="40"/>
+      <c r="E302" s="40"/>
+      <c r="F302" s="40"/>
+      <c r="G302" s="40"/>
+    </row>
+    <row r="303" spans="1:7">
       <c r="A303" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B303" s="39" t="s">
-        <v>504</v>
-      </c>
-      <c r="C303" s="43" t="s">
-        <v>484</v>
-      </c>
-      <c r="D303" s="39" t="s">
-        <v>485</v>
-      </c>
-      <c r="E303" s="39"/>
-      <c r="F303" s="39" t="s">
-        <v>1126</v>
-      </c>
-      <c r="G303" s="43"/>
-    </row>
-    <row r="304" spans="1:7" ht="75">
+        <v>506</v>
+      </c>
+      <c r="C303" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D303" s="40"/>
+      <c r="E303" s="40"/>
+      <c r="F303" s="40"/>
+      <c r="G303" s="40"/>
+    </row>
+    <row r="304" spans="1:7" ht="45">
       <c r="A304" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B304" s="39" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C304" s="43" t="s">
-        <v>487</v>
+        <v>508</v>
       </c>
       <c r="D304" s="39" t="s">
-        <v>488</v>
+        <v>509</v>
       </c>
       <c r="E304" s="39"/>
-      <c r="F304" s="59" t="s">
-        <v>1173</v>
-      </c>
+      <c r="F304" s="39"/>
       <c r="G304" s="43"/>
     </row>
     <row r="305" spans="1:7">
       <c r="A305" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B305" s="39">
-        <v>10.4</v>
-      </c>
-      <c r="C305" s="38" t="s">
-        <v>10</v>
+      <c r="B305" s="39" t="s">
+        <v>510</v>
+      </c>
+      <c r="C305" s="40" t="s">
+        <v>36</v>
       </c>
       <c r="D305" s="40"/>
       <c r="E305" s="40"/>
       <c r="F305" s="40"/>
       <c r="G305" s="40"/>
     </row>
-    <row r="306" spans="1:7">
+    <row r="306" spans="1:7" ht="45">
       <c r="A306" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B306" s="39" t="s">
-        <v>506</v>
-      </c>
-      <c r="C306" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="D306" s="40"/>
-      <c r="E306" s="40"/>
-      <c r="F306" s="40"/>
-      <c r="G306" s="40"/>
-    </row>
-    <row r="307" spans="1:7" ht="45">
+        <v>511</v>
+      </c>
+      <c r="C306" s="39" t="s">
+        <v>512</v>
+      </c>
+      <c r="D306" s="39" t="s">
+        <v>419</v>
+      </c>
+      <c r="E306" s="46"/>
+      <c r="F306" s="46"/>
+      <c r="G306" s="39" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" ht="30">
       <c r="A307" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B307" s="39" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="C307" s="43" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="D307" s="39" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="E307" s="39"/>
       <c r="F307" s="39"/>
@@ -14012,47 +14012,47 @@
         <v>56</v>
       </c>
       <c r="B308" s="39" t="s">
-        <v>510</v>
-      </c>
-      <c r="C308" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D308" s="40"/>
-      <c r="E308" s="40"/>
-      <c r="F308" s="40"/>
-      <c r="G308" s="40"/>
-    </row>
-    <row r="309" spans="1:7" ht="45">
+        <v>516</v>
+      </c>
+      <c r="C308" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="D308" s="39" t="s">
+        <v>518</v>
+      </c>
+      <c r="E308" s="39"/>
+      <c r="F308" s="39"/>
+      <c r="G308" s="43"/>
+    </row>
+    <row r="309" spans="1:7" ht="60">
       <c r="A309" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B309" s="39" t="s">
-        <v>511</v>
-      </c>
-      <c r="C309" s="39" t="s">
-        <v>512</v>
+        <v>519</v>
+      </c>
+      <c r="C309" s="43" t="s">
+        <v>520</v>
       </c>
       <c r="D309" s="39" t="s">
-        <v>419</v>
-      </c>
-      <c r="E309" s="46"/>
-      <c r="F309" s="46"/>
-      <c r="G309" s="39" t="s">
-        <v>1106</v>
-      </c>
+        <v>521</v>
+      </c>
+      <c r="E309" s="39"/>
+      <c r="F309" s="39"/>
+      <c r="G309" s="43"/>
     </row>
     <row r="310" spans="1:7" ht="30">
       <c r="A310" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B310" s="39" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="C310" s="43" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="D310" s="39" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="E310" s="39"/>
       <c r="F310" s="39"/>
@@ -14063,147 +14063,147 @@
         <v>56</v>
       </c>
       <c r="B311" s="39" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="C311" s="43" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="D311" s="39" t="s">
-        <v>518</v>
+        <v>471</v>
       </c>
       <c r="E311" s="39"/>
       <c r="F311" s="39"/>
       <c r="G311" s="43"/>
     </row>
-    <row r="312" spans="1:7" ht="60">
+    <row r="312" spans="1:7" ht="105">
       <c r="A312" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B312" s="39" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="C312" s="43" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="D312" s="39" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="E312" s="39"/>
       <c r="F312" s="39"/>
       <c r="G312" s="43"/>
     </row>
-    <row r="313" spans="1:7" ht="30">
+    <row r="313" spans="1:7">
       <c r="A313" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B313" s="39" t="s">
-        <v>522</v>
-      </c>
-      <c r="C313" s="43" t="s">
-        <v>523</v>
-      </c>
-      <c r="D313" s="39" t="s">
-        <v>524</v>
-      </c>
-      <c r="E313" s="39"/>
-      <c r="F313" s="39"/>
-      <c r="G313" s="43"/>
+      <c r="B313" s="39">
+        <v>10.5</v>
+      </c>
+      <c r="C313" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="D313" s="40"/>
+      <c r="E313" s="40"/>
+      <c r="F313" s="40"/>
+      <c r="G313" s="48"/>
     </row>
     <row r="314" spans="1:7">
       <c r="A314" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B314" s="39" t="s">
-        <v>525</v>
-      </c>
-      <c r="C314" s="43" t="s">
-        <v>526</v>
-      </c>
-      <c r="D314" s="39" t="s">
-        <v>471</v>
-      </c>
-      <c r="E314" s="39"/>
-      <c r="F314" s="39"/>
-      <c r="G314" s="43"/>
-    </row>
-    <row r="315" spans="1:7" ht="105">
+        <v>530</v>
+      </c>
+      <c r="C314" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="D314" s="40"/>
+      <c r="E314" s="40"/>
+      <c r="F314" s="40"/>
+      <c r="G314" s="48"/>
+    </row>
+    <row r="315" spans="1:7" ht="75">
       <c r="A315" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B315" s="39" t="s">
-        <v>527</v>
-      </c>
-      <c r="C315" s="43" t="s">
-        <v>528</v>
+        <v>531</v>
+      </c>
+      <c r="C315" s="39" t="s">
+        <v>456</v>
       </c>
       <c r="D315" s="39" t="s">
-        <v>529</v>
+        <v>419</v>
       </c>
       <c r="E315" s="39"/>
       <c r="F315" s="39"/>
-      <c r="G315" s="43"/>
+      <c r="G315" s="39" t="s">
+        <v>1105</v>
+      </c>
     </row>
     <row r="316" spans="1:7">
       <c r="A316" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B316" s="39">
-        <v>10.5</v>
-      </c>
-      <c r="C316" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="D316" s="40"/>
-      <c r="E316" s="40"/>
-      <c r="F316" s="40"/>
-      <c r="G316" s="48"/>
-    </row>
-    <row r="317" spans="1:7">
+      <c r="B316" s="39" t="s">
+        <v>532</v>
+      </c>
+      <c r="C316" s="39" t="s">
+        <v>458</v>
+      </c>
+      <c r="D316" s="39" t="s">
+        <v>422</v>
+      </c>
+      <c r="E316" s="39"/>
+      <c r="F316" s="39"/>
+      <c r="G316" s="39"/>
+    </row>
+    <row r="317" spans="1:7" ht="30">
       <c r="A317" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B317" s="39" t="s">
-        <v>530</v>
-      </c>
-      <c r="C317" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="D317" s="40"/>
-      <c r="E317" s="40"/>
-      <c r="F317" s="40"/>
-      <c r="G317" s="48"/>
-    </row>
-    <row r="318" spans="1:7" ht="75">
+        <v>533</v>
+      </c>
+      <c r="C317" s="39" t="s">
+        <v>460</v>
+      </c>
+      <c r="D317" s="39" t="s">
+        <v>440</v>
+      </c>
+      <c r="E317" s="39"/>
+      <c r="F317" s="39"/>
+      <c r="G317" s="39"/>
+    </row>
+    <row r="318" spans="1:7" ht="45">
       <c r="A318" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B318" s="39" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="C318" s="39" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="D318" s="39" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="E318" s="39"/>
       <c r="F318" s="39"/>
-      <c r="G318" s="39" t="s">
-        <v>1105</v>
-      </c>
+      <c r="G318" s="39"/>
     </row>
     <row r="319" spans="1:7">
       <c r="A319" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B319" s="39" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="C319" s="39" t="s">
-        <v>458</v>
+        <v>430</v>
       </c>
       <c r="D319" s="39" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="E319" s="39"/>
       <c r="F319" s="39"/>
@@ -14214,47 +14214,47 @@
         <v>56</v>
       </c>
       <c r="B320" s="39" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="C320" s="39" t="s">
-        <v>460</v>
+        <v>433</v>
       </c>
       <c r="D320" s="39" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="E320" s="39"/>
       <c r="F320" s="39"/>
       <c r="G320" s="39"/>
     </row>
-    <row r="321" spans="1:7" ht="45">
+    <row r="321" spans="1:7" ht="30">
       <c r="A321" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B321" s="39" t="s">
-        <v>534</v>
+        <v>1212</v>
       </c>
       <c r="C321" s="39" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="D321" s="39" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="E321" s="39"/>
       <c r="F321" s="39"/>
       <c r="G321" s="39"/>
     </row>
-    <row r="322" spans="1:7">
+    <row r="322" spans="1:7" ht="45">
       <c r="A322" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B322" s="39" t="s">
-        <v>535</v>
+        <v>1213</v>
       </c>
       <c r="C322" s="39" t="s">
-        <v>430</v>
+        <v>468</v>
       </c>
       <c r="D322" s="39" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="E322" s="39"/>
       <c r="F322" s="39"/>
@@ -14265,293 +14265,297 @@
         <v>56</v>
       </c>
       <c r="B323" s="39" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="C323" s="39" t="s">
-        <v>433</v>
+        <v>470</v>
       </c>
       <c r="D323" s="39" t="s">
-        <v>434</v>
+        <v>471</v>
       </c>
       <c r="E323" s="39"/>
       <c r="F323" s="39"/>
       <c r="G323" s="39"/>
     </row>
-    <row r="324" spans="1:7" ht="30">
+    <row r="324" spans="1:7" ht="45">
       <c r="A324" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B324" s="39" t="s">
-        <v>1212</v>
+        <v>542</v>
       </c>
       <c r="C324" s="39" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="D324" s="39" t="s">
-        <v>437</v>
+        <v>1210</v>
       </c>
       <c r="E324" s="39"/>
       <c r="F324" s="39"/>
       <c r="G324" s="39"/>
     </row>
-    <row r="325" spans="1:7" ht="45">
+    <row r="325" spans="1:7" ht="60">
       <c r="A325" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B325" s="39" t="s">
-        <v>1213</v>
+        <v>543</v>
       </c>
       <c r="C325" s="39" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="D325" s="39" t="s">
-        <v>443</v>
+        <v>476</v>
       </c>
       <c r="E325" s="39"/>
       <c r="F325" s="39"/>
       <c r="G325" s="39"/>
     </row>
-    <row r="326" spans="1:7" ht="30">
+    <row r="326" spans="1:7" ht="75">
       <c r="A326" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B326" s="39" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="C326" s="39" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="D326" s="39" t="s">
-        <v>471</v>
+        <v>446</v>
       </c>
       <c r="E326" s="39"/>
       <c r="F326" s="39"/>
       <c r="G326" s="39"/>
     </row>
-    <row r="327" spans="1:7" ht="45">
+    <row r="327" spans="1:7" ht="90">
       <c r="A327" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B327" s="39" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="C327" s="39" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="D327" s="39" t="s">
-        <v>1210</v>
+        <v>449</v>
       </c>
       <c r="E327" s="39"/>
       <c r="F327" s="39"/>
       <c r="G327" s="39"/>
     </row>
-    <row r="328" spans="1:7" ht="60">
+    <row r="328" spans="1:7" ht="105">
       <c r="A328" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B328" s="39" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="C328" s="39" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="D328" s="39" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
       <c r="E328" s="39"/>
       <c r="F328" s="39"/>
       <c r="G328" s="39"/>
     </row>
-    <row r="329" spans="1:7" ht="75">
+    <row r="329" spans="1:7" ht="105">
       <c r="A329" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B329" s="39" t="s">
-        <v>544</v>
+        <v>1214</v>
       </c>
       <c r="C329" s="39" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="D329" s="39" t="s">
-        <v>446</v>
+        <v>485</v>
       </c>
       <c r="E329" s="39"/>
-      <c r="F329" s="39"/>
+      <c r="F329" s="39" t="s">
+        <v>1126</v>
+      </c>
       <c r="G329" s="39"/>
     </row>
-    <row r="330" spans="1:7" ht="90">
+    <row r="330" spans="1:7" ht="75">
       <c r="A330" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B330" s="39" t="s">
-        <v>545</v>
+        <v>1215</v>
       </c>
       <c r="C330" s="39" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="D330" s="39" t="s">
-        <v>449</v>
+        <v>488</v>
       </c>
       <c r="E330" s="39"/>
-      <c r="F330" s="39"/>
+      <c r="F330" s="59" t="s">
+        <v>1299</v>
+      </c>
       <c r="G330" s="39"/>
     </row>
-    <row r="331" spans="1:7" ht="105">
+    <row r="331" spans="1:7">
       <c r="A331" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B331" s="39" t="s">
-        <v>546</v>
-      </c>
-      <c r="C331" s="39" t="s">
-        <v>482</v>
-      </c>
-      <c r="D331" s="39" t="s">
-        <v>452</v>
-      </c>
-      <c r="E331" s="39"/>
-      <c r="F331" s="39"/>
-      <c r="G331" s="39"/>
-    </row>
-    <row r="332" spans="1:7" ht="105">
+      <c r="B331" s="36" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C331" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="D331" s="40"/>
+      <c r="E331" s="40"/>
+      <c r="F331" s="40"/>
+      <c r="G331" s="49"/>
+    </row>
+    <row r="332" spans="1:7">
       <c r="A332" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B332" s="39" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C332" s="39" t="s">
-        <v>484</v>
-      </c>
-      <c r="D332" s="39" t="s">
-        <v>485</v>
-      </c>
-      <c r="E332" s="39"/>
-      <c r="F332" s="39" t="s">
-        <v>1126</v>
-      </c>
-      <c r="G332" s="39"/>
-    </row>
-    <row r="333" spans="1:7" ht="75">
+      <c r="B332" s="39">
+        <v>11.1</v>
+      </c>
+      <c r="C332" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="D332" s="40"/>
+      <c r="E332" s="40"/>
+      <c r="F332" s="40"/>
+      <c r="G332" s="48"/>
+    </row>
+    <row r="333" spans="1:7">
       <c r="A333" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B333" s="39" t="s">
-        <v>1215</v>
-      </c>
-      <c r="C333" s="39" t="s">
-        <v>487</v>
-      </c>
-      <c r="D333" s="39" t="s">
-        <v>488</v>
-      </c>
-      <c r="E333" s="39"/>
-      <c r="F333" s="59" t="s">
-        <v>1299</v>
-      </c>
-      <c r="G333" s="39"/>
-    </row>
-    <row r="334" spans="1:7">
+        <v>547</v>
+      </c>
+      <c r="C333" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="D333" s="40"/>
+      <c r="E333" s="40"/>
+      <c r="F333" s="40"/>
+      <c r="G333" s="48"/>
+    </row>
+    <row r="334" spans="1:7" ht="120">
       <c r="A334" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B334" s="36" t="s">
-        <v>1216</v>
-      </c>
-      <c r="C334" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="D334" s="40"/>
-      <c r="E334" s="40"/>
-      <c r="F334" s="40"/>
-      <c r="G334" s="49"/>
-    </row>
-    <row r="335" spans="1:7">
+      <c r="B334" s="39" t="s">
+        <v>548</v>
+      </c>
+      <c r="C334" s="43" t="s">
+        <v>549</v>
+      </c>
+      <c r="D334" s="39">
+        <v>78.3</v>
+      </c>
+      <c r="E334" s="39" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F334" s="39" t="s">
+        <v>1158</v>
+      </c>
+      <c r="G334" s="43" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" ht="60">
       <c r="A335" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B335" s="39">
-        <v>11.1</v>
-      </c>
-      <c r="C335" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="D335" s="40"/>
-      <c r="E335" s="40"/>
-      <c r="F335" s="40"/>
-      <c r="G335" s="48"/>
-    </row>
-    <row r="336" spans="1:7">
+      <c r="B335" s="39" t="s">
+        <v>550</v>
+      </c>
+      <c r="C335" s="43" t="s">
+        <v>551</v>
+      </c>
+      <c r="D335" s="39">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E335" s="39" t="s">
+        <v>1217</v>
+      </c>
+      <c r="F335" s="39" t="s">
+        <v>1158</v>
+      </c>
+      <c r="G335" s="43"/>
+    </row>
+    <row r="336" spans="1:7" ht="30">
       <c r="A336" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B336" s="39" t="s">
-        <v>547</v>
-      </c>
-      <c r="C336" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="D336" s="40"/>
-      <c r="E336" s="40"/>
-      <c r="F336" s="40"/>
-      <c r="G336" s="48"/>
-    </row>
-    <row r="337" spans="1:7" ht="120">
+        <v>552</v>
+      </c>
+      <c r="C336" s="43" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D336" s="39">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E336" s="39"/>
+      <c r="F336" s="39" t="s">
+        <v>1158</v>
+      </c>
+      <c r="G336" s="43"/>
+    </row>
+    <row r="337" spans="1:7">
       <c r="A337" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B337" s="39" t="s">
-        <v>548</v>
-      </c>
-      <c r="C337" s="43" t="s">
-        <v>549</v>
-      </c>
-      <c r="D337" s="39">
-        <v>78.3</v>
-      </c>
-      <c r="E337" s="39" t="s">
-        <v>1206</v>
-      </c>
-      <c r="F337" s="39" t="s">
-        <v>1158</v>
-      </c>
-      <c r="G337" s="43" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="338" spans="1:7" ht="60">
+        <v>554</v>
+      </c>
+      <c r="C337" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D337" s="40"/>
+      <c r="E337" s="40"/>
+      <c r="F337" s="40"/>
+      <c r="G337" s="40"/>
+    </row>
+    <row r="338" spans="1:7">
       <c r="A338" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B338" s="39" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="C338" s="43" t="s">
-        <v>551</v>
-      </c>
-      <c r="D338" s="39">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E338" s="39" t="s">
-        <v>1217</v>
-      </c>
+        <v>556</v>
+      </c>
+      <c r="D338" s="39" t="s">
+        <v>557</v>
+      </c>
+      <c r="E338" s="39"/>
       <c r="F338" s="39" t="s">
         <v>1158</v>
       </c>
-      <c r="G338" s="43"/>
-    </row>
-    <row r="339" spans="1:7" ht="30">
+      <c r="G338" s="43" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7">
       <c r="A339" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B339" s="39" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="C339" s="43" t="s">
-        <v>1218</v>
-      </c>
-      <c r="D339" s="39">
-        <v>78.099999999999994</v>
+        <v>559</v>
+      </c>
+      <c r="D339" s="39" t="s">
+        <v>560</v>
       </c>
       <c r="E339" s="39"/>
       <c r="F339" s="39" t="s">
@@ -14564,87 +14568,87 @@
         <v>56</v>
       </c>
       <c r="B340" s="39" t="s">
-        <v>554</v>
-      </c>
-      <c r="C340" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="D340" s="40"/>
-      <c r="E340" s="40"/>
-      <c r="F340" s="40"/>
-      <c r="G340" s="40"/>
-    </row>
-    <row r="341" spans="1:7">
+        <v>561</v>
+      </c>
+      <c r="C340" s="39" t="s">
+        <v>562</v>
+      </c>
+      <c r="D340" s="39" t="s">
+        <v>563</v>
+      </c>
+      <c r="E340" s="39"/>
+      <c r="F340" s="39" t="s">
+        <v>1158</v>
+      </c>
+      <c r="G340" s="39"/>
+    </row>
+    <row r="341" spans="1:7" ht="45">
       <c r="A341" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B341" s="39" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="C341" s="43" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="D341" s="39" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="E341" s="39"/>
       <c r="F341" s="39" t="s">
         <v>1158</v>
       </c>
-      <c r="G341" s="43" t="s">
-        <v>1108</v>
-      </c>
+      <c r="G341" s="43"/>
     </row>
     <row r="342" spans="1:7">
       <c r="A342" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B342" s="39" t="s">
-        <v>558</v>
-      </c>
-      <c r="C342" s="43" t="s">
-        <v>559</v>
-      </c>
-      <c r="D342" s="39" t="s">
-        <v>560</v>
-      </c>
-      <c r="E342" s="39"/>
-      <c r="F342" s="39" t="s">
-        <v>1158</v>
-      </c>
-      <c r="G342" s="43"/>
+        <v>567</v>
+      </c>
+      <c r="C342" s="40" t="s">
+        <v>568</v>
+      </c>
+      <c r="D342" s="40"/>
+      <c r="E342" s="40"/>
+      <c r="F342" s="40"/>
+      <c r="G342" s="40"/>
     </row>
     <row r="343" spans="1:7">
       <c r="A343" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B343" s="39" t="s">
-        <v>561</v>
-      </c>
-      <c r="C343" s="39" t="s">
-        <v>562</v>
+        <v>569</v>
+      </c>
+      <c r="C343" s="43" t="s">
+        <v>570</v>
       </c>
       <c r="D343" s="39" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="E343" s="39"/>
       <c r="F343" s="39" t="s">
         <v>1158</v>
       </c>
-      <c r="G343" s="39"/>
-    </row>
-    <row r="344" spans="1:7" ht="45">
+      <c r="G343" s="43" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" ht="30">
       <c r="A344" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B344" s="39" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="C344" s="43" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="D344" s="39" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="E344" s="39"/>
       <c r="F344" s="39" t="s">
@@ -14657,87 +14661,87 @@
         <v>56</v>
       </c>
       <c r="B345" s="39" t="s">
-        <v>567</v>
-      </c>
-      <c r="C345" s="40" t="s">
-        <v>568</v>
-      </c>
-      <c r="D345" s="40"/>
-      <c r="E345" s="40"/>
-      <c r="F345" s="40"/>
-      <c r="G345" s="40"/>
-    </row>
-    <row r="346" spans="1:7">
+        <v>575</v>
+      </c>
+      <c r="C345" s="43" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D345" s="39" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E345" s="39"/>
+      <c r="F345" s="39" t="s">
+        <v>1158</v>
+      </c>
+      <c r="G345" s="43"/>
+    </row>
+    <row r="346" spans="1:7" ht="45">
       <c r="A346" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B346" s="39" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="C346" s="43" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="D346" s="39" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="E346" s="39"/>
       <c r="F346" s="39" t="s">
         <v>1158</v>
       </c>
-      <c r="G346" s="43" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="347" spans="1:7" ht="30">
+      <c r="G346" s="43"/>
+    </row>
+    <row r="347" spans="1:7">
       <c r="A347" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B347" s="39" t="s">
-        <v>572</v>
-      </c>
-      <c r="C347" s="43" t="s">
-        <v>573</v>
-      </c>
-      <c r="D347" s="39" t="s">
-        <v>574</v>
-      </c>
-      <c r="E347" s="39"/>
-      <c r="F347" s="39" t="s">
-        <v>1158</v>
-      </c>
-      <c r="G347" s="43"/>
-    </row>
-    <row r="348" spans="1:7">
+        <v>584</v>
+      </c>
+      <c r="C347" s="40" t="s">
+        <v>585</v>
+      </c>
+      <c r="D347" s="40"/>
+      <c r="E347" s="40"/>
+      <c r="F347" s="40"/>
+      <c r="G347" s="40"/>
+    </row>
+    <row r="348" spans="1:7" ht="90">
       <c r="A348" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B348" s="39" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="C348" s="43" t="s">
-        <v>1069</v>
+        <v>588</v>
       </c>
       <c r="D348" s="39" t="s">
-        <v>1068</v>
+        <v>586</v>
       </c>
       <c r="E348" s="39"/>
       <c r="F348" s="39" t="s">
         <v>1158</v>
       </c>
-      <c r="G348" s="43"/>
-    </row>
-    <row r="349" spans="1:7" ht="45">
+      <c r="G348" s="43" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" ht="60">
       <c r="A349" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B349" s="39" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="C349" s="43" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="D349" s="39" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="E349" s="39"/>
       <c r="F349" s="39" t="s">
@@ -14745,54 +14749,56 @@
       </c>
       <c r="G349" s="43"/>
     </row>
-    <row r="350" spans="1:7">
+    <row r="350" spans="1:7" ht="30">
       <c r="A350" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B350" s="39" t="s">
-        <v>584</v>
-      </c>
-      <c r="C350" s="40" t="s">
-        <v>585</v>
-      </c>
-      <c r="D350" s="40"/>
-      <c r="E350" s="40"/>
-      <c r="F350" s="40"/>
-      <c r="G350" s="40"/>
-    </row>
-    <row r="351" spans="1:7" ht="90">
+        <v>591</v>
+      </c>
+      <c r="C350" s="39" t="s">
+        <v>592</v>
+      </c>
+      <c r="D350" s="39" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E350" s="39"/>
+      <c r="F350" s="39" t="s">
+        <v>1158</v>
+      </c>
+      <c r="G350" s="39"/>
+    </row>
+    <row r="351" spans="1:7" ht="45">
       <c r="A351" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B351" s="39" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="C351" s="43" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="D351" s="39" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="E351" s="39"/>
       <c r="F351" s="39" t="s">
         <v>1158</v>
       </c>
-      <c r="G351" s="43" t="s">
-        <v>1219</v>
-      </c>
-    </row>
-    <row r="352" spans="1:7" ht="60">
+      <c r="G351" s="43"/>
+    </row>
+    <row r="352" spans="1:7" ht="30">
       <c r="A352" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B352" s="39" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="C352" s="43" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="D352" s="39" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="E352" s="39"/>
       <c r="F352" s="39" t="s">
@@ -14800,72 +14806,70 @@
       </c>
       <c r="G352" s="43"/>
     </row>
-    <row r="353" spans="1:7" ht="30">
+    <row r="353" spans="1:7">
       <c r="A353" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B353" s="39" t="s">
-        <v>591</v>
-      </c>
-      <c r="C353" s="39" t="s">
-        <v>592</v>
-      </c>
-      <c r="D353" s="39" t="s">
-        <v>1199</v>
-      </c>
-      <c r="E353" s="39"/>
-      <c r="F353" s="39" t="s">
-        <v>1158</v>
-      </c>
-      <c r="G353" s="39"/>
-    </row>
-    <row r="354" spans="1:7" ht="45">
+        <v>599</v>
+      </c>
+      <c r="C353" s="40" t="s">
+        <v>600</v>
+      </c>
+      <c r="D353" s="40"/>
+      <c r="E353" s="40"/>
+      <c r="F353" s="40"/>
+      <c r="G353" s="40"/>
+    </row>
+    <row r="354" spans="1:7">
       <c r="A354" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B354" s="39" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="C354" s="43" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="D354" s="39" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="E354" s="39"/>
       <c r="F354" s="39" t="s">
         <v>1158</v>
       </c>
-      <c r="G354" s="43"/>
-    </row>
-    <row r="355" spans="1:7" ht="30">
+      <c r="G354" s="39" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7">
       <c r="A355" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B355" s="39" t="s">
-        <v>596</v>
-      </c>
-      <c r="C355" s="43" t="s">
-        <v>597</v>
+        <v>603</v>
+      </c>
+      <c r="C355" s="39" t="s">
+        <v>604</v>
       </c>
       <c r="D355" s="39" t="s">
-        <v>598</v>
+        <v>1065</v>
       </c>
       <c r="E355" s="39"/>
       <c r="F355" s="39" t="s">
         <v>1158</v>
       </c>
-      <c r="G355" s="43"/>
+      <c r="G355" s="39"/>
     </row>
     <row r="356" spans="1:7">
       <c r="A356" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B356" s="39" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="C356" s="40" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="D356" s="40"/>
       <c r="E356" s="40"/>
@@ -14877,313 +14881,315 @@
         <v>56</v>
       </c>
       <c r="B357" s="39" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="C357" s="43" t="s">
-        <v>602</v>
+        <v>570</v>
       </c>
       <c r="D357" s="39" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="E357" s="39"/>
       <c r="F357" s="39" t="s">
         <v>1158</v>
       </c>
-      <c r="G357" s="39" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="358" spans="1:7">
+      <c r="G357" s="43" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" ht="30">
       <c r="A358" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B358" s="39" t="s">
-        <v>603</v>
-      </c>
-      <c r="C358" s="39" t="s">
-        <v>604</v>
+        <v>608</v>
+      </c>
+      <c r="C358" s="43" t="s">
+        <v>609</v>
       </c>
       <c r="D358" s="39" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E358" s="39"/>
+        <v>1070</v>
+      </c>
+      <c r="E358" s="46"/>
       <c r="F358" s="39" t="s">
         <v>1158</v>
       </c>
-      <c r="G358" s="39"/>
-    </row>
-    <row r="359" spans="1:7">
+      <c r="G358" s="43"/>
+    </row>
+    <row r="359" spans="1:7" ht="30">
       <c r="A359" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B359" s="39" t="s">
-        <v>605</v>
-      </c>
-      <c r="C359" s="40" t="s">
-        <v>606</v>
-      </c>
-      <c r="D359" s="40"/>
-      <c r="E359" s="40"/>
-      <c r="F359" s="40"/>
-      <c r="G359" s="40"/>
+        <v>610</v>
+      </c>
+      <c r="C359" s="43" t="s">
+        <v>611</v>
+      </c>
+      <c r="D359" s="39" t="s">
+        <v>577</v>
+      </c>
+      <c r="E359" s="39"/>
+      <c r="F359" s="39" t="s">
+        <v>1158</v>
+      </c>
+      <c r="G359" s="43"/>
     </row>
     <row r="360" spans="1:7">
       <c r="A360" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B360" s="39" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="C360" s="43" t="s">
-        <v>570</v>
+        <v>613</v>
       </c>
       <c r="D360" s="39" t="s">
-        <v>571</v>
+        <v>1068</v>
       </c>
       <c r="E360" s="39"/>
       <c r="F360" s="39" t="s">
         <v>1158</v>
       </c>
-      <c r="G360" s="43" t="s">
-        <v>1111</v>
-      </c>
+      <c r="G360" s="43"/>
     </row>
     <row r="361" spans="1:7" ht="30">
       <c r="A361" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B361" s="39" t="s">
-        <v>608</v>
-      </c>
-      <c r="C361" s="43" t="s">
-        <v>609</v>
+        <v>614</v>
+      </c>
+      <c r="C361" s="39" t="s">
+        <v>615</v>
       </c>
       <c r="D361" s="39" t="s">
-        <v>1070</v>
-      </c>
-      <c r="E361" s="46"/>
+        <v>1066</v>
+      </c>
+      <c r="E361" s="39" t="s">
+        <v>616</v>
+      </c>
       <c r="F361" s="39" t="s">
         <v>1158</v>
       </c>
-      <c r="G361" s="43"/>
-    </row>
-    <row r="362" spans="1:7" ht="30">
+      <c r="G361" s="39"/>
+    </row>
+    <row r="362" spans="1:7">
       <c r="A362" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B362" s="39" t="s">
-        <v>610</v>
-      </c>
-      <c r="C362" s="43" t="s">
-        <v>611</v>
-      </c>
-      <c r="D362" s="39" t="s">
-        <v>577</v>
-      </c>
-      <c r="E362" s="39"/>
-      <c r="F362" s="39" t="s">
-        <v>1158</v>
-      </c>
-      <c r="G362" s="43"/>
+      <c r="B362" s="39">
+        <v>11.2</v>
+      </c>
+      <c r="C362" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D362" s="40"/>
+      <c r="E362" s="40"/>
+      <c r="F362" s="40"/>
+      <c r="G362" s="40"/>
     </row>
     <row r="363" spans="1:7">
       <c r="A363" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B363" s="39" t="s">
-        <v>612</v>
-      </c>
-      <c r="C363" s="43" t="s">
-        <v>613</v>
-      </c>
-      <c r="D363" s="39" t="s">
-        <v>1068</v>
-      </c>
-      <c r="E363" s="39"/>
-      <c r="F363" s="39" t="s">
-        <v>1158</v>
-      </c>
-      <c r="G363" s="43"/>
-    </row>
-    <row r="364" spans="1:7" ht="30">
+        <v>617</v>
+      </c>
+      <c r="C363" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="D363" s="40"/>
+      <c r="E363" s="40"/>
+      <c r="F363" s="40"/>
+      <c r="G363" s="40"/>
+    </row>
+    <row r="364" spans="1:7" ht="120">
       <c r="A364" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B364" s="39" t="s">
-        <v>614</v>
-      </c>
-      <c r="C364" s="39" t="s">
-        <v>615</v>
+        <v>618</v>
+      </c>
+      <c r="C364" s="43" t="s">
+        <v>549</v>
       </c>
       <c r="D364" s="39" t="s">
-        <v>1066</v>
+        <v>1004</v>
       </c>
       <c r="E364" s="39" t="s">
-        <v>616</v>
+        <v>1206</v>
       </c>
       <c r="F364" s="39" t="s">
-        <v>1158</v>
-      </c>
-      <c r="G364" s="39"/>
-    </row>
-    <row r="365" spans="1:7">
+        <v>1176</v>
+      </c>
+      <c r="G364" s="43" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" ht="75">
       <c r="A365" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B365" s="39">
-        <v>11.2</v>
-      </c>
-      <c r="C365" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="D365" s="40"/>
-      <c r="E365" s="40"/>
-      <c r="F365" s="40"/>
-      <c r="G365" s="40"/>
-    </row>
-    <row r="366" spans="1:7">
+      <c r="B365" s="39" t="s">
+        <v>619</v>
+      </c>
+      <c r="C365" s="43" t="s">
+        <v>620</v>
+      </c>
+      <c r="D365" s="39" t="s">
+        <v>999</v>
+      </c>
+      <c r="E365" s="39" t="s">
+        <v>1220</v>
+      </c>
+      <c r="F365" s="39" t="s">
+        <v>1176</v>
+      </c>
+      <c r="G365" s="43"/>
+    </row>
+    <row r="366" spans="1:7" ht="30">
       <c r="A366" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B366" s="39" t="s">
-        <v>617</v>
-      </c>
-      <c r="C366" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="D366" s="40"/>
-      <c r="E366" s="40"/>
-      <c r="F366" s="40"/>
-      <c r="G366" s="40"/>
-    </row>
-    <row r="367" spans="1:7" ht="120">
+        <v>621</v>
+      </c>
+      <c r="C366" s="43" t="s">
+        <v>553</v>
+      </c>
+      <c r="D366" s="39">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E366" s="39" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F366" s="39" t="s">
+        <v>1176</v>
+      </c>
+      <c r="G366" s="43"/>
+    </row>
+    <row r="367" spans="1:7">
       <c r="A367" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B367" s="39" t="s">
-        <v>618</v>
-      </c>
-      <c r="C367" s="43" t="s">
-        <v>549</v>
-      </c>
-      <c r="D367" s="39" t="s">
-        <v>1004</v>
-      </c>
-      <c r="E367" s="39" t="s">
-        <v>1206</v>
-      </c>
-      <c r="F367" s="39" t="s">
-        <v>1176</v>
-      </c>
-      <c r="G367" s="43" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="368" spans="1:7" ht="75">
+        <v>622</v>
+      </c>
+      <c r="C367" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D367" s="40"/>
+      <c r="E367" s="40"/>
+      <c r="F367" s="40"/>
+      <c r="G367" s="40"/>
+    </row>
+    <row r="368" spans="1:7">
       <c r="A368" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B368" s="39" t="s">
-        <v>619</v>
-      </c>
-      <c r="C368" s="43" t="s">
-        <v>620</v>
-      </c>
-      <c r="D368" s="39" t="s">
-        <v>999</v>
-      </c>
-      <c r="E368" s="39" t="s">
-        <v>1220</v>
-      </c>
-      <c r="F368" s="39" t="s">
-        <v>1176</v>
-      </c>
-      <c r="G368" s="43"/>
-    </row>
-    <row r="369" spans="1:7" ht="30">
+        <v>623</v>
+      </c>
+      <c r="C368" s="40" t="s">
+        <v>624</v>
+      </c>
+      <c r="D368" s="40"/>
+      <c r="E368" s="40"/>
+      <c r="F368" s="40"/>
+      <c r="G368" s="40"/>
+    </row>
+    <row r="369" spans="1:7">
       <c r="A369" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B369" s="39" t="s">
-        <v>621</v>
-      </c>
-      <c r="C369" s="43" t="s">
-        <v>553</v>
-      </c>
-      <c r="D369" s="39">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E369" s="39" t="s">
-        <v>1206</v>
-      </c>
+        <v>625</v>
+      </c>
+      <c r="C369" s="39" t="s">
+        <v>626</v>
+      </c>
+      <c r="D369" s="39" t="s">
+        <v>627</v>
+      </c>
+      <c r="E369" s="39"/>
       <c r="F369" s="39" t="s">
         <v>1176</v>
       </c>
-      <c r="G369" s="43"/>
-    </row>
-    <row r="370" spans="1:7">
+      <c r="G369" s="43" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" ht="30">
       <c r="A370" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B370" s="39" t="s">
-        <v>622</v>
-      </c>
-      <c r="C370" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="D370" s="40"/>
-      <c r="E370" s="40"/>
-      <c r="F370" s="40"/>
-      <c r="G370" s="40"/>
-    </row>
-    <row r="371" spans="1:7">
+        <v>628</v>
+      </c>
+      <c r="C370" s="43" t="s">
+        <v>629</v>
+      </c>
+      <c r="D370" s="39" t="s">
+        <v>630</v>
+      </c>
+      <c r="E370" s="39"/>
+      <c r="F370" s="39" t="s">
+        <v>1176</v>
+      </c>
+      <c r="G370" s="43"/>
+    </row>
+    <row r="371" spans="1:7" ht="45">
       <c r="A371" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B371" s="39" t="s">
-        <v>623</v>
-      </c>
-      <c r="C371" s="40" t="s">
-        <v>624</v>
-      </c>
-      <c r="D371" s="40"/>
-      <c r="E371" s="40"/>
-      <c r="F371" s="40"/>
-      <c r="G371" s="40"/>
-    </row>
-    <row r="372" spans="1:7">
+        <v>631</v>
+      </c>
+      <c r="C371" s="43" t="s">
+        <v>632</v>
+      </c>
+      <c r="D371" s="39" t="s">
+        <v>583</v>
+      </c>
+      <c r="E371" s="39"/>
+      <c r="F371" s="39" t="s">
+        <v>1176</v>
+      </c>
+      <c r="G371" s="43"/>
+    </row>
+    <row r="372" spans="1:7" ht="45">
       <c r="A372" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B372" s="39" t="s">
-        <v>625</v>
-      </c>
-      <c r="C372" s="39" t="s">
-        <v>626</v>
+        <v>633</v>
+      </c>
+      <c r="C372" s="43" t="s">
+        <v>634</v>
       </c>
       <c r="D372" s="39" t="s">
-        <v>627</v>
+        <v>595</v>
       </c>
       <c r="E372" s="39"/>
       <c r="F372" s="39" t="s">
         <v>1176</v>
       </c>
-      <c r="G372" s="43" t="s">
-        <v>1112</v>
-      </c>
+      <c r="G372" s="43"/>
     </row>
     <row r="373" spans="1:7" ht="30">
       <c r="A373" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B373" s="39" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="C373" s="43" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
       <c r="D373" s="39" t="s">
-        <v>630</v>
+        <v>598</v>
       </c>
       <c r="E373" s="39"/>
       <c r="F373" s="39" t="s">
@@ -15196,13 +15202,13 @@
         <v>56</v>
       </c>
       <c r="B374" s="39" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="C374" s="43" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="D374" s="39" t="s">
-        <v>583</v>
+        <v>566</v>
       </c>
       <c r="E374" s="39"/>
       <c r="F374" s="39" t="s">
@@ -15210,72 +15216,72 @@
       </c>
       <c r="G374" s="43"/>
     </row>
-    <row r="375" spans="1:7" ht="45">
+    <row r="375" spans="1:7">
       <c r="A375" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B375" s="39" t="s">
-        <v>633</v>
-      </c>
-      <c r="C375" s="43" t="s">
-        <v>634</v>
-      </c>
-      <c r="D375" s="39" t="s">
-        <v>595</v>
-      </c>
-      <c r="E375" s="39"/>
-      <c r="F375" s="39" t="s">
-        <v>1176</v>
-      </c>
-      <c r="G375" s="43"/>
-    </row>
-    <row r="376" spans="1:7" ht="30">
+        <v>639</v>
+      </c>
+      <c r="C375" s="40" t="s">
+        <v>600</v>
+      </c>
+      <c r="D375" s="40"/>
+      <c r="E375" s="40"/>
+      <c r="F375" s="40"/>
+      <c r="G375" s="40"/>
+    </row>
+    <row r="376" spans="1:7">
       <c r="A376" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B376" s="39" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="C376" s="43" t="s">
-        <v>636</v>
+        <v>602</v>
       </c>
       <c r="D376" s="39" t="s">
-        <v>598</v>
+        <v>577</v>
       </c>
       <c r="E376" s="39"/>
       <c r="F376" s="39" t="s">
         <v>1176</v>
       </c>
-      <c r="G376" s="43"/>
-    </row>
-    <row r="377" spans="1:7" ht="45">
+      <c r="G376" s="43" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7">
       <c r="A377" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B377" s="39" t="s">
-        <v>637</v>
-      </c>
-      <c r="C377" s="43" t="s">
-        <v>638</v>
+        <v>641</v>
+      </c>
+      <c r="C377" s="39" t="s">
+        <v>604</v>
       </c>
       <c r="D377" s="39" t="s">
-        <v>566</v>
-      </c>
-      <c r="E377" s="39"/>
+        <v>1065</v>
+      </c>
+      <c r="E377" s="39" t="s">
+        <v>1221</v>
+      </c>
       <c r="F377" s="39" t="s">
         <v>1176</v>
       </c>
-      <c r="G377" s="43"/>
+      <c r="G377" s="39"/>
     </row>
     <row r="378" spans="1:7">
       <c r="A378" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B378" s="39" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="C378" s="40" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="D378" s="40"/>
       <c r="E378" s="40"/>
@@ -15287,315 +15293,315 @@
         <v>56</v>
       </c>
       <c r="B379" s="39" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="C379" s="43" t="s">
-        <v>602</v>
+        <v>570</v>
       </c>
       <c r="D379" s="39" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="E379" s="39"/>
       <c r="F379" s="39" t="s">
         <v>1176</v>
       </c>
       <c r="G379" s="43" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="380" spans="1:7">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" ht="30">
       <c r="A380" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B380" s="39" t="s">
-        <v>641</v>
-      </c>
-      <c r="C380" s="39" t="s">
-        <v>604</v>
+        <v>644</v>
+      </c>
+      <c r="C380" s="43" t="s">
+        <v>645</v>
       </c>
       <c r="D380" s="39" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E380" s="39" t="s">
-        <v>1221</v>
-      </c>
+        <v>1070</v>
+      </c>
+      <c r="E380" s="46"/>
       <c r="F380" s="39" t="s">
         <v>1176</v>
       </c>
-      <c r="G380" s="39"/>
-    </row>
-    <row r="381" spans="1:7">
+      <c r="G380" s="43"/>
+    </row>
+    <row r="381" spans="1:7" ht="30">
       <c r="A381" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B381" s="39" t="s">
-        <v>642</v>
-      </c>
-      <c r="C381" s="40" t="s">
-        <v>606</v>
-      </c>
-      <c r="D381" s="40"/>
-      <c r="E381" s="40"/>
-      <c r="F381" s="40"/>
-      <c r="G381" s="40"/>
+        <v>646</v>
+      </c>
+      <c r="C381" s="43" t="s">
+        <v>611</v>
+      </c>
+      <c r="D381" s="39" t="s">
+        <v>577</v>
+      </c>
+      <c r="E381" s="39"/>
+      <c r="F381" s="39" t="s">
+        <v>1176</v>
+      </c>
+      <c r="G381" s="43"/>
     </row>
     <row r="382" spans="1:7">
       <c r="A382" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B382" s="39" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="C382" s="43" t="s">
-        <v>570</v>
+        <v>613</v>
       </c>
       <c r="D382" s="39" t="s">
-        <v>571</v>
+        <v>1068</v>
       </c>
       <c r="E382" s="39"/>
       <c r="F382" s="39" t="s">
         <v>1176</v>
       </c>
-      <c r="G382" s="43" t="s">
-        <v>1111</v>
-      </c>
+      <c r="G382" s="39"/>
     </row>
     <row r="383" spans="1:7" ht="30">
       <c r="A383" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B383" s="39" t="s">
-        <v>644</v>
-      </c>
-      <c r="C383" s="43" t="s">
-        <v>645</v>
+        <v>648</v>
+      </c>
+      <c r="C383" s="39" t="s">
+        <v>615</v>
       </c>
       <c r="D383" s="39" t="s">
-        <v>1070</v>
-      </c>
-      <c r="E383" s="46"/>
+        <v>1066</v>
+      </c>
+      <c r="E383" s="39" t="s">
+        <v>616</v>
+      </c>
       <c r="F383" s="39" t="s">
         <v>1176</v>
       </c>
-      <c r="G383" s="43"/>
-    </row>
-    <row r="384" spans="1:7" ht="30">
+      <c r="G383" s="39"/>
+    </row>
+    <row r="384" spans="1:7">
       <c r="A384" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B384" s="39" t="s">
-        <v>646</v>
-      </c>
-      <c r="C384" s="43" t="s">
-        <v>611</v>
-      </c>
-      <c r="D384" s="39" t="s">
-        <v>577</v>
-      </c>
-      <c r="E384" s="39"/>
-      <c r="F384" s="39" t="s">
-        <v>1176</v>
-      </c>
-      <c r="G384" s="43"/>
+      <c r="B384" s="39">
+        <v>11.3</v>
+      </c>
+      <c r="C384" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="D384" s="40"/>
+      <c r="E384" s="40"/>
+      <c r="F384" s="40"/>
+      <c r="G384" s="40"/>
     </row>
     <row r="385" spans="1:7">
       <c r="A385" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B385" s="39" t="s">
-        <v>647</v>
-      </c>
-      <c r="C385" s="43" t="s">
-        <v>613</v>
-      </c>
-      <c r="D385" s="39" t="s">
-        <v>1068</v>
-      </c>
-      <c r="E385" s="39"/>
-      <c r="F385" s="39" t="s">
-        <v>1176</v>
-      </c>
-      <c r="G385" s="39"/>
-    </row>
-    <row r="386" spans="1:7" ht="30">
+        <v>649</v>
+      </c>
+      <c r="C385" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="D385" s="40"/>
+      <c r="E385" s="40"/>
+      <c r="F385" s="40"/>
+      <c r="G385" s="40"/>
+    </row>
+    <row r="386" spans="1:7" ht="105">
       <c r="A386" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B386" s="39" t="s">
-        <v>648</v>
-      </c>
-      <c r="C386" s="39" t="s">
-        <v>615</v>
-      </c>
-      <c r="D386" s="39" t="s">
-        <v>1066</v>
+        <v>650</v>
+      </c>
+      <c r="C386" s="43" t="s">
+        <v>651</v>
+      </c>
+      <c r="D386" s="39">
+        <v>78.3</v>
       </c>
       <c r="E386" s="39" t="s">
-        <v>616</v>
+        <v>1206</v>
       </c>
       <c r="F386" s="39" t="s">
-        <v>1176</v>
-      </c>
-      <c r="G386" s="39"/>
-    </row>
-    <row r="387" spans="1:7">
+        <v>1179</v>
+      </c>
+      <c r="G386" s="43" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" ht="60">
       <c r="A387" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B387" s="39">
-        <v>11.3</v>
-      </c>
-      <c r="C387" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="D387" s="40"/>
-      <c r="E387" s="40"/>
-      <c r="F387" s="40"/>
-      <c r="G387" s="40"/>
-    </row>
-    <row r="388" spans="1:7">
+      <c r="B387" s="39" t="s">
+        <v>652</v>
+      </c>
+      <c r="C387" s="39" t="s">
+        <v>653</v>
+      </c>
+      <c r="D387" s="39" t="s">
+        <v>999</v>
+      </c>
+      <c r="E387" s="39" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F387" s="39" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G387" s="39"/>
+    </row>
+    <row r="388" spans="1:7" ht="30">
       <c r="A388" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B388" s="39" t="s">
-        <v>649</v>
-      </c>
-      <c r="C388" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="D388" s="40"/>
-      <c r="E388" s="40"/>
-      <c r="F388" s="40"/>
-      <c r="G388" s="40"/>
-    </row>
-    <row r="389" spans="1:7" ht="105">
+        <v>654</v>
+      </c>
+      <c r="C388" s="43" t="s">
+        <v>655</v>
+      </c>
+      <c r="D388" s="39">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E388" s="39" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F388" s="39" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G388" s="43"/>
+    </row>
+    <row r="389" spans="1:7">
       <c r="A389" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B389" s="39" t="s">
-        <v>650</v>
-      </c>
-      <c r="C389" s="43" t="s">
-        <v>651</v>
-      </c>
-      <c r="D389" s="39">
-        <v>78.3</v>
-      </c>
-      <c r="E389" s="39" t="s">
-        <v>1206</v>
-      </c>
-      <c r="F389" s="39" t="s">
-        <v>1179</v>
-      </c>
-      <c r="G389" s="43" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="390" spans="1:7" ht="60">
+        <v>656</v>
+      </c>
+      <c r="C389" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D389" s="40"/>
+      <c r="E389" s="40"/>
+      <c r="F389" s="40"/>
+      <c r="G389" s="40"/>
+    </row>
+    <row r="390" spans="1:7">
       <c r="A390" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B390" s="39" t="s">
-        <v>652</v>
-      </c>
-      <c r="C390" s="39" t="s">
-        <v>653</v>
-      </c>
-      <c r="D390" s="39" t="s">
-        <v>999</v>
-      </c>
-      <c r="E390" s="39" t="s">
-        <v>1222</v>
-      </c>
-      <c r="F390" s="39" t="s">
-        <v>1179</v>
-      </c>
-      <c r="G390" s="39"/>
-    </row>
-    <row r="391" spans="1:7" ht="30">
+        <v>657</v>
+      </c>
+      <c r="C390" s="40" t="s">
+        <v>624</v>
+      </c>
+      <c r="D390" s="40"/>
+      <c r="E390" s="40"/>
+      <c r="F390" s="40"/>
+      <c r="G390" s="40"/>
+    </row>
+    <row r="391" spans="1:7" ht="45">
       <c r="A391" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B391" s="39" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="C391" s="43" t="s">
-        <v>655</v>
-      </c>
-      <c r="D391" s="39">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E391" s="39" t="s">
-        <v>1206</v>
-      </c>
+        <v>659</v>
+      </c>
+      <c r="D391" s="39" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E391" s="39"/>
       <c r="F391" s="39" t="s">
         <v>1179</v>
       </c>
-      <c r="G391" s="43"/>
-    </row>
-    <row r="392" spans="1:7">
+      <c r="G391" s="43" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" ht="45">
       <c r="A392" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B392" s="39" t="s">
-        <v>656</v>
-      </c>
-      <c r="C392" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="D392" s="40"/>
-      <c r="E392" s="40"/>
-      <c r="F392" s="40"/>
-      <c r="G392" s="40"/>
+        <v>660</v>
+      </c>
+      <c r="C392" s="43" t="s">
+        <v>661</v>
+      </c>
+      <c r="D392" s="39" t="s">
+        <v>662</v>
+      </c>
+      <c r="E392" s="39"/>
+      <c r="F392" s="39" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G392" s="43"/>
     </row>
     <row r="393" spans="1:7">
       <c r="A393" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B393" s="39" t="s">
-        <v>657</v>
-      </c>
-      <c r="C393" s="40" t="s">
-        <v>624</v>
-      </c>
-      <c r="D393" s="40"/>
-      <c r="E393" s="40"/>
-      <c r="F393" s="40"/>
-      <c r="G393" s="40"/>
+        <v>663</v>
+      </c>
+      <c r="C393" s="43" t="s">
+        <v>664</v>
+      </c>
+      <c r="D393" s="39" t="s">
+        <v>560</v>
+      </c>
+      <c r="E393" s="39"/>
+      <c r="F393" s="39" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G393" s="43"/>
     </row>
     <row r="394" spans="1:7" ht="45">
       <c r="A394" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B394" s="39" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="C394" s="43" t="s">
-        <v>659</v>
+        <v>666</v>
       </c>
       <c r="D394" s="39" t="s">
-        <v>1037</v>
+        <v>583</v>
       </c>
       <c r="E394" s="39"/>
       <c r="F394" s="39" t="s">
         <v>1179</v>
       </c>
-      <c r="G394" s="43" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="395" spans="1:7" ht="45">
+      <c r="G394" s="43"/>
+    </row>
+    <row r="395" spans="1:7" ht="30">
       <c r="A395" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B395" s="39" t="s">
-        <v>660</v>
+        <v>667</v>
       </c>
       <c r="C395" s="43" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
       <c r="D395" s="39" t="s">
-        <v>662</v>
+        <v>598</v>
       </c>
       <c r="E395" s="39"/>
       <c r="F395" s="39" t="s">
@@ -15603,18 +15609,18 @@
       </c>
       <c r="G395" s="43"/>
     </row>
-    <row r="396" spans="1:7">
+    <row r="396" spans="1:7" ht="45">
       <c r="A396" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B396" s="39" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="C396" s="43" t="s">
-        <v>664</v>
+        <v>638</v>
       </c>
       <c r="D396" s="39" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="E396" s="39"/>
       <c r="F396" s="39" t="s">
@@ -15622,72 +15628,72 @@
       </c>
       <c r="G396" s="43"/>
     </row>
-    <row r="397" spans="1:7" ht="45">
+    <row r="397" spans="1:7">
       <c r="A397" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B397" s="39" t="s">
-        <v>665</v>
-      </c>
-      <c r="C397" s="43" t="s">
-        <v>666</v>
-      </c>
-      <c r="D397" s="39" t="s">
-        <v>583</v>
-      </c>
-      <c r="E397" s="39"/>
-      <c r="F397" s="39" t="s">
-        <v>1179</v>
-      </c>
-      <c r="G397" s="43"/>
-    </row>
-    <row r="398" spans="1:7" ht="30">
+        <v>670</v>
+      </c>
+      <c r="C397" s="40" t="s">
+        <v>600</v>
+      </c>
+      <c r="D397" s="40"/>
+      <c r="E397" s="40"/>
+      <c r="F397" s="40"/>
+      <c r="G397" s="40"/>
+    </row>
+    <row r="398" spans="1:7">
       <c r="A398" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B398" s="39" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="C398" s="43" t="s">
-        <v>668</v>
+        <v>602</v>
       </c>
       <c r="D398" s="39" t="s">
-        <v>598</v>
+        <v>577</v>
       </c>
       <c r="E398" s="39"/>
       <c r="F398" s="39" t="s">
         <v>1179</v>
       </c>
-      <c r="G398" s="43"/>
-    </row>
-    <row r="399" spans="1:7" ht="45">
+      <c r="G398" s="43" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7">
       <c r="A399" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B399" s="39" t="s">
-        <v>669</v>
-      </c>
-      <c r="C399" s="43" t="s">
-        <v>638</v>
+        <v>672</v>
+      </c>
+      <c r="C399" s="39" t="s">
+        <v>604</v>
       </c>
       <c r="D399" s="39" t="s">
-        <v>566</v>
-      </c>
-      <c r="E399" s="39"/>
+        <v>1065</v>
+      </c>
+      <c r="E399" s="39" t="s">
+        <v>1221</v>
+      </c>
       <c r="F399" s="39" t="s">
         <v>1179</v>
       </c>
-      <c r="G399" s="43"/>
+      <c r="G399" s="39"/>
     </row>
     <row r="400" spans="1:7">
       <c r="A400" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B400" s="39" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="C400" s="40" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="D400" s="40"/>
       <c r="E400" s="40"/>
@@ -15699,353 +15705,351 @@
         <v>56</v>
       </c>
       <c r="B401" s="39" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="C401" s="43" t="s">
-        <v>602</v>
+        <v>570</v>
       </c>
       <c r="D401" s="39" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="E401" s="39"/>
       <c r="F401" s="39" t="s">
         <v>1179</v>
       </c>
       <c r="G401" s="43" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="402" spans="1:7">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7" ht="30">
       <c r="A402" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B402" s="39" t="s">
-        <v>672</v>
-      </c>
-      <c r="C402" s="39" t="s">
-        <v>604</v>
+        <v>675</v>
+      </c>
+      <c r="C402" s="43" t="s">
+        <v>645</v>
       </c>
       <c r="D402" s="39" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E402" s="39" t="s">
-        <v>1221</v>
-      </c>
+        <v>1070</v>
+      </c>
+      <c r="E402" s="46"/>
       <c r="F402" s="39" t="s">
         <v>1179</v>
       </c>
-      <c r="G402" s="39"/>
-    </row>
-    <row r="403" spans="1:7">
+      <c r="G402" s="43"/>
+    </row>
+    <row r="403" spans="1:7" ht="30">
       <c r="A403" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B403" s="39" t="s">
-        <v>673</v>
-      </c>
-      <c r="C403" s="40" t="s">
-        <v>606</v>
-      </c>
-      <c r="D403" s="40"/>
-      <c r="E403" s="40"/>
-      <c r="F403" s="40"/>
-      <c r="G403" s="40"/>
+        <v>676</v>
+      </c>
+      <c r="C403" s="43" t="s">
+        <v>611</v>
+      </c>
+      <c r="D403" s="39" t="s">
+        <v>577</v>
+      </c>
+      <c r="E403" s="39"/>
+      <c r="F403" s="39" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G403" s="43"/>
     </row>
     <row r="404" spans="1:7">
       <c r="A404" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B404" s="39" t="s">
-        <v>674</v>
-      </c>
-      <c r="C404" s="43" t="s">
-        <v>570</v>
+        <v>677</v>
+      </c>
+      <c r="C404" s="39" t="s">
+        <v>613</v>
       </c>
       <c r="D404" s="39" t="s">
-        <v>571</v>
+        <v>1068</v>
       </c>
       <c r="E404" s="39"/>
       <c r="F404" s="39" t="s">
         <v>1179</v>
       </c>
-      <c r="G404" s="43" t="s">
-        <v>1111</v>
-      </c>
+      <c r="G404" s="39"/>
     </row>
     <row r="405" spans="1:7" ht="30">
       <c r="A405" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B405" s="39" t="s">
-        <v>675</v>
-      </c>
-      <c r="C405" s="43" t="s">
-        <v>645</v>
+        <v>678</v>
+      </c>
+      <c r="C405" s="39" t="s">
+        <v>615</v>
       </c>
       <c r="D405" s="39" t="s">
-        <v>1070</v>
-      </c>
-      <c r="E405" s="46"/>
+        <v>1066</v>
+      </c>
+      <c r="E405" s="39" t="s">
+        <v>616</v>
+      </c>
       <c r="F405" s="39" t="s">
         <v>1179</v>
       </c>
-      <c r="G405" s="43"/>
-    </row>
-    <row r="406" spans="1:7" ht="30">
+      <c r="G405" s="39"/>
+    </row>
+    <row r="406" spans="1:7">
       <c r="A406" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B406" s="39" t="s">
-        <v>676</v>
-      </c>
-      <c r="C406" s="43" t="s">
-        <v>611</v>
-      </c>
-      <c r="D406" s="39" t="s">
-        <v>577</v>
-      </c>
-      <c r="E406" s="39"/>
-      <c r="F406" s="39" t="s">
-        <v>1179</v>
-      </c>
-      <c r="G406" s="43"/>
+      <c r="B406" s="39">
+        <v>11.4</v>
+      </c>
+      <c r="C406" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="D406" s="40"/>
+      <c r="E406" s="40"/>
+      <c r="F406" s="40"/>
+      <c r="G406" s="40"/>
     </row>
     <row r="407" spans="1:7">
       <c r="A407" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B407" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="C407" s="39" t="s">
-        <v>613</v>
-      </c>
-      <c r="D407" s="39" t="s">
-        <v>1068</v>
-      </c>
-      <c r="E407" s="39"/>
-      <c r="F407" s="39" t="s">
-        <v>1179</v>
-      </c>
-      <c r="G407" s="39"/>
-    </row>
-    <row r="408" spans="1:7" ht="30">
+        <v>679</v>
+      </c>
+      <c r="C407" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="D407" s="40"/>
+      <c r="E407" s="40"/>
+      <c r="F407" s="40"/>
+      <c r="G407" s="40"/>
+    </row>
+    <row r="408" spans="1:7" ht="105">
       <c r="A408" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B408" s="39" t="s">
-        <v>678</v>
-      </c>
-      <c r="C408" s="39" t="s">
-        <v>615</v>
-      </c>
-      <c r="D408" s="39" t="s">
-        <v>1066</v>
-      </c>
-      <c r="E408" s="39" t="s">
-        <v>616</v>
+        <v>680</v>
+      </c>
+      <c r="C408" s="43" t="s">
+        <v>651</v>
+      </c>
+      <c r="D408" s="39">
+        <v>78.3</v>
+      </c>
+      <c r="E408" s="6" t="s">
+        <v>1223</v>
       </c>
       <c r="F408" s="39" t="s">
-        <v>1179</v>
-      </c>
-      <c r="G408" s="39"/>
-    </row>
-    <row r="409" spans="1:7">
+        <v>1182</v>
+      </c>
+      <c r="G408" s="43" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7" ht="90">
       <c r="A409" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B409" s="39">
-        <v>11.4</v>
-      </c>
-      <c r="C409" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="D409" s="40"/>
-      <c r="E409" s="40"/>
-      <c r="F409" s="40"/>
-      <c r="G409" s="40"/>
-    </row>
-    <row r="410" spans="1:7">
+      <c r="B409" s="39" t="s">
+        <v>681</v>
+      </c>
+      <c r="C409" s="43" t="s">
+        <v>682</v>
+      </c>
+      <c r="D409" s="39">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E409" s="39" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F409" s="39" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G409" s="43"/>
+    </row>
+    <row r="410" spans="1:7" ht="30">
       <c r="A410" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B410" s="39" t="s">
-        <v>679</v>
-      </c>
-      <c r="C410" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="D410" s="40"/>
-      <c r="E410" s="40"/>
-      <c r="F410" s="40"/>
-      <c r="G410" s="40"/>
-    </row>
-    <row r="411" spans="1:7" ht="105">
+        <v>683</v>
+      </c>
+      <c r="C410" s="43" t="s">
+        <v>655</v>
+      </c>
+      <c r="D410" s="39">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E410" s="39" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F410" s="39" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G410" s="43"/>
+    </row>
+    <row r="411" spans="1:7">
       <c r="A411" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B411" s="39" t="s">
-        <v>680</v>
-      </c>
-      <c r="C411" s="43" t="s">
-        <v>651</v>
-      </c>
-      <c r="D411" s="39">
-        <v>78.3</v>
-      </c>
-      <c r="E411" s="6" t="s">
-        <v>1223</v>
-      </c>
-      <c r="F411" s="39" t="s">
-        <v>1182</v>
-      </c>
-      <c r="G411" s="43" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="412" spans="1:7" ht="90">
+        <v>684</v>
+      </c>
+      <c r="C411" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D411" s="40"/>
+      <c r="E411" s="40"/>
+      <c r="F411" s="40"/>
+      <c r="G411" s="40"/>
+    </row>
+    <row r="412" spans="1:7">
       <c r="A412" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B412" s="39" t="s">
-        <v>681</v>
-      </c>
-      <c r="C412" s="43" t="s">
-        <v>682</v>
-      </c>
-      <c r="D412" s="39">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E412" s="39" t="s">
-        <v>1224</v>
-      </c>
-      <c r="F412" s="39" t="s">
-        <v>1182</v>
-      </c>
-      <c r="G412" s="43"/>
-    </row>
-    <row r="413" spans="1:7" ht="30">
+        <v>685</v>
+      </c>
+      <c r="C412" s="40" t="s">
+        <v>624</v>
+      </c>
+      <c r="D412" s="40"/>
+      <c r="E412" s="40"/>
+      <c r="F412" s="40"/>
+      <c r="G412" s="40"/>
+    </row>
+    <row r="413" spans="1:7">
       <c r="A413" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B413" s="39" t="s">
-        <v>683</v>
-      </c>
-      <c r="C413" s="43" t="s">
-        <v>655</v>
-      </c>
-      <c r="D413" s="39">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E413" s="39" t="s">
-        <v>1206</v>
-      </c>
+        <v>686</v>
+      </c>
+      <c r="C413" s="39" t="s">
+        <v>626</v>
+      </c>
+      <c r="D413" s="39" t="s">
+        <v>627</v>
+      </c>
+      <c r="E413" s="39"/>
       <c r="F413" s="39" t="s">
         <v>1182</v>
       </c>
-      <c r="G413" s="43"/>
+      <c r="G413" s="39" t="s">
+        <v>1114</v>
+      </c>
     </row>
     <row r="414" spans="1:7">
       <c r="A414" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B414" s="39" t="s">
-        <v>684</v>
-      </c>
-      <c r="C414" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="D414" s="40"/>
-      <c r="E414" s="40"/>
-      <c r="F414" s="40"/>
-      <c r="G414" s="40"/>
+        <v>687</v>
+      </c>
+      <c r="C414" s="43" t="s">
+        <v>688</v>
+      </c>
+      <c r="D414" s="39" t="s">
+        <v>557</v>
+      </c>
+      <c r="E414" s="39"/>
+      <c r="F414" s="39" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G414" s="43"/>
     </row>
     <row r="415" spans="1:7">
       <c r="A415" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B415" s="39" t="s">
-        <v>685</v>
-      </c>
-      <c r="C415" s="40" t="s">
-        <v>624</v>
-      </c>
-      <c r="D415" s="40"/>
-      <c r="E415" s="40"/>
-      <c r="F415" s="40"/>
-      <c r="G415" s="40"/>
-    </row>
-    <row r="416" spans="1:7">
+        <v>689</v>
+      </c>
+      <c r="C415" s="43" t="s">
+        <v>690</v>
+      </c>
+      <c r="D415" s="39" t="s">
+        <v>560</v>
+      </c>
+      <c r="E415" s="39"/>
+      <c r="F415" s="39" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G415" s="43"/>
+    </row>
+    <row r="416" spans="1:7" ht="30">
       <c r="A416" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B416" s="39" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="C416" s="39" t="s">
-        <v>626</v>
+        <v>692</v>
       </c>
       <c r="D416" s="39" t="s">
-        <v>627</v>
+        <v>566</v>
       </c>
       <c r="E416" s="39"/>
       <c r="F416" s="39" t="s">
         <v>1182</v>
       </c>
-      <c r="G416" s="39" t="s">
-        <v>1114</v>
-      </c>
+      <c r="G416" s="39"/>
     </row>
     <row r="417" spans="1:7">
       <c r="A417" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B417" s="39" t="s">
-        <v>687</v>
-      </c>
-      <c r="C417" s="43" t="s">
-        <v>688</v>
-      </c>
-      <c r="D417" s="39" t="s">
-        <v>557</v>
-      </c>
-      <c r="E417" s="39"/>
-      <c r="F417" s="39" t="s">
-        <v>1182</v>
-      </c>
-      <c r="G417" s="43"/>
-    </row>
-    <row r="418" spans="1:7">
+        <v>693</v>
+      </c>
+      <c r="C417" s="40" t="s">
+        <v>694</v>
+      </c>
+      <c r="D417" s="40"/>
+      <c r="E417" s="40"/>
+      <c r="F417" s="40"/>
+      <c r="G417" s="40"/>
+    </row>
+    <row r="418" spans="1:7" ht="30">
       <c r="A418" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B418" s="39" t="s">
-        <v>689</v>
-      </c>
-      <c r="C418" s="43" t="s">
-        <v>690</v>
+        <v>695</v>
+      </c>
+      <c r="C418" s="39" t="s">
+        <v>1289</v>
       </c>
       <c r="D418" s="39" t="s">
-        <v>560</v>
+        <v>697</v>
       </c>
       <c r="E418" s="39"/>
       <c r="F418" s="39" t="s">
         <v>1182</v>
       </c>
-      <c r="G418" s="43"/>
+      <c r="G418" s="39" t="s">
+        <v>1115</v>
+      </c>
     </row>
     <row r="419" spans="1:7" ht="30">
       <c r="A419" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B419" s="39" t="s">
-        <v>691</v>
+        <v>698</v>
       </c>
       <c r="C419" s="39" t="s">
-        <v>692</v>
+        <v>1290</v>
       </c>
       <c r="D419" s="39" t="s">
-        <v>566</v>
+        <v>700</v>
       </c>
       <c r="E419" s="39"/>
       <c r="F419" s="39" t="s">
@@ -16053,128 +16057,130 @@
       </c>
       <c r="G419" s="39"/>
     </row>
-    <row r="420" spans="1:7">
+    <row r="420" spans="1:7" ht="30">
       <c r="A420" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B420" s="39" t="s">
-        <v>693</v>
-      </c>
-      <c r="C420" s="40" t="s">
-        <v>694</v>
-      </c>
-      <c r="D420" s="40"/>
-      <c r="E420" s="40"/>
-      <c r="F420" s="40"/>
-      <c r="G420" s="40"/>
-    </row>
-    <row r="421" spans="1:7" ht="30">
+        <v>701</v>
+      </c>
+      <c r="C420" s="39" t="s">
+        <v>702</v>
+      </c>
+      <c r="D420" s="39" t="s">
+        <v>700</v>
+      </c>
+      <c r="E420" s="39"/>
+      <c r="F420" s="39" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G420" s="39"/>
+    </row>
+    <row r="421" spans="1:7">
       <c r="A421" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B421" s="39" t="s">
-        <v>695</v>
-      </c>
-      <c r="C421" s="39" t="s">
-        <v>1289</v>
-      </c>
-      <c r="D421" s="39" t="s">
-        <v>697</v>
-      </c>
-      <c r="E421" s="39"/>
-      <c r="F421" s="39" t="s">
-        <v>1182</v>
-      </c>
-      <c r="G421" s="39" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="422" spans="1:7" ht="30">
+        <v>703</v>
+      </c>
+      <c r="C421" s="40" t="s">
+        <v>606</v>
+      </c>
+      <c r="D421" s="40"/>
+      <c r="E421" s="40"/>
+      <c r="F421" s="40"/>
+      <c r="G421" s="40"/>
+    </row>
+    <row r="422" spans="1:7">
       <c r="A422" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B422" s="39" t="s">
-        <v>698</v>
-      </c>
-      <c r="C422" s="39" t="s">
-        <v>1290</v>
+        <v>704</v>
+      </c>
+      <c r="C422" s="43" t="s">
+        <v>570</v>
       </c>
       <c r="D422" s="39" t="s">
-        <v>700</v>
+        <v>571</v>
       </c>
       <c r="E422" s="39"/>
       <c r="F422" s="39" t="s">
         <v>1182</v>
       </c>
-      <c r="G422" s="39"/>
-    </row>
-    <row r="423" spans="1:7" ht="30">
+      <c r="G422" s="43" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7">
       <c r="A423" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B423" s="39" t="s">
-        <v>701</v>
-      </c>
-      <c r="C423" s="39" t="s">
-        <v>702</v>
+        <v>705</v>
+      </c>
+      <c r="C423" s="43" t="s">
+        <v>706</v>
       </c>
       <c r="D423" s="39" t="s">
-        <v>700</v>
+        <v>574</v>
       </c>
       <c r="E423" s="39"/>
       <c r="F423" s="39" t="s">
         <v>1182</v>
       </c>
-      <c r="G423" s="39"/>
-    </row>
-    <row r="424" spans="1:7">
+      <c r="G423" s="43"/>
+    </row>
+    <row r="424" spans="1:7" ht="30">
       <c r="A424" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B424" s="39" t="s">
-        <v>703</v>
-      </c>
-      <c r="C424" s="40" t="s">
-        <v>606</v>
-      </c>
-      <c r="D424" s="40"/>
-      <c r="E424" s="40"/>
-      <c r="F424" s="40"/>
-      <c r="G424" s="40"/>
+        <v>707</v>
+      </c>
+      <c r="C424" s="43" t="s">
+        <v>611</v>
+      </c>
+      <c r="D424" s="39" t="s">
+        <v>577</v>
+      </c>
+      <c r="E424" s="39"/>
+      <c r="F424" s="39" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G424" s="43"/>
     </row>
     <row r="425" spans="1:7">
       <c r="A425" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B425" s="39" t="s">
-        <v>704</v>
-      </c>
-      <c r="C425" s="43" t="s">
-        <v>570</v>
+        <v>708</v>
+      </c>
+      <c r="C425" s="39" t="s">
+        <v>613</v>
       </c>
       <c r="D425" s="39" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="E425" s="39"/>
       <c r="F425" s="39" t="s">
         <v>1182</v>
       </c>
-      <c r="G425" s="43" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="426" spans="1:7">
+      <c r="G425" s="39"/>
+    </row>
+    <row r="426" spans="1:7" ht="45">
       <c r="A426" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B426" s="39" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="C426" s="43" t="s">
-        <v>706</v>
+        <v>666</v>
       </c>
       <c r="D426" s="39" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="E426" s="39"/>
       <c r="F426" s="39" t="s">
@@ -16182,56 +16188,56 @@
       </c>
       <c r="G426" s="43"/>
     </row>
-    <row r="427" spans="1:7" ht="30">
+    <row r="427" spans="1:7">
       <c r="A427" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B427" s="39" t="s">
-        <v>707</v>
-      </c>
-      <c r="C427" s="43" t="s">
-        <v>611</v>
-      </c>
-      <c r="D427" s="39" t="s">
-        <v>577</v>
-      </c>
-      <c r="E427" s="39"/>
+        <v>711</v>
+      </c>
+      <c r="C427" s="40" t="s">
+        <v>585</v>
+      </c>
+      <c r="D427" s="40"/>
+      <c r="E427" s="40"/>
       <c r="F427" s="39" t="s">
         <v>1182</v>
       </c>
-      <c r="G427" s="43"/>
-    </row>
-    <row r="428" spans="1:7">
+      <c r="G427" s="40"/>
+    </row>
+    <row r="428" spans="1:7" ht="90">
       <c r="A428" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B428" s="39" t="s">
-        <v>708</v>
-      </c>
-      <c r="C428" s="39" t="s">
-        <v>613</v>
+        <v>712</v>
+      </c>
+      <c r="C428" s="43" t="s">
+        <v>588</v>
       </c>
       <c r="D428" s="39" t="s">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="E428" s="39"/>
       <c r="F428" s="39" t="s">
         <v>1182</v>
       </c>
-      <c r="G428" s="39"/>
-    </row>
-    <row r="429" spans="1:7" ht="45">
+      <c r="G428" s="43" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7" ht="60">
       <c r="A429" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B429" s="39" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="C429" s="43" t="s">
-        <v>666</v>
+        <v>590</v>
       </c>
       <c r="D429" s="39" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="E429" s="39"/>
       <c r="F429" s="39" t="s">
@@ -16239,112 +16245,114 @@
       </c>
       <c r="G429" s="43"/>
     </row>
-    <row r="430" spans="1:7">
+    <row r="430" spans="1:7" ht="30">
       <c r="A430" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B430" s="39" t="s">
-        <v>711</v>
-      </c>
-      <c r="C430" s="40" t="s">
-        <v>585</v>
-      </c>
-      <c r="D430" s="40"/>
-      <c r="E430" s="40"/>
+        <v>714</v>
+      </c>
+      <c r="C430" s="43" t="s">
+        <v>715</v>
+      </c>
+      <c r="D430" s="39" t="s">
+        <v>586</v>
+      </c>
+      <c r="E430" s="39"/>
       <c r="F430" s="39" t="s">
         <v>1182</v>
       </c>
-      <c r="G430" s="40"/>
-    </row>
-    <row r="431" spans="1:7" ht="90">
+      <c r="G430" s="43" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7" ht="30">
       <c r="A431" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B431" s="39" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="C431" s="43" t="s">
-        <v>588</v>
+        <v>668</v>
       </c>
       <c r="D431" s="39" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="E431" s="39"/>
       <c r="F431" s="39" t="s">
         <v>1182</v>
       </c>
-      <c r="G431" s="43" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="432" spans="1:7" ht="60">
+      <c r="G431" s="43"/>
+    </row>
+    <row r="432" spans="1:7">
       <c r="A432" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B432" s="39" t="s">
-        <v>713</v>
-      </c>
-      <c r="C432" s="43" t="s">
-        <v>590</v>
-      </c>
-      <c r="D432" s="39" t="s">
-        <v>586</v>
-      </c>
-      <c r="E432" s="39"/>
+        <v>717</v>
+      </c>
+      <c r="C432" s="40" t="s">
+        <v>600</v>
+      </c>
+      <c r="D432" s="40"/>
+      <c r="E432" s="40"/>
       <c r="F432" s="39" t="s">
         <v>1182</v>
       </c>
-      <c r="G432" s="43"/>
-    </row>
-    <row r="433" spans="1:7" ht="30">
+      <c r="G432" s="40"/>
+    </row>
+    <row r="433" spans="1:7">
       <c r="A433" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B433" s="39" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="C433" s="43" t="s">
-        <v>715</v>
+        <v>602</v>
       </c>
       <c r="D433" s="39" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="E433" s="39"/>
       <c r="F433" s="39" t="s">
         <v>1182</v>
       </c>
       <c r="G433" s="43" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="434" spans="1:7" ht="30">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7">
       <c r="A434" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B434" s="39" t="s">
-        <v>716</v>
-      </c>
-      <c r="C434" s="43" t="s">
-        <v>668</v>
+        <v>719</v>
+      </c>
+      <c r="C434" s="39" t="s">
+        <v>604</v>
       </c>
       <c r="D434" s="39" t="s">
-        <v>598</v>
-      </c>
-      <c r="E434" s="39"/>
+        <v>1065</v>
+      </c>
+      <c r="E434" s="39" t="s">
+        <v>1221</v>
+      </c>
       <c r="F434" s="39" t="s">
         <v>1182</v>
       </c>
-      <c r="G434" s="43"/>
+      <c r="G434" s="39"/>
     </row>
     <row r="435" spans="1:7">
       <c r="A435" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B435" s="39" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="C435" s="40" t="s">
-        <v>600</v>
+        <v>1075</v>
       </c>
       <c r="D435" s="40"/>
       <c r="E435" s="40"/>
@@ -16353,131 +16361,127 @@
       </c>
       <c r="G435" s="40"/>
     </row>
-    <row r="436" spans="1:7">
+    <row r="436" spans="1:7" ht="30">
       <c r="A436" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B436" s="39" t="s">
-        <v>718</v>
-      </c>
-      <c r="C436" s="43" t="s">
-        <v>602</v>
+        <v>725</v>
+      </c>
+      <c r="C436" s="39" t="s">
+        <v>615</v>
       </c>
       <c r="D436" s="39" t="s">
-        <v>577</v>
-      </c>
-      <c r="E436" s="39"/>
+        <v>1066</v>
+      </c>
+      <c r="E436" s="39" t="s">
+        <v>616</v>
+      </c>
       <c r="F436" s="39" t="s">
         <v>1182</v>
       </c>
-      <c r="G436" s="43" t="s">
-        <v>1110</v>
-      </c>
+      <c r="G436" s="39"/>
     </row>
     <row r="437" spans="1:7">
       <c r="A437" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B437" s="39" t="s">
-        <v>719</v>
-      </c>
-      <c r="C437" s="39" t="s">
-        <v>604</v>
-      </c>
-      <c r="D437" s="39" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E437" s="39" t="s">
-        <v>1221</v>
-      </c>
+      <c r="B437" s="39">
+        <v>11.5</v>
+      </c>
+      <c r="C437" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="D437" s="40"/>
+      <c r="E437" s="40"/>
       <c r="F437" s="39" t="s">
         <v>1182</v>
       </c>
-      <c r="G437" s="39"/>
+      <c r="G437" s="38"/>
     </row>
     <row r="438" spans="1:7">
       <c r="A438" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B438" s="39" t="s">
-        <v>720</v>
-      </c>
-      <c r="C438" s="40" t="s">
-        <v>1075</v>
-      </c>
-      <c r="D438" s="40"/>
-      <c r="E438" s="40"/>
+        <v>726</v>
+      </c>
+      <c r="C438" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D438" s="39"/>
+      <c r="E438" s="43" t="s">
+        <v>268</v>
+      </c>
       <c r="F438" s="39" t="s">
         <v>1182</v>
       </c>
-      <c r="G438" s="40"/>
-    </row>
-    <row r="439" spans="1:7" ht="30">
+      <c r="G438" s="43"/>
+    </row>
+    <row r="439" spans="1:7">
       <c r="A439" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B439" s="39" t="s">
-        <v>725</v>
-      </c>
-      <c r="C439" s="39" t="s">
-        <v>615</v>
-      </c>
-      <c r="D439" s="39" t="s">
-        <v>1066</v>
-      </c>
-      <c r="E439" s="39" t="s">
-        <v>616</v>
+        <v>727</v>
+      </c>
+      <c r="C439" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D439" s="39"/>
+      <c r="E439" s="43" t="s">
+        <v>268</v>
       </c>
       <c r="F439" s="39" t="s">
         <v>1182</v>
       </c>
-      <c r="G439" s="39"/>
+      <c r="G439" s="43"/>
     </row>
     <row r="440" spans="1:7">
       <c r="A440" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B440" s="39">
-        <v>11.5</v>
-      </c>
-      <c r="C440" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="D440" s="40"/>
-      <c r="E440" s="40"/>
+      <c r="B440" s="39" t="s">
+        <v>728</v>
+      </c>
+      <c r="C440" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="D440" s="39"/>
+      <c r="E440" s="43" t="s">
+        <v>268</v>
+      </c>
       <c r="F440" s="39" t="s">
         <v>1182</v>
       </c>
-      <c r="G440" s="38"/>
+      <c r="G440" s="43"/>
     </row>
     <row r="441" spans="1:7">
       <c r="A441" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B441" s="39" t="s">
-        <v>726</v>
-      </c>
-      <c r="C441" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="D441" s="39"/>
-      <c r="E441" s="43" t="s">
-        <v>268</v>
-      </c>
+      <c r="B441" s="39">
+        <v>11.6</v>
+      </c>
+      <c r="C441" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D441" s="40"/>
+      <c r="E441" s="38"/>
       <c r="F441" s="39" t="s">
         <v>1182</v>
       </c>
-      <c r="G441" s="43"/>
+      <c r="G441" s="38"/>
     </row>
     <row r="442" spans="1:7">
       <c r="A442" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B442" s="39" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="C442" s="43" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D442" s="39"/>
       <c r="E442" s="43" t="s">
@@ -16493,10 +16497,10 @@
         <v>56</v>
       </c>
       <c r="B443" s="39" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="C443" s="43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D443" s="39"/>
       <c r="E443" s="43" t="s">
@@ -16512,16 +16516,14 @@
         <v>56</v>
       </c>
       <c r="B444" s="39">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="C444" s="38" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D444" s="40"/>
-      <c r="E444" s="38"/>
-      <c r="F444" s="39" t="s">
-        <v>1182</v>
-      </c>
+      <c r="E444" s="40"/>
+      <c r="F444" s="40"/>
       <c r="G444" s="38"/>
     </row>
     <row r="445" spans="1:7">
@@ -16529,210 +16531,212 @@
         <v>56</v>
       </c>
       <c r="B445" s="39" t="s">
-        <v>729</v>
-      </c>
-      <c r="C445" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="D445" s="39"/>
-      <c r="E445" s="43" t="s">
-        <v>268</v>
-      </c>
-      <c r="F445" s="39" t="s">
-        <v>1182</v>
-      </c>
-      <c r="G445" s="43"/>
-    </row>
-    <row r="446" spans="1:7">
+        <v>731</v>
+      </c>
+      <c r="C445" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="D445" s="40"/>
+      <c r="E445" s="40"/>
+      <c r="F445" s="40"/>
+      <c r="G445" s="40"/>
+    </row>
+    <row r="446" spans="1:7" ht="105">
       <c r="A446" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B446" s="39" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="C446" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="D446" s="39"/>
-      <c r="E446" s="43" t="s">
-        <v>268</v>
-      </c>
+        <v>651</v>
+      </c>
+      <c r="D446" s="39">
+        <v>78.3</v>
+      </c>
+      <c r="E446" s="39"/>
       <c r="F446" s="39" t="s">
-        <v>1182</v>
-      </c>
-      <c r="G446" s="43"/>
-    </row>
-    <row r="447" spans="1:7">
+        <v>1126</v>
+      </c>
+      <c r="G446" s="43" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7" ht="30">
       <c r="A447" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B447" s="39">
-        <v>11.7</v>
-      </c>
-      <c r="C447" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="D447" s="40"/>
-      <c r="E447" s="40"/>
-      <c r="F447" s="40"/>
-      <c r="G447" s="38"/>
-    </row>
-    <row r="448" spans="1:7">
+      <c r="B447" s="39" t="s">
+        <v>733</v>
+      </c>
+      <c r="C447" s="43" t="s">
+        <v>682</v>
+      </c>
+      <c r="D447" s="39">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E447" s="39"/>
+      <c r="F447" s="39" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G447" s="43"/>
+    </row>
+    <row r="448" spans="1:7" ht="30">
       <c r="A448" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B448" s="39" t="s">
-        <v>731</v>
-      </c>
-      <c r="C448" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="D448" s="40"/>
-      <c r="E448" s="40"/>
-      <c r="F448" s="40"/>
-      <c r="G448" s="40"/>
-    </row>
-    <row r="449" spans="1:7" ht="105">
+        <v>734</v>
+      </c>
+      <c r="C448" s="43" t="s">
+        <v>655</v>
+      </c>
+      <c r="D448" s="39">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E448" s="39"/>
+      <c r="F448" s="39" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G448" s="43"/>
+    </row>
+    <row r="449" spans="1:7">
       <c r="A449" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B449" s="39" t="s">
-        <v>732</v>
-      </c>
-      <c r="C449" s="43" t="s">
-        <v>651</v>
-      </c>
-      <c r="D449" s="39">
-        <v>78.3</v>
-      </c>
-      <c r="E449" s="39"/>
-      <c r="F449" s="39" t="s">
-        <v>1126</v>
-      </c>
-      <c r="G449" s="43" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="450" spans="1:7" ht="30">
+        <v>735</v>
+      </c>
+      <c r="C449" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D449" s="40"/>
+      <c r="E449" s="40"/>
+      <c r="F449" s="40"/>
+      <c r="G449" s="40"/>
+    </row>
+    <row r="450" spans="1:7">
       <c r="A450" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B450" s="39" t="s">
-        <v>733</v>
-      </c>
-      <c r="C450" s="43" t="s">
-        <v>682</v>
-      </c>
-      <c r="D450" s="39">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E450" s="39"/>
-      <c r="F450" s="39" t="s">
-        <v>1126</v>
-      </c>
-      <c r="G450" s="43"/>
+        <v>736</v>
+      </c>
+      <c r="C450" s="40" t="s">
+        <v>624</v>
+      </c>
+      <c r="D450" s="40"/>
+      <c r="E450" s="40"/>
+      <c r="F450" s="40"/>
+      <c r="G450" s="40"/>
     </row>
     <row r="451" spans="1:7" ht="30">
       <c r="A451" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B451" s="39" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="C451" s="43" t="s">
-        <v>655</v>
-      </c>
-      <c r="D451" s="39">
-        <v>78.099999999999994</v>
+        <v>738</v>
+      </c>
+      <c r="D451" s="39" t="s">
+        <v>557</v>
       </c>
       <c r="E451" s="39"/>
       <c r="F451" s="39" t="s">
         <v>1126</v>
       </c>
-      <c r="G451" s="43"/>
+      <c r="G451" s="43" t="s">
+        <v>1118</v>
+      </c>
     </row>
     <row r="452" spans="1:7">
       <c r="A452" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B452" s="39" t="s">
-        <v>735</v>
-      </c>
-      <c r="C452" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="D452" s="40"/>
-      <c r="E452" s="40"/>
-      <c r="F452" s="40"/>
-      <c r="G452" s="40"/>
-    </row>
-    <row r="453" spans="1:7">
+        <v>739</v>
+      </c>
+      <c r="C452" s="43" t="s">
+        <v>690</v>
+      </c>
+      <c r="D452" s="39" t="s">
+        <v>560</v>
+      </c>
+      <c r="E452" s="39"/>
+      <c r="F452" s="39" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G452" s="43"/>
+    </row>
+    <row r="453" spans="1:7" ht="30">
       <c r="A453" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B453" s="39" t="s">
-        <v>736</v>
-      </c>
-      <c r="C453" s="40" t="s">
-        <v>624</v>
-      </c>
-      <c r="D453" s="40"/>
-      <c r="E453" s="40"/>
-      <c r="F453" s="40"/>
-      <c r="G453" s="40"/>
-    </row>
-    <row r="454" spans="1:7" ht="30">
+        <v>740</v>
+      </c>
+      <c r="C453" s="39" t="s">
+        <v>741</v>
+      </c>
+      <c r="D453" s="39" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E453" s="39"/>
+      <c r="F453" s="39" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G453" s="39"/>
+    </row>
+    <row r="454" spans="1:7" ht="45">
       <c r="A454" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B454" s="39" t="s">
-        <v>737</v>
-      </c>
-      <c r="C454" s="43" t="s">
-        <v>738</v>
+        <v>742</v>
+      </c>
+      <c r="C454" s="39" t="s">
+        <v>743</v>
       </c>
       <c r="D454" s="39" t="s">
-        <v>557</v>
+        <v>598</v>
       </c>
       <c r="E454" s="39"/>
       <c r="F454" s="39" t="s">
         <v>1126</v>
       </c>
-      <c r="G454" s="43" t="s">
-        <v>1118</v>
-      </c>
+      <c r="G454" s="39"/>
     </row>
     <row r="455" spans="1:7">
       <c r="A455" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B455" s="39" t="s">
-        <v>739</v>
-      </c>
-      <c r="C455" s="43" t="s">
-        <v>690</v>
-      </c>
-      <c r="D455" s="39" t="s">
-        <v>560</v>
-      </c>
+        <v>744</v>
+      </c>
+      <c r="C455" s="39" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D455" s="39"/>
       <c r="E455" s="39"/>
       <c r="F455" s="39" t="s">
         <v>1126</v>
       </c>
-      <c r="G455" s="43"/>
-    </row>
-    <row r="456" spans="1:7" ht="30">
+      <c r="G455" s="39"/>
+    </row>
+    <row r="456" spans="1:7" ht="60">
       <c r="A456" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B456" s="39" t="s">
-        <v>740</v>
+        <v>1083</v>
       </c>
       <c r="C456" s="39" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="D456" s="39" t="s">
-        <v>1067</v>
+        <v>566</v>
       </c>
       <c r="E456" s="39"/>
       <c r="F456" s="39" t="s">
@@ -16740,18 +16744,18 @@
       </c>
       <c r="G456" s="39"/>
     </row>
-    <row r="457" spans="1:7" ht="45">
+    <row r="457" spans="1:7" ht="30">
       <c r="A457" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B457" s="39" t="s">
-        <v>742</v>
+        <v>1084</v>
       </c>
       <c r="C457" s="39" t="s">
-        <v>743</v>
+        <v>1081</v>
       </c>
       <c r="D457" s="39" t="s">
-        <v>598</v>
+        <v>700</v>
       </c>
       <c r="E457" s="39"/>
       <c r="F457" s="39" t="s">
@@ -16764,49 +16768,49 @@
         <v>56</v>
       </c>
       <c r="B458" s="39" t="s">
-        <v>744</v>
-      </c>
-      <c r="C458" s="39" t="s">
-        <v>1082</v>
-      </c>
-      <c r="D458" s="39"/>
-      <c r="E458" s="39"/>
-      <c r="F458" s="39" t="s">
-        <v>1126</v>
-      </c>
-      <c r="G458" s="39"/>
-    </row>
-    <row r="459" spans="1:7" ht="60">
+        <v>747</v>
+      </c>
+      <c r="C458" s="40" t="s">
+        <v>600</v>
+      </c>
+      <c r="D458" s="40"/>
+      <c r="E458" s="40"/>
+      <c r="F458" s="40"/>
+      <c r="G458" s="40"/>
+    </row>
+    <row r="459" spans="1:7">
       <c r="A459" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B459" s="39" t="s">
-        <v>1083</v>
-      </c>
-      <c r="C459" s="39" t="s">
-        <v>745</v>
+        <v>748</v>
+      </c>
+      <c r="C459" s="43" t="s">
+        <v>602</v>
       </c>
       <c r="D459" s="39" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="E459" s="39"/>
       <c r="F459" s="39" t="s">
         <v>1126</v>
       </c>
-      <c r="G459" s="39"/>
-    </row>
-    <row r="460" spans="1:7" ht="30">
+      <c r="G459" s="43" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="460" spans="1:7">
       <c r="A460" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B460" s="39" t="s">
-        <v>1084</v>
+        <v>749</v>
       </c>
       <c r="C460" s="39" t="s">
-        <v>1081</v>
+        <v>604</v>
       </c>
       <c r="D460" s="39" t="s">
-        <v>700</v>
+        <v>1065</v>
       </c>
       <c r="E460" s="39"/>
       <c r="F460" s="39" t="s">
@@ -16819,10 +16823,10 @@
         <v>56</v>
       </c>
       <c r="B461" s="39" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="C461" s="40" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="D461" s="40"/>
       <c r="E461" s="40"/>
@@ -16834,152 +16838,97 @@
         <v>56</v>
       </c>
       <c r="B462" s="39" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="C462" s="43" t="s">
-        <v>602</v>
+        <v>570</v>
       </c>
       <c r="D462" s="39" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="E462" s="39"/>
       <c r="F462" s="39" t="s">
         <v>1126</v>
       </c>
       <c r="G462" s="43" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="463" spans="1:7">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="463" spans="1:7" ht="30">
       <c r="A463" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B463" s="39" t="s">
-        <v>749</v>
-      </c>
-      <c r="C463" s="39" t="s">
-        <v>604</v>
+        <v>752</v>
+      </c>
+      <c r="C463" s="43" t="s">
+        <v>645</v>
       </c>
       <c r="D463" s="39" t="s">
-        <v>1065</v>
+        <v>574</v>
       </c>
       <c r="E463" s="39"/>
       <c r="F463" s="39" t="s">
         <v>1126</v>
       </c>
-      <c r="G463" s="39"/>
-    </row>
-    <row r="464" spans="1:7">
+      <c r="G463" s="43"/>
+    </row>
+    <row r="464" spans="1:7" ht="30">
       <c r="A464" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B464" s="39" t="s">
-        <v>750</v>
-      </c>
-      <c r="C464" s="40" t="s">
-        <v>606</v>
-      </c>
-      <c r="D464" s="40"/>
-      <c r="E464" s="40"/>
-      <c r="F464" s="40"/>
-      <c r="G464" s="40"/>
+        <v>753</v>
+      </c>
+      <c r="C464" s="43" t="s">
+        <v>611</v>
+      </c>
+      <c r="D464" s="39" t="s">
+        <v>577</v>
+      </c>
+      <c r="E464" s="39"/>
+      <c r="F464" s="39" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G464" s="43"/>
     </row>
     <row r="465" spans="1:7">
       <c r="A465" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B465" s="39" t="s">
-        <v>751</v>
-      </c>
-      <c r="C465" s="43" t="s">
-        <v>570</v>
+        <v>754</v>
+      </c>
+      <c r="C465" s="39" t="s">
+        <v>613</v>
       </c>
       <c r="D465" s="39" t="s">
-        <v>571</v>
+        <v>1068</v>
       </c>
       <c r="E465" s="39"/>
       <c r="F465" s="39" t="s">
         <v>1126</v>
       </c>
-      <c r="G465" s="43" t="s">
-        <v>1119</v>
-      </c>
+      <c r="G465" s="39"/>
     </row>
     <row r="466" spans="1:7" ht="30">
       <c r="A466" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B466" s="39" t="s">
-        <v>752</v>
-      </c>
-      <c r="C466" s="43" t="s">
-        <v>645</v>
+        <v>755</v>
+      </c>
+      <c r="C466" s="39" t="s">
+        <v>615</v>
       </c>
       <c r="D466" s="39" t="s">
-        <v>574</v>
+        <v>1066</v>
       </c>
       <c r="E466" s="39"/>
       <c r="F466" s="39" t="s">
         <v>1126</v>
       </c>
-      <c r="G466" s="43"/>
-    </row>
-    <row r="467" spans="1:7" ht="30">
-      <c r="A467" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="B467" s="39" t="s">
-        <v>753</v>
-      </c>
-      <c r="C467" s="43" t="s">
-        <v>611</v>
-      </c>
-      <c r="D467" s="39" t="s">
-        <v>577</v>
-      </c>
-      <c r="E467" s="39"/>
-      <c r="F467" s="39" t="s">
-        <v>1126</v>
-      </c>
-      <c r="G467" s="43"/>
-    </row>
-    <row r="468" spans="1:7">
-      <c r="A468" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="B468" s="39" t="s">
-        <v>754</v>
-      </c>
-      <c r="C468" s="39" t="s">
-        <v>613</v>
-      </c>
-      <c r="D468" s="39" t="s">
-        <v>1068</v>
-      </c>
-      <c r="E468" s="39"/>
-      <c r="F468" s="39" t="s">
-        <v>1126</v>
-      </c>
-      <c r="G468" s="39"/>
-    </row>
-    <row r="469" spans="1:7" ht="30">
-      <c r="A469" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="B469" s="39" t="s">
-        <v>755</v>
-      </c>
-      <c r="C469" s="39" t="s">
-        <v>615</v>
-      </c>
-      <c r="D469" s="39" t="s">
-        <v>1066</v>
-      </c>
-      <c r="E469" s="39"/>
-      <c r="F469" s="39" t="s">
-        <v>1126</v>
-      </c>
-      <c r="G469" s="39"/>
+      <c r="G466" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -20397,7 +20346,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:IV27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
